--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED64AED-8104-4091-8284-90EBB9A28A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B306AAE-00DF-49E0-B404-6881674708C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1829,10 +1829,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KOUTAROU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>銀行振込</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2322,6 +2318,14 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUTAROU
+2023/4/20に振込</t>
+    <rPh sb="19" eb="21">
+      <t>フリコミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2753,7 +2757,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4078,8 +4082,8 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4698,7 +4702,7 @@
         <v>128</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -6283,10 +6287,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6313,10 +6317,10 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6343,10 +6347,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6373,10 +6377,10 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6403,10 +6407,10 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6433,10 +6437,10 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6463,10 +6467,10 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6493,10 +6497,10 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6523,10 +6527,10 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -6553,10 +6557,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6583,10 +6587,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6613,10 +6617,10 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6643,10 +6647,10 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6673,16 +6677,16 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G87" s="3">
         <v>44807</v>
@@ -6705,10 +6709,10 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6735,10 +6739,10 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6765,10 +6769,10 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6795,10 +6799,10 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>356</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6825,10 +6829,10 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6855,10 +6859,10 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6885,10 +6889,10 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -6915,10 +6919,10 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -6945,10 +6949,10 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -6975,7 +6979,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I23 K16:K17 K23 I24:J27 J2:J23 H2:H96 I28:K96" xr:uid="{35E37951-42D3-4805-9F20-F5E0E8A5E693}">
       <formula1>"有,無,銀行振込"</formula1>
     </dataValidation>
@@ -7001,10 +7005,10 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
-      <selection activeCell="A55" sqref="A55"/>
-      <selection pane="topRight" activeCell="E59" sqref="E59"/>
+      <selection activeCell="A54" sqref="A54"/>
+      <selection pane="topRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7052,7 +7056,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>40</v>
@@ -7414,7 +7418,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7432,7 +7436,7 @@
         <v>159</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
@@ -7499,7 +7503,7 @@
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7514,10 +7518,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
@@ -7795,7 +7799,7 @@
     </row>
     <row r="9" spans="1:30" s="39" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7813,7 +7817,7 @@
         <v>159</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
@@ -8479,7 +8483,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8497,7 +8501,7 @@
         <v>292</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -8758,7 +8762,7 @@
         <v>260</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -8968,7 +8972,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9246,7 +9250,7 @@
     </row>
     <row r="24" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A24" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9260,10 +9264,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F24" s="46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
@@ -10005,7 +10009,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10023,7 +10027,7 @@
         <v>159</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -10195,7 +10199,7 @@
         <v>161</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
@@ -10803,7 +10807,7 @@
         <v>15</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F40" s="19" t="s">
         <v>153</v>
@@ -10986,7 +10990,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11004,7 +11008,7 @@
         <v>159</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="12"/>
@@ -11077,7 +11081,7 @@
     </row>
     <row r="43" spans="1:30" ht="36">
       <c r="A43" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11092,10 +11096,10 @@
         <v>16</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F43" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="12"/>
@@ -11284,7 +11288,7 @@
         <v>41</v>
       </c>
       <c r="F45" s="73" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="12"/>
@@ -11382,7 +11386,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="12"/>
@@ -11447,7 +11451,7 @@
     </row>
     <row r="47" spans="1:30" ht="36">
       <c r="A47" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B47" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11465,7 +11469,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="12"/>
@@ -11636,7 +11640,7 @@
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11654,7 +11658,7 @@
         <v>159</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="12"/>
@@ -11744,7 +11748,7 @@
         <v>41</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="12"/>
@@ -12025,7 +12029,7 @@
     </row>
     <row r="53" spans="1:30" ht="36">
       <c r="A53" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12040,10 +12044,10 @@
         <v>19</v>
       </c>
       <c r="E53" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="12"/>
@@ -12106,7 +12110,7 @@
       </c>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30">
+    <row r="54" spans="1:30" ht="36">
       <c r="A54" s="9" t="s">
         <v>238</v>
       </c>
@@ -12122,10 +12126,10 @@
         <v>20</v>
       </c>
       <c r="E54" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F54" s="55" t="s">
-        <v>294</v>
+        <v>387</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="12"/>
@@ -12323,10 +12327,10 @@
         <v>20</v>
       </c>
       <c r="E56" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F56" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12407,7 +12411,7 @@
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12425,7 +12429,7 @@
         <v>159</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="12"/>
@@ -12496,7 +12500,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12514,7 +12518,7 @@
         <v>159</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="12"/>
@@ -12585,7 +12589,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12601,8 +12605,8 @@
       <c r="E59" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F59" s="74" t="s">
-        <v>345</v>
+      <c r="F59" s="55" t="s">
+        <v>344</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="12"/>
@@ -12795,7 +12799,7 @@
         <v>159</v>
       </c>
       <c r="F61" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="12"/>
@@ -13361,7 +13365,7 @@
         <v>23</v>
       </c>
       <c r="E67" s="42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>289</v>
@@ -13455,7 +13459,7 @@
       <c r="E68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="74" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="3">
@@ -13628,7 +13632,7 @@
     </row>
     <row r="70" spans="1:30" ht="36">
       <c r="A70" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B70" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13643,10 +13647,10 @@
         <v>24</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F70" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G70" s="3">
         <f t="shared" si="24"/>
@@ -13717,7 +13721,7 @@
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13735,7 +13739,7 @@
         <v>159</v>
       </c>
       <c r="F71" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="24"/>
@@ -13821,7 +13825,7 @@
         <v>159</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="24"/>
@@ -14213,7 +14217,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14231,7 +14235,7 @@
         <v>159</v>
       </c>
       <c r="F76" s="55" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="24"/>
@@ -14306,7 +14310,7 @@
     </row>
     <row r="77" spans="1:30" ht="54">
       <c r="A77" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14324,7 +14328,7 @@
         <v>159</v>
       </c>
       <c r="F77" s="55" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="24"/>
@@ -14571,7 +14575,7 @@
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14588,7 +14592,7 @@
         <v>159</v>
       </c>
       <c r="F80" s="55" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="24"/>
@@ -14962,7 +14966,7 @@
       </c>
       <c r="E84" s="19"/>
       <c r="F84" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G84" s="3">
         <f t="shared" si="24"/>
@@ -15148,7 +15152,7 @@
     </row>
     <row r="86" spans="1:30" ht="36">
       <c r="A86" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15163,10 +15167,10 @@
         <v>28</v>
       </c>
       <c r="E86" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F86" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="24"/>
@@ -15231,7 +15235,7 @@
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15249,7 +15253,7 @@
         <v>41</v>
       </c>
       <c r="F87" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="24"/>
@@ -15413,7 +15417,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15430,7 +15434,7 @@
         <v>159</v>
       </c>
       <c r="F89" s="46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="24"/>
@@ -15614,7 +15618,7 @@
         <v>41</v>
       </c>
       <c r="F91" s="72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="24"/>
@@ -15715,7 +15719,7 @@
         <v>30</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F92" s="53" t="s">
         <v>185</v>
@@ -15824,7 +15828,7 @@
         <v>271</v>
       </c>
       <c r="F93" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G93" s="38">
         <f t="shared" si="24"/>
@@ -15908,7 +15912,7 @@
         <v>159</v>
       </c>
       <c r="F94" s="55" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G94" s="3">
         <f t="shared" si="24"/>
@@ -15995,7 +15999,7 @@
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B95" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16013,7 +16017,7 @@
         <v>159</v>
       </c>
       <c r="F95" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G95" s="3">
         <f t="shared" si="24"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B306AAE-00DF-49E0-B404-6881674708C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608FCD5-884B-422D-BBB3-FBC917FB4908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2590,7 +2590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2755,9 +2755,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7005,10 +7002,10 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="topRight" activeCell="F87" sqref="F87"/>
+      <selection pane="topRight" activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13459,7 +13456,7 @@
       <c r="E68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="74" t="s">
+      <c r="F68" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8608FCD5-884B-422D-BBB3-FBC917FB4908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145221E1-DE3D-4014-9640-F9CB06CBC9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7002,10 +7002,10 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="topRight" activeCell="E88" sqref="E88"/>
+      <selection pane="topRight" activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145221E1-DE3D-4014-9640-F9CB06CBC9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D8A026-DB34-4B62-BF05-4ED961AB3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -4083,17 +4083,17 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4272,7 +4272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
+    <row r="7" spans="1:12" ht="56.25">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.5">
       <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -7005,41 +7005,41 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A54" sqref="A54"/>
-      <selection pane="topRight" activeCell="E91" sqref="E91"/>
+      <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7134,7 +7134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="36">
+    <row r="2" spans="1:30" ht="37.5">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
         <v>283</v>
       </c>
@@ -7498,7 +7498,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>377</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="85.5">
+    <row r="11" spans="1:30" ht="87.75">
       <c r="A11" s="47" t="s">
         <v>174</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="36">
+    <row r="14" spans="1:30" ht="37.5">
       <c r="A14" s="27" t="s">
         <v>162</v>
       </c>
@@ -8739,7 +8739,7 @@
       </c>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
         <v>149</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="36">
+    <row r="21" spans="1:30" ht="37.5">
       <c r="A21" s="9" t="s">
         <v>248</v>
       </c>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="AD23" s="14"/>
     </row>
-    <row r="24" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="24" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A24" s="9" t="s">
         <v>337</v>
       </c>
@@ -9419,7 +9419,7 @@
       </c>
       <c r="AD25" s="14"/>
     </row>
-    <row r="26" spans="1:30" ht="36">
+    <row r="26" spans="1:30" ht="37.5">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -10177,7 +10177,7 @@
       </c>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" spans="1:30" ht="36">
+    <row r="34" spans="1:30" ht="37.5">
       <c r="A34" s="9" t="s">
         <v>87</v>
       </c>
@@ -10788,7 +10788,7 @@
       <c r="AC39" s="25"/>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="36">
+    <row r="40" spans="1:30" ht="37.5">
       <c r="A40" s="27" t="s">
         <v>151</v>
       </c>
@@ -11076,7 +11076,7 @@
       </c>
       <c r="AD42" s="14"/>
     </row>
-    <row r="43" spans="1:30" ht="36">
+    <row r="43" spans="1:30" ht="37.5">
       <c r="A43" s="9" t="s">
         <v>368</v>
       </c>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="1:30" ht="36">
+    <row r="46" spans="1:30" ht="37.5">
       <c r="A46" s="9" t="s">
         <v>275</v>
       </c>
@@ -11446,7 +11446,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="36">
+    <row r="47" spans="1:30" ht="37.5">
       <c r="A47" s="9" t="s">
         <v>382</v>
       </c>
@@ -11726,7 +11726,7 @@
       </c>
       <c r="AD49" s="14"/>
     </row>
-    <row r="50" spans="1:30" ht="36">
+    <row r="50" spans="1:30" ht="37.5">
       <c r="A50" s="27" t="s">
         <v>154</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="36">
+    <row r="53" spans="1:30" ht="37.5">
       <c r="A53" s="9" t="s">
         <v>312</v>
       </c>
@@ -12107,7 +12107,7 @@
       </c>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30" ht="36">
+    <row r="54" spans="1:30" ht="37.5">
       <c r="A54" s="9" t="s">
         <v>238</v>
       </c>
@@ -12307,7 +12307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="36">
+    <row r="56" spans="1:30" ht="37.5">
       <c r="A56" s="27" t="s">
         <v>261</v>
       </c>
@@ -13345,7 +13345,7 @@
       </c>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" ht="36">
+    <row r="67" spans="1:30" ht="37.5">
       <c r="A67" s="9" t="s">
         <v>286</v>
       </c>
@@ -13627,7 +13627,7 @@
       </c>
       <c r="AD69" s="36"/>
     </row>
-    <row r="70" spans="1:30" ht="36">
+    <row r="70" spans="1:30" ht="37.5">
       <c r="A70" s="9" t="s">
         <v>332</v>
       </c>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="72" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A72" s="27" t="s">
         <v>98</v>
       </c>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" ht="54">
+    <row r="77" spans="1:30" ht="56.25">
       <c r="A77" s="9" t="s">
         <v>298</v>
       </c>
@@ -14487,7 +14487,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="36">
+    <row r="79" spans="1:30" ht="37.5">
       <c r="A79" s="9" t="s">
         <v>253</v>
       </c>
@@ -15147,7 +15147,7 @@
       </c>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" ht="36">
+    <row r="86" spans="1:30" ht="37.5">
       <c r="A86" s="9" t="s">
         <v>354</v>
       </c>
@@ -15596,7 +15596,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" ht="36">
+    <row r="91" spans="1:30" ht="37.5">
       <c r="A91" s="27" t="s">
         <v>85</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="36">
+    <row r="92" spans="1:30" ht="37.5">
       <c r="A92" s="9" t="s">
         <v>183</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="36">
+    <row r="93" spans="1:30" ht="37.5">
       <c r="A93" s="27" t="s">
         <v>130</v>
       </c>
@@ -16108,40 +16108,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16377,10 +16377,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16614,9 +16614,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16849,7 +16849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -16874,11 +16874,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D8A026-DB34-4B62-BF05-4ED961AB3DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3101C-33B8-4B23-9534-A1037098437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7004,8 +7004,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
-      <selection activeCell="A54" sqref="A54"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE3101C-33B8-4B23-9534-A1037098437A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359EF56-7587-4623-B332-E21131FE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2590,7 +2590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2756,6 +2756,9 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4083,17 +4086,17 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" customWidth="1"/>
+    <col min="8" max="11" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="44.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4272,7 +4275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="56.25">
+    <row r="7" spans="1:12" ht="54">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="37.5">
+    <row r="15" spans="1:12" ht="36">
       <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
@@ -4664,7 +4667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="37.5">
+    <row r="20" spans="1:12" ht="36">
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="37.5">
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
@@ -4874,7 +4877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="37.5">
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -7002,44 +7005,44 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="topRight" activeCell="E8" sqref="E8"/>
+      <selection pane="topRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7134,7 +7137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="37.5">
+    <row r="2" spans="1:30" ht="36">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
@@ -7321,7 +7324,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A4" s="4" t="s">
         <v>283</v>
       </c>
@@ -7498,7 +7501,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>377</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="87.75">
+    <row r="11" spans="1:30" ht="85.5">
       <c r="A11" s="47" t="s">
         <v>174</v>
       </c>
@@ -8268,7 +8271,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="37.5">
+    <row r="14" spans="1:30" ht="36">
       <c r="A14" s="27" t="s">
         <v>162</v>
       </c>
@@ -8287,7 +8290,7 @@
       <c r="E14" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="74" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
@@ -8739,7 +8742,7 @@
       </c>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
       <c r="A19" s="27" t="s">
         <v>149</v>
       </c>
@@ -8950,7 +8953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="37.5">
+    <row r="21" spans="1:30" ht="36">
       <c r="A21" s="9" t="s">
         <v>248</v>
       </c>
@@ -9245,7 +9248,7 @@
       </c>
       <c r="AD23" s="14"/>
     </row>
-    <row r="24" spans="1:30" s="37" customFormat="1" ht="56.25">
+    <row r="24" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A24" s="9" t="s">
         <v>337</v>
       </c>
@@ -9419,7 +9422,7 @@
       </c>
       <c r="AD25" s="14"/>
     </row>
-    <row r="26" spans="1:30" ht="37.5">
+    <row r="26" spans="1:30" ht="36">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -10177,7 +10180,7 @@
       </c>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" spans="1:30" ht="37.5">
+    <row r="34" spans="1:30" ht="36">
       <c r="A34" s="9" t="s">
         <v>87</v>
       </c>
@@ -10788,7 +10791,7 @@
       <c r="AC39" s="25"/>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="37.5">
+    <row r="40" spans="1:30" ht="36">
       <c r="A40" s="27" t="s">
         <v>151</v>
       </c>
@@ -11076,7 +11079,7 @@
       </c>
       <c r="AD42" s="14"/>
     </row>
-    <row r="43" spans="1:30" ht="37.5">
+    <row r="43" spans="1:30" ht="36">
       <c r="A43" s="9" t="s">
         <v>368</v>
       </c>
@@ -11364,7 +11367,7 @@
       </c>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="1:30" ht="37.5">
+    <row r="46" spans="1:30" ht="36">
       <c r="A46" s="9" t="s">
         <v>275</v>
       </c>
@@ -11446,7 +11449,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="37.5">
+    <row r="47" spans="1:30" ht="36">
       <c r="A47" s="9" t="s">
         <v>382</v>
       </c>
@@ -11726,7 +11729,7 @@
       </c>
       <c r="AD49" s="14"/>
     </row>
-    <row r="50" spans="1:30" ht="37.5">
+    <row r="50" spans="1:30" ht="36">
       <c r="A50" s="27" t="s">
         <v>154</v>
       </c>
@@ -12024,7 +12027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="37.5">
+    <row r="53" spans="1:30" ht="36">
       <c r="A53" s="9" t="s">
         <v>312</v>
       </c>
@@ -12107,7 +12110,7 @@
       </c>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30" ht="37.5">
+    <row r="54" spans="1:30" ht="36">
       <c r="A54" s="9" t="s">
         <v>238</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="37.5">
+    <row r="56" spans="1:30" ht="36">
       <c r="A56" s="27" t="s">
         <v>261</v>
       </c>
@@ -13345,7 +13348,7 @@
       </c>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" ht="37.5">
+    <row r="67" spans="1:30" ht="36">
       <c r="A67" s="9" t="s">
         <v>286</v>
       </c>
@@ -13627,7 +13630,7 @@
       </c>
       <c r="AD69" s="36"/>
     </row>
-    <row r="70" spans="1:30" ht="37.5">
+    <row r="70" spans="1:30" ht="36">
       <c r="A70" s="9" t="s">
         <v>332</v>
       </c>
@@ -13803,7 +13806,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="72" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A72" s="27" t="s">
         <v>98</v>
       </c>
@@ -14305,7 +14308,7 @@
       </c>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" ht="56.25">
+    <row r="77" spans="1:30" ht="54">
       <c r="A77" s="9" t="s">
         <v>298</v>
       </c>
@@ -14487,7 +14490,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="37.5">
+    <row r="79" spans="1:30" ht="36">
       <c r="A79" s="9" t="s">
         <v>253</v>
       </c>
@@ -15147,7 +15150,7 @@
       </c>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" ht="37.5">
+    <row r="86" spans="1:30" ht="36">
       <c r="A86" s="9" t="s">
         <v>354</v>
       </c>
@@ -15596,7 +15599,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" ht="37.5">
+    <row r="91" spans="1:30" ht="36">
       <c r="A91" s="27" t="s">
         <v>85</v>
       </c>
@@ -15700,7 +15703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="37.5">
+    <row r="92" spans="1:30" ht="36">
       <c r="A92" s="9" t="s">
         <v>183</v>
       </c>
@@ -15806,7 +15809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="37.5">
+    <row r="93" spans="1:30" ht="36">
       <c r="A93" s="27" t="s">
         <v>130</v>
       </c>
@@ -16108,40 +16111,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16377,10 +16380,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16614,9 +16617,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16849,7 +16852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -16874,11 +16877,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359EF56-7587-4623-B332-E21131FE5F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F062CCE6-4C9A-4F0D-83D2-A438E5489F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -4086,17 +4086,17 @@
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4275,7 +4275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
+    <row r="7" spans="1:12" ht="56.25">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.5">
       <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -7008,41 +7008,41 @@
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="topRight" activeCell="D21" sqref="D21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7137,7 +7137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="36">
+    <row r="2" spans="1:30" ht="37.5">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
@@ -7324,7 +7324,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
         <v>283</v>
       </c>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>377</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="85.5">
+    <row r="11" spans="1:30" ht="87.75">
       <c r="A11" s="47" t="s">
         <v>174</v>
       </c>
@@ -8271,7 +8271,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="36">
+    <row r="14" spans="1:30" ht="37.5">
       <c r="A14" s="27" t="s">
         <v>162</v>
       </c>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
         <v>149</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="36">
+    <row r="21" spans="1:30" ht="37.5">
       <c r="A21" s="9" t="s">
         <v>248</v>
       </c>
@@ -9248,7 +9248,7 @@
       </c>
       <c r="AD23" s="14"/>
     </row>
-    <row r="24" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="24" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A24" s="9" t="s">
         <v>337</v>
       </c>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="AD25" s="14"/>
     </row>
-    <row r="26" spans="1:30" ht="36">
+    <row r="26" spans="1:30" ht="37.5">
       <c r="A26" s="9" t="s">
         <v>79</v>
       </c>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="AD33" s="14"/>
     </row>
-    <row r="34" spans="1:30" ht="36">
+    <row r="34" spans="1:30" ht="37.5">
       <c r="A34" s="9" t="s">
         <v>87</v>
       </c>
@@ -10791,7 +10791,7 @@
       <c r="AC39" s="25"/>
       <c r="AD39" s="36"/>
     </row>
-    <row r="40" spans="1:30" ht="36">
+    <row r="40" spans="1:30" ht="37.5">
       <c r="A40" s="27" t="s">
         <v>151</v>
       </c>
@@ -11079,7 +11079,7 @@
       </c>
       <c r="AD42" s="14"/>
     </row>
-    <row r="43" spans="1:30" ht="36">
+    <row r="43" spans="1:30" ht="37.5">
       <c r="A43" s="9" t="s">
         <v>368</v>
       </c>
@@ -11367,7 +11367,7 @@
       </c>
       <c r="AD45" s="14"/>
     </row>
-    <row r="46" spans="1:30" ht="36">
+    <row r="46" spans="1:30" ht="37.5">
       <c r="A46" s="9" t="s">
         <v>275</v>
       </c>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="36">
+    <row r="47" spans="1:30" ht="37.5">
       <c r="A47" s="9" t="s">
         <v>382</v>
       </c>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="AD49" s="14"/>
     </row>
-    <row r="50" spans="1:30" ht="36">
+    <row r="50" spans="1:30" ht="37.5">
       <c r="A50" s="27" t="s">
         <v>154</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="36">
+    <row r="53" spans="1:30" ht="37.5">
       <c r="A53" s="9" t="s">
         <v>312</v>
       </c>
@@ -12110,7 +12110,7 @@
       </c>
       <c r="AD53" s="14"/>
     </row>
-    <row r="54" spans="1:30" ht="36">
+    <row r="54" spans="1:30" ht="37.5">
       <c r="A54" s="9" t="s">
         <v>238</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="36">
+    <row r="56" spans="1:30" ht="37.5">
       <c r="A56" s="27" t="s">
         <v>261</v>
       </c>
@@ -13348,7 +13348,7 @@
       </c>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" ht="36">
+    <row r="67" spans="1:30" ht="37.5">
       <c r="A67" s="9" t="s">
         <v>286</v>
       </c>
@@ -13630,7 +13630,7 @@
       </c>
       <c r="AD69" s="36"/>
     </row>
-    <row r="70" spans="1:30" ht="36">
+    <row r="70" spans="1:30" ht="37.5">
       <c r="A70" s="9" t="s">
         <v>332</v>
       </c>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="72" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A72" s="27" t="s">
         <v>98</v>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" ht="54">
+    <row r="77" spans="1:30" ht="56.25">
       <c r="A77" s="9" t="s">
         <v>298</v>
       </c>
@@ -14490,7 +14490,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="36">
+    <row r="79" spans="1:30" ht="37.5">
       <c r="A79" s="9" t="s">
         <v>253</v>
       </c>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" ht="36">
+    <row r="86" spans="1:30" ht="37.5">
       <c r="A86" s="9" t="s">
         <v>354</v>
       </c>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" ht="36">
+    <row r="91" spans="1:30" ht="37.5">
       <c r="A91" s="27" t="s">
         <v>85</v>
       </c>
@@ -15703,7 +15703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="36">
+    <row r="92" spans="1:30" ht="37.5">
       <c r="A92" s="9" t="s">
         <v>183</v>
       </c>
@@ -15809,7 +15809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="36">
+    <row r="93" spans="1:30" ht="37.5">
       <c r="A93" s="27" t="s">
         <v>130</v>
       </c>
@@ -16111,40 +16111,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16380,10 +16380,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16617,9 +16617,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16852,7 +16852,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -16877,11 +16877,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F062CCE6-4C9A-4F0D-83D2-A438E5489F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1923921-24AB-4F96-B450-94ADF4634210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7005,10 +7005,10 @@
   </sheetPr>
   <dimension ref="A1:AD95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="C7" sqref="C7"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1923921-24AB-4F96-B450-94ADF4634210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA17433-76AE-43BD-9B52-0C8E1323A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="391">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2327,6 +2327,17 @@
     <rPh sb="19" eb="21">
       <t>フリコミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白木　一成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issei Shiraki </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3720,8 +3731,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C2AD6B-0E87-4426-B0B3-A475D5A80F6A}" name="コンサル生一覧" displayName="コンサル生一覧" ref="A1:L96" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
-  <autoFilter ref="A1:L96" xr:uid="{7F03DF1E-01AD-4C2E-9F67-DF4403D91058}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{64C2AD6B-0E87-4426-B0B3-A475D5A80F6A}" name="コンサル生一覧" displayName="コンサル生一覧" ref="A1:L97" totalsRowShown="0" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47" totalsRowBorderDxfId="46">
+  <autoFilter ref="A1:L97" xr:uid="{7F03DF1E-01AD-4C2E-9F67-DF4403D91058}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{8E548390-E8F0-4FBC-AD43-EA5157FE5EC6}" name="管理番号" dataDxfId="45"/>
     <tableColumn id="2" xr3:uid="{AD5FD680-D157-405E-A341-E2E1CA7461EA}" name="氏名" dataDxfId="44"/>
@@ -3741,8 +3752,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18FC76BA-5F02-495C-86C5-AAF8D34F07CB}" name="テーブル2" displayName="テーブル2" ref="A1:AD95" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
-  <autoFilter ref="A1:AD95" xr:uid="{3C72EF92-8DE3-43A6-8B0B-E76631716C81}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{18FC76BA-5F02-495C-86C5-AAF8D34F07CB}" name="テーブル2" displayName="テーブル2" ref="A1:AD96" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+  <autoFilter ref="A1:AD96" xr:uid="{3C72EF92-8DE3-43A6-8B0B-E76631716C81}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AD95">
     <sortCondition ref="D1:D95"/>
   </sortState>
@@ -4080,10 +4091,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L96"/>
+  <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6977,10 +6988,40 @@
         <v>64</v>
       </c>
     </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="3">
+        <v>45026</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I23 K16:K17 K23 I24:J27 J2:J23 H2:H96 I28:K96" xr:uid="{35E37951-42D3-4805-9F20-F5E0E8A5E693}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I23 K16:K17 K23 I24:J27 J2:J23 I28:K97 H2:H97" xr:uid="{35E37951-42D3-4805-9F20-F5E0E8A5E693}">
       <formula1>"有,無,銀行振込"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K22 I7 K24:K27 K2:K15 I2:I4" xr:uid="{1C200BBB-6D12-4FA2-8716-31F20573C94D}">
@@ -7003,12 +7044,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD95"/>
+  <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
-      <selection activeCell="C7" sqref="C7"/>
-      <selection pane="topRight" activeCell="F27" sqref="F27"/>
+      <selection activeCell="A98" sqref="A98"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13288,57 +13329,57 @@
         <v>236</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G95" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
+        <f t="shared" ref="G66:G96" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
         <v>44643</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I95" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
+        <f t="shared" ref="I66:I96" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
         <v>44674</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="3">
-        <f t="shared" ref="K66:K95" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
+        <f t="shared" ref="K66:K96" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
         <v>44704</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="3">
-        <f t="shared" ref="M66:M95" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
+        <f t="shared" ref="M66:M96" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
         <v>44735</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O95" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
+        <f t="shared" ref="O66:O96" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
         <v>44765</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q95" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
+        <f t="shared" ref="Q66:Q96" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
         <v>44796</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S95" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
+        <f t="shared" ref="S66:S96" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
         <v>44827</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="3">
-        <f t="shared" ref="U66:U95" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
+        <f t="shared" ref="U66:U96" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
         <v>44857</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="3">
-        <f t="shared" ref="W66:W95" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
+        <f t="shared" ref="W66:W96" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
         <v>44888</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="3">
-        <f t="shared" ref="Y66:Y95" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
+        <f t="shared" ref="Y66:Y96" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
         <v>44918</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="3">
-        <f t="shared" ref="AA66:AA95" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
+        <f t="shared" ref="AA66:AA96" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
         <v>44949</v>
       </c>
       <c r="AB66" s="1"/>
@@ -13905,7 +13946,7 @@
         <v>8</v>
       </c>
       <c r="AC72" s="3">
-        <f t="shared" ref="AC72:AC95" si="35">IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
+        <f t="shared" ref="AC72:AC96" si="35">IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
         <v>45163</v>
       </c>
       <c r="AD72" s="1" t="s">
@@ -16088,10 +16129,101 @@
       </c>
       <c r="AD95" s="14"/>
     </row>
+    <row r="96" spans="1:30">
+      <c r="A96" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
+        <v>白木　一成</v>
+      </c>
+      <c r="C96" s="3">
+        <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
+        <v>45026</v>
+      </c>
+      <c r="D96" s="19">
+        <f>DAY(テーブル2[[#This Row],[支払日]])</f>
+        <v>10</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F96" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="24"/>
+        <v>45056</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96" s="3">
+        <f t="shared" si="25"/>
+        <v>45087</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K96" s="3">
+        <f t="shared" si="26"/>
+        <v>45117</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="27"/>
+        <v>45148</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="28"/>
+        <v>45179</v>
+      </c>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="3">
+        <f t="shared" si="29"/>
+        <v>45209</v>
+      </c>
+      <c r="R96" s="1"/>
+      <c r="S96" s="3">
+        <f t="shared" si="30"/>
+        <v>45240</v>
+      </c>
+      <c r="T96" s="1"/>
+      <c r="U96" s="3">
+        <f t="shared" si="31"/>
+        <v>45270</v>
+      </c>
+      <c r="V96" s="1"/>
+      <c r="W96" s="3">
+        <f t="shared" si="32"/>
+        <v>45301</v>
+      </c>
+      <c r="X96" s="1"/>
+      <c r="Y96" s="3">
+        <f t="shared" si="33"/>
+        <v>45332</v>
+      </c>
+      <c r="Z96" s="1"/>
+      <c r="AA96" s="3">
+        <f t="shared" si="34"/>
+        <v>45361</v>
+      </c>
+      <c r="AB96" s="1"/>
+      <c r="AC96" s="3">
+        <f t="shared" si="35"/>
+        <v>45392</v>
+      </c>
+      <c r="AD96" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X95 AD2:AD95 V2:V95 L2:L95 R2:R95 Z2:Z95 T2:T95 AB2:AB95 P2:P95 J2:J95 N2:N95 H2:H95" xr:uid="{A9F869CE-6634-4612-89BD-8711D33CED5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD96 V2:V96 L2:L96 R2:R96 Z2:Z96 T2:T96 AB2:AB96 P2:P96 J2:J96 N2:N96 H2:H96 X2:X96" xr:uid="{A9F869CE-6634-4612-89BD-8711D33CED5E}">
       <formula1>"有,無"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA17433-76AE-43BD-9B52-0C8E1323A116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930CBA64-B6CB-4A2E-BB42-B71467CF4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2768,7 +2768,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930CBA64-B6CB-4A2E-BB42-B71467CF4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29862CB-5BBD-41BB-9C04-6B921AE7ECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2601,7 +2601,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2767,9 +2767,6 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7046,10 +7043,10 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A98" sqref="A98"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8331,7 +8328,7 @@
       <c r="E14" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="53" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
@@ -10329,7 +10326,7 @@
       <c r="E35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29862CB-5BBD-41BB-9C04-6B921AE7ECE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291E632-CC50-4E09-BB2D-54AB0C0CFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="392">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2338,6 +2338,23 @@
   </si>
   <si>
     <t xml:space="preserve">Issei Shiraki </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3年契約
+3カ月に一回9000円バック</t>
+    <rPh sb="1" eb="4">
+      <t>ネンケイヤク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4090,8 +4107,8 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6985,7 +7002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
         <v>388</v>
       </c>
@@ -6994,7 +7011,9 @@
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
         <v>45026</v>
@@ -7011,13 +7030,13 @@
       <c r="K97" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L97" s="5" t="s">
-        <v>64</v>
+      <c r="L97" s="21" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I23 K16:K17 K23 I24:J27 J2:J23 I28:K97 H2:H97" xr:uid="{35E37951-42D3-4805-9F20-F5E0E8A5E693}">
       <formula1>"有,無,銀行振込"</formula1>
     </dataValidation>
@@ -7043,7 +7062,7 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A98" sqref="A98"/>
       <selection pane="topRight" activeCell="F35" sqref="F35"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5291E632-CC50-4E09-BB2D-54AB0C0CFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B5BE6-F7A6-43E1-8F91-7146E712097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2618,7 +2618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2783,6 +2783,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4107,7 +4110,7 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
@@ -7062,10 +7065,10 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
-      <selection activeCell="A98" sqref="A98"/>
-      <selection pane="topRight" activeCell="F35" sqref="F35"/>
+      <selection activeCell="A62" sqref="A62"/>
+      <selection pane="topRight" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10345,7 +10348,7 @@
       <c r="E35" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G35" s="3">
@@ -12386,7 +12389,7 @@
       <c r="E56" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="74" t="s">
         <v>363</v>
       </c>
       <c r="G56" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B5BE6-F7A6-43E1-8F91-7146E712097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C383E1-6192-4E39-9668-6D7F4DB461EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4110,8 +4110,8 @@
   </sheetPr>
   <dimension ref="A1:L97"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7065,10 +7065,10 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A62" sqref="A62"/>
-      <selection pane="topRight" activeCell="F56" sqref="F56"/>
+      <selection pane="topRight" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13519,7 +13519,7 @@
       <c r="E68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="42" t="s">
+      <c r="F68" s="44" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C383E1-6192-4E39-9668-6D7F4DB461EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5A3CA-9785-41E8-A111-91B8F4366824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2785,7 +2785,7 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7065,10 +7065,10 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A62" sqref="A62"/>
-      <selection pane="topRight" activeCell="F79" sqref="F79"/>
+      <selection pane="topRight" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB5A3CA-9785-41E8-A111-91B8F4366824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EDE92-341C-42CD-AA71-D83024163915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2785,8 +2796,8 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7065,10 +7076,10 @@
   </sheetPr>
   <dimension ref="A1:AD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A62" sqref="A62"/>
-      <selection pane="topRight" activeCell="F53" sqref="F53"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8350,7 +8361,7 @@
       <c r="E14" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="74" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
@@ -12389,7 +12400,7 @@
       <c r="E56" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="55" t="s">
         <v>363</v>
       </c>
       <c r="G56" s="3">
@@ -13519,7 +13530,7 @@
       <c r="E68" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F68" s="44" t="s">
+      <c r="F68" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G68" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4EDE92-341C-42CD-AA71-D83024163915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0749EB-82E4-4B85-9665-09FE2B30444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,17 +24,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2629,7 +2618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2795,9 +2784,6 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7079,7 +7065,7 @@
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A62" sqref="A62"/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8361,7 +8347,7 @@
       <c r="E14" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="74" t="s">
+      <c r="F14" s="53" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0749EB-82E4-4B85-9665-09FE2B30444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28FA538-5D5C-42CD-9E53-BCC111064EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FF7970-113E-4ED5-B7D4-BECF6B28A245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3C782-E516-4BA4-B9DD-14256A0F45C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2635,7 +2635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2739,9 +2739,6 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2770,9 +2767,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2813,6 +2807,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4725,10 +4734,10 @@
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
@@ -5027,7 +5036,7 @@
       <c r="A30" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="69" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="1"/>
@@ -7121,10 +7130,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8700" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F29" sqref="F29"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7273,84 +7282,84 @@
         <v>255</v>
       </c>
       <c r="G2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
+        <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
         <v>44835</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
+        <f t="shared" ref="I2:I33" si="1">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
         <v>44866</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
+        <f t="shared" ref="K2:K33" si="2">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
         <v>44896</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
+        <f t="shared" ref="M2:M33" si="3">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
         <v>44927</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
+        <f t="shared" ref="O2:O33" si="4">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
         <v>44958</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
+        <f t="shared" ref="Q2:Q33" si="5">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
         <v>44986</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
+        <f t="shared" ref="S2:S33" si="6">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
         <v>45017</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
+        <f t="shared" ref="U2:U33" si="7">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
         <v>45047</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
+        <f t="shared" ref="W2:W33" si="8">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
         <v>45078</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
+        <f t="shared" ref="Y2:Y33" si="9">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
         <v>45108</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
+        <f t="shared" ref="AA2:AA33" si="10">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
         <v>45139</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
+        <f t="shared" ref="AC2:AC40" si="11">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
         <v>45170</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -7380,62 +7389,62 @@
         <v>226</v>
       </c>
       <c r="G3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+1,DAY($C3)))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+2,DAY($C3)))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+3,DAY($C3)))</f>
+        <f t="shared" si="2"/>
         <v>44682</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+4,DAY($C3)))</f>
+        <f t="shared" si="3"/>
         <v>44713</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+5,DAY($C3)))</f>
+        <f t="shared" si="4"/>
         <v>44743</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+6,DAY($C3)))</f>
+        <f t="shared" si="5"/>
         <v>44774</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+7,DAY($C3)))</f>
+        <f t="shared" si="6"/>
         <v>44805</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+8,DAY($C3)))</f>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+9,DAY($C3)))</f>
+        <f t="shared" si="8"/>
         <v>44866</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+10,DAY($C3)))</f>
+        <f t="shared" si="9"/>
         <v>44896</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+11,DAY($C3)))</f>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+12,DAY($C3)))</f>
+        <f t="shared" si="11"/>
         <v>44958</v>
       </c>
       <c r="AD3" s="14"/>
@@ -7458,76 +7467,76 @@
       <c r="E4" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>285</v>
       </c>
       <c r="G4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+1,DAY($C4)))</f>
+        <f t="shared" si="0"/>
         <v>44759</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+2,DAY($C4)))</f>
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+3,DAY($C4)))</f>
+        <f t="shared" si="2"/>
         <v>44821</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+4,DAY($C4)))</f>
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+5,DAY($C4)))</f>
+        <f t="shared" si="4"/>
         <v>44882</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+6,DAY($C4)))</f>
+        <f t="shared" si="5"/>
         <v>44912</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+7,DAY($C4)))</f>
+        <f t="shared" si="6"/>
         <v>44943</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+8,DAY($C4)))</f>
+        <f t="shared" si="7"/>
         <v>44974</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+9,DAY($C4)))</f>
+        <f t="shared" si="8"/>
         <v>45002</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+10,DAY($C4)))</f>
+        <f t="shared" si="9"/>
         <v>45033</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+11,DAY($C4)))</f>
+        <f t="shared" si="10"/>
         <v>45063</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+12,DAY($C4)))</f>
+        <f t="shared" si="11"/>
         <v>45094</v>
       </c>
       <c r="AD4" s="1"/>
@@ -7551,68 +7560,68 @@
       <c r="E5" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="51" t="s">
         <v>361</v>
       </c>
       <c r="G5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+1,DAY($C5)))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+2,DAY($C5)))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+3,DAY($C5)))</f>
+        <f t="shared" si="2"/>
         <v>44958</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+4,DAY($C5)))</f>
+        <f t="shared" si="3"/>
         <v>44986</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+5,DAY($C5)))</f>
+        <f t="shared" si="4"/>
         <v>45017</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+6,DAY($C5)))</f>
+        <f t="shared" si="5"/>
         <v>45047</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+7,DAY($C5)))</f>
+        <f t="shared" si="6"/>
         <v>45078</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+8,DAY($C5)))</f>
+        <f t="shared" si="7"/>
         <v>45108</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+9,DAY($C5)))</f>
+        <f t="shared" si="8"/>
         <v>45139</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+10,DAY($C5)))</f>
+        <f t="shared" si="9"/>
         <v>45170</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+11,DAY($C5)))</f>
+        <f t="shared" si="10"/>
         <v>45200</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+12,DAY($C5)))</f>
+        <f t="shared" si="11"/>
         <v>45231</v>
       </c>
       <c r="AD5" s="18"/>
@@ -7633,77 +7642,77 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>1</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="51" t="s">
         <v>379</v>
       </c>
       <c r="G6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+1,DAY($C6)))</f>
+        <f t="shared" si="0"/>
         <v>44805</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+2,DAY($C6)))</f>
+        <f t="shared" si="1"/>
         <v>44835</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+3,DAY($C6)))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+4,DAY($C6)))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+5,DAY($C6)))</f>
+        <f t="shared" si="4"/>
         <v>44927</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+6,DAY($C6)))</f>
+        <f t="shared" si="5"/>
         <v>44958</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+7,DAY($C6)))</f>
+        <f t="shared" si="6"/>
         <v>44986</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+8,DAY($C6)))</f>
+        <f t="shared" si="7"/>
         <v>45017</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+9,DAY($C6)))</f>
+        <f t="shared" si="8"/>
         <v>45047</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+10,DAY($C6)))</f>
+        <f t="shared" si="9"/>
         <v>45078</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+11,DAY($C6)))</f>
+        <f t="shared" si="10"/>
         <v>45108</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+12,DAY($C6)))</f>
+        <f t="shared" si="11"/>
         <v>45139</v>
       </c>
       <c r="AD6" s="10"/>
@@ -7726,88 +7735,88 @@
       <c r="E7" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="67" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+1,DAY($C7)))</f>
+        <f t="shared" si="0"/>
         <v>44836</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+2,DAY($C7)))</f>
+        <f t="shared" si="1"/>
         <v>44867</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+3,DAY($C7)))</f>
+        <f t="shared" si="2"/>
         <v>44897</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+4,DAY($C7)))</f>
+        <f t="shared" si="3"/>
         <v>44928</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+5,DAY($C7)))</f>
+        <f t="shared" si="4"/>
         <v>44959</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+6,DAY($C7)))</f>
+        <f t="shared" si="5"/>
         <v>44987</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+7,DAY($C7)))</f>
+        <f t="shared" si="6"/>
         <v>45018</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+8,DAY($C7)))</f>
+        <f t="shared" si="7"/>
         <v>45048</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+9,DAY($C7)))</f>
+        <f t="shared" si="8"/>
         <v>45079</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+10,DAY($C7)))</f>
+        <f t="shared" si="9"/>
         <v>45109</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+11,DAY($C7)))</f>
+        <f t="shared" si="10"/>
         <v>45140</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+12,DAY($C7)))</f>
+        <f t="shared" si="11"/>
         <v>45171</v>
       </c>
       <c r="AD7" s="14" t="s">
@@ -7837,78 +7846,78 @@
         <v>258</v>
       </c>
       <c r="G8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+1,DAY($C8)))</f>
+        <f t="shared" si="0"/>
         <v>44683</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+2,DAY($C8)))</f>
+        <f t="shared" si="1"/>
         <v>44714</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+3,DAY($C8)))</f>
+        <f t="shared" si="2"/>
         <v>44744</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+4,DAY($C8)))</f>
+        <f t="shared" si="3"/>
         <v>44775</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+5,DAY($C8)))</f>
+        <f t="shared" si="4"/>
         <v>44806</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+6,DAY($C8)))</f>
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+7,DAY($C8)))</f>
+        <f t="shared" si="6"/>
         <v>44867</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+8,DAY($C8)))</f>
+        <f t="shared" si="7"/>
         <v>44897</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+9,DAY($C8)))</f>
+        <f t="shared" si="8"/>
         <v>44928</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+10,DAY($C8)))</f>
+        <f t="shared" si="9"/>
         <v>44959</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+11,DAY($C8)))</f>
+        <f t="shared" si="10"/>
         <v>44987</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+12,DAY($C8)))</f>
+        <f t="shared" si="11"/>
         <v>45018</v>
       </c>
       <c r="AD8" s="1"/>
@@ -7936,64 +7945,64 @@
         <v>336</v>
       </c>
       <c r="G9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+1,DAY($C9)))</f>
+        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+2,DAY($C9)))</f>
+        <f t="shared" si="1"/>
         <v>44868</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+3,DAY($C9)))</f>
+        <f t="shared" si="2"/>
         <v>44898</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+4,DAY($C9)))</f>
+        <f t="shared" si="3"/>
         <v>44929</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+5,DAY($C9)))</f>
+        <f t="shared" si="4"/>
         <v>44960</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+6,DAY($C9)))</f>
+        <f t="shared" si="5"/>
         <v>44988</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+7,DAY($C9)))</f>
+        <f t="shared" si="6"/>
         <v>45019</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+8,DAY($C9)))</f>
+        <f t="shared" si="7"/>
         <v>45049</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+9,DAY($C9)))</f>
+        <f t="shared" si="8"/>
         <v>45080</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+10,DAY($C9)))</f>
+        <f t="shared" si="9"/>
         <v>45110</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+11,DAY($C9)))</f>
+        <f t="shared" si="10"/>
         <v>45141</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+12,DAY($C9)))</f>
+        <f t="shared" si="11"/>
         <v>45172</v>
       </c>
       <c r="AD9" s="1"/>
@@ -8002,11 +8011,11 @@
       <c r="A10" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="66" t="str">
+      <c r="B10" s="64" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>徳山　和也</v>
       </c>
-      <c r="C10" s="67">
+      <c r="C10" s="65">
         <v>44869</v>
       </c>
       <c r="D10" s="19">
@@ -8020,84 +8029,84 @@
         <v>173</v>
       </c>
       <c r="G10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+1,DAY($C10)))</f>
+        <f t="shared" si="0"/>
         <v>44899</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+2,DAY($C10)))</f>
+        <f t="shared" si="1"/>
         <v>44930</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+3,DAY($C10)))</f>
+        <f t="shared" si="2"/>
         <v>44961</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+4,DAY($C10)))</f>
+        <f t="shared" si="3"/>
         <v>44989</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+5,DAY($C10)))</f>
+        <f t="shared" si="4"/>
         <v>45020</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+6,DAY($C10)))</f>
+        <f t="shared" si="5"/>
         <v>45050</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+7,DAY($C10)))</f>
+        <f t="shared" si="6"/>
         <v>45081</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+8,DAY($C10)))</f>
+        <f t="shared" si="7"/>
         <v>45111</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+9,DAY($C10)))</f>
+        <f t="shared" si="8"/>
         <v>45142</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+10,DAY($C10)))</f>
+        <f t="shared" si="9"/>
         <v>45173</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AA10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+11,DAY($C10)))</f>
+        <f t="shared" si="10"/>
         <v>45203</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+12,DAY($C10)))</f>
+        <f t="shared" si="11"/>
         <v>45234</v>
       </c>
       <c r="AD10" s="18" t="s">
@@ -8108,11 +8117,11 @@
       <c r="A11" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="65" t="str">
+      <c r="B11" s="63" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>奥寺　響</v>
       </c>
-      <c r="C11" s="50">
+      <c r="C11" s="49">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44504</v>
       </c>
@@ -8120,72 +8129,72 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>4</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+1,DAY($C11)))</f>
+      <c r="G11" s="49">
+        <f t="shared" si="0"/>
         <v>44534</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+2,DAY($C11)))</f>
+      <c r="H11" s="50"/>
+      <c r="I11" s="49">
+        <f t="shared" si="1"/>
         <v>44565</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+3,DAY($C11)))</f>
+      <c r="J11" s="62"/>
+      <c r="K11" s="49">
+        <f t="shared" si="2"/>
         <v>44596</v>
       </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+4,DAY($C11)))</f>
+      <c r="L11" s="50"/>
+      <c r="M11" s="49">
+        <f t="shared" si="3"/>
         <v>44624</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+5,DAY($C11)))</f>
+      <c r="N11" s="50"/>
+      <c r="O11" s="49">
+        <f t="shared" si="4"/>
         <v>44655</v>
       </c>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+6,DAY($C11)))</f>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="49">
+        <f t="shared" si="5"/>
         <v>44685</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+7,DAY($C11)))</f>
+      <c r="R11" s="50"/>
+      <c r="S11" s="49">
+        <f t="shared" si="6"/>
         <v>44716</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+8,DAY($C11)))</f>
+      <c r="T11" s="50"/>
+      <c r="U11" s="49">
+        <f t="shared" si="7"/>
         <v>44746</v>
       </c>
-      <c r="V11" s="51"/>
-      <c r="W11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+9,DAY($C11)))</f>
+      <c r="V11" s="50"/>
+      <c r="W11" s="49">
+        <f t="shared" si="8"/>
         <v>44777</v>
       </c>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+10,DAY($C11)))</f>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="49">
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+11,DAY($C11)))</f>
+      <c r="Z11" s="50"/>
+      <c r="AA11" s="49">
+        <f t="shared" si="10"/>
         <v>44838</v>
       </c>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="50">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+12,DAY($C11)))</f>
+      <c r="AB11" s="50"/>
+      <c r="AC11" s="49">
+        <f t="shared" si="11"/>
         <v>44869</v>
       </c>
-      <c r="AD11" s="70"/>
+      <c r="AD11" s="68"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="9" t="s">
@@ -8208,84 +8217,84 @@
         <v>188</v>
       </c>
       <c r="G12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+1,DAY($C12)))</f>
+        <f t="shared" si="0"/>
         <v>44565</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+2,DAY($C12)))</f>
+        <f t="shared" si="1"/>
         <v>44596</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+3,DAY($C12)))</f>
+        <f t="shared" si="2"/>
         <v>44624</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+4,DAY($C12)))</f>
+        <f t="shared" si="3"/>
         <v>44655</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+5,DAY($C12)))</f>
+        <f t="shared" si="4"/>
         <v>44685</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+6,DAY($C12)))</f>
+        <f t="shared" si="5"/>
         <v>44716</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+7,DAY($C12)))</f>
+        <f t="shared" si="6"/>
         <v>44746</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+8,DAY($C12)))</f>
+        <f t="shared" si="7"/>
         <v>44777</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+9,DAY($C12)))</f>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+10,DAY($C12)))</f>
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+11,DAY($C12)))</f>
+        <f t="shared" si="10"/>
         <v>44869</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+12,DAY($C12)))</f>
+        <f t="shared" si="11"/>
         <v>44899</v>
       </c>
       <c r="AD12" s="1" t="s">
@@ -8315,74 +8324,74 @@
         <v>274</v>
       </c>
       <c r="G13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+1,DAY($C13)))</f>
+        <f t="shared" si="0"/>
         <v>44746</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+2,DAY($C13)))</f>
+        <f t="shared" si="1"/>
         <v>44777</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+3,DAY($C13)))</f>
+        <f t="shared" si="2"/>
         <v>44808</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+4,DAY($C13)))</f>
+        <f t="shared" si="3"/>
         <v>44838</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+5,DAY($C13)))</f>
+        <f t="shared" si="4"/>
         <v>44869</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+6,DAY($C13)))</f>
+        <f t="shared" si="5"/>
         <v>44899</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+7,DAY($C13)))</f>
+        <f t="shared" si="6"/>
         <v>44930</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+8,DAY($C13)))</f>
+        <f t="shared" si="7"/>
         <v>44961</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+9,DAY($C13)))</f>
+        <f t="shared" si="8"/>
         <v>44989</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+10,DAY($C13)))</f>
+        <f t="shared" si="9"/>
         <v>45020</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+11,DAY($C13)))</f>
+        <f t="shared" si="10"/>
         <v>45050</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+12,DAY($C13)))</f>
+        <f t="shared" si="11"/>
         <v>45081</v>
       </c>
       <c r="AD13" s="14"/>
@@ -8399,95 +8408,95 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44475</v>
       </c>
-      <c r="D14" s="53">
+      <c r="D14" s="52">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>6</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="78" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+1,DAY($C14)))</f>
+        <f t="shared" si="0"/>
         <v>44506</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+2,DAY($C14)))</f>
+        <f t="shared" si="1"/>
         <v>44536</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+3,DAY($C14)))</f>
+        <f t="shared" si="2"/>
         <v>44567</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+4,DAY($C14)))</f>
+        <f t="shared" si="3"/>
         <v>44598</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+5,DAY($C14)))</f>
+        <f t="shared" si="4"/>
         <v>44626</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+6,DAY($C14)))</f>
+        <f t="shared" si="5"/>
         <v>44657</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+7,DAY($C14)))</f>
+        <f t="shared" si="6"/>
         <v>44687</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+8,DAY($C14)))</f>
+        <f t="shared" si="7"/>
         <v>44718</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+9,DAY($C14)))</f>
+        <f t="shared" si="8"/>
         <v>44748</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+10,DAY($C14)))</f>
+        <f t="shared" si="9"/>
         <v>44779</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+11,DAY($C14)))</f>
+        <f t="shared" si="10"/>
         <v>44810</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+12,DAY($C14)))</f>
+        <f t="shared" si="11"/>
         <v>44840</v>
       </c>
       <c r="AD14" s="14" t="s">
@@ -8517,82 +8526,82 @@
         <v>230</v>
       </c>
       <c r="G15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+1,DAY($C15)))</f>
+        <f t="shared" si="0"/>
         <v>44626</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+2,DAY($C15)))</f>
+        <f t="shared" si="1"/>
         <v>44657</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+3,DAY($C15)))</f>
+        <f t="shared" si="2"/>
         <v>44687</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+4,DAY($C15)))</f>
+        <f t="shared" si="3"/>
         <v>44718</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+5,DAY($C15)))</f>
+        <f t="shared" si="4"/>
         <v>44748</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+6,DAY($C15)))</f>
+        <f t="shared" si="5"/>
         <v>44779</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+7,DAY($C15)))</f>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+8,DAY($C15)))</f>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+9,DAY($C15)))</f>
+        <f t="shared" si="8"/>
         <v>44871</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+10,DAY($C15)))</f>
+        <f t="shared" si="9"/>
         <v>44901</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+11,DAY($C15)))</f>
+        <f t="shared" si="10"/>
         <v>44932</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+12,DAY($C15)))</f>
+        <f t="shared" si="11"/>
         <v>44963</v>
       </c>
       <c r="AD15" s="14"/>
@@ -8620,62 +8629,62 @@
         <v>305</v>
       </c>
       <c r="G16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+1,DAY($C16)))</f>
+        <f t="shared" si="0"/>
         <v>44779</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+2,DAY($C16)))</f>
+        <f t="shared" si="1"/>
         <v>44810</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+3,DAY($C16)))</f>
+        <f t="shared" si="2"/>
         <v>44840</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+4,DAY($C16)))</f>
+        <f t="shared" si="3"/>
         <v>44871</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+5,DAY($C16)))</f>
+        <f t="shared" si="4"/>
         <v>44901</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+6,DAY($C16)))</f>
+        <f t="shared" si="5"/>
         <v>44932</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+7,DAY($C16)))</f>
+        <f t="shared" si="6"/>
         <v>44963</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+8,DAY($C16)))</f>
+        <f t="shared" si="7"/>
         <v>44991</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+9,DAY($C16)))</f>
+        <f t="shared" si="8"/>
         <v>45022</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+10,DAY($C16)))</f>
+        <f t="shared" si="9"/>
         <v>45052</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+11,DAY($C16)))</f>
+        <f t="shared" si="10"/>
         <v>45083</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+12,DAY($C16)))</f>
+        <f t="shared" si="11"/>
         <v>45113</v>
       </c>
       <c r="AD16" s="14"/>
@@ -8696,81 +8705,81 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="79" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>165</v>
       </c>
       <c r="G17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+1,DAY($C17)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+2,DAY($C17)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+3,DAY($C17)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+4,DAY($C17)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+5,DAY($C17)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+6,DAY($C17)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+7,DAY($C17)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+8,DAY($C17)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+9,DAY($C17)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+10,DAY($C17)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+11,DAY($C17)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+12,DAY($C17)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD17" s="14"/>
@@ -8791,69 +8800,69 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="79" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+1,DAY($C18)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+2,DAY($C18)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+3,DAY($C18)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+4,DAY($C18)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+5,DAY($C18)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+6,DAY($C18)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+7,DAY($C18)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+8,DAY($C18)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+9,DAY($C18)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+10,DAY($C18)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+11,DAY($C18)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+12,DAY($C18)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD18" s="1"/>
@@ -8874,91 +8883,91 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>8</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="80" t="s">
         <v>260</v>
       </c>
       <c r="F19" s="44" t="s">
         <v>340</v>
       </c>
       <c r="G19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+1,DAY($C19)))</f>
+        <f t="shared" si="0"/>
         <v>44477</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+2,DAY($C19)))</f>
+        <f t="shared" si="1"/>
         <v>44508</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+3,DAY($C19)))</f>
+        <f t="shared" si="2"/>
         <v>44538</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+4,DAY($C19)))</f>
+        <f t="shared" si="3"/>
         <v>44569</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+5,DAY($C19)))</f>
+        <f t="shared" si="4"/>
         <v>44600</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+6,DAY($C19)))</f>
+        <f t="shared" si="5"/>
         <v>44628</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+7,DAY($C19)))</f>
+        <f t="shared" si="6"/>
         <v>44659</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+8,DAY($C19)))</f>
+        <f t="shared" si="7"/>
         <v>44689</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+9,DAY($C19)))</f>
+        <f t="shared" si="8"/>
         <v>44720</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+10,DAY($C19)))</f>
+        <f t="shared" si="9"/>
         <v>44750</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+11,DAY($C19)))</f>
+        <f t="shared" si="10"/>
         <v>44781</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+12,DAY($C19)))</f>
+        <f t="shared" si="11"/>
         <v>44812</v>
       </c>
       <c r="AD19" s="1"/>
@@ -8985,84 +8994,84 @@
         <v>192</v>
       </c>
       <c r="G20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+1,DAY($C20)))</f>
+        <f t="shared" si="0"/>
         <v>44568</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+2,DAY($C20)))</f>
+        <f t="shared" si="1"/>
         <v>44599</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+3,DAY($C20)))</f>
+        <f t="shared" si="2"/>
         <v>44627</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+4,DAY($C20)))</f>
+        <f t="shared" si="3"/>
         <v>44658</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+5,DAY($C20)))</f>
+        <f t="shared" si="4"/>
         <v>44688</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+6,DAY($C20)))</f>
+        <f t="shared" si="5"/>
         <v>44719</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+7,DAY($C20)))</f>
+        <f t="shared" si="6"/>
         <v>44749</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+8,DAY($C20)))</f>
+        <f t="shared" si="7"/>
         <v>44780</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+9,DAY($C20)))</f>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+10,DAY($C20)))</f>
+        <f t="shared" si="9"/>
         <v>44841</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+11,DAY($C20)))</f>
+        <f t="shared" si="10"/>
         <v>44872</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+12,DAY($C20)))</f>
+        <f t="shared" si="11"/>
         <v>44902</v>
       </c>
       <c r="AD20" s="1" t="s">
@@ -9084,87 +9093,87 @@
       <c r="D21" s="19">
         <v>8</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="79" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
         <v>386</v>
       </c>
       <c r="G21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+1,DAY($C21)))</f>
+        <f t="shared" si="0"/>
         <v>44676</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+2,DAY($C21)))</f>
+        <f t="shared" si="1"/>
         <v>44706</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+3,DAY($C21)))</f>
+        <f t="shared" si="2"/>
         <v>44737</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+4,DAY($C21)))</f>
+        <f t="shared" si="3"/>
         <v>44767</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+5,DAY($C21)))</f>
+        <f t="shared" si="4"/>
         <v>44798</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+6,DAY($C21)))</f>
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+7,DAY($C21)))</f>
+        <f t="shared" si="6"/>
         <v>44859</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+8,DAY($C21)))</f>
+        <f t="shared" si="7"/>
         <v>44890</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+9,DAY($C21)))</f>
+        <f t="shared" si="8"/>
         <v>44920</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+10,DAY($C21)))</f>
+        <f t="shared" si="9"/>
         <v>44951</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+11,DAY($C21)))</f>
+        <f t="shared" si="10"/>
         <v>44982</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+12,DAY($C21)))</f>
+        <f t="shared" si="11"/>
         <v>45010</v>
       </c>
       <c r="AD21" s="1"/>
@@ -9190,72 +9199,72 @@
         <v>78</v>
       </c>
       <c r="G22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+1,DAY($C22)))</f>
+        <f t="shared" si="0"/>
         <v>44781</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+2,DAY($C22)))</f>
+        <f t="shared" si="1"/>
         <v>44812</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+3,DAY($C22)))</f>
+        <f t="shared" si="2"/>
         <v>44842</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+4,DAY($C22)))</f>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+5,DAY($C22)))</f>
+        <f t="shared" si="4"/>
         <v>44903</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+6,DAY($C22)))</f>
+        <f t="shared" si="5"/>
         <v>44934</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+7,DAY($C22)))</f>
+        <f t="shared" si="6"/>
         <v>44965</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+8,DAY($C22)))</f>
+        <f t="shared" si="7"/>
         <v>44993</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+9,DAY($C22)))</f>
+        <f t="shared" si="8"/>
         <v>45024</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+10,DAY($C22)))</f>
+        <f t="shared" si="9"/>
         <v>45054</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+11,DAY($C22)))</f>
+        <f t="shared" si="10"/>
         <v>45085</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+12,DAY($C22)))</f>
+        <f t="shared" si="11"/>
         <v>45115</v>
       </c>
       <c r="AD22" s="1"/>
@@ -9283,62 +9292,62 @@
         <v>394</v>
       </c>
       <c r="G23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+1,DAY($C23)))</f>
+        <f t="shared" si="0"/>
         <v>45086</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+2,DAY($C23)))</f>
+        <f t="shared" si="1"/>
         <v>45116</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+3,DAY($C23)))</f>
+        <f t="shared" si="2"/>
         <v>45147</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+4,DAY($C23)))</f>
+        <f t="shared" si="3"/>
         <v>45178</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+5,DAY($C23)))</f>
+        <f t="shared" si="4"/>
         <v>45208</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+6,DAY($C23)))</f>
+        <f t="shared" si="5"/>
         <v>45239</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+7,DAY($C23)))</f>
+        <f t="shared" si="6"/>
         <v>45269</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+8,DAY($C23)))</f>
+        <f t="shared" si="7"/>
         <v>45300</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+9,DAY($C23)))</f>
+        <f t="shared" si="8"/>
         <v>45331</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+10,DAY($C23)))</f>
+        <f t="shared" si="9"/>
         <v>45360</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+11,DAY($C23)))</f>
+        <f t="shared" si="10"/>
         <v>45391</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+12,DAY($C23)))</f>
+        <f t="shared" si="11"/>
         <v>45421</v>
       </c>
       <c r="AD23" s="14"/>
@@ -9365,84 +9374,84 @@
         <v>206</v>
       </c>
       <c r="G24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+1,DAY($C24)))</f>
+        <f t="shared" si="0"/>
         <v>44607</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+2,DAY($C24)))</f>
+        <f t="shared" si="1"/>
         <v>44635</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+3,DAY($C24)))</f>
+        <f t="shared" si="2"/>
         <v>44666</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+4,DAY($C24)))</f>
+        <f t="shared" si="3"/>
         <v>44696</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+5,DAY($C24)))</f>
+        <f t="shared" si="4"/>
         <v>44727</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+6,DAY($C24)))</f>
+        <f t="shared" si="5"/>
         <v>44757</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+7,DAY($C24)))</f>
+        <f t="shared" si="6"/>
         <v>44788</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+8,DAY($C24)))</f>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+9,DAY($C24)))</f>
+        <f t="shared" si="8"/>
         <v>44849</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+10,DAY($C24)))</f>
+        <f t="shared" si="9"/>
         <v>44880</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+11,DAY($C24)))</f>
+        <f t="shared" si="10"/>
         <v>44910</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+12,DAY($C24)))</f>
+        <f t="shared" si="11"/>
         <v>44941</v>
       </c>
       <c r="AD24" s="1"/>
@@ -9469,62 +9478,62 @@
         <v>321</v>
       </c>
       <c r="G25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+1,DAY($C25)))</f>
+        <f t="shared" si="0"/>
         <v>45209</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+2,DAY($C25)))</f>
+        <f t="shared" si="1"/>
         <v>45240</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+3,DAY($C25)))</f>
+        <f t="shared" si="2"/>
         <v>45270</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+4,DAY($C25)))</f>
+        <f t="shared" si="3"/>
         <v>45301</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+5,DAY($C25)))</f>
+        <f t="shared" si="4"/>
         <v>45332</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+6,DAY($C25)))</f>
+        <f t="shared" si="5"/>
         <v>45361</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+7,DAY($C25)))</f>
+        <f t="shared" si="6"/>
         <v>45392</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+8,DAY($C25)))</f>
+        <f t="shared" si="7"/>
         <v>45422</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+9,DAY($C25)))</f>
+        <f t="shared" si="8"/>
         <v>45453</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+10,DAY($C25)))</f>
+        <f t="shared" si="9"/>
         <v>45483</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+11,DAY($C25)))</f>
+        <f t="shared" si="10"/>
         <v>45514</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+12,DAY($C25)))</f>
+        <f t="shared" si="11"/>
         <v>45545</v>
       </c>
       <c r="AD25" s="14"/>
@@ -9552,70 +9561,70 @@
         <v>390</v>
       </c>
       <c r="G26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+1,DAY($C26)))</f>
+        <f t="shared" si="0"/>
         <v>45056</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+2,DAY($C26)))</f>
+        <f t="shared" si="1"/>
         <v>45087</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+3,DAY($C26)))</f>
+        <f t="shared" si="2"/>
         <v>45117</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+4,DAY($C26)))</f>
+        <f t="shared" si="3"/>
         <v>45148</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+5,DAY($C26)))</f>
+        <f t="shared" si="4"/>
         <v>45179</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+6,DAY($C26)))</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+7,DAY($C26)))</f>
+        <f t="shared" si="6"/>
         <v>45240</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+8,DAY($C26)))</f>
+        <f t="shared" si="7"/>
         <v>45270</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+9,DAY($C26)))</f>
+        <f t="shared" si="8"/>
         <v>45301</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+10,DAY($C26)))</f>
+        <f t="shared" si="9"/>
         <v>45332</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+11,DAY($C26)))</f>
+        <f t="shared" si="10"/>
         <v>45361</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+12,DAY($C26)))</f>
+        <f t="shared" si="11"/>
         <v>45392</v>
       </c>
       <c r="AD26" s="14"/>
@@ -9642,72 +9651,72 @@
         <v>70</v>
       </c>
       <c r="G27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+1,DAY($C27)))</f>
+        <f t="shared" si="0"/>
         <v>44753</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+2,DAY($C27)))</f>
+        <f t="shared" si="1"/>
         <v>44784</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+3,DAY($C27)))</f>
+        <f t="shared" si="2"/>
         <v>44815</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+4,DAY($C27)))</f>
+        <f t="shared" si="3"/>
         <v>44845</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+5,DAY($C27)))</f>
+        <f t="shared" si="4"/>
         <v>44876</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+6,DAY($C27)))</f>
+        <f t="shared" si="5"/>
         <v>44906</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+7,DAY($C27)))</f>
+        <f t="shared" si="6"/>
         <v>44937</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+8,DAY($C27)))</f>
+        <f t="shared" si="7"/>
         <v>44968</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+9,DAY($C27)))</f>
+        <f t="shared" si="8"/>
         <v>44996</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+10,DAY($C27)))</f>
+        <f t="shared" si="9"/>
         <v>45027</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+11,DAY($C27)))</f>
+        <f t="shared" si="10"/>
         <v>45057</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+12,DAY($C27)))</f>
+        <f t="shared" si="11"/>
         <v>45088</v>
       </c>
       <c r="AD27" s="14"/>
@@ -9734,70 +9743,70 @@
         <v>81</v>
       </c>
       <c r="G28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+1,DAY($C28)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+2,DAY($C28)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+3,DAY($C28)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+4,DAY($C28)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+5,DAY($C28)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+6,DAY($C28)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+7,DAY($C28)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+8,DAY($C28)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+9,DAY($C28)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+10,DAY($C28)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+11,DAY($C28)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+12,DAY($C28)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD28" s="1"/>
@@ -9817,79 +9826,79 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>11</v>
       </c>
-      <c r="E29" s="77" t="s">
+      <c r="E29" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>84</v>
       </c>
       <c r="G29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+1,DAY($C29)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+2,DAY($C29)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+3,DAY($C29)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+4,DAY($C29)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+5,DAY($C29)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+6,DAY($C29)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+7,DAY($C29)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+8,DAY($C29)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+9,DAY($C29)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+10,DAY($C29)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+11,DAY($C29)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+12,DAY($C29)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD29" s="1"/>
@@ -9917,84 +9926,84 @@
         <v>97</v>
       </c>
       <c r="G30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+1,DAY($C30)))</f>
+        <f t="shared" si="0"/>
         <v>44603</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+2,DAY($C30)))</f>
+        <f t="shared" si="1"/>
         <v>44631</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+3,DAY($C30)))</f>
+        <f t="shared" si="2"/>
         <v>44662</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+4,DAY($C30)))</f>
+        <f t="shared" si="3"/>
         <v>44692</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+5,DAY($C30)))</f>
+        <f t="shared" si="4"/>
         <v>44723</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+6,DAY($C30)))</f>
+        <f t="shared" si="5"/>
         <v>44753</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+7,DAY($C30)))</f>
+        <f t="shared" si="6"/>
         <v>44784</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+8,DAY($C30)))</f>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+9,DAY($C30)))</f>
+        <f t="shared" si="8"/>
         <v>44845</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+10,DAY($C30)))</f>
+        <f t="shared" si="9"/>
         <v>44876</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+11,DAY($C30)))</f>
+        <f t="shared" si="10"/>
         <v>44906</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+12,DAY($C30)))</f>
+        <f t="shared" si="11"/>
         <v>44937</v>
       </c>
       <c r="AD30" s="1"/>
@@ -10022,80 +10031,80 @@
         <v>244</v>
       </c>
       <c r="G31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+1,DAY($C31)))</f>
+        <f t="shared" si="0"/>
         <v>44662</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+2,DAY($C31)))</f>
+        <f t="shared" si="1"/>
         <v>44692</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+3,DAY($C31)))</f>
+        <f t="shared" si="2"/>
         <v>44723</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+4,DAY($C31)))</f>
+        <f t="shared" si="3"/>
         <v>44753</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+5,DAY($C31)))</f>
+        <f t="shared" si="4"/>
         <v>44784</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+6,DAY($C31)))</f>
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+7,DAY($C31)))</f>
+        <f t="shared" si="6"/>
         <v>44845</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+8,DAY($C31)))</f>
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+9,DAY($C31)))</f>
+        <f t="shared" si="8"/>
         <v>44906</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+10,DAY($C31)))</f>
+        <f t="shared" si="9"/>
         <v>44937</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+11,DAY($C31)))</f>
+        <f t="shared" si="10"/>
         <v>44968</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+12,DAY($C31)))</f>
+        <f t="shared" si="11"/>
         <v>44996</v>
       </c>
       <c r="AD31" s="14"/>
@@ -10122,70 +10131,70 @@
         <v>129</v>
       </c>
       <c r="G32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+1,DAY($C32)))</f>
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+2,DAY($C32)))</f>
+        <f t="shared" si="1"/>
         <v>44846</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+3,DAY($C32)))</f>
+        <f t="shared" si="2"/>
         <v>44877</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+4,DAY($C32)))</f>
+        <f t="shared" si="3"/>
         <v>44907</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+5,DAY($C32)))</f>
+        <f t="shared" si="4"/>
         <v>44938</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+6,DAY($C32)))</f>
+        <f t="shared" si="5"/>
         <v>44969</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+7,DAY($C32)))</f>
+        <f t="shared" si="6"/>
         <v>44997</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+8,DAY($C32)))</f>
+        <f t="shared" si="7"/>
         <v>45028</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+9,DAY($C32)))</f>
+        <f t="shared" si="8"/>
         <v>45058</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+10,DAY($C32)))</f>
+        <f t="shared" si="9"/>
         <v>45089</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+11,DAY($C32)))</f>
+        <f t="shared" si="10"/>
         <v>45119</v>
       </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+12,DAY($C32)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD32" s="14"/>
@@ -10213,84 +10222,84 @@
         <v>212</v>
       </c>
       <c r="G33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+1,DAY($C33)))</f>
+        <f t="shared" si="0"/>
         <v>44512</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+2,DAY($C33)))</f>
+        <f t="shared" si="1"/>
         <v>44542</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+3,DAY($C33)))</f>
+        <f t="shared" si="2"/>
         <v>44573</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+4,DAY($C33)))</f>
+        <f t="shared" si="3"/>
         <v>44604</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+5,DAY($C33)))</f>
+        <f t="shared" si="4"/>
         <v>44632</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+6,DAY($C33)))</f>
+        <f t="shared" si="5"/>
         <v>44663</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+7,DAY($C33)))</f>
+        <f t="shared" si="6"/>
         <v>44693</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+8,DAY($C33)))</f>
+        <f t="shared" si="7"/>
         <v>44724</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+9,DAY($C33)))</f>
+        <f t="shared" si="8"/>
         <v>44754</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+10,DAY($C33)))</f>
+        <f t="shared" si="9"/>
         <v>44785</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+11,DAY($C33)))</f>
+        <f t="shared" si="10"/>
         <v>44816</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+12,DAY($C33)))</f>
+        <f t="shared" si="11"/>
         <v>44846</v>
       </c>
       <c r="AD33" s="14" t="s">
@@ -10320,70 +10329,70 @@
         <v>324</v>
       </c>
       <c r="G34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
+        <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
         <v>44816</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
+        <f t="shared" ref="I34:I65" si="13">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
         <v>44846</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
+        <f t="shared" ref="K34:K65" si="14">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
         <v>44877</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
+        <f t="shared" ref="M34:M65" si="15">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
         <v>44907</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
+        <f t="shared" ref="O34:O65" si="16">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
         <v>44938</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
+        <f t="shared" ref="Q34:Q65" si="17">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
         <v>44969</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
+        <f t="shared" ref="S34:S65" si="18">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
         <v>44997</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
+        <f t="shared" ref="U34:U65" si="19">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
         <v>45028</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
+        <f t="shared" ref="W34:W65" si="20">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
         <v>45058</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
+        <f t="shared" ref="Y34:Y65" si="21">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
         <v>45089</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
+        <f t="shared" ref="AA34:AA65" si="22">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
         <v>45119</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+12,DAY($C34)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD34" s="14"/>
@@ -10408,64 +10417,64 @@
         <v>170</v>
       </c>
       <c r="G35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+1,DAY($C35)))</f>
+        <f t="shared" si="12"/>
         <v>44513</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+2,DAY($C35)))</f>
+        <f t="shared" si="13"/>
         <v>44543</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+3,DAY($C35)))</f>
+        <f t="shared" si="14"/>
         <v>44574</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+4,DAY($C35)))</f>
+        <f t="shared" si="15"/>
         <v>44605</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+5,DAY($C35)))</f>
+        <f t="shared" si="16"/>
         <v>44633</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+6,DAY($C35)))</f>
+        <f t="shared" si="17"/>
         <v>44664</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+7,DAY($C35)))</f>
+        <f t="shared" si="18"/>
         <v>44694</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+8,DAY($C35)))</f>
+        <f t="shared" si="19"/>
         <v>44725</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+9,DAY($C35)))</f>
+        <f t="shared" si="20"/>
         <v>44755</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+10,DAY($C35)))</f>
+        <f t="shared" si="21"/>
         <v>44786</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+11,DAY($C35)))</f>
+        <f t="shared" si="22"/>
         <v>44817</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+12,DAY($C35)))</f>
+        <f t="shared" si="11"/>
         <v>44847</v>
       </c>
       <c r="AD35" s="14"/>
@@ -10492,70 +10501,70 @@
         <v>364</v>
       </c>
       <c r="G36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+1,DAY($C36)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+2,DAY($C36)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+3,DAY($C36)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+4,DAY($C36)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+5,DAY($C36)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+6,DAY($C36)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+7,DAY($C36)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+8,DAY($C36)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+9,DAY($C36)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+10,DAY($C36)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+11,DAY($C36)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB36" s="1"/>
       <c r="AC36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+12,DAY($C36)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD36" s="14"/>
@@ -10575,91 +10584,91 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>14</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+1,DAY($C37)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+2,DAY($C37)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+3,DAY($C37)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+4,DAY($C37)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+5,DAY($C37)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+6,DAY($C37)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+7,DAY($C37)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+8,DAY($C37)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+9,DAY($C37)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+10,DAY($C37)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+11,DAY($C37)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+12,DAY($C37)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD37" s="1" t="s">
@@ -10688,80 +10697,80 @@
         <v>139</v>
       </c>
       <c r="G38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+1,DAY($C38)))</f>
+        <f t="shared" si="12"/>
         <v>44818</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+2,DAY($C38)))</f>
+        <f t="shared" si="13"/>
         <v>44848</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+3,DAY($C38)))</f>
+        <f t="shared" si="14"/>
         <v>44879</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+4,DAY($C38)))</f>
+        <f t="shared" si="15"/>
         <v>44909</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+5,DAY($C38)))</f>
+        <f t="shared" si="16"/>
         <v>44940</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+6,DAY($C38)))</f>
+        <f t="shared" si="17"/>
         <v>44971</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+7,DAY($C38)))</f>
+        <f t="shared" si="18"/>
         <v>44999</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+8,DAY($C38)))</f>
+        <f t="shared" si="19"/>
         <v>45030</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+9,DAY($C38)))</f>
+        <f t="shared" si="20"/>
         <v>45060</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+10,DAY($C38)))</f>
+        <f t="shared" si="21"/>
         <v>45091</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+11,DAY($C38)))</f>
+        <f t="shared" si="22"/>
         <v>45121</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+12,DAY($C38)))</f>
+        <f t="shared" si="11"/>
         <v>45152</v>
       </c>
       <c r="AD38" s="14" t="s">
@@ -10790,84 +10799,84 @@
         <v>178</v>
       </c>
       <c r="G39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+1,DAY($C39)))</f>
+        <f t="shared" si="12"/>
         <v>44544</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+2,DAY($C39)))</f>
+        <f t="shared" si="13"/>
         <v>44575</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+3,DAY($C39)))</f>
+        <f t="shared" si="14"/>
         <v>44606</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+4,DAY($C39)))</f>
+        <f t="shared" si="15"/>
         <v>44634</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+5,DAY($C39)))</f>
+        <f t="shared" si="16"/>
         <v>44665</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+6,DAY($C39)))</f>
+        <f t="shared" si="17"/>
         <v>44695</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+7,DAY($C39)))</f>
+        <f t="shared" si="18"/>
         <v>44726</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+8,DAY($C39)))</f>
+        <f t="shared" si="19"/>
         <v>44756</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+9,DAY($C39)))</f>
+        <f t="shared" si="20"/>
         <v>44787</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+10,DAY($C39)))</f>
+        <f t="shared" si="21"/>
         <v>44818</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+11,DAY($C39)))</f>
+        <f t="shared" si="22"/>
         <v>44848</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+12,DAY($C39)))</f>
+        <f t="shared" si="11"/>
         <v>44879</v>
       </c>
       <c r="AD39" s="1" t="s">
@@ -10897,84 +10906,84 @@
         <v>194</v>
       </c>
       <c r="G40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+1,DAY($C40)))</f>
+        <f t="shared" si="12"/>
         <v>44575</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+2,DAY($C40)))</f>
+        <f t="shared" si="13"/>
         <v>44606</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+3,DAY($C40)))</f>
+        <f t="shared" si="14"/>
         <v>44634</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+4,DAY($C40)))</f>
+        <f t="shared" si="15"/>
         <v>44665</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+5,DAY($C40)))</f>
+        <f t="shared" si="16"/>
         <v>44695</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+6,DAY($C40)))</f>
+        <f t="shared" si="17"/>
         <v>44726</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+7,DAY($C40)))</f>
+        <f t="shared" si="18"/>
         <v>44756</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+8,DAY($C40)))</f>
+        <f t="shared" si="19"/>
         <v>44787</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+9,DAY($C40)))</f>
+        <f t="shared" si="20"/>
         <v>44818</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+10,DAY($C40)))</f>
+        <f t="shared" si="21"/>
         <v>44848</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+11,DAY($C40)))</f>
+        <f t="shared" si="22"/>
         <v>44879</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+12,DAY($C40)))</f>
+        <f t="shared" si="11"/>
         <v>44909</v>
       </c>
       <c r="AD40" s="1"/>
@@ -11002,84 +11011,84 @@
         <v>60</v>
       </c>
       <c r="G41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+1,DAY($C41)))</f>
+        <f t="shared" si="12"/>
         <v>44301</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+2,DAY($C41)))</f>
+        <f t="shared" si="13"/>
         <v>44331</v>
       </c>
       <c r="J41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+3,DAY($C41)))</f>
+        <f t="shared" si="14"/>
         <v>44362</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+4,DAY($C41)))</f>
+        <f t="shared" si="15"/>
         <v>44392</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+5,DAY($C41)))</f>
+        <f t="shared" si="16"/>
         <v>44423</v>
       </c>
       <c r="P41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+6,DAY($C41)))</f>
+        <f t="shared" si="17"/>
         <v>44454</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+7,DAY($C41)))</f>
+        <f t="shared" si="18"/>
         <v>44484</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+8,DAY($C41)))</f>
+        <f t="shared" si="19"/>
         <v>44515</v>
       </c>
       <c r="V41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+9,DAY($C41)))</f>
+        <f t="shared" si="20"/>
         <v>44545</v>
       </c>
       <c r="X41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+10,DAY($C41)))</f>
+        <f t="shared" si="21"/>
         <v>44576</v>
       </c>
       <c r="Z41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+11,DAY($C41)))</f>
+        <f t="shared" si="22"/>
         <v>44607</v>
       </c>
       <c r="AB41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AC41" s="25"/>
-      <c r="AD41" s="76"/>
+      <c r="AD41" s="74"/>
     </row>
     <row r="42" spans="1:30" ht="37.5">
       <c r="A42" s="27" t="s">
@@ -11103,80 +11112,80 @@
         <v>153</v>
       </c>
       <c r="G42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+1,DAY($C42)))</f>
+        <f t="shared" si="12"/>
         <v>44484</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+2,DAY($C42)))</f>
+        <f t="shared" si="13"/>
         <v>44515</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+3,DAY($C42)))</f>
+        <f t="shared" si="14"/>
         <v>44545</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+4,DAY($C42)))</f>
+        <f t="shared" si="15"/>
         <v>44576</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+5,DAY($C42)))</f>
+        <f t="shared" si="16"/>
         <v>44607</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+6,DAY($C42)))</f>
+        <f t="shared" si="17"/>
         <v>44635</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+7,DAY($C42)))</f>
+        <f t="shared" si="18"/>
         <v>44666</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+8,DAY($C42)))</f>
+        <f t="shared" si="19"/>
         <v>44696</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+9,DAY($C42)))</f>
+        <f t="shared" si="20"/>
         <v>44727</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+10,DAY($C42)))</f>
+        <f t="shared" si="21"/>
         <v>44757</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+11,DAY($C42)))</f>
+        <f t="shared" si="22"/>
         <v>44788</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
+        <f t="shared" ref="AC42:AC73" si="23">IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
         <v>44819</v>
       </c>
       <c r="AD42" s="14" t="s">
@@ -11206,74 +11215,74 @@
         <v>269</v>
       </c>
       <c r="G43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+1,DAY($C43)))</f>
+        <f t="shared" si="12"/>
         <v>44727</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+2,DAY($C43)))</f>
+        <f t="shared" si="13"/>
         <v>44757</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+3,DAY($C43)))</f>
+        <f t="shared" si="14"/>
         <v>44788</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+4,DAY($C43)))</f>
+        <f t="shared" si="15"/>
         <v>44819</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+5,DAY($C43)))</f>
+        <f t="shared" si="16"/>
         <v>44849</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+6,DAY($C43)))</f>
+        <f t="shared" si="17"/>
         <v>44880</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+7,DAY($C43)))</f>
+        <f t="shared" si="18"/>
         <v>44910</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+8,DAY($C43)))</f>
+        <f t="shared" si="19"/>
         <v>44941</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+9,DAY($C43)))</f>
+        <f t="shared" si="20"/>
         <v>44972</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+10,DAY($C43)))</f>
+        <f t="shared" si="21"/>
         <v>45000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+11,DAY($C43)))</f>
+        <f t="shared" si="22"/>
         <v>45031</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+12,DAY($C43)))</f>
+        <f t="shared" si="23"/>
         <v>45061</v>
       </c>
       <c r="AD43" s="14"/>
@@ -11301,70 +11310,70 @@
         <v>308</v>
       </c>
       <c r="G44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+1,DAY($C44)))</f>
+        <f t="shared" si="12"/>
         <v>44788</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+2,DAY($C44)))</f>
+        <f t="shared" si="13"/>
         <v>44819</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+3,DAY($C44)))</f>
+        <f t="shared" si="14"/>
         <v>44849</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+4,DAY($C44)))</f>
+        <f t="shared" si="15"/>
         <v>44880</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+5,DAY($C44)))</f>
+        <f t="shared" si="16"/>
         <v>44910</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+6,DAY($C44)))</f>
+        <f t="shared" si="17"/>
         <v>44941</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+7,DAY($C44)))</f>
+        <f t="shared" si="18"/>
         <v>44972</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+8,DAY($C44)))</f>
+        <f t="shared" si="19"/>
         <v>45000</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+9,DAY($C44)))</f>
+        <f t="shared" si="20"/>
         <v>45031</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+10,DAY($C44)))</f>
+        <f t="shared" si="21"/>
         <v>45061</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+11,DAY($C44)))</f>
+        <f t="shared" si="22"/>
         <v>45092</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+12,DAY($C44)))</f>
+        <f t="shared" si="23"/>
         <v>45122</v>
       </c>
       <c r="AD44" s="14"/>
@@ -11385,69 +11394,69 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>16</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="54" t="s">
         <v>373</v>
       </c>
       <c r="G45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+1,DAY($C45)))</f>
+        <f t="shared" si="12"/>
         <v>44942</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+2,DAY($C45)))</f>
+        <f t="shared" si="13"/>
         <v>44973</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+3,DAY($C45)))</f>
+        <f t="shared" si="14"/>
         <v>45001</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+4,DAY($C45)))</f>
+        <f t="shared" si="15"/>
         <v>45032</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+5,DAY($C45)))</f>
+        <f t="shared" si="16"/>
         <v>45062</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+6,DAY($C45)))</f>
+        <f t="shared" si="17"/>
         <v>45093</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+7,DAY($C45)))</f>
+        <f t="shared" si="18"/>
         <v>45123</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+8,DAY($C45)))</f>
+        <f t="shared" si="19"/>
         <v>45154</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+9,DAY($C45)))</f>
+        <f t="shared" si="20"/>
         <v>45185</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+10,DAY($C45)))</f>
+        <f t="shared" si="21"/>
         <v>45215</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+11,DAY($C45)))</f>
+        <f t="shared" si="22"/>
         <v>45246</v>
       </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+12,DAY($C45)))</f>
+        <f t="shared" si="23"/>
         <v>45276</v>
       </c>
       <c r="AD45" s="14"/>
@@ -11474,84 +11483,84 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+1,DAY($C46)))</f>
+        <f t="shared" si="12"/>
         <v>44790</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+2,DAY($C46)))</f>
+        <f t="shared" si="13"/>
         <v>44821</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+3,DAY($C46)))</f>
+        <f t="shared" si="14"/>
         <v>44851</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+4,DAY($C46)))</f>
+        <f t="shared" si="15"/>
         <v>44882</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+5,DAY($C46)))</f>
+        <f t="shared" si="16"/>
         <v>44912</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+6,DAY($C46)))</f>
+        <f t="shared" si="17"/>
         <v>44943</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+7,DAY($C46)))</f>
+        <f t="shared" si="18"/>
         <v>44974</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+8,DAY($C46)))</f>
+        <f t="shared" si="19"/>
         <v>45002</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+9,DAY($C46)))</f>
+        <f t="shared" si="20"/>
         <v>45033</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+10,DAY($C46)))</f>
+        <f t="shared" si="21"/>
         <v>45063</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+11,DAY($C46)))</f>
+        <f t="shared" si="22"/>
         <v>45094</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+12,DAY($C46)))</f>
+        <f t="shared" si="23"/>
         <v>45124</v>
       </c>
       <c r="AD46" s="1" t="s">
@@ -11574,85 +11583,85 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="73" t="s">
+      <c r="F47" s="71" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+1,DAY($C47)))</f>
+        <f t="shared" si="12"/>
         <v>44668</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+2,DAY($C47)))</f>
+        <f t="shared" si="13"/>
         <v>44698</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+3,DAY($C47)))</f>
+        <f t="shared" si="14"/>
         <v>44729</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+4,DAY($C47)))</f>
+        <f t="shared" si="15"/>
         <v>44759</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+5,DAY($C47)))</f>
+        <f t="shared" si="16"/>
         <v>44790</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+6,DAY($C47)))</f>
+        <f t="shared" si="17"/>
         <v>44821</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+7,DAY($C47)))</f>
+        <f t="shared" si="18"/>
         <v>44851</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+8,DAY($C47)))</f>
+        <f t="shared" si="19"/>
         <v>44882</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+9,DAY($C47)))</f>
+        <f t="shared" si="20"/>
         <v>44912</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+10,DAY($C47)))</f>
+        <f t="shared" si="21"/>
         <v>44943</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+11,DAY($C47)))</f>
+        <f t="shared" si="22"/>
         <v>44974</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+12,DAY($C47)))</f>
+        <f t="shared" si="23"/>
         <v>45002</v>
       </c>
       <c r="AD47" s="1"/>
@@ -11661,7 +11670,7 @@
       <c r="A48" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B48" s="58" t="str">
+      <c r="B48" s="57" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>横山　裕哉</v>
       </c>
@@ -11672,69 +11681,69 @@
       <c r="D48" s="30">
         <v>17</v>
       </c>
-      <c r="E48" s="44" t="s">
+      <c r="E48" s="76" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="44" t="s">
         <v>357</v>
       </c>
       <c r="G48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+1,DAY($C48)))</f>
+        <f t="shared" si="12"/>
         <v>44748</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+2,DAY($C48)))</f>
+        <f t="shared" si="13"/>
         <v>44779</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+3,DAY($C48)))</f>
+        <f t="shared" si="14"/>
         <v>44810</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+4,DAY($C48)))</f>
+        <f t="shared" si="15"/>
         <v>44840</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+5,DAY($C48)))</f>
+        <f t="shared" si="16"/>
         <v>44871</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+6,DAY($C48)))</f>
+        <f t="shared" si="17"/>
         <v>44901</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+7,DAY($C48)))</f>
+        <f t="shared" si="18"/>
         <v>44932</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+8,DAY($C48)))</f>
+        <f t="shared" si="19"/>
         <v>44963</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+9,DAY($C48)))</f>
+        <f t="shared" si="20"/>
         <v>44991</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+10,DAY($C48)))</f>
+        <f t="shared" si="21"/>
         <v>45022</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+11,DAY($C48)))</f>
+        <f t="shared" si="22"/>
         <v>45052</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+12,DAY($C48)))</f>
+        <f t="shared" si="23"/>
         <v>45083</v>
       </c>
       <c r="AD48" s="1"/>
@@ -11755,69 +11764,69 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="76" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
         <v>385</v>
       </c>
       <c r="G49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+1,DAY($C49)))</f>
+        <f t="shared" si="12"/>
         <v>45002</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+2,DAY($C49)))</f>
+        <f t="shared" si="13"/>
         <v>45033</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+3,DAY($C49)))</f>
+        <f t="shared" si="14"/>
         <v>45063</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+4,DAY($C49)))</f>
+        <f t="shared" si="15"/>
         <v>45094</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+5,DAY($C49)))</f>
+        <f t="shared" si="16"/>
         <v>45124</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+6,DAY($C49)))</f>
+        <f t="shared" si="17"/>
         <v>45155</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+7,DAY($C49)))</f>
+        <f t="shared" si="18"/>
         <v>45186</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+8,DAY($C49)))</f>
+        <f t="shared" si="19"/>
         <v>45216</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+9,DAY($C49)))</f>
+        <f t="shared" si="20"/>
         <v>45247</v>
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+10,DAY($C49)))</f>
+        <f t="shared" si="21"/>
         <v>45277</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+11,DAY($C49)))</f>
+        <f t="shared" si="22"/>
         <v>45308</v>
       </c>
       <c r="AB49" s="1"/>
       <c r="AC49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+12,DAY($C49)))</f>
+        <f t="shared" si="23"/>
         <v>45339</v>
       </c>
       <c r="AD49" s="14"/>
@@ -11837,91 +11846,91 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>18</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="19" t="s">
         <v>59</v>
       </c>
       <c r="G50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+1,DAY($C50)))</f>
+        <f t="shared" si="12"/>
         <v>44334</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+2,DAY($C50)))</f>
+        <f t="shared" si="13"/>
         <v>44365</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+3,DAY($C50)))</f>
+        <f t="shared" si="14"/>
         <v>44395</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+4,DAY($C50)))</f>
+        <f t="shared" si="15"/>
         <v>44426</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+5,DAY($C50)))</f>
+        <f t="shared" si="16"/>
         <v>44457</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+6,DAY($C50)))</f>
+        <f t="shared" si="17"/>
         <v>44487</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+7,DAY($C50)))</f>
+        <f t="shared" si="18"/>
         <v>44518</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+8,DAY($C50)))</f>
+        <f t="shared" si="19"/>
         <v>44548</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+9,DAY($C50)))</f>
+        <f t="shared" si="20"/>
         <v>44579</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+10,DAY($C50)))</f>
+        <f t="shared" si="21"/>
         <v>44610</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+11,DAY($C50)))</f>
+        <f t="shared" si="22"/>
         <v>44638</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+12,DAY($C50)))</f>
+        <f t="shared" si="23"/>
         <v>44669</v>
       </c>
       <c r="AD50" s="14" t="s">
@@ -11951,70 +11960,70 @@
         <v>311</v>
       </c>
       <c r="G51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+1,DAY($C51)))</f>
+        <f t="shared" si="12"/>
         <v>44791</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+2,DAY($C51)))</f>
+        <f t="shared" si="13"/>
         <v>44822</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+3,DAY($C51)))</f>
+        <f t="shared" si="14"/>
         <v>44852</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+4,DAY($C51)))</f>
+        <f t="shared" si="15"/>
         <v>44883</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+5,DAY($C51)))</f>
+        <f t="shared" si="16"/>
         <v>44913</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+6,DAY($C51)))</f>
+        <f t="shared" si="17"/>
         <v>44944</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+7,DAY($C51)))</f>
+        <f t="shared" si="18"/>
         <v>44975</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+8,DAY($C51)))</f>
+        <f t="shared" si="19"/>
         <v>45003</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+9,DAY($C51)))</f>
+        <f t="shared" si="20"/>
         <v>45034</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+10,DAY($C51)))</f>
+        <f t="shared" si="21"/>
         <v>45064</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+11,DAY($C51)))</f>
+        <f t="shared" si="22"/>
         <v>45095</v>
       </c>
       <c r="AB51" s="1"/>
       <c r="AC51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+12,DAY($C51)))</f>
+        <f t="shared" si="23"/>
         <v>45125</v>
       </c>
       <c r="AD51" s="14"/>
@@ -12034,73 +12043,73 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="42" t="s">
         <v>352</v>
       </c>
       <c r="G52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+1,DAY($C52)))</f>
+        <f t="shared" si="12"/>
         <v>44853</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+2,DAY($C52)))</f>
+        <f t="shared" si="13"/>
         <v>44884</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+3,DAY($C52)))</f>
+        <f t="shared" si="14"/>
         <v>44914</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+4,DAY($C52)))</f>
+        <f t="shared" si="15"/>
         <v>44945</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+5,DAY($C52)))</f>
+        <f t="shared" si="16"/>
         <v>44976</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+6,DAY($C52)))</f>
+        <f t="shared" si="17"/>
         <v>45004</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+7,DAY($C52)))</f>
+        <f t="shared" si="18"/>
         <v>45035</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+8,DAY($C52)))</f>
+        <f t="shared" si="19"/>
         <v>45065</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+9,DAY($C52)))</f>
+        <f t="shared" si="20"/>
         <v>45096</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+10,DAY($C52)))</f>
+        <f t="shared" si="21"/>
         <v>45126</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+11,DAY($C52)))</f>
+        <f t="shared" si="22"/>
         <v>45157</v>
       </c>
       <c r="AB52" s="1"/>
       <c r="AC52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+12,DAY($C52)))</f>
+        <f t="shared" si="23"/>
         <v>45188</v>
       </c>
       <c r="AD52" s="14"/>
@@ -12126,84 +12135,84 @@
         <v>145</v>
       </c>
       <c r="G53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+1,DAY($C53)))</f>
+        <f t="shared" si="12"/>
         <v>44859</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+2,DAY($C53)))</f>
+        <f t="shared" si="13"/>
         <v>44890</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+3,DAY($C53)))</f>
+        <f t="shared" si="14"/>
         <v>44920</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+4,DAY($C53)))</f>
+        <f t="shared" si="15"/>
         <v>44951</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+5,DAY($C53)))</f>
+        <f t="shared" si="16"/>
         <v>44982</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+6,DAY($C53)))</f>
+        <f t="shared" si="17"/>
         <v>45010</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+7,DAY($C53)))</f>
+        <f t="shared" si="18"/>
         <v>45041</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+8,DAY($C53)))</f>
+        <f t="shared" si="19"/>
         <v>45071</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+9,DAY($C53)))</f>
+        <f t="shared" si="20"/>
         <v>45102</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+10,DAY($C53)))</f>
+        <f t="shared" si="21"/>
         <v>45132</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+11,DAY($C53)))</f>
+        <f t="shared" si="22"/>
         <v>45163</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+12,DAY($C53)))</f>
+        <f t="shared" si="23"/>
         <v>45194</v>
       </c>
       <c r="AD53" s="14" t="s">
@@ -12233,84 +12242,84 @@
         <v>181</v>
       </c>
       <c r="G54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+1,DAY($C54)))</f>
+        <f t="shared" si="12"/>
         <v>44549</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+2,DAY($C54)))</f>
+        <f t="shared" si="13"/>
         <v>44580</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+3,DAY($C54)))</f>
+        <f t="shared" si="14"/>
         <v>44611</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+4,DAY($C54)))</f>
+        <f t="shared" si="15"/>
         <v>44639</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+5,DAY($C54)))</f>
+        <f t="shared" si="16"/>
         <v>44670</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+6,DAY($C54)))</f>
+        <f t="shared" si="17"/>
         <v>44700</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+7,DAY($C54)))</f>
+        <f t="shared" si="18"/>
         <v>44731</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+8,DAY($C54)))</f>
+        <f t="shared" si="19"/>
         <v>44761</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+9,DAY($C54)))</f>
+        <f t="shared" si="20"/>
         <v>44792</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+10,DAY($C54)))</f>
+        <f t="shared" si="21"/>
         <v>44823</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+11,DAY($C54)))</f>
+        <f t="shared" si="22"/>
         <v>44853</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+12,DAY($C54)))</f>
+        <f t="shared" si="23"/>
         <v>44884</v>
       </c>
       <c r="AD54" s="14" t="s">
@@ -12333,69 +12342,69 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="76" t="s">
         <v>315</v>
       </c>
       <c r="F55" s="30" t="s">
         <v>314</v>
       </c>
       <c r="G55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+1,DAY($C55)))</f>
+        <f t="shared" si="12"/>
         <v>44792</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+2,DAY($C55)))</f>
+        <f t="shared" si="13"/>
         <v>44823</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+3,DAY($C55)))</f>
+        <f t="shared" si="14"/>
         <v>44853</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+4,DAY($C55)))</f>
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+5,DAY($C55)))</f>
+        <f t="shared" si="16"/>
         <v>44914</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+6,DAY($C55)))</f>
+        <f t="shared" si="17"/>
         <v>44945</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+7,DAY($C55)))</f>
+        <f t="shared" si="18"/>
         <v>44976</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+8,DAY($C55)))</f>
+        <f t="shared" si="19"/>
         <v>45004</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+9,DAY($C55)))</f>
+        <f t="shared" si="20"/>
         <v>45035</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+10,DAY($C55)))</f>
+        <f t="shared" si="21"/>
         <v>45065</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+11,DAY($C55)))</f>
+        <f t="shared" si="22"/>
         <v>45096</v>
       </c>
       <c r="AB55" s="1"/>
       <c r="AC55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+12,DAY($C55)))</f>
+        <f t="shared" si="23"/>
         <v>45126</v>
       </c>
       <c r="AD55" s="1"/>
@@ -12415,85 +12424,85 @@
       <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="76" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="55" t="s">
+      <c r="F56" s="54" t="s">
         <v>387</v>
       </c>
       <c r="G56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+1,DAY($C56)))</f>
+        <f t="shared" si="12"/>
         <v>44657</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+2,DAY($C56)))</f>
+        <f t="shared" si="13"/>
         <v>44687</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+3,DAY($C56)))</f>
+        <f t="shared" si="14"/>
         <v>44718</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+4,DAY($C56)))</f>
+        <f t="shared" si="15"/>
         <v>44748</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+5,DAY($C56)))</f>
+        <f t="shared" si="16"/>
         <v>44779</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+6,DAY($C56)))</f>
+        <f t="shared" si="17"/>
         <v>44810</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+7,DAY($C56)))</f>
+        <f t="shared" si="18"/>
         <v>44840</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+8,DAY($C56)))</f>
+        <f t="shared" si="19"/>
         <v>44871</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+9,DAY($C56)))</f>
+        <f t="shared" si="20"/>
         <v>44901</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+10,DAY($C56)))</f>
+        <f t="shared" si="21"/>
         <v>44932</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+11,DAY($C56)))</f>
+        <f t="shared" si="22"/>
         <v>44963</v>
       </c>
       <c r="AB56" s="1"/>
       <c r="AC56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+12,DAY($C56)))</f>
+        <f t="shared" si="23"/>
         <v>44991</v>
       </c>
       <c r="AD56" s="14"/>
@@ -12520,80 +12529,80 @@
         <v>94</v>
       </c>
       <c r="G57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+1,DAY($C57)))</f>
+        <f t="shared" si="12"/>
         <v>44793</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+2,DAY($C57)))</f>
+        <f t="shared" si="13"/>
         <v>44824</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+3,DAY($C57)))</f>
+        <f t="shared" si="14"/>
         <v>44854</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+4,DAY($C57)))</f>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+5,DAY($C57)))</f>
+        <f t="shared" si="16"/>
         <v>44915</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+6,DAY($C57)))</f>
+        <f t="shared" si="17"/>
         <v>44946</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+7,DAY($C57)))</f>
+        <f t="shared" si="18"/>
         <v>44977</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+8,DAY($C57)))</f>
+        <f t="shared" si="19"/>
         <v>45005</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+9,DAY($C57)))</f>
+        <f t="shared" si="20"/>
         <v>45036</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+10,DAY($C57)))</f>
+        <f t="shared" si="21"/>
         <v>45066</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+11,DAY($C57)))</f>
+        <f t="shared" si="22"/>
         <v>45097</v>
       </c>
       <c r="AB57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+12,DAY($C57)))</f>
+        <f t="shared" si="23"/>
         <v>45127</v>
       </c>
       <c r="AD57" s="1" t="s">
@@ -12616,85 +12625,85 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="76" t="s">
         <v>384</v>
       </c>
-      <c r="F58" s="55" t="s">
+      <c r="F58" s="54" t="s">
         <v>363</v>
       </c>
       <c r="G58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+1,DAY($C58)))</f>
+        <f t="shared" si="12"/>
         <v>44701</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+2,DAY($C58)))</f>
+        <f t="shared" si="13"/>
         <v>44732</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+3,DAY($C58)))</f>
+        <f t="shared" si="14"/>
         <v>44762</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+4,DAY($C58)))</f>
+        <f t="shared" si="15"/>
         <v>44793</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+5,DAY($C58)))</f>
+        <f t="shared" si="16"/>
         <v>44824</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+6,DAY($C58)))</f>
+        <f t="shared" si="17"/>
         <v>44854</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+7,DAY($C58)))</f>
+        <f t="shared" si="18"/>
         <v>44885</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+8,DAY($C58)))</f>
+        <f t="shared" si="19"/>
         <v>44915</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+9,DAY($C58)))</f>
+        <f t="shared" si="20"/>
         <v>44946</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+10,DAY($C58)))</f>
+        <f t="shared" si="21"/>
         <v>44977</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+11,DAY($C58)))</f>
+        <f t="shared" si="22"/>
         <v>45005</v>
       </c>
       <c r="AB58" s="1"/>
       <c r="AC58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+12,DAY($C58)))</f>
+        <f t="shared" si="23"/>
         <v>45036</v>
       </c>
       <c r="AD58" s="1"/>
@@ -12722,68 +12731,68 @@
         <v>327</v>
       </c>
       <c r="G59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+1,DAY($C59)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+2,DAY($C59)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+3,DAY($C59)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+4,DAY($C59)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+5,DAY($C59)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+6,DAY($C59)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+7,DAY($C59)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+8,DAY($C59)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+9,DAY($C59)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+10,DAY($C59)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+11,DAY($C59)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB59" s="1"/>
       <c r="AC59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+12,DAY($C59)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD59" s="14"/>
@@ -12811,68 +12820,68 @@
         <v>330</v>
       </c>
       <c r="G60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+1,DAY($C60)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+2,DAY($C60)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+3,DAY($C60)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+4,DAY($C60)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+5,DAY($C60)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+6,DAY($C60)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+7,DAY($C60)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+8,DAY($C60)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+9,DAY($C60)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+10,DAY($C60)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+11,DAY($C60)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB60" s="1"/>
       <c r="AC60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+12,DAY($C60)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD60" s="1"/>
@@ -12892,73 +12901,73 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="55" t="s">
+      <c r="F61" s="54" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+1,DAY($C61)))</f>
+        <f t="shared" si="12"/>
         <v>44885</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+2,DAY($C61)))</f>
+        <f t="shared" si="13"/>
         <v>44915</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+3,DAY($C61)))</f>
+        <f t="shared" si="14"/>
         <v>44946</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+4,DAY($C61)))</f>
+        <f t="shared" si="15"/>
         <v>44977</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+5,DAY($C61)))</f>
+        <f t="shared" si="16"/>
         <v>45005</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+6,DAY($C61)))</f>
+        <f t="shared" si="17"/>
         <v>45036</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+7,DAY($C61)))</f>
+        <f t="shared" si="18"/>
         <v>45066</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+8,DAY($C61)))</f>
+        <f t="shared" si="19"/>
         <v>45097</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+9,DAY($C61)))</f>
+        <f t="shared" si="20"/>
         <v>45127</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+10,DAY($C61)))</f>
+        <f t="shared" si="21"/>
         <v>45158</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+11,DAY($C61)))</f>
+        <f t="shared" si="22"/>
         <v>45189</v>
       </c>
       <c r="AB61" s="1"/>
       <c r="AC61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+12,DAY($C61)))</f>
+        <f t="shared" si="23"/>
         <v>45219</v>
       </c>
       <c r="AD61" s="14"/>
@@ -12979,94 +12988,94 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>21</v>
       </c>
-      <c r="E62" s="26" t="s">
+      <c r="E62" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="26" t="s">
         <v>55</v>
       </c>
       <c r="G62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+1,DAY($C62)))</f>
+        <f t="shared" si="12"/>
         <v>44307</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+2,DAY($C62)))</f>
+        <f t="shared" si="13"/>
         <v>44337</v>
       </c>
       <c r="J62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+3,DAY($C62)))</f>
+        <f t="shared" si="14"/>
         <v>44368</v>
       </c>
       <c r="L62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+4,DAY($C62)))</f>
+        <f t="shared" si="15"/>
         <v>44398</v>
       </c>
       <c r="N62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+5,DAY($C62)))</f>
+        <f t="shared" si="16"/>
         <v>44429</v>
       </c>
       <c r="P62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+6,DAY($C62)))</f>
+        <f t="shared" si="17"/>
         <v>44460</v>
       </c>
       <c r="R62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+7,DAY($C62)))</f>
+        <f t="shared" si="18"/>
         <v>44490</v>
       </c>
       <c r="T62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+8,DAY($C62)))</f>
+        <f t="shared" si="19"/>
         <v>44521</v>
       </c>
       <c r="V62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+9,DAY($C62)))</f>
+        <f t="shared" si="20"/>
         <v>44551</v>
       </c>
       <c r="X62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+10,DAY($C62)))</f>
+        <f t="shared" si="21"/>
         <v>44582</v>
       </c>
       <c r="Z62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+11,DAY($C62)))</f>
+        <f t="shared" si="22"/>
         <v>44613</v>
       </c>
       <c r="AB62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+12,DAY($C62)))</f>
+        <f t="shared" si="23"/>
         <v>44641</v>
       </c>
-      <c r="AD62" s="76" t="s">
+      <c r="AD62" s="74" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13092,80 +13101,80 @@
         <v>381</v>
       </c>
       <c r="G63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+1,DAY($C63)))</f>
+        <f t="shared" si="12"/>
         <v>44825</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+2,DAY($C63)))</f>
+        <f t="shared" si="13"/>
         <v>44855</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+3,DAY($C63)))</f>
+        <f t="shared" si="14"/>
         <v>44886</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+4,DAY($C63)))</f>
+        <f t="shared" si="15"/>
         <v>44916</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+5,DAY($C63)))</f>
+        <f t="shared" si="16"/>
         <v>44947</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+6,DAY($C63)))</f>
+        <f t="shared" si="17"/>
         <v>44978</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+7,DAY($C63)))</f>
+        <f t="shared" si="18"/>
         <v>45006</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+8,DAY($C63)))</f>
+        <f t="shared" si="19"/>
         <v>45037</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+9,DAY($C63)))</f>
+        <f t="shared" si="20"/>
         <v>45067</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+10,DAY($C63)))</f>
+        <f t="shared" si="21"/>
         <v>45098</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+11,DAY($C63)))</f>
+        <f t="shared" si="22"/>
         <v>45128</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+12,DAY($C63)))</f>
+        <f t="shared" si="23"/>
         <v>45159</v>
       </c>
       <c r="AD63" s="14"/>
@@ -13192,82 +13201,82 @@
         <v>223</v>
       </c>
       <c r="G64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+1,DAY($C64)))</f>
+        <f t="shared" si="12"/>
         <v>44616</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+2,DAY($C64)))</f>
+        <f t="shared" si="13"/>
         <v>44644</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+3,DAY($C64)))</f>
+        <f t="shared" si="14"/>
         <v>44675</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+4,DAY($C64)))</f>
+        <f t="shared" si="15"/>
         <v>44705</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+5,DAY($C64)))</f>
+        <f t="shared" si="16"/>
         <v>44736</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+6,DAY($C64)))</f>
+        <f t="shared" si="17"/>
         <v>44766</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+7,DAY($C64)))</f>
+        <f t="shared" si="18"/>
         <v>44797</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+8,DAY($C64)))</f>
+        <f t="shared" si="19"/>
         <v>44828</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+9,DAY($C64)))</f>
+        <f t="shared" si="20"/>
         <v>44858</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+10,DAY($C64)))</f>
+        <f t="shared" si="21"/>
         <v>44889</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+11,DAY($C64)))</f>
+        <f t="shared" si="22"/>
         <v>44919</v>
       </c>
       <c r="AB64" s="1"/>
       <c r="AC64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+12,DAY($C64)))</f>
+        <f t="shared" si="23"/>
         <v>44950</v>
       </c>
       <c r="AD64" s="14"/>
@@ -13295,72 +13304,72 @@
         <v>282</v>
       </c>
       <c r="G65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+1,DAY($C65)))</f>
+        <f t="shared" si="12"/>
         <v>44764</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+2,DAY($C65)))</f>
+        <f t="shared" si="13"/>
         <v>44795</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+3,DAY($C65)))</f>
+        <f t="shared" si="14"/>
         <v>44826</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+4,DAY($C65)))</f>
+        <f t="shared" si="15"/>
         <v>44856</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+5,DAY($C65)))</f>
+        <f t="shared" si="16"/>
         <v>44887</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+6,DAY($C65)))</f>
+        <f t="shared" si="17"/>
         <v>44917</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+7,DAY($C65)))</f>
+        <f t="shared" si="18"/>
         <v>44948</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+8,DAY($C65)))</f>
+        <f t="shared" si="19"/>
         <v>44979</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+9,DAY($C65)))</f>
+        <f t="shared" si="20"/>
         <v>45007</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+10,DAY($C65)))</f>
+        <f t="shared" si="21"/>
         <v>45038</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+11,DAY($C65)))</f>
+        <f t="shared" si="22"/>
         <v>45068</v>
       </c>
       <c r="AB65" s="1"/>
       <c r="AC65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+12,DAY($C65)))</f>
+        <f t="shared" si="23"/>
         <v>45099</v>
       </c>
       <c r="AD65" s="14"/>
@@ -13387,68 +13396,68 @@
         <v>279</v>
       </c>
       <c r="G66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
+        <f t="shared" ref="G66:G97" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
         <v>44757</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
+        <f t="shared" ref="I66:I97" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
         <v>44788</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
+        <f t="shared" ref="K66:K97" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
         <v>44819</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
+        <f t="shared" ref="M66:M97" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
         <v>44849</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
+        <f t="shared" ref="O66:O97" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
         <v>44880</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
+        <f t="shared" ref="Q66:Q97" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
         <v>44910</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
+        <f t="shared" ref="S66:S97" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
         <v>44941</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
+        <f t="shared" ref="U66:U97" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
         <v>44972</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
+        <f t="shared" ref="W66:W97" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
         <v>45000</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
+        <f t="shared" ref="Y66:Y97" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
         <v>45031</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
+        <f t="shared" ref="AA66:AA97" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
         <v>45061</v>
       </c>
       <c r="AB66" s="1"/>
       <c r="AC66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+12,DAY($C66)))</f>
+        <f t="shared" si="23"/>
         <v>45092</v>
       </c>
       <c r="AD66" s="1"/>
@@ -13473,84 +13482,84 @@
         <v>138</v>
       </c>
       <c r="G67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+1,DAY($C67)))</f>
+        <f t="shared" si="24"/>
         <v>44827</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+2,DAY($C67)))</f>
+        <f t="shared" si="25"/>
         <v>44857</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+3,DAY($C67)))</f>
+        <f t="shared" si="26"/>
         <v>44888</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+4,DAY($C67)))</f>
+        <f t="shared" si="27"/>
         <v>44918</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+5,DAY($C67)))</f>
+        <f t="shared" si="28"/>
         <v>44949</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+6,DAY($C67)))</f>
+        <f t="shared" si="29"/>
         <v>44980</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+7,DAY($C67)))</f>
+        <f t="shared" si="30"/>
         <v>45008</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+8,DAY($C67)))</f>
+        <f t="shared" si="31"/>
         <v>45039</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+9,DAY($C67)))</f>
+        <f t="shared" si="32"/>
         <v>45069</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+10,DAY($C67)))</f>
+        <f t="shared" si="33"/>
         <v>45100</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+11,DAY($C67)))</f>
+        <f t="shared" si="34"/>
         <v>45130</v>
       </c>
       <c r="AB67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+12,DAY($C67)))</f>
+        <f t="shared" si="23"/>
         <v>45161</v>
       </c>
       <c r="AD67" s="14" t="s">
@@ -13578,62 +13587,62 @@
         <v>236</v>
       </c>
       <c r="G68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+1,DAY($C68)))</f>
+        <f t="shared" si="24"/>
         <v>44643</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+2,DAY($C68)))</f>
+        <f t="shared" si="25"/>
         <v>44674</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+3,DAY($C68)))</f>
+        <f t="shared" si="26"/>
         <v>44704</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+4,DAY($C68)))</f>
+        <f t="shared" si="27"/>
         <v>44735</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+5,DAY($C68)))</f>
+        <f t="shared" si="28"/>
         <v>44765</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+6,DAY($C68)))</f>
+        <f t="shared" si="29"/>
         <v>44796</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+7,DAY($C68)))</f>
+        <f t="shared" si="30"/>
         <v>44827</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+8,DAY($C68)))</f>
+        <f t="shared" si="31"/>
         <v>44857</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+9,DAY($C68)))</f>
+        <f t="shared" si="32"/>
         <v>44888</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+10,DAY($C68)))</f>
+        <f t="shared" si="33"/>
         <v>44918</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+11,DAY($C68)))</f>
+        <f t="shared" si="34"/>
         <v>44949</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+12,DAY($C68)))</f>
+        <f t="shared" si="23"/>
         <v>44980</v>
       </c>
       <c r="AD68" s="14"/>
@@ -13654,79 +13663,79 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>23</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="76" t="s">
         <v>341</v>
       </c>
-      <c r="F69" s="55" t="s">
+      <c r="F69" s="54" t="s">
         <v>289</v>
       </c>
       <c r="G69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+1,DAY($C69)))</f>
+        <f t="shared" si="24"/>
         <v>44765</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+2,DAY($C69)))</f>
+        <f t="shared" si="25"/>
         <v>44796</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+3,DAY($C69)))</f>
+        <f t="shared" si="26"/>
         <v>44827</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+4,DAY($C69)))</f>
+        <f t="shared" si="27"/>
         <v>44857</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+5,DAY($C69)))</f>
+        <f t="shared" si="28"/>
         <v>44888</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+6,DAY($C69)))</f>
+        <f t="shared" si="29"/>
         <v>44918</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+7,DAY($C69)))</f>
+        <f t="shared" si="30"/>
         <v>44949</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+8,DAY($C69)))</f>
+        <f t="shared" si="31"/>
         <v>44980</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+9,DAY($C69)))</f>
+        <f t="shared" si="32"/>
         <v>45008</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+10,DAY($C69)))</f>
+        <f t="shared" si="33"/>
         <v>45039</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+11,DAY($C69)))</f>
+        <f t="shared" si="34"/>
         <v>45069</v>
       </c>
       <c r="AB69" s="1"/>
       <c r="AC69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+12,DAY($C69)))</f>
+        <f t="shared" si="23"/>
         <v>45100</v>
       </c>
       <c r="AD69" s="1"/>
@@ -13746,91 +13755,91 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+1,DAY($C70)))</f>
+        <f t="shared" si="24"/>
         <v>44797</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+2,DAY($C70)))</f>
+        <f t="shared" si="25"/>
         <v>44828</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+3,DAY($C70)))</f>
+        <f t="shared" si="26"/>
         <v>44858</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+4,DAY($C70)))</f>
+        <f t="shared" si="27"/>
         <v>44889</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+5,DAY($C70)))</f>
+        <f t="shared" si="28"/>
         <v>44919</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+6,DAY($C70)))</f>
+        <f t="shared" si="29"/>
         <v>44950</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+7,DAY($C70)))</f>
+        <f t="shared" si="30"/>
         <v>44981</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+8,DAY($C70)))</f>
+        <f t="shared" si="31"/>
         <v>45009</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+9,DAY($C70)))</f>
+        <f t="shared" si="32"/>
         <v>45040</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+10,DAY($C70)))</f>
+        <f t="shared" si="33"/>
         <v>45070</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+11,DAY($C70)))</f>
+        <f t="shared" si="34"/>
         <v>45101</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+12,DAY($C70)))</f>
+        <f t="shared" si="23"/>
         <v>45131</v>
       </c>
       <c r="AD70" s="1" t="s">
@@ -13853,69 +13862,69 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E71" s="56" t="s">
+      <c r="E71" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="F71" s="57" t="s">
+      <c r="F71" s="56" t="s">
         <v>293</v>
       </c>
       <c r="G71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+1,DAY($C71)))</f>
+        <f t="shared" si="24"/>
         <v>44766</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+2,DAY($C71)))</f>
+        <f t="shared" si="25"/>
         <v>44797</v>
       </c>
       <c r="J71" s="36"/>
       <c r="K71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+3,DAY($C71)))</f>
+        <f t="shared" si="26"/>
         <v>44828</v>
       </c>
       <c r="L71" s="36"/>
       <c r="M71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+4,DAY($C71)))</f>
+        <f t="shared" si="27"/>
         <v>44858</v>
       </c>
       <c r="N71" s="36"/>
       <c r="O71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+5,DAY($C71)))</f>
+        <f t="shared" si="28"/>
         <v>44889</v>
       </c>
       <c r="P71" s="36"/>
       <c r="Q71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+6,DAY($C71)))</f>
+        <f t="shared" si="29"/>
         <v>44919</v>
       </c>
       <c r="R71" s="36"/>
       <c r="S71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+7,DAY($C71)))</f>
+        <f t="shared" si="30"/>
         <v>44950</v>
       </c>
       <c r="T71" s="36"/>
       <c r="U71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+8,DAY($C71)))</f>
+        <f t="shared" si="31"/>
         <v>44981</v>
       </c>
       <c r="V71" s="36"/>
       <c r="W71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+9,DAY($C71)))</f>
+        <f t="shared" si="32"/>
         <v>45009</v>
       </c>
       <c r="X71" s="36"/>
       <c r="Y71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+10,DAY($C71)))</f>
+        <f t="shared" si="33"/>
         <v>45040</v>
       </c>
       <c r="Z71" s="36"/>
       <c r="AA71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+11,DAY($C71)))</f>
+        <f t="shared" si="34"/>
         <v>45070</v>
       </c>
       <c r="AB71" s="36"/>
       <c r="AC71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+12,DAY($C71)))</f>
+        <f t="shared" si="23"/>
         <v>45101</v>
       </c>
       <c r="AD71" s="36"/>
@@ -13936,75 +13945,75 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="76" t="s">
         <v>365</v>
       </c>
       <c r="F72" s="46" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+1,DAY($C72)))</f>
+        <f t="shared" si="24"/>
         <v>44828</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+2,DAY($C72)))</f>
+        <f t="shared" si="25"/>
         <v>44858</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+3,DAY($C72)))</f>
+        <f t="shared" si="26"/>
         <v>44889</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+4,DAY($C72)))</f>
+        <f t="shared" si="27"/>
         <v>44919</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+5,DAY($C72)))</f>
+        <f t="shared" si="28"/>
         <v>44950</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+6,DAY($C72)))</f>
+        <f t="shared" si="29"/>
         <v>44981</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+7,DAY($C72)))</f>
+        <f t="shared" si="30"/>
         <v>45009</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+8,DAY($C72)))</f>
+        <f t="shared" si="31"/>
         <v>45040</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+9,DAY($C72)))</f>
+        <f t="shared" si="32"/>
         <v>45070</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+10,DAY($C72)))</f>
+        <f t="shared" si="33"/>
         <v>45101</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+11,DAY($C72)))</f>
+        <f t="shared" si="34"/>
         <v>45131</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
+        <f t="shared" si="23"/>
         <v>45162</v>
       </c>
       <c r="AD72" s="1"/>
@@ -14032,66 +14041,66 @@
         <v>348</v>
       </c>
       <c r="G73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+1,DAY($C73)))</f>
+        <f t="shared" si="24"/>
         <v>44858</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+2,DAY($C73)))</f>
+        <f t="shared" si="25"/>
         <v>44889</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+3,DAY($C73)))</f>
+        <f t="shared" si="26"/>
         <v>44919</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+4,DAY($C73)))</f>
+        <f t="shared" si="27"/>
         <v>44950</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+5,DAY($C73)))</f>
+        <f t="shared" si="28"/>
         <v>44981</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+6,DAY($C73)))</f>
+        <f t="shared" si="29"/>
         <v>45009</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+7,DAY($C73)))</f>
+        <f t="shared" si="30"/>
         <v>45040</v>
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+8,DAY($C73)))</f>
+        <f t="shared" si="31"/>
         <v>45070</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+9,DAY($C73)))</f>
+        <f t="shared" si="32"/>
         <v>45101</v>
       </c>
       <c r="X73" s="1"/>
       <c r="Y73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+10,DAY($C73)))</f>
+        <f t="shared" si="33"/>
         <v>45131</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+11,DAY($C73)))</f>
+        <f t="shared" si="34"/>
         <v>45162</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+12,DAY($C73)))</f>
+        <f t="shared" si="23"/>
         <v>45193</v>
       </c>
       <c r="AD73" s="1"/>
@@ -14118,84 +14127,84 @@
         <v>349</v>
       </c>
       <c r="G74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+1,DAY($C74)))</f>
+        <f t="shared" si="24"/>
         <v>44829</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+2,DAY($C74)))</f>
+        <f t="shared" si="25"/>
         <v>44859</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+3,DAY($C74)))</f>
+        <f t="shared" si="26"/>
         <v>44890</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+4,DAY($C74)))</f>
+        <f t="shared" si="27"/>
         <v>44920</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+5,DAY($C74)))</f>
+        <f t="shared" si="28"/>
         <v>44951</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+6,DAY($C74)))</f>
+        <f t="shared" si="29"/>
         <v>44982</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+7,DAY($C74)))</f>
+        <f t="shared" si="30"/>
         <v>45010</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+8,DAY($C74)))</f>
+        <f t="shared" si="31"/>
         <v>45041</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+9,DAY($C74)))</f>
+        <f t="shared" si="32"/>
         <v>45071</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+10,DAY($C74)))</f>
+        <f t="shared" si="33"/>
         <v>45102</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+11,DAY($C74)))</f>
+        <f t="shared" si="34"/>
         <v>45132</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
+        <f t="shared" ref="AC74:AC97" si="35">IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
         <v>45163</v>
       </c>
       <c r="AD74" s="1" t="s">
@@ -14210,7 +14219,7 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v xml:space="preserve"> 阿部　つかさ</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="53">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44433</v>
       </c>
@@ -14218,85 +14227,85 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>25</v>
       </c>
-      <c r="E75" s="44" t="s">
+      <c r="E75" s="76" t="s">
         <v>41</v>
       </c>
       <c r="F75" s="30" t="s">
         <v>142</v>
       </c>
       <c r="G75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+1,DAY($C75)))</f>
+        <f t="shared" si="24"/>
         <v>44464</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+2,DAY($C75)))</f>
+        <f t="shared" si="25"/>
         <v>44494</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+3,DAY($C75)))</f>
+        <f t="shared" si="26"/>
         <v>44525</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+4,DAY($C75)))</f>
+        <f t="shared" si="27"/>
         <v>44555</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+5,DAY($C75)))</f>
+        <f t="shared" si="28"/>
         <v>44586</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+6,DAY($C75)))</f>
+        <f t="shared" si="29"/>
         <v>44617</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+7,DAY($C75)))</f>
+        <f t="shared" si="30"/>
         <v>44645</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+8,DAY($C75)))</f>
+        <f t="shared" si="31"/>
         <v>44676</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+9,DAY($C75)))</f>
+        <f t="shared" si="32"/>
         <v>44706</v>
       </c>
       <c r="X75" s="1"/>
       <c r="Y75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+10,DAY($C75)))</f>
+        <f t="shared" si="33"/>
         <v>44737</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+11,DAY($C75)))</f>
+        <f t="shared" si="34"/>
         <v>44767</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+12,DAY($C75)))</f>
+        <f t="shared" si="35"/>
         <v>44798</v>
       </c>
       <c r="AD75" s="1"/>
@@ -14323,82 +14332,82 @@
         <v>217</v>
       </c>
       <c r="G76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+1,DAY($C76)))</f>
+        <f t="shared" si="24"/>
         <v>44615</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+2,DAY($C76)))</f>
+        <f t="shared" si="25"/>
         <v>44643</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+3,DAY($C76)))</f>
+        <f t="shared" si="26"/>
         <v>44674</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+4,DAY($C76)))</f>
+        <f t="shared" si="27"/>
         <v>44704</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+5,DAY($C76)))</f>
+        <f t="shared" si="28"/>
         <v>44735</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+6,DAY($C76)))</f>
+        <f t="shared" si="29"/>
         <v>44765</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+7,DAY($C76)))</f>
+        <f t="shared" si="30"/>
         <v>44796</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+8,DAY($C76)))</f>
+        <f t="shared" si="31"/>
         <v>44827</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+9,DAY($C76)))</f>
+        <f t="shared" si="32"/>
         <v>44857</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+10,DAY($C76)))</f>
+        <f t="shared" si="33"/>
         <v>44888</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+11,DAY($C76)))</f>
+        <f t="shared" si="34"/>
         <v>44918</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+12,DAY($C76)))</f>
+        <f t="shared" si="35"/>
         <v>44949</v>
       </c>
       <c r="AD76" s="1"/>
@@ -14425,82 +14434,82 @@
         <v>220</v>
       </c>
       <c r="G77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+1,DAY($C77)))</f>
+        <f t="shared" si="24"/>
         <v>44616</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+2,DAY($C77)))</f>
+        <f t="shared" si="25"/>
         <v>44644</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+3,DAY($C77)))</f>
+        <f t="shared" si="26"/>
         <v>44675</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+4,DAY($C77)))</f>
+        <f t="shared" si="27"/>
         <v>44705</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+5,DAY($C77)))</f>
+        <f t="shared" si="28"/>
         <v>44736</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+6,DAY($C77)))</f>
+        <f t="shared" si="29"/>
         <v>44766</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+7,DAY($C77)))</f>
+        <f t="shared" si="30"/>
         <v>44797</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+8,DAY($C77)))</f>
+        <f t="shared" si="31"/>
         <v>44828</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+9,DAY($C77)))</f>
+        <f t="shared" si="32"/>
         <v>44858</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+10,DAY($C77)))</f>
+        <f t="shared" si="33"/>
         <v>44889</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+11,DAY($C77)))</f>
+        <f t="shared" si="34"/>
         <v>44919</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+12,DAY($C77)))</f>
+        <f t="shared" si="35"/>
         <v>44950</v>
       </c>
       <c r="AD77" s="1"/>
@@ -14524,76 +14533,76 @@
       <c r="E78" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="55" t="s">
+      <c r="F78" s="54" t="s">
         <v>297</v>
       </c>
       <c r="G78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+1,DAY($C78)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+2,DAY($C78)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+3,DAY($C78)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+4,DAY($C78)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+5,DAY($C78)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+6,DAY($C78)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+7,DAY($C78)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+8,DAY($C78)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+9,DAY($C78)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X78" s="1"/>
       <c r="Y78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+10,DAY($C78)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+11,DAY($C78)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+12,DAY($C78)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD78" s="1"/>
@@ -14617,66 +14626,66 @@
       <c r="E79" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="55" t="s">
+      <c r="F79" s="54" t="s">
         <v>350</v>
       </c>
       <c r="G79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+1,DAY($C79)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+2,DAY($C79)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+3,DAY($C79)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+4,DAY($C79)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+5,DAY($C79)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+6,DAY($C79)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+7,DAY($C79)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+8,DAY($C79)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V79" s="1"/>
       <c r="W79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+9,DAY($C79)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+10,DAY($C79)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+11,DAY($C79)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+12,DAY($C79)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD79" s="1"/>
@@ -14704,78 +14713,78 @@
         <v>252</v>
       </c>
       <c r="G80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+1,DAY($C80)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+2,DAY($C80)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+3,DAY($C80)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+4,DAY($C80)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+5,DAY($C80)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+6,DAY($C80)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+7,DAY($C80)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+8,DAY($C80)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+9,DAY($C80)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+10,DAY($C80)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+11,DAY($C80)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+12,DAY($C80)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD80" s="1"/>
@@ -14803,62 +14812,62 @@
         <v>270</v>
       </c>
       <c r="G81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+1,DAY($C81)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+2,DAY($C81)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+3,DAY($C81)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+4,DAY($C81)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+5,DAY($C81)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+6,DAY($C81)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+7,DAY($C81)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+8,DAY($C81)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V81" s="1"/>
       <c r="W81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+9,DAY($C81)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+10,DAY($C81)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+11,DAY($C81)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+12,DAY($C81)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD81" s="1"/>
@@ -14881,74 +14890,74 @@
       <c r="E82" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="55" t="s">
+      <c r="F82" s="54" t="s">
         <v>302</v>
       </c>
       <c r="G82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+1,DAY($C82)))</f>
+        <f t="shared" si="24"/>
         <v>44778</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+2,DAY($C82)))</f>
+        <f t="shared" si="25"/>
         <v>44809</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+3,DAY($C82)))</f>
+        <f t="shared" si="26"/>
         <v>44839</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+4,DAY($C82)))</f>
+        <f t="shared" si="27"/>
         <v>44870</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+5,DAY($C82)))</f>
+        <f t="shared" si="28"/>
         <v>44900</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+6,DAY($C82)))</f>
+        <f t="shared" si="29"/>
         <v>44931</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+7,DAY($C82)))</f>
+        <f t="shared" si="30"/>
         <v>44962</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+8,DAY($C82)))</f>
+        <f t="shared" si="31"/>
         <v>44990</v>
       </c>
       <c r="V82" s="1"/>
       <c r="W82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+9,DAY($C82)))</f>
+        <f t="shared" si="32"/>
         <v>45021</v>
       </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+10,DAY($C82)))</f>
+        <f t="shared" si="33"/>
         <v>45051</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+11,DAY($C82)))</f>
+        <f t="shared" si="34"/>
         <v>45082</v>
       </c>
       <c r="AB82" s="1"/>
       <c r="AC82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+12,DAY($C82)))</f>
+        <f t="shared" si="35"/>
         <v>45112</v>
       </c>
       <c r="AD82" s="1"/>
@@ -14973,72 +14982,72 @@
         <v>73</v>
       </c>
       <c r="G83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+1,DAY($C83)))</f>
+        <f t="shared" si="24"/>
         <v>44769</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+2,DAY($C83)))</f>
+        <f t="shared" si="25"/>
         <v>44800</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+3,DAY($C83)))</f>
+        <f t="shared" si="26"/>
         <v>44831</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+4,DAY($C83)))</f>
+        <f t="shared" si="27"/>
         <v>44861</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+5,DAY($C83)))</f>
+        <f t="shared" si="28"/>
         <v>44892</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+6,DAY($C83)))</f>
+        <f t="shared" si="29"/>
         <v>44922</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+7,DAY($C83)))</f>
+        <f t="shared" si="30"/>
         <v>44953</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+8,DAY($C83)))</f>
+        <f t="shared" si="31"/>
         <v>44984</v>
       </c>
       <c r="V83" s="1"/>
       <c r="W83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+9,DAY($C83)))</f>
+        <f t="shared" si="32"/>
         <v>45012</v>
       </c>
       <c r="X83" s="1"/>
       <c r="Y83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+10,DAY($C83)))</f>
+        <f t="shared" si="33"/>
         <v>45043</v>
       </c>
       <c r="Z83" s="1"/>
       <c r="AA83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+11,DAY($C83)))</f>
+        <f t="shared" si="34"/>
         <v>45073</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+12,DAY($C83)))</f>
+        <f t="shared" si="35"/>
         <v>45104</v>
       </c>
       <c r="AD83" s="1"/>
@@ -15065,78 +15074,78 @@
         <v>247</v>
       </c>
       <c r="G84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+1,DAY($C84)))</f>
+        <f t="shared" si="24"/>
         <v>44673</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+2,DAY($C84)))</f>
+        <f t="shared" si="25"/>
         <v>44703</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+3,DAY($C84)))</f>
+        <f t="shared" si="26"/>
         <v>44734</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+4,DAY($C84)))</f>
+        <f t="shared" si="27"/>
         <v>44764</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+5,DAY($C84)))</f>
+        <f t="shared" si="28"/>
         <v>44795</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+6,DAY($C84)))</f>
+        <f t="shared" si="29"/>
         <v>44826</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+7,DAY($C84)))</f>
+        <f t="shared" si="30"/>
         <v>44856</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+8,DAY($C84)))</f>
+        <f t="shared" si="31"/>
         <v>44887</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+9,DAY($C84)))</f>
+        <f t="shared" si="32"/>
         <v>44917</v>
       </c>
       <c r="X84" s="1"/>
       <c r="Y84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+10,DAY($C84)))</f>
+        <f t="shared" si="33"/>
         <v>44948</v>
       </c>
       <c r="Z84" s="1"/>
       <c r="AA84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+11,DAY($C84)))</f>
+        <f t="shared" si="34"/>
         <v>44979</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+12,DAY($C84)))</f>
+        <f t="shared" si="35"/>
         <v>45007</v>
       </c>
       <c r="AD84" s="1"/>
@@ -15156,85 +15165,85 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E85" s="19" t="s">
+      <c r="E85" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="19" t="s">
         <v>43</v>
       </c>
       <c r="G85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+1,DAY($C85)))</f>
+        <f t="shared" si="24"/>
         <v>44255</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+2,DAY($C85)))</f>
+        <f t="shared" si="25"/>
         <v>44283</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+3,DAY($C85)))</f>
+        <f t="shared" si="26"/>
         <v>44314</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+4,DAY($C85)))</f>
+        <f t="shared" si="27"/>
         <v>44344</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+5,DAY($C85)))</f>
+        <f t="shared" si="28"/>
         <v>44375</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+6,DAY($C85)))</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+7,DAY($C85)))</f>
+        <f t="shared" si="30"/>
         <v>44436</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+8,DAY($C85)))</f>
+        <f t="shared" si="31"/>
         <v>44467</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+9,DAY($C85)))</f>
+        <f t="shared" si="32"/>
         <v>44497</v>
       </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+10,DAY($C85)))</f>
+        <f t="shared" si="33"/>
         <v>44528</v>
       </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+11,DAY($C85)))</f>
+        <f t="shared" si="34"/>
         <v>44558</v>
       </c>
       <c r="AB85" s="1"/>
       <c r="AC85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+12,DAY($C85)))</f>
+        <f t="shared" si="35"/>
         <v>44589</v>
       </c>
       <c r="AD85" s="1"/>
@@ -15259,84 +15268,84 @@
         <v>370</v>
       </c>
       <c r="G86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+1,DAY($C86)))</f>
+        <f t="shared" si="24"/>
         <v>44770</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+2,DAY($C86)))</f>
+        <f t="shared" si="25"/>
         <v>44801</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+3,DAY($C86)))</f>
+        <f t="shared" si="26"/>
         <v>44832</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+4,DAY($C86)))</f>
+        <f t="shared" si="27"/>
         <v>44862</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+5,DAY($C86)))</f>
+        <f t="shared" si="28"/>
         <v>44893</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+6,DAY($C86)))</f>
+        <f t="shared" si="29"/>
         <v>44923</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+7,DAY($C86)))</f>
+        <f t="shared" si="30"/>
         <v>44954</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+8,DAY($C86)))</f>
+        <f t="shared" si="31"/>
         <v>44985</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+9,DAY($C86)))</f>
+        <f t="shared" si="32"/>
         <v>45013</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+10,DAY($C86)))</f>
+        <f t="shared" si="33"/>
         <v>45044</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+11,DAY($C86)))</f>
+        <f t="shared" si="34"/>
         <v>45074</v>
       </c>
       <c r="AB86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+12,DAY($C86)))</f>
+        <f t="shared" si="35"/>
         <v>45105</v>
       </c>
       <c r="AD86" s="1" t="s">
@@ -15362,80 +15371,80 @@
         <v>197</v>
       </c>
       <c r="G87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+1,DAY($C87)))</f>
+        <f t="shared" si="24"/>
         <v>44241</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+2,DAY($C87)))</f>
+        <f t="shared" si="25"/>
         <v>44269</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+3,DAY($C87)))</f>
+        <f t="shared" si="26"/>
         <v>44300</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+4,DAY($C87)))</f>
+        <f t="shared" si="27"/>
         <v>44330</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+5,DAY($C87)))</f>
+        <f t="shared" si="28"/>
         <v>44361</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+6,DAY($C87)))</f>
+        <f t="shared" si="29"/>
         <v>44391</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+7,DAY($C87)))</f>
+        <f t="shared" si="30"/>
         <v>44422</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+8,DAY($C87)))</f>
+        <f t="shared" si="31"/>
         <v>44453</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+9,DAY($C87)))</f>
+        <f t="shared" si="32"/>
         <v>44483</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+10,DAY($C87)))</f>
+        <f t="shared" si="33"/>
         <v>44514</v>
       </c>
       <c r="Z87" s="1"/>
       <c r="AA87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+11,DAY($C87)))</f>
+        <f t="shared" si="34"/>
         <v>44544</v>
       </c>
       <c r="AB87" s="1"/>
       <c r="AC87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+12,DAY($C87)))</f>
+        <f t="shared" si="35"/>
         <v>44575</v>
       </c>
       <c r="AD87" s="1"/>
@@ -15463,62 +15472,62 @@
         <v>356</v>
       </c>
       <c r="G88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+1,DAY($C88)))</f>
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+2,DAY($C88)))</f>
+        <f t="shared" si="25"/>
         <v>44923</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+3,DAY($C88)))</f>
+        <f t="shared" si="26"/>
         <v>44954</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+4,DAY($C88)))</f>
+        <f t="shared" si="27"/>
         <v>44985</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+5,DAY($C88)))</f>
+        <f t="shared" si="28"/>
         <v>45013</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+6,DAY($C88)))</f>
+        <f t="shared" si="29"/>
         <v>45044</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+7,DAY($C88)))</f>
+        <f t="shared" si="30"/>
         <v>45074</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+8,DAY($C88)))</f>
+        <f t="shared" si="31"/>
         <v>45105</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+9,DAY($C88)))</f>
+        <f t="shared" si="32"/>
         <v>45135</v>
       </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+10,DAY($C88)))</f>
+        <f t="shared" si="33"/>
         <v>45166</v>
       </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+11,DAY($C88)))</f>
+        <f t="shared" si="34"/>
         <v>45197</v>
       </c>
       <c r="AB88" s="1"/>
       <c r="AC88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+12,DAY($C88)))</f>
+        <f t="shared" si="35"/>
         <v>45227</v>
       </c>
       <c r="AD88" s="1"/>
@@ -15539,71 +15548,71 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="55" t="s">
+      <c r="F89" s="54" t="s">
         <v>374</v>
       </c>
       <c r="G89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+1,DAY($C89)))</f>
+        <f t="shared" si="24"/>
         <v>44954</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+2,DAY($C89)))</f>
+        <f t="shared" si="25"/>
         <v>44985</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+3,DAY($C89)))</f>
+        <f t="shared" si="26"/>
         <v>45013</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+4,DAY($C89)))</f>
+        <f t="shared" si="27"/>
         <v>45044</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+5,DAY($C89)))</f>
+        <f t="shared" si="28"/>
         <v>45074</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+6,DAY($C89)))</f>
+        <f t="shared" si="29"/>
         <v>45105</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+7,DAY($C89)))</f>
+        <f t="shared" si="30"/>
         <v>45135</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+8,DAY($C89)))</f>
+        <f t="shared" si="31"/>
         <v>45166</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+9,DAY($C89)))</f>
+        <f t="shared" si="32"/>
         <v>45197</v>
       </c>
       <c r="X89" s="1"/>
       <c r="Y89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+10,DAY($C89)))</f>
+        <f t="shared" si="33"/>
         <v>45227</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+11,DAY($C89)))</f>
+        <f t="shared" si="34"/>
         <v>45258</v>
       </c>
       <c r="AB89" s="1"/>
       <c r="AC89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+12,DAY($C89)))</f>
+        <f t="shared" si="35"/>
         <v>45288</v>
       </c>
       <c r="AD89" s="1"/>
@@ -15629,78 +15638,78 @@
         <v>265</v>
       </c>
       <c r="G90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+1,DAY($C90)))</f>
+        <f t="shared" si="24"/>
         <v>44680</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+2,DAY($C90)))</f>
+        <f t="shared" si="25"/>
         <v>44710</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+3,DAY($C90)))</f>
+        <f t="shared" si="26"/>
         <v>44741</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+4,DAY($C90)))</f>
+        <f t="shared" si="27"/>
         <v>44771</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+5,DAY($C90)))</f>
+        <f t="shared" si="28"/>
         <v>44802</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+6,DAY($C90)))</f>
+        <f t="shared" si="29"/>
         <v>44833</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+7,DAY($C90)))</f>
+        <f t="shared" si="30"/>
         <v>44863</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+8,DAY($C90)))</f>
+        <f t="shared" si="31"/>
         <v>44894</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+9,DAY($C90)))</f>
+        <f t="shared" si="32"/>
         <v>44924</v>
       </c>
       <c r="X90" s="1"/>
       <c r="Y90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+10,DAY($C90)))</f>
+        <f t="shared" si="33"/>
         <v>44955</v>
       </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+11,DAY($C90)))</f>
+        <f t="shared" si="34"/>
         <v>44986</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+12,DAY($C90)))</f>
+        <f t="shared" si="35"/>
         <v>45014</v>
       </c>
       <c r="AD90" s="1"/>
@@ -15727,70 +15736,70 @@
         <v>318</v>
       </c>
       <c r="G91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+1,DAY($C91)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+2,DAY($C91)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+3,DAY($C91)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+4,DAY($C91)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+5,DAY($C91)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+6,DAY($C91)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+7,DAY($C91)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+8,DAY($C91)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+9,DAY($C91)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+10,DAY($C91)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+11,DAY($C91)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB91" s="1"/>
       <c r="AC91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+12,DAY($C91)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD91" s="1"/>
@@ -15813,78 +15822,78 @@
       <c r="E92" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="53" t="s">
+      <c r="F92" s="52" t="s">
         <v>201</v>
       </c>
       <c r="G92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+1,DAY($C92)))</f>
+        <f t="shared" si="24"/>
         <v>44742</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+2,DAY($C92)))</f>
+        <f t="shared" si="25"/>
         <v>44772</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+3,DAY($C92)))</f>
+        <f t="shared" si="26"/>
         <v>44803</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+4,DAY($C92)))</f>
+        <f t="shared" si="27"/>
         <v>44834</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+5,DAY($C92)))</f>
+        <f t="shared" si="28"/>
         <v>44864</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+6,DAY($C92)))</f>
+        <f t="shared" si="29"/>
         <v>44895</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+7,DAY($C92)))</f>
+        <f t="shared" si="30"/>
         <v>44925</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+8,DAY($C92)))</f>
+        <f t="shared" si="31"/>
         <v>44956</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+9,DAY($C92)))</f>
+        <f t="shared" si="32"/>
         <v>44987</v>
       </c>
       <c r="X92" s="1"/>
       <c r="Y92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+10,DAY($C92)))</f>
+        <f t="shared" si="33"/>
         <v>45015</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+11,DAY($C92)))</f>
+        <f t="shared" si="34"/>
         <v>45046</v>
       </c>
       <c r="AB92" s="1"/>
       <c r="AC92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+12,DAY($C92)))</f>
+        <f t="shared" si="35"/>
         <v>45076</v>
       </c>
       <c r="AD92" s="1"/>
@@ -15904,89 +15913,89 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E93" s="42" t="s">
+      <c r="E93" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="72" t="s">
+      <c r="F93" s="70" t="s">
         <v>358</v>
       </c>
       <c r="G93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+1,DAY($C93)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+2,DAY($C93)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+3,DAY($C93)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+4,DAY($C93)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+5,DAY($C93)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+6,DAY($C93)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+7,DAY($C93)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+8,DAY($C93)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+9,DAY($C93)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+10,DAY($C93)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+11,DAY($C93)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+12,DAY($C93)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD93" s="1" t="s">
@@ -16011,88 +16020,88 @@
       <c r="E94" s="42" t="s">
         <v>375</v>
       </c>
-      <c r="F94" s="53" t="s">
+      <c r="F94" s="52" t="s">
         <v>185</v>
       </c>
       <c r="G94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+1,DAY($C94)))</f>
+        <f t="shared" si="24"/>
         <v>44555</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+2,DAY($C94)))</f>
+        <f t="shared" si="25"/>
         <v>44586</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+3,DAY($C94)))</f>
+        <f t="shared" si="26"/>
         <v>44617</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+4,DAY($C94)))</f>
+        <f t="shared" si="27"/>
         <v>44645</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+5,DAY($C94)))</f>
+        <f t="shared" si="28"/>
         <v>44676</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+6,DAY($C94)))</f>
+        <f t="shared" si="29"/>
         <v>44706</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+7,DAY($C94)))</f>
+        <f t="shared" si="30"/>
         <v>44737</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+8,DAY($C94)))</f>
+        <f t="shared" si="31"/>
         <v>44767</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+9,DAY($C94)))</f>
+        <f t="shared" si="32"/>
         <v>44798</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+10,DAY($C94)))</f>
+        <f t="shared" si="33"/>
         <v>44829</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+11,DAY($C94)))</f>
+        <f t="shared" si="34"/>
         <v>44859</v>
       </c>
       <c r="AB94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+12,DAY($C94)))</f>
+        <f t="shared" si="35"/>
         <v>44890</v>
       </c>
       <c r="AD94" s="1" t="s">
@@ -16107,81 +16116,81 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>澁谷 貴嗣</v>
       </c>
-      <c r="C95" s="54">
+      <c r="C95" s="53">
         <v>44530</v>
       </c>
-      <c r="D95" s="59">
+      <c r="D95" s="58">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E95" s="44" t="s">
+      <c r="E95" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="F95" s="61" t="s">
+      <c r="F95" s="60" t="s">
         <v>367</v>
       </c>
       <c r="G95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+1,DAY($C95)))</f>
+        <f t="shared" si="24"/>
         <v>44560</v>
       </c>
       <c r="H95" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+2,DAY($C95)))</f>
+        <f t="shared" si="25"/>
         <v>44591</v>
       </c>
       <c r="J95" s="45"/>
       <c r="K95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+3,DAY($C95)))</f>
+        <f t="shared" si="26"/>
         <v>44622</v>
       </c>
       <c r="L95" s="45"/>
       <c r="M95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+4,DAY($C95)))</f>
+        <f t="shared" si="27"/>
         <v>44650</v>
       </c>
       <c r="N95" s="45"/>
       <c r="O95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+5,DAY($C95)))</f>
+        <f t="shared" si="28"/>
         <v>44681</v>
       </c>
       <c r="P95" s="45"/>
       <c r="Q95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+6,DAY($C95)))</f>
+        <f t="shared" si="29"/>
         <v>44711</v>
       </c>
       <c r="R95" s="45"/>
       <c r="S95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+7,DAY($C95)))</f>
+        <f t="shared" si="30"/>
         <v>44742</v>
       </c>
       <c r="T95" s="45"/>
       <c r="U95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+8,DAY($C95)))</f>
+        <f t="shared" si="31"/>
         <v>44772</v>
       </c>
       <c r="V95" s="45"/>
       <c r="W95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+9,DAY($C95)))</f>
+        <f t="shared" si="32"/>
         <v>44803</v>
       </c>
       <c r="X95" s="45"/>
       <c r="Y95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+10,DAY($C95)))</f>
+        <f t="shared" si="33"/>
         <v>44834</v>
       </c>
       <c r="Z95" s="45"/>
       <c r="AA95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+11,DAY($C95)))</f>
+        <f t="shared" si="34"/>
         <v>44864</v>
       </c>
       <c r="AB95" s="45"/>
       <c r="AC95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+12,DAY($C95)))</f>
+        <f t="shared" si="35"/>
         <v>44895</v>
       </c>
-      <c r="AD95" s="75"/>
+      <c r="AD95" s="73"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="4" t="s">
@@ -16198,91 +16207,91 @@
       <c r="D96" s="19">
         <v>30</v>
       </c>
-      <c r="E96" s="63" t="s">
+      <c r="E96" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="F96" s="74" t="s">
+      <c r="F96" s="72" t="s">
         <v>366</v>
       </c>
       <c r="G96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+1,DAY($C96)))</f>
+        <f t="shared" si="24"/>
         <v>44584</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+2,DAY($C96)))</f>
+        <f t="shared" si="25"/>
         <v>44615</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+3,DAY($C96)))</f>
+        <f t="shared" si="26"/>
         <v>44643</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+4,DAY($C96)))</f>
+        <f t="shared" si="27"/>
         <v>44674</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+5,DAY($C96)))</f>
+        <f t="shared" si="28"/>
         <v>44704</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+6,DAY($C96)))</f>
+        <f t="shared" si="29"/>
         <v>44735</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+7,DAY($C96)))</f>
+        <f t="shared" si="30"/>
         <v>44765</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+8,DAY($C96)))</f>
+        <f t="shared" si="31"/>
         <v>44796</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+9,DAY($C96)))</f>
+        <f t="shared" si="32"/>
         <v>44827</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+10,DAY($C96)))</f>
+        <f t="shared" si="33"/>
         <v>44857</v>
       </c>
       <c r="Z96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+11,DAY($C96)))</f>
+        <f t="shared" si="34"/>
         <v>44888</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+12,DAY($C96)))</f>
+        <f t="shared" si="35"/>
         <v>44918</v>
       </c>
       <c r="AD96" s="14"/>
@@ -16306,74 +16315,74 @@
       <c r="E97" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F97" s="52" t="s">
+      <c r="F97" s="51" t="s">
         <v>321</v>
       </c>
       <c r="G97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+1,DAY($C97)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+2,DAY($C97)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+3,DAY($C97)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+4,DAY($C97)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+5,DAY($C97)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+6,DAY($C97)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+7,DAY($C97)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+8,DAY($C97)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+9,DAY($C97)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X97" s="1"/>
       <c r="Y97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+10,DAY($C97)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z97" s="1"/>
       <c r="AA97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+11,DAY($C97)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+12,DAY($C97)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD97" s="14"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A3C782-E516-4BA4-B9DD-14256A0F45C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DDBCC-6C44-4AF3-BA59-B9AAAA89C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="396">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2366,6 +2366,23 @@
   </si>
   <si>
     <t xml:space="preserve">ハヤテ </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行振込
+2024/6月まで振込</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フリコミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7130,10 +7147,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8700" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8710" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10569,7 +10586,7 @@
       </c>
       <c r="AD36" s="14"/>
     </row>
-    <row r="37" spans="1:30">
+    <row r="37" spans="1:30" ht="37.5">
       <c r="A37" s="9" t="s">
         <v>89</v>
       </c>
@@ -10584,8 +10601,8 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>14</v>
       </c>
-      <c r="E37" s="75" t="s">
-        <v>41</v>
+      <c r="E37" s="76" t="s">
+        <v>395</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>91</v>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DDBCC-6C44-4AF3-BA59-B9AAAA89C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89821A-4281-46F1-8A37-873FE651B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7147,10 +7147,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="8710" activePane="topRight"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F42" sqref="F42"/>
+      <selection pane="topRight" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10604,7 +10604,7 @@
       <c r="E37" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B89821A-4281-46F1-8A37-873FE651B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEDDC5-49A4-44D0-A2FA-B51F65EF14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="397">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2322,14 +2322,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KOUTAROU
-2023/4/20に振込</t>
-    <rPh sb="19" eb="21">
-      <t>フリコミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>b123</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2381,6 +2373,25 @@
       <t>ガツ</t>
     </rPh>
     <rPh sb="14" eb="16">
+      <t>フリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square定期
+2023/5/23に決済予定</t>
+    <rPh sb="19" eb="21">
+      <t>ケッサイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUTAROU
+2023/7/20に振込</t>
+    <rPh sb="19" eb="21">
       <t>フリコミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -2652,7 +2663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2786,9 +2797,6 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2838,6 +2846,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5053,7 +5070,7 @@
       <c r="A30" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="69" t="s">
+      <c r="B30" s="68" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="1"/>
@@ -7059,10 +7076,10 @@
     </row>
     <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7086,15 +7103,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7147,10 +7164,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F46" sqref="F46"/>
+      <selection pane="topRight" activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7659,7 +7676,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>1</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="75" t="s">
         <v>294</v>
       </c>
       <c r="F6" s="51" t="s">
@@ -7752,7 +7769,7 @@
       <c r="E7" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="66" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="3">
@@ -8028,11 +8045,11 @@
       <c r="A10" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="64" t="str">
+      <c r="B10" s="63" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>徳山　和也</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="64">
         <v>44869</v>
       </c>
       <c r="D10" s="19">
@@ -8134,7 +8151,7 @@
       <c r="A11" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="63" t="str">
+      <c r="B11" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>奥寺　響</v>
       </c>
@@ -8146,10 +8163,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>4</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="65" t="s">
         <v>237</v>
       </c>
       <c r="G11" s="49">
@@ -8161,7 +8178,7 @@
         <f t="shared" si="1"/>
         <v>44565</v>
       </c>
-      <c r="J11" s="62"/>
+      <c r="J11" s="61"/>
       <c r="K11" s="49">
         <f t="shared" si="2"/>
         <v>44596</v>
@@ -8211,7 +8228,7 @@
         <f t="shared" si="11"/>
         <v>44869</v>
       </c>
-      <c r="AD11" s="68"/>
+      <c r="AD11" s="67"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="9" t="s">
@@ -8429,7 +8446,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>6</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>227</v>
       </c>
       <c r="F14" s="52" t="s">
@@ -8722,7 +8739,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="78" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -8817,7 +8834,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="78" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -8900,7 +8917,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>8</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="79" t="s">
         <v>260</v>
       </c>
       <c r="F19" s="44" t="s">
@@ -9110,7 +9127,7 @@
       <c r="D21" s="19">
         <v>8</v>
       </c>
-      <c r="E21" s="79" t="s">
+      <c r="E21" s="78" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
@@ -9288,7 +9305,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9306,7 +9323,7 @@
         <v>159</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -9557,7 +9574,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9575,7 +9592,7 @@
         <v>159</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -9843,7 +9860,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>11</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -10601,8 +10618,8 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>14</v>
       </c>
-      <c r="E37" s="76" t="s">
-        <v>395</v>
+      <c r="E37" s="75" t="s">
+        <v>394</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>91</v>
@@ -11105,7 +11122,7 @@
         <v>8</v>
       </c>
       <c r="AC41" s="25"/>
-      <c r="AD41" s="74"/>
+      <c r="AD41" s="73"/>
     </row>
     <row r="42" spans="1:30" ht="37.5">
       <c r="A42" s="27" t="s">
@@ -11411,7 +11428,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>16</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>376</v>
       </c>
       <c r="F45" s="54" t="s">
@@ -11600,10 +11617,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="71" t="s">
+      <c r="F47" s="70" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
@@ -11698,7 +11715,7 @@
       <c r="D48" s="30">
         <v>17</v>
       </c>
-      <c r="E48" s="76" t="s">
+      <c r="E48" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="44" t="s">
@@ -11781,7 +11798,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
@@ -11863,7 +11880,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>18</v>
       </c>
-      <c r="E50" s="75" t="s">
+      <c r="E50" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="19" t="s">
@@ -12060,10 +12077,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E52" s="75" t="s">
+      <c r="E52" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="82" t="s">
         <v>352</v>
       </c>
       <c r="G52" s="3">
@@ -12359,7 +12376,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E55" s="76" t="s">
+      <c r="E55" s="75" t="s">
         <v>315</v>
       </c>
       <c r="F55" s="30" t="s">
@@ -12441,11 +12458,11 @@
       <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E56" s="76" t="s">
+      <c r="E56" s="75" t="s">
         <v>294</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12642,10 +12659,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E58" s="76" t="s">
+      <c r="E58" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="81" t="s">
         <v>363</v>
       </c>
       <c r="G58" s="3">
@@ -12918,10 +12935,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E61" s="75" t="s">
+      <c r="E61" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="81" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -13005,7 +13022,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>21</v>
       </c>
-      <c r="E62" s="75" t="s">
+      <c r="E62" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="26" t="s">
@@ -13092,7 +13109,7 @@
         <f t="shared" si="23"/>
         <v>44641</v>
       </c>
-      <c r="AD62" s="74" t="s">
+      <c r="AD62" s="73" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13680,7 +13697,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>23</v>
       </c>
-      <c r="E69" s="76" t="s">
+      <c r="E69" s="75" t="s">
         <v>341</v>
       </c>
       <c r="F69" s="54" t="s">
@@ -13772,7 +13789,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E70" s="75" t="s">
+      <c r="E70" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="42" t="s">
@@ -13962,7 +13979,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E72" s="76" t="s">
+      <c r="E72" s="75" t="s">
         <v>365</v>
       </c>
       <c r="F72" s="46" t="s">
@@ -14244,7 +14261,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>25</v>
       </c>
-      <c r="E75" s="76" t="s">
+      <c r="E75" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F75" s="30" t="s">
@@ -15182,7 +15199,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E85" s="75" t="s">
+      <c r="E85" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="19" t="s">
@@ -15565,7 +15582,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E89" s="76" t="s">
+      <c r="E89" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F89" s="54" t="s">
@@ -15930,10 +15947,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E93" s="76" t="s">
+      <c r="E93" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="70" t="s">
+      <c r="F93" s="69" t="s">
         <v>358</v>
       </c>
       <c r="G93" s="3">
@@ -16140,7 +16157,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="E95" s="75" t="s">
         <v>271</v>
       </c>
       <c r="F95" s="60" t="s">
@@ -16207,9 +16224,9 @@
         <f t="shared" si="35"/>
         <v>44895</v>
       </c>
-      <c r="AD95" s="73"/>
-    </row>
-    <row r="96" spans="1:30">
+      <c r="AD95" s="72"/>
+    </row>
+    <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
         <v>202</v>
       </c>
@@ -16224,10 +16241,10 @@
       <c r="D96" s="19">
         <v>30</v>
       </c>
-      <c r="E96" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="F96" s="72" t="s">
+      <c r="E96" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="F96" s="71" t="s">
         <v>366</v>
       </c>
       <c r="G96" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFEDDC5-49A4-44D0-A2FA-B51F65EF14BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3285C7D-849F-4A16-A5DB-586A65C13FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,7 +2663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2852,9 +2852,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7164,10 +7161,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F81" sqref="F81"/>
+      <selection pane="topRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12080,7 +12077,7 @@
       <c r="E52" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="82" t="s">
+      <c r="F52" s="42" t="s">
         <v>352</v>
       </c>
       <c r="G52" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3285C7D-849F-4A16-A5DB-586A65C13FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D06B385-DB6D-44CE-BE0B-F4A84B1A728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,7 +2663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2853,6 +2853,9 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4176,8 +4179,8 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7161,10 +7164,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10618,7 +10621,7 @@
       <c r="E37" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -12935,7 +12938,7 @@
       <c r="E61" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="54" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -13789,7 +13792,7 @@
       <c r="E70" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="44" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -13979,7 +13982,7 @@
       <c r="E72" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="82" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D06B385-DB6D-44CE-BE0B-F4A84B1A728C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2BD8FC-691E-4658-A5F1-91DCE200842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2663,7 +2663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2853,9 +2853,6 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7164,10 +7161,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F74" sqref="F74"/>
+      <selection pane="topRight" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12662,7 +12659,7 @@
       <c r="E58" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="54" t="s">
         <v>363</v>
       </c>
       <c r="G58" s="3">
@@ -13792,7 +13789,7 @@
       <c r="E70" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -13982,7 +13979,7 @@
       <c r="E72" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="F72" s="82" t="s">
+      <c r="F72" s="46" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">
@@ -15585,7 +15582,7 @@
       <c r="E89" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="81" t="s">
         <v>374</v>
       </c>
       <c r="G89" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2BD8FC-691E-4658-A5F1-91DCE200842C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57251D25-7E35-46DE-85BA-0AC073A33E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2144,14 +2144,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hide 
-2024/6/30で解約</t>
-    <rPh sb="16" eb="18">
-      <t>カイヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>b118</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2393,6 +2385,35 @@
 2023/7/20に振込</t>
     <rPh sb="19" eb="21">
       <t>フリコミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2024/6/30で解約</t>
+    </r>
+    <rPh sb="16" eb="18">
+      <t>カイヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2409,7 +2430,7 @@
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;"/>
     <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2487,6 +2508,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -2663,7 +2692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2850,9 +2879,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6780,7 +6806,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G87" s="3">
         <v>44807</v>
@@ -6923,10 +6949,10 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -6953,10 +6979,10 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -6983,10 +7009,10 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7013,10 +7039,10 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7043,10 +7069,10 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7073,10 +7099,10 @@
     </row>
     <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7100,15 +7126,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7161,10 +7187,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F89" sqref="F89"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7574,7 +7600,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7592,7 +7618,7 @@
         <v>159</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
@@ -7659,7 +7685,7 @@
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B6" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7677,7 +7703,7 @@
         <v>294</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" si="0"/>
@@ -9128,7 +9154,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9302,7 +9328,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9320,7 +9346,7 @@
         <v>159</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -9571,7 +9597,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9589,7 +9615,7 @@
         <v>159</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -10529,7 +10555,7 @@
         <v>161</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="12"/>
@@ -10616,7 +10642,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F37" s="19" t="s">
         <v>91</v>
@@ -11137,7 +11163,7 @@
         <v>15</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F42" s="19" t="s">
         <v>153</v>
@@ -11411,7 +11437,7 @@
     </row>
     <row r="45" spans="1:30" ht="37.5">
       <c r="A45" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11426,10 +11452,10 @@
         <v>16</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F45" s="54" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="12"/>
@@ -11781,7 +11807,7 @@
     </row>
     <row r="49" spans="1:30" ht="37.5">
       <c r="A49" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11799,7 +11825,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="12"/>
@@ -12459,7 +12485,7 @@
         <v>294</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12657,10 +12683,10 @@
         <v>20</v>
       </c>
       <c r="E58" s="75" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="12"/>
@@ -13129,7 +13155,7 @@
         <v>159</v>
       </c>
       <c r="F63" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="12"/>
@@ -13977,7 +14003,7 @@
         <v>24</v>
       </c>
       <c r="E72" s="75" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F72" s="46" t="s">
         <v>333</v>
@@ -15296,7 +15322,7 @@
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="24"/>
@@ -15497,7 +15523,7 @@
         <v>28</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F88" s="46" t="s">
         <v>356</v>
@@ -15565,7 +15591,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15582,8 +15608,8 @@
       <c r="E89" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="81" t="s">
-        <v>374</v>
+      <c r="F89" s="54" t="s">
+        <v>373</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="24"/>
@@ -15948,7 +15974,7 @@
         <v>41</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="24"/>
@@ -16049,7 +16075,7 @@
         <v>30</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F94" s="52" t="s">
         <v>185</v>
@@ -16158,7 +16184,7 @@
         <v>271</v>
       </c>
       <c r="F95" s="60" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G95" s="38">
         <f t="shared" si="24"/>
@@ -16239,10 +16265,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="80" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F96" s="71" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="24"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57251D25-7E35-46DE-85BA-0AC073A33E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668F9F4-0C02-4364-AEE6-AA8ADBE2B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7187,10 +7187,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7339,84 +7339,84 @@
         <v>255</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
         <v>44835</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I33" si="1">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
         <v>44866</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K33" si="2">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
         <v>44896</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3">
-        <f t="shared" ref="M2:M33" si="3">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
         <v>44927</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="3">
-        <f t="shared" ref="O2:O33" si="4">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
         <v>44958</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3">
-        <f t="shared" ref="Q2:Q33" si="5">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
         <v>44986</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S2" s="3">
-        <f t="shared" ref="S2:S33" si="6">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
         <v>45017</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="3">
-        <f t="shared" ref="U2:U33" si="7">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
         <v>45047</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="3">
-        <f t="shared" ref="W2:W33" si="8">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
         <v>45078</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" ref="Y2:Y33" si="9">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
         <v>45108</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="3">
-        <f t="shared" ref="AA2:AA33" si="10">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
         <v>45139</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC2" s="3">
-        <f t="shared" ref="AC2:AC40" si="11">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
+        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
         <v>45170</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -7446,62 +7446,62 @@
         <v>226</v>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+1,DAY($C3)))</f>
         <v>44621</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+2,DAY($C3)))</f>
         <v>44652</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+3,DAY($C3)))</f>
         <v>44682</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+4,DAY($C3)))</f>
         <v>44713</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+5,DAY($C3)))</f>
         <v>44743</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+6,DAY($C3)))</f>
         <v>44774</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+7,DAY($C3)))</f>
         <v>44805</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+8,DAY($C3)))</f>
         <v>44835</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+9,DAY($C3)))</f>
         <v>44866</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+10,DAY($C3)))</f>
         <v>44896</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+11,DAY($C3)))</f>
         <v>44927</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+12,DAY($C3)))</f>
         <v>44958</v>
       </c>
       <c r="AD3" s="14"/>
@@ -7528,72 +7528,72 @@
         <v>285</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+1,DAY($C4)))</f>
         <v>44759</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+2,DAY($C4)))</f>
         <v>44790</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+3,DAY($C4)))</f>
         <v>44821</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+4,DAY($C4)))</f>
         <v>44851</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+5,DAY($C4)))</f>
         <v>44882</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+6,DAY($C4)))</f>
         <v>44912</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+7,DAY($C4)))</f>
         <v>44943</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+8,DAY($C4)))</f>
         <v>44974</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+9,DAY($C4)))</f>
         <v>45002</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+10,DAY($C4)))</f>
         <v>45033</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+11,DAY($C4)))</f>
         <v>45063</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+12,DAY($C4)))</f>
         <v>45094</v>
       </c>
       <c r="AD4" s="1"/>
@@ -7621,64 +7621,64 @@
         <v>360</v>
       </c>
       <c r="G5" s="12">
-        <f t="shared" si="0"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+1,DAY($C5)))</f>
         <v>44896</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="12">
-        <f t="shared" si="1"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+2,DAY($C5)))</f>
         <v>44927</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+3,DAY($C5)))</f>
         <v>44958</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="12">
-        <f t="shared" si="3"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+4,DAY($C5)))</f>
         <v>44986</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="12">
-        <f t="shared" si="4"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+5,DAY($C5)))</f>
         <v>45017</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="12">
-        <f t="shared" si="5"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+6,DAY($C5)))</f>
         <v>45047</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+7,DAY($C5)))</f>
         <v>45078</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+8,DAY($C5)))</f>
         <v>45108</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+9,DAY($C5)))</f>
         <v>45139</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+10,DAY($C5)))</f>
         <v>45170</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+11,DAY($C5)))</f>
         <v>45200</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+12,DAY($C5)))</f>
         <v>45231</v>
       </c>
       <c r="AD5" s="18"/>
@@ -7706,70 +7706,70 @@
         <v>378</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" si="0"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+1,DAY($C6)))</f>
         <v>44805</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="12">
-        <f t="shared" si="1"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+2,DAY($C6)))</f>
         <v>44835</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+3,DAY($C6)))</f>
         <v>44866</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="12">
-        <f t="shared" si="3"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+4,DAY($C6)))</f>
         <v>44896</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="12">
-        <f t="shared" si="4"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+5,DAY($C6)))</f>
         <v>44927</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="12">
-        <f t="shared" si="5"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+6,DAY($C6)))</f>
         <v>44958</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+7,DAY($C6)))</f>
         <v>44986</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+8,DAY($C6)))</f>
         <v>45017</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+9,DAY($C6)))</f>
         <v>45047</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+10,DAY($C6)))</f>
         <v>45078</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+11,DAY($C6)))</f>
         <v>45108</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+12,DAY($C6)))</f>
         <v>45139</v>
       </c>
       <c r="AD6" s="10"/>
@@ -7796,84 +7796,84 @@
         <v>211</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+1,DAY($C7)))</f>
         <v>44836</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+2,DAY($C7)))</f>
         <v>44867</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+3,DAY($C7)))</f>
         <v>44897</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+4,DAY($C7)))</f>
         <v>44928</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+5,DAY($C7)))</f>
         <v>44959</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+6,DAY($C7)))</f>
         <v>44987</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+7,DAY($C7)))</f>
         <v>45018</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+8,DAY($C7)))</f>
         <v>45048</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+9,DAY($C7)))</f>
         <v>45079</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y7" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+10,DAY($C7)))</f>
         <v>45109</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA7" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+11,DAY($C7)))</f>
         <v>45140</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+12,DAY($C7)))</f>
         <v>45171</v>
       </c>
       <c r="AD7" s="14" t="s">
@@ -7903,78 +7903,78 @@
         <v>258</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+1,DAY($C8)))</f>
         <v>44683</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+2,DAY($C8)))</f>
         <v>44714</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+3,DAY($C8)))</f>
         <v>44744</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+4,DAY($C8)))</f>
         <v>44775</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+5,DAY($C8)))</f>
         <v>44806</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+6,DAY($C8)))</f>
         <v>44836</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+7,DAY($C8)))</f>
         <v>44867</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+8,DAY($C8)))</f>
         <v>44897</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+9,DAY($C8)))</f>
         <v>44928</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+10,DAY($C8)))</f>
         <v>44959</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+11,DAY($C8)))</f>
         <v>44987</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+12,DAY($C8)))</f>
         <v>45018</v>
       </c>
       <c r="AD8" s="1"/>
@@ -8002,64 +8002,64 @@
         <v>336</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+1,DAY($C9)))</f>
         <v>44837</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+2,DAY($C9)))</f>
         <v>44868</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+3,DAY($C9)))</f>
         <v>44898</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+4,DAY($C9)))</f>
         <v>44929</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+5,DAY($C9)))</f>
         <v>44960</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+6,DAY($C9)))</f>
         <v>44988</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+7,DAY($C9)))</f>
         <v>45019</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+8,DAY($C9)))</f>
         <v>45049</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+9,DAY($C9)))</f>
         <v>45080</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+10,DAY($C9)))</f>
         <v>45110</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+11,DAY($C9)))</f>
         <v>45141</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+12,DAY($C9)))</f>
         <v>45172</v>
       </c>
       <c r="AD9" s="1"/>
@@ -8086,84 +8086,84 @@
         <v>173</v>
       </c>
       <c r="G10" s="12">
-        <f t="shared" si="0"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+1,DAY($C10)))</f>
         <v>44899</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="12">
-        <f t="shared" si="1"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+2,DAY($C10)))</f>
         <v>44930</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="12">
-        <f t="shared" si="2"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+3,DAY($C10)))</f>
         <v>44961</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" si="3"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+4,DAY($C10)))</f>
         <v>44989</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="12">
-        <f t="shared" si="4"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+5,DAY($C10)))</f>
         <v>45020</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="12">
-        <f t="shared" si="5"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+6,DAY($C10)))</f>
         <v>45050</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+7,DAY($C10)))</f>
         <v>45081</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U10" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+8,DAY($C10)))</f>
         <v>45111</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+9,DAY($C10)))</f>
         <v>45142</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y10" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+10,DAY($C10)))</f>
         <v>45173</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AA10" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+11,DAY($C10)))</f>
         <v>45203</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC10" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+12,DAY($C10)))</f>
         <v>45234</v>
       </c>
       <c r="AD10" s="18" t="s">
@@ -8193,62 +8193,62 @@
         <v>237</v>
       </c>
       <c r="G11" s="49">
-        <f t="shared" si="0"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+1,DAY($C11)))</f>
         <v>44534</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="49">
-        <f t="shared" si="1"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+2,DAY($C11)))</f>
         <v>44565</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="49">
-        <f t="shared" si="2"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+3,DAY($C11)))</f>
         <v>44596</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" s="49">
-        <f t="shared" si="3"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+4,DAY($C11)))</f>
         <v>44624</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="49">
-        <f t="shared" si="4"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+5,DAY($C11)))</f>
         <v>44655</v>
       </c>
       <c r="P11" s="50"/>
       <c r="Q11" s="49">
-        <f t="shared" si="5"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+6,DAY($C11)))</f>
         <v>44685</v>
       </c>
       <c r="R11" s="50"/>
       <c r="S11" s="49">
-        <f t="shared" si="6"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+7,DAY($C11)))</f>
         <v>44716</v>
       </c>
       <c r="T11" s="50"/>
       <c r="U11" s="49">
-        <f t="shared" si="7"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+8,DAY($C11)))</f>
         <v>44746</v>
       </c>
       <c r="V11" s="50"/>
       <c r="W11" s="49">
-        <f t="shared" si="8"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+9,DAY($C11)))</f>
         <v>44777</v>
       </c>
       <c r="X11" s="50"/>
       <c r="Y11" s="49">
-        <f t="shared" si="9"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+10,DAY($C11)))</f>
         <v>44808</v>
       </c>
       <c r="Z11" s="50"/>
       <c r="AA11" s="49">
-        <f t="shared" si="10"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+11,DAY($C11)))</f>
         <v>44838</v>
       </c>
       <c r="AB11" s="50"/>
       <c r="AC11" s="49">
-        <f t="shared" si="11"/>
+        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+12,DAY($C11)))</f>
         <v>44869</v>
       </c>
       <c r="AD11" s="67"/>
@@ -8274,84 +8274,84 @@
         <v>188</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+1,DAY($C12)))</f>
         <v>44565</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+2,DAY($C12)))</f>
         <v>44596</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+3,DAY($C12)))</f>
         <v>44624</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+4,DAY($C12)))</f>
         <v>44655</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+5,DAY($C12)))</f>
         <v>44685</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+6,DAY($C12)))</f>
         <v>44716</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+7,DAY($C12)))</f>
         <v>44746</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U12" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+8,DAY($C12)))</f>
         <v>44777</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+9,DAY($C12)))</f>
         <v>44808</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y12" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+10,DAY($C12)))</f>
         <v>44838</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA12" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+11,DAY($C12)))</f>
         <v>44869</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC12" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+12,DAY($C12)))</f>
         <v>44899</v>
       </c>
       <c r="AD12" s="1" t="s">
@@ -8381,74 +8381,74 @@
         <v>274</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+1,DAY($C13)))</f>
         <v>44746</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+2,DAY($C13)))</f>
         <v>44777</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+3,DAY($C13)))</f>
         <v>44808</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+4,DAY($C13)))</f>
         <v>44838</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+5,DAY($C13)))</f>
         <v>44869</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q13" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+6,DAY($C13)))</f>
         <v>44899</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+7,DAY($C13)))</f>
         <v>44930</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+8,DAY($C13)))</f>
         <v>44961</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+9,DAY($C13)))</f>
         <v>44989</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+10,DAY($C13)))</f>
         <v>45020</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+11,DAY($C13)))</f>
         <v>45050</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+12,DAY($C13)))</f>
         <v>45081</v>
       </c>
       <c r="AD13" s="14"/>
@@ -8476,84 +8476,84 @@
         <v>164</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+1,DAY($C14)))</f>
         <v>44506</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+2,DAY($C14)))</f>
         <v>44536</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+3,DAY($C14)))</f>
         <v>44567</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+4,DAY($C14)))</f>
         <v>44598</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+5,DAY($C14)))</f>
         <v>44626</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+6,DAY($C14)))</f>
         <v>44657</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+7,DAY($C14)))</f>
         <v>44687</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+8,DAY($C14)))</f>
         <v>44718</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+9,DAY($C14)))</f>
         <v>44748</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+10,DAY($C14)))</f>
         <v>44779</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+11,DAY($C14)))</f>
         <v>44810</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+12,DAY($C14)))</f>
         <v>44840</v>
       </c>
       <c r="AD14" s="14" t="s">
@@ -8583,82 +8583,82 @@
         <v>230</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+1,DAY($C15)))</f>
         <v>44626</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+2,DAY($C15)))</f>
         <v>44657</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+3,DAY($C15)))</f>
         <v>44687</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+4,DAY($C15)))</f>
         <v>44718</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+5,DAY($C15)))</f>
         <v>44748</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+6,DAY($C15)))</f>
         <v>44779</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S15" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+7,DAY($C15)))</f>
         <v>44810</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+8,DAY($C15)))</f>
         <v>44840</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+9,DAY($C15)))</f>
         <v>44871</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+10,DAY($C15)))</f>
         <v>44901</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+11,DAY($C15)))</f>
         <v>44932</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+12,DAY($C15)))</f>
         <v>44963</v>
       </c>
       <c r="AD15" s="14"/>
@@ -8686,62 +8686,62 @@
         <v>305</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+1,DAY($C16)))</f>
         <v>44779</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+2,DAY($C16)))</f>
         <v>44810</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+3,DAY($C16)))</f>
         <v>44840</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+4,DAY($C16)))</f>
         <v>44871</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+5,DAY($C16)))</f>
         <v>44901</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+6,DAY($C16)))</f>
         <v>44932</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+7,DAY($C16)))</f>
         <v>44963</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+8,DAY($C16)))</f>
         <v>44991</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+9,DAY($C16)))</f>
         <v>45022</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+10,DAY($C16)))</f>
         <v>45052</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+11,DAY($C16)))</f>
         <v>45083</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+12,DAY($C16)))</f>
         <v>45113</v>
       </c>
       <c r="AD16" s="14"/>
@@ -8769,74 +8769,74 @@
         <v>165</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+1,DAY($C17)))</f>
         <v>44293</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+2,DAY($C17)))</f>
         <v>44323</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+3,DAY($C17)))</f>
         <v>44354</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+4,DAY($C17)))</f>
         <v>44384</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+5,DAY($C17)))</f>
         <v>44415</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+6,DAY($C17)))</f>
         <v>44446</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+7,DAY($C17)))</f>
         <v>44476</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+8,DAY($C17)))</f>
         <v>44507</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+9,DAY($C17)))</f>
         <v>44537</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+10,DAY($C17)))</f>
         <v>44568</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+11,DAY($C17)))</f>
         <v>44599</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+12,DAY($C17)))</f>
         <v>44627</v>
       </c>
       <c r="AD17" s="14"/>
@@ -8864,62 +8864,62 @@
         <v>48</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+1,DAY($C18)))</f>
         <v>44293</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+2,DAY($C18)))</f>
         <v>44323</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+3,DAY($C18)))</f>
         <v>44354</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+4,DAY($C18)))</f>
         <v>44384</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+5,DAY($C18)))</f>
         <v>44415</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+6,DAY($C18)))</f>
         <v>44446</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+7,DAY($C18)))</f>
         <v>44476</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+8,DAY($C18)))</f>
         <v>44507</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+9,DAY($C18)))</f>
         <v>44537</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+10,DAY($C18)))</f>
         <v>44568</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+11,DAY($C18)))</f>
         <v>44599</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+12,DAY($C18)))</f>
         <v>44627</v>
       </c>
       <c r="AD18" s="1"/>
@@ -8947,84 +8947,84 @@
         <v>340</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+1,DAY($C19)))</f>
         <v>44477</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+2,DAY($C19)))</f>
         <v>44508</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+3,DAY($C19)))</f>
         <v>44538</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+4,DAY($C19)))</f>
         <v>44569</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+5,DAY($C19)))</f>
         <v>44600</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+6,DAY($C19)))</f>
         <v>44628</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S19" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+7,DAY($C19)))</f>
         <v>44659</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+8,DAY($C19)))</f>
         <v>44689</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+9,DAY($C19)))</f>
         <v>44720</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+10,DAY($C19)))</f>
         <v>44750</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+11,DAY($C19)))</f>
         <v>44781</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+12,DAY($C19)))</f>
         <v>44812</v>
       </c>
       <c r="AD19" s="1"/>
@@ -9051,84 +9051,84 @@
         <v>192</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+1,DAY($C20)))</f>
         <v>44568</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+2,DAY($C20)))</f>
         <v>44599</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+3,DAY($C20)))</f>
         <v>44627</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+4,DAY($C20)))</f>
         <v>44658</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+5,DAY($C20)))</f>
         <v>44688</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+6,DAY($C20)))</f>
         <v>44719</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S20" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+7,DAY($C20)))</f>
         <v>44749</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U20" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+8,DAY($C20)))</f>
         <v>44780</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+9,DAY($C20)))</f>
         <v>44811</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y20" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+10,DAY($C20)))</f>
         <v>44841</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA20" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+11,DAY($C20)))</f>
         <v>44872</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC20" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+12,DAY($C20)))</f>
         <v>44902</v>
       </c>
       <c r="AD20" s="1" t="s">
@@ -9157,80 +9157,80 @@
         <v>385</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+1,DAY($C21)))</f>
         <v>44676</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+2,DAY($C21)))</f>
         <v>44706</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+3,DAY($C21)))</f>
         <v>44737</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+4,DAY($C21)))</f>
         <v>44767</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+5,DAY($C21)))</f>
         <v>44798</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+6,DAY($C21)))</f>
         <v>44829</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+7,DAY($C21)))</f>
         <v>44859</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+8,DAY($C21)))</f>
         <v>44890</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+9,DAY($C21)))</f>
         <v>44920</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+10,DAY($C21)))</f>
         <v>44951</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+11,DAY($C21)))</f>
         <v>44982</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+12,DAY($C21)))</f>
         <v>45010</v>
       </c>
       <c r="AD21" s="1"/>
@@ -9256,72 +9256,72 @@
         <v>78</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+1,DAY($C22)))</f>
         <v>44781</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+2,DAY($C22)))</f>
         <v>44812</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+3,DAY($C22)))</f>
         <v>44842</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+4,DAY($C22)))</f>
         <v>44873</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+5,DAY($C22)))</f>
         <v>44903</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+6,DAY($C22)))</f>
         <v>44934</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+7,DAY($C22)))</f>
         <v>44965</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+8,DAY($C22)))</f>
         <v>44993</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+9,DAY($C22)))</f>
         <v>45024</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+10,DAY($C22)))</f>
         <v>45054</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+11,DAY($C22)))</f>
         <v>45085</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+12,DAY($C22)))</f>
         <v>45115</v>
       </c>
       <c r="AD22" s="1"/>
@@ -9349,62 +9349,62 @@
         <v>392</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+1,DAY($C23)))</f>
         <v>45086</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+2,DAY($C23)))</f>
         <v>45116</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+3,DAY($C23)))</f>
         <v>45147</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+4,DAY($C23)))</f>
         <v>45178</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+5,DAY($C23)))</f>
         <v>45208</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+6,DAY($C23)))</f>
         <v>45239</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+7,DAY($C23)))</f>
         <v>45269</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+8,DAY($C23)))</f>
         <v>45300</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+9,DAY($C23)))</f>
         <v>45331</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+10,DAY($C23)))</f>
         <v>45360</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+11,DAY($C23)))</f>
         <v>45391</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+12,DAY($C23)))</f>
         <v>45421</v>
       </c>
       <c r="AD23" s="14"/>
@@ -9431,84 +9431,84 @@
         <v>206</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+1,DAY($C24)))</f>
         <v>44607</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+2,DAY($C24)))</f>
         <v>44635</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+3,DAY($C24)))</f>
         <v>44666</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+4,DAY($C24)))</f>
         <v>44696</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+5,DAY($C24)))</f>
         <v>44727</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+6,DAY($C24)))</f>
         <v>44757</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S24" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+7,DAY($C24)))</f>
         <v>44788</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U24" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+8,DAY($C24)))</f>
         <v>44819</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+9,DAY($C24)))</f>
         <v>44849</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y24" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+10,DAY($C24)))</f>
         <v>44880</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA24" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+11,DAY($C24)))</f>
         <v>44910</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC24" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+12,DAY($C24)))</f>
         <v>44941</v>
       </c>
       <c r="AD24" s="1"/>
@@ -9535,62 +9535,62 @@
         <v>321</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+1,DAY($C25)))</f>
         <v>45209</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+2,DAY($C25)))</f>
         <v>45240</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+3,DAY($C25)))</f>
         <v>45270</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+4,DAY($C25)))</f>
         <v>45301</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+5,DAY($C25)))</f>
         <v>45332</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+6,DAY($C25)))</f>
         <v>45361</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+7,DAY($C25)))</f>
         <v>45392</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+8,DAY($C25)))</f>
         <v>45422</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+9,DAY($C25)))</f>
         <v>45453</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+10,DAY($C25)))</f>
         <v>45483</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+11,DAY($C25)))</f>
         <v>45514</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+12,DAY($C25)))</f>
         <v>45545</v>
       </c>
       <c r="AD25" s="14"/>
@@ -9618,70 +9618,70 @@
         <v>388</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+1,DAY($C26)))</f>
         <v>45056</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+2,DAY($C26)))</f>
         <v>45087</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+3,DAY($C26)))</f>
         <v>45117</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+4,DAY($C26)))</f>
         <v>45148</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+5,DAY($C26)))</f>
         <v>45179</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+6,DAY($C26)))</f>
         <v>45209</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+7,DAY($C26)))</f>
         <v>45240</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+8,DAY($C26)))</f>
         <v>45270</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+9,DAY($C26)))</f>
         <v>45301</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+10,DAY($C26)))</f>
         <v>45332</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+11,DAY($C26)))</f>
         <v>45361</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+12,DAY($C26)))</f>
         <v>45392</v>
       </c>
       <c r="AD26" s="14"/>
@@ -9708,72 +9708,72 @@
         <v>70</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+1,DAY($C27)))</f>
         <v>44753</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+2,DAY($C27)))</f>
         <v>44784</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+3,DAY($C27)))</f>
         <v>44815</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+4,DAY($C27)))</f>
         <v>44845</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+5,DAY($C27)))</f>
         <v>44876</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q27" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+6,DAY($C27)))</f>
         <v>44906</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+7,DAY($C27)))</f>
         <v>44937</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+8,DAY($C27)))</f>
         <v>44968</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+9,DAY($C27)))</f>
         <v>44996</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+10,DAY($C27)))</f>
         <v>45027</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+11,DAY($C27)))</f>
         <v>45057</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+12,DAY($C27)))</f>
         <v>45088</v>
       </c>
       <c r="AD27" s="14"/>
@@ -9800,70 +9800,70 @@
         <v>81</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+1,DAY($C28)))</f>
         <v>44784</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+2,DAY($C28)))</f>
         <v>44815</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+3,DAY($C28)))</f>
         <v>44845</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+4,DAY($C28)))</f>
         <v>44876</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+5,DAY($C28)))</f>
         <v>44906</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+6,DAY($C28)))</f>
         <v>44937</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+7,DAY($C28)))</f>
         <v>44968</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+8,DAY($C28)))</f>
         <v>44996</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+9,DAY($C28)))</f>
         <v>45027</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+10,DAY($C28)))</f>
         <v>45057</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+11,DAY($C28)))</f>
         <v>45088</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+12,DAY($C28)))</f>
         <v>45118</v>
       </c>
       <c r="AD28" s="1"/>
@@ -9890,72 +9890,72 @@
         <v>84</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+1,DAY($C29)))</f>
         <v>44784</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+2,DAY($C29)))</f>
         <v>44815</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+3,DAY($C29)))</f>
         <v>44845</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+4,DAY($C29)))</f>
         <v>44876</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+5,DAY($C29)))</f>
         <v>44906</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+6,DAY($C29)))</f>
         <v>44937</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+7,DAY($C29)))</f>
         <v>44968</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+8,DAY($C29)))</f>
         <v>44996</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+9,DAY($C29)))</f>
         <v>45027</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+10,DAY($C29)))</f>
         <v>45057</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+11,DAY($C29)))</f>
         <v>45088</v>
       </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+12,DAY($C29)))</f>
         <v>45118</v>
       </c>
       <c r="AD29" s="1"/>
@@ -9983,84 +9983,84 @@
         <v>97</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+1,DAY($C30)))</f>
         <v>44603</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+2,DAY($C30)))</f>
         <v>44631</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+3,DAY($C30)))</f>
         <v>44662</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+4,DAY($C30)))</f>
         <v>44692</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+5,DAY($C30)))</f>
         <v>44723</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q30" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+6,DAY($C30)))</f>
         <v>44753</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S30" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+7,DAY($C30)))</f>
         <v>44784</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U30" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+8,DAY($C30)))</f>
         <v>44815</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W30" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+9,DAY($C30)))</f>
         <v>44845</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y30" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+10,DAY($C30)))</f>
         <v>44876</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA30" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+11,DAY($C30)))</f>
         <v>44906</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC30" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+12,DAY($C30)))</f>
         <v>44937</v>
       </c>
       <c r="AD30" s="1"/>
@@ -10088,80 +10088,80 @@
         <v>244</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+1,DAY($C31)))</f>
         <v>44662</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+2,DAY($C31)))</f>
         <v>44692</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+3,DAY($C31)))</f>
         <v>44723</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+4,DAY($C31)))</f>
         <v>44753</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+5,DAY($C31)))</f>
         <v>44784</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q31" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+6,DAY($C31)))</f>
         <v>44815</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S31" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+7,DAY($C31)))</f>
         <v>44845</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U31" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+8,DAY($C31)))</f>
         <v>44876</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+9,DAY($C31)))</f>
         <v>44906</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y31" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+10,DAY($C31)))</f>
         <v>44937</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+11,DAY($C31)))</f>
         <v>44968</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+12,DAY($C31)))</f>
         <v>44996</v>
       </c>
       <c r="AD31" s="14"/>
@@ -10188,70 +10188,70 @@
         <v>129</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+1,DAY($C32)))</f>
         <v>44816</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+2,DAY($C32)))</f>
         <v>44846</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+3,DAY($C32)))</f>
         <v>44877</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+4,DAY($C32)))</f>
         <v>44907</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+5,DAY($C32)))</f>
         <v>44938</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+6,DAY($C32)))</f>
         <v>44969</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+7,DAY($C32)))</f>
         <v>44997</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+8,DAY($C32)))</f>
         <v>45028</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+9,DAY($C32)))</f>
         <v>45058</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+10,DAY($C32)))</f>
         <v>45089</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+11,DAY($C32)))</f>
         <v>45119</v>
       </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+12,DAY($C32)))</f>
         <v>45150</v>
       </c>
       <c r="AD32" s="14"/>
@@ -10279,84 +10279,84 @@
         <v>212</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="0"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+1,DAY($C33)))</f>
         <v>44512</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+2,DAY($C33)))</f>
         <v>44542</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+3,DAY($C33)))</f>
         <v>44573</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+4,DAY($C33)))</f>
         <v>44604</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="4"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+5,DAY($C33)))</f>
         <v>44632</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q33" s="3">
-        <f t="shared" si="5"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+6,DAY($C33)))</f>
         <v>44663</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S33" s="3">
-        <f t="shared" si="6"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+7,DAY($C33)))</f>
         <v>44693</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U33" s="3">
-        <f t="shared" si="7"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+8,DAY($C33)))</f>
         <v>44724</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W33" s="3">
-        <f t="shared" si="8"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+9,DAY($C33)))</f>
         <v>44754</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y33" s="3">
-        <f t="shared" si="9"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+10,DAY($C33)))</f>
         <v>44785</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA33" s="3">
-        <f t="shared" si="10"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+11,DAY($C33)))</f>
         <v>44816</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC33" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+12,DAY($C33)))</f>
         <v>44846</v>
       </c>
       <c r="AD33" s="14" t="s">
@@ -10386,70 +10386,70 @@
         <v>324</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
         <v>44816</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34:I65" si="13">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
         <v>44846</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K34" s="3">
-        <f t="shared" ref="K34:K65" si="14">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
         <v>44877</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" ref="M34:M65" si="15">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
         <v>44907</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" ref="O34:O65" si="16">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
         <v>44938</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3">
-        <f t="shared" ref="Q34:Q65" si="17">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
         <v>44969</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="3">
-        <f t="shared" ref="S34:S65" si="18">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
         <v>44997</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="3">
-        <f t="shared" ref="U34:U65" si="19">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
         <v>45028</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="3">
-        <f t="shared" ref="W34:W65" si="20">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
         <v>45058</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="3">
-        <f t="shared" ref="Y34:Y65" si="21">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
         <v>45089</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="3">
-        <f t="shared" ref="AA34:AA65" si="22">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
         <v>45119</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+12,DAY($C34)))</f>
         <v>45150</v>
       </c>
       <c r="AD34" s="14"/>
@@ -10474,64 +10474,64 @@
         <v>170</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+1,DAY($C35)))</f>
         <v>44513</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+2,DAY($C35)))</f>
         <v>44543</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+3,DAY($C35)))</f>
         <v>44574</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+4,DAY($C35)))</f>
         <v>44605</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+5,DAY($C35)))</f>
         <v>44633</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+6,DAY($C35)))</f>
         <v>44664</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+7,DAY($C35)))</f>
         <v>44694</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+8,DAY($C35)))</f>
         <v>44725</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+9,DAY($C35)))</f>
         <v>44755</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+10,DAY($C35)))</f>
         <v>44786</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+11,DAY($C35)))</f>
         <v>44817</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+12,DAY($C35)))</f>
         <v>44847</v>
       </c>
       <c r="AD35" s="14"/>
@@ -10558,70 +10558,70 @@
         <v>363</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+1,DAY($C36)))</f>
         <v>44787</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+2,DAY($C36)))</f>
         <v>44818</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+3,DAY($C36)))</f>
         <v>44848</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+4,DAY($C36)))</f>
         <v>44879</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+5,DAY($C36)))</f>
         <v>44909</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+6,DAY($C36)))</f>
         <v>44940</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+7,DAY($C36)))</f>
         <v>44971</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+8,DAY($C36)))</f>
         <v>44999</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+9,DAY($C36)))</f>
         <v>45030</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+10,DAY($C36)))</f>
         <v>45060</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+11,DAY($C36)))</f>
         <v>45091</v>
       </c>
       <c r="AB36" s="1"/>
       <c r="AC36" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+12,DAY($C36)))</f>
         <v>45121</v>
       </c>
       <c r="AD36" s="14"/>
@@ -10648,84 +10648,84 @@
         <v>91</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+1,DAY($C37)))</f>
         <v>44787</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+2,DAY($C37)))</f>
         <v>44818</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+3,DAY($C37)))</f>
         <v>44848</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+4,DAY($C37)))</f>
         <v>44879</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+5,DAY($C37)))</f>
         <v>44909</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+6,DAY($C37)))</f>
         <v>44940</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+7,DAY($C37)))</f>
         <v>44971</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+8,DAY($C37)))</f>
         <v>44999</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+9,DAY($C37)))</f>
         <v>45030</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+10,DAY($C37)))</f>
         <v>45060</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA37" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+11,DAY($C37)))</f>
         <v>45091</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC37" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+12,DAY($C37)))</f>
         <v>45121</v>
       </c>
       <c r="AD37" s="1" t="s">
@@ -10754,80 +10754,80 @@
         <v>139</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+1,DAY($C38)))</f>
         <v>44818</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+2,DAY($C38)))</f>
         <v>44848</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+3,DAY($C38)))</f>
         <v>44879</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+4,DAY($C38)))</f>
         <v>44909</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+5,DAY($C38)))</f>
         <v>44940</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+6,DAY($C38)))</f>
         <v>44971</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+7,DAY($C38)))</f>
         <v>44999</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+8,DAY($C38)))</f>
         <v>45030</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+9,DAY($C38)))</f>
         <v>45060</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y38" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+10,DAY($C38)))</f>
         <v>45091</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+11,DAY($C38)))</f>
         <v>45121</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC38" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+12,DAY($C38)))</f>
         <v>45152</v>
       </c>
       <c r="AD38" s="14" t="s">
@@ -10856,84 +10856,84 @@
         <v>178</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+1,DAY($C39)))</f>
         <v>44544</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+2,DAY($C39)))</f>
         <v>44575</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+3,DAY($C39)))</f>
         <v>44606</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+4,DAY($C39)))</f>
         <v>44634</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+5,DAY($C39)))</f>
         <v>44665</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q39" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+6,DAY($C39)))</f>
         <v>44695</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S39" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+7,DAY($C39)))</f>
         <v>44726</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U39" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+8,DAY($C39)))</f>
         <v>44756</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W39" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+9,DAY($C39)))</f>
         <v>44787</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y39" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+10,DAY($C39)))</f>
         <v>44818</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA39" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+11,DAY($C39)))</f>
         <v>44848</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC39" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+12,DAY($C39)))</f>
         <v>44879</v>
       </c>
       <c r="AD39" s="1" t="s">
@@ -10963,84 +10963,84 @@
         <v>194</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+1,DAY($C40)))</f>
         <v>44575</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+2,DAY($C40)))</f>
         <v>44606</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K40" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+3,DAY($C40)))</f>
         <v>44634</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+4,DAY($C40)))</f>
         <v>44665</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+5,DAY($C40)))</f>
         <v>44695</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q40" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+6,DAY($C40)))</f>
         <v>44726</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S40" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+7,DAY($C40)))</f>
         <v>44756</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U40" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+8,DAY($C40)))</f>
         <v>44787</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W40" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+9,DAY($C40)))</f>
         <v>44818</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y40" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+10,DAY($C40)))</f>
         <v>44848</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA40" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+11,DAY($C40)))</f>
         <v>44879</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC40" s="3">
-        <f t="shared" si="11"/>
+        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+12,DAY($C40)))</f>
         <v>44909</v>
       </c>
       <c r="AD40" s="1"/>
@@ -11068,77 +11068,77 @@
         <v>60</v>
       </c>
       <c r="G41" s="25">
-        <f t="shared" si="12"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+1,DAY($C41)))</f>
         <v>44301</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="25">
-        <f t="shared" si="13"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+2,DAY($C41)))</f>
         <v>44331</v>
       </c>
       <c r="J41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="25">
-        <f t="shared" si="14"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+3,DAY($C41)))</f>
         <v>44362</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="25">
-        <f t="shared" si="15"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+4,DAY($C41)))</f>
         <v>44392</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="25">
-        <f t="shared" si="16"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+5,DAY($C41)))</f>
         <v>44423</v>
       </c>
       <c r="P41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" si="17"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+6,DAY($C41)))</f>
         <v>44454</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="25">
-        <f t="shared" si="18"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+7,DAY($C41)))</f>
         <v>44484</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="25">
-        <f t="shared" si="19"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+8,DAY($C41)))</f>
         <v>44515</v>
       </c>
       <c r="V41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="25">
-        <f t="shared" si="20"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+9,DAY($C41)))</f>
         <v>44545</v>
       </c>
       <c r="X41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="25">
-        <f t="shared" si="21"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+10,DAY($C41)))</f>
         <v>44576</v>
       </c>
       <c r="Z41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="25">
-        <f t="shared" si="22"/>
+        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+11,DAY($C41)))</f>
         <v>44607</v>
       </c>
       <c r="AB41" s="36" t="s">
@@ -11169,80 +11169,80 @@
         <v>153</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+1,DAY($C42)))</f>
         <v>44484</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+2,DAY($C42)))</f>
         <v>44515</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+3,DAY($C42)))</f>
         <v>44545</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+4,DAY($C42)))</f>
         <v>44576</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+5,DAY($C42)))</f>
         <v>44607</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+6,DAY($C42)))</f>
         <v>44635</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+7,DAY($C42)))</f>
         <v>44666</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+8,DAY($C42)))</f>
         <v>44696</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+9,DAY($C42)))</f>
         <v>44727</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+10,DAY($C42)))</f>
         <v>44757</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA42" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+11,DAY($C42)))</f>
         <v>44788</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC42" s="3">
-        <f t="shared" ref="AC42:AC73" si="23">IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
+        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
         <v>44819</v>
       </c>
       <c r="AD42" s="14" t="s">
@@ -11272,74 +11272,74 @@
         <v>269</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+1,DAY($C43)))</f>
         <v>44727</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+2,DAY($C43)))</f>
         <v>44757</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+3,DAY($C43)))</f>
         <v>44788</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+4,DAY($C43)))</f>
         <v>44819</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+5,DAY($C43)))</f>
         <v>44849</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+6,DAY($C43)))</f>
         <v>44880</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+7,DAY($C43)))</f>
         <v>44910</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+8,DAY($C43)))</f>
         <v>44941</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+9,DAY($C43)))</f>
         <v>44972</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+10,DAY($C43)))</f>
         <v>45000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+11,DAY($C43)))</f>
         <v>45031</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+12,DAY($C43)))</f>
         <v>45061</v>
       </c>
       <c r="AD43" s="14"/>
@@ -11367,70 +11367,70 @@
         <v>308</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+1,DAY($C44)))</f>
         <v>44788</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+2,DAY($C44)))</f>
         <v>44819</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+3,DAY($C44)))</f>
         <v>44849</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+4,DAY($C44)))</f>
         <v>44880</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+5,DAY($C44)))</f>
         <v>44910</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+6,DAY($C44)))</f>
         <v>44941</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+7,DAY($C44)))</f>
         <v>44972</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+8,DAY($C44)))</f>
         <v>45000</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+9,DAY($C44)))</f>
         <v>45031</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+10,DAY($C44)))</f>
         <v>45061</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+11,DAY($C44)))</f>
         <v>45092</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+12,DAY($C44)))</f>
         <v>45122</v>
       </c>
       <c r="AD44" s="14"/>
@@ -11458,62 +11458,62 @@
         <v>372</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+1,DAY($C45)))</f>
         <v>44942</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+2,DAY($C45)))</f>
         <v>44973</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+3,DAY($C45)))</f>
         <v>45001</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+4,DAY($C45)))</f>
         <v>45032</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+5,DAY($C45)))</f>
         <v>45062</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+6,DAY($C45)))</f>
         <v>45093</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+7,DAY($C45)))</f>
         <v>45123</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+8,DAY($C45)))</f>
         <v>45154</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+9,DAY($C45)))</f>
         <v>45185</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+10,DAY($C45)))</f>
         <v>45215</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+11,DAY($C45)))</f>
         <v>45246</v>
       </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+12,DAY($C45)))</f>
         <v>45276</v>
       </c>
       <c r="AD45" s="14"/>
@@ -11540,84 +11540,84 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+1,DAY($C46)))</f>
         <v>44790</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+2,DAY($C46)))</f>
         <v>44821</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+3,DAY($C46)))</f>
         <v>44851</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+4,DAY($C46)))</f>
         <v>44882</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+5,DAY($C46)))</f>
         <v>44912</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+6,DAY($C46)))</f>
         <v>44943</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+7,DAY($C46)))</f>
         <v>44974</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+8,DAY($C46)))</f>
         <v>45002</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+9,DAY($C46)))</f>
         <v>45033</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y46" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+10,DAY($C46)))</f>
         <v>45063</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA46" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+11,DAY($C46)))</f>
         <v>45094</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC46" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+12,DAY($C46)))</f>
         <v>45124</v>
       </c>
       <c r="AD46" s="1" t="s">
@@ -11647,78 +11647,78 @@
         <v>351</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+1,DAY($C47)))</f>
         <v>44668</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+2,DAY($C47)))</f>
         <v>44698</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+3,DAY($C47)))</f>
         <v>44729</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+4,DAY($C47)))</f>
         <v>44759</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+5,DAY($C47)))</f>
         <v>44790</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q47" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+6,DAY($C47)))</f>
         <v>44821</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S47" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+7,DAY($C47)))</f>
         <v>44851</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+8,DAY($C47)))</f>
         <v>44882</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W47" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+9,DAY($C47)))</f>
         <v>44912</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+10,DAY($C47)))</f>
         <v>44943</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+11,DAY($C47)))</f>
         <v>44974</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+12,DAY($C47)))</f>
         <v>45002</v>
       </c>
       <c r="AD47" s="1"/>
@@ -11745,62 +11745,62 @@
         <v>357</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+1,DAY($C48)))</f>
         <v>44748</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+2,DAY($C48)))</f>
         <v>44779</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+3,DAY($C48)))</f>
         <v>44810</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+4,DAY($C48)))</f>
         <v>44840</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+5,DAY($C48)))</f>
         <v>44871</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+6,DAY($C48)))</f>
         <v>44901</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+7,DAY($C48)))</f>
         <v>44932</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+8,DAY($C48)))</f>
         <v>44963</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+9,DAY($C48)))</f>
         <v>44991</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+10,DAY($C48)))</f>
         <v>45022</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+11,DAY($C48)))</f>
         <v>45052</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+12,DAY($C48)))</f>
         <v>45083</v>
       </c>
       <c r="AD48" s="1"/>
@@ -11828,62 +11828,62 @@
         <v>384</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+1,DAY($C49)))</f>
         <v>45002</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+2,DAY($C49)))</f>
         <v>45033</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+3,DAY($C49)))</f>
         <v>45063</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+4,DAY($C49)))</f>
         <v>45094</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+5,DAY($C49)))</f>
         <v>45124</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+6,DAY($C49)))</f>
         <v>45155</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+7,DAY($C49)))</f>
         <v>45186</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+8,DAY($C49)))</f>
         <v>45216</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+9,DAY($C49)))</f>
         <v>45247</v>
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+10,DAY($C49)))</f>
         <v>45277</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+11,DAY($C49)))</f>
         <v>45308</v>
       </c>
       <c r="AB49" s="1"/>
       <c r="AC49" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+12,DAY($C49)))</f>
         <v>45339</v>
       </c>
       <c r="AD49" s="14"/>
@@ -11910,84 +11910,84 @@
         <v>59</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+1,DAY($C50)))</f>
         <v>44334</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+2,DAY($C50)))</f>
         <v>44365</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+3,DAY($C50)))</f>
         <v>44395</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+4,DAY($C50)))</f>
         <v>44426</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+5,DAY($C50)))</f>
         <v>44457</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+6,DAY($C50)))</f>
         <v>44487</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+7,DAY($C50)))</f>
         <v>44518</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+8,DAY($C50)))</f>
         <v>44548</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+9,DAY($C50)))</f>
         <v>44579</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y50" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+10,DAY($C50)))</f>
         <v>44610</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA50" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+11,DAY($C50)))</f>
         <v>44638</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC50" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+12,DAY($C50)))</f>
         <v>44669</v>
       </c>
       <c r="AD50" s="14" t="s">
@@ -12017,70 +12017,70 @@
         <v>311</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+1,DAY($C51)))</f>
         <v>44791</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+2,DAY($C51)))</f>
         <v>44822</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+3,DAY($C51)))</f>
         <v>44852</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+4,DAY($C51)))</f>
         <v>44883</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+5,DAY($C51)))</f>
         <v>44913</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+6,DAY($C51)))</f>
         <v>44944</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+7,DAY($C51)))</f>
         <v>44975</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+8,DAY($C51)))</f>
         <v>45003</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+9,DAY($C51)))</f>
         <v>45034</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+10,DAY($C51)))</f>
         <v>45064</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+11,DAY($C51)))</f>
         <v>45095</v>
       </c>
       <c r="AB51" s="1"/>
       <c r="AC51" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+12,DAY($C51)))</f>
         <v>45125</v>
       </c>
       <c r="AD51" s="14"/>
@@ -12107,66 +12107,66 @@
         <v>352</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+1,DAY($C52)))</f>
         <v>44853</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+2,DAY($C52)))</f>
         <v>44884</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+3,DAY($C52)))</f>
         <v>44914</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+4,DAY($C52)))</f>
         <v>44945</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+5,DAY($C52)))</f>
         <v>44976</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+6,DAY($C52)))</f>
         <v>45004</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+7,DAY($C52)))</f>
         <v>45035</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+8,DAY($C52)))</f>
         <v>45065</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+9,DAY($C52)))</f>
         <v>45096</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+10,DAY($C52)))</f>
         <v>45126</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+11,DAY($C52)))</f>
         <v>45157</v>
       </c>
       <c r="AB52" s="1"/>
       <c r="AC52" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+12,DAY($C52)))</f>
         <v>45188</v>
       </c>
       <c r="AD52" s="14"/>
@@ -12192,84 +12192,84 @@
         <v>145</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+1,DAY($C53)))</f>
         <v>44859</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+2,DAY($C53)))</f>
         <v>44890</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K53" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+3,DAY($C53)))</f>
         <v>44920</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M53" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+4,DAY($C53)))</f>
         <v>44951</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+5,DAY($C53)))</f>
         <v>44982</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q53" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+6,DAY($C53)))</f>
         <v>45010</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S53" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+7,DAY($C53)))</f>
         <v>45041</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U53" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+8,DAY($C53)))</f>
         <v>45071</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W53" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+9,DAY($C53)))</f>
         <v>45102</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y53" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+10,DAY($C53)))</f>
         <v>45132</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA53" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+11,DAY($C53)))</f>
         <v>45163</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC53" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+12,DAY($C53)))</f>
         <v>45194</v>
       </c>
       <c r="AD53" s="14" t="s">
@@ -12299,84 +12299,84 @@
         <v>181</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+1,DAY($C54)))</f>
         <v>44549</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+2,DAY($C54)))</f>
         <v>44580</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+3,DAY($C54)))</f>
         <v>44611</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+4,DAY($C54)))</f>
         <v>44639</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+5,DAY($C54)))</f>
         <v>44670</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+6,DAY($C54)))</f>
         <v>44700</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+7,DAY($C54)))</f>
         <v>44731</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+8,DAY($C54)))</f>
         <v>44761</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+9,DAY($C54)))</f>
         <v>44792</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y54" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+10,DAY($C54)))</f>
         <v>44823</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+11,DAY($C54)))</f>
         <v>44853</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+12,DAY($C54)))</f>
         <v>44884</v>
       </c>
       <c r="AD54" s="14" t="s">
@@ -12406,62 +12406,62 @@
         <v>314</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+1,DAY($C55)))</f>
         <v>44792</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+2,DAY($C55)))</f>
         <v>44823</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+3,DAY($C55)))</f>
         <v>44853</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+4,DAY($C55)))</f>
         <v>44884</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+5,DAY($C55)))</f>
         <v>44914</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+6,DAY($C55)))</f>
         <v>44945</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+7,DAY($C55)))</f>
         <v>44976</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+8,DAY($C55)))</f>
         <v>45004</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+9,DAY($C55)))</f>
         <v>45035</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+10,DAY($C55)))</f>
         <v>45065</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+11,DAY($C55)))</f>
         <v>45096</v>
       </c>
       <c r="AB55" s="1"/>
       <c r="AC55" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+12,DAY($C55)))</f>
         <v>45126</v>
       </c>
       <c r="AD55" s="1"/>
@@ -12488,78 +12488,78 @@
         <v>395</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+1,DAY($C56)))</f>
         <v>44657</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+2,DAY($C56)))</f>
         <v>44687</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+3,DAY($C56)))</f>
         <v>44718</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+4,DAY($C56)))</f>
         <v>44748</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+5,DAY($C56)))</f>
         <v>44779</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q56" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+6,DAY($C56)))</f>
         <v>44810</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S56" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+7,DAY($C56)))</f>
         <v>44840</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+8,DAY($C56)))</f>
         <v>44871</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W56" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+9,DAY($C56)))</f>
         <v>44901</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+10,DAY($C56)))</f>
         <v>44932</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+11,DAY($C56)))</f>
         <v>44963</v>
       </c>
       <c r="AB56" s="1"/>
       <c r="AC56" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+12,DAY($C56)))</f>
         <v>44991</v>
       </c>
       <c r="AD56" s="14"/>
@@ -12586,80 +12586,80 @@
         <v>94</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+1,DAY($C57)))</f>
         <v>44793</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+2,DAY($C57)))</f>
         <v>44824</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+3,DAY($C57)))</f>
         <v>44854</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+4,DAY($C57)))</f>
         <v>44885</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+5,DAY($C57)))</f>
         <v>44915</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+6,DAY($C57)))</f>
         <v>44946</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+7,DAY($C57)))</f>
         <v>44977</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+8,DAY($C57)))</f>
         <v>45005</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+9,DAY($C57)))</f>
         <v>45036</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y57" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+10,DAY($C57)))</f>
         <v>45066</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA57" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+11,DAY($C57)))</f>
         <v>45097</v>
       </c>
       <c r="AB57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC57" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+12,DAY($C57)))</f>
         <v>45127</v>
       </c>
       <c r="AD57" s="1" t="s">
@@ -12689,78 +12689,78 @@
         <v>362</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+1,DAY($C58)))</f>
         <v>44701</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+2,DAY($C58)))</f>
         <v>44732</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+3,DAY($C58)))</f>
         <v>44762</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+4,DAY($C58)))</f>
         <v>44793</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+5,DAY($C58)))</f>
         <v>44824</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q58" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+6,DAY($C58)))</f>
         <v>44854</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+7,DAY($C58)))</f>
         <v>44885</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+8,DAY($C58)))</f>
         <v>44915</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W58" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+9,DAY($C58)))</f>
         <v>44946</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+10,DAY($C58)))</f>
         <v>44977</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+11,DAY($C58)))</f>
         <v>45005</v>
       </c>
       <c r="AB58" s="1"/>
       <c r="AC58" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+12,DAY($C58)))</f>
         <v>45036</v>
       </c>
       <c r="AD58" s="1"/>
@@ -12788,68 +12788,68 @@
         <v>327</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+1,DAY($C59)))</f>
         <v>44824</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+2,DAY($C59)))</f>
         <v>44854</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+3,DAY($C59)))</f>
         <v>44885</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+4,DAY($C59)))</f>
         <v>44915</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+5,DAY($C59)))</f>
         <v>44946</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+6,DAY($C59)))</f>
         <v>44977</v>
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+7,DAY($C59)))</f>
         <v>45005</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+8,DAY($C59)))</f>
         <v>45036</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+9,DAY($C59)))</f>
         <v>45066</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+10,DAY($C59)))</f>
         <v>45097</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+11,DAY($C59)))</f>
         <v>45127</v>
       </c>
       <c r="AB59" s="1"/>
       <c r="AC59" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+12,DAY($C59)))</f>
         <v>45158</v>
       </c>
       <c r="AD59" s="14"/>
@@ -12877,68 +12877,68 @@
         <v>330</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+1,DAY($C60)))</f>
         <v>44824</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+2,DAY($C60)))</f>
         <v>44854</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+3,DAY($C60)))</f>
         <v>44885</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+4,DAY($C60)))</f>
         <v>44915</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+5,DAY($C60)))</f>
         <v>44946</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+6,DAY($C60)))</f>
         <v>44977</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+7,DAY($C60)))</f>
         <v>45005</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+8,DAY($C60)))</f>
         <v>45036</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+9,DAY($C60)))</f>
         <v>45066</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+10,DAY($C60)))</f>
         <v>45097</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+11,DAY($C60)))</f>
         <v>45127</v>
       </c>
       <c r="AB60" s="1"/>
       <c r="AC60" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+12,DAY($C60)))</f>
         <v>45158</v>
       </c>
       <c r="AD60" s="1"/>
@@ -12965,66 +12965,66 @@
         <v>344</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+1,DAY($C61)))</f>
         <v>44885</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+2,DAY($C61)))</f>
         <v>44915</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+3,DAY($C61)))</f>
         <v>44946</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+4,DAY($C61)))</f>
         <v>44977</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+5,DAY($C61)))</f>
         <v>45005</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+6,DAY($C61)))</f>
         <v>45036</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+7,DAY($C61)))</f>
         <v>45066</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+8,DAY($C61)))</f>
         <v>45097</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+9,DAY($C61)))</f>
         <v>45127</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+10,DAY($C61)))</f>
         <v>45158</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+11,DAY($C61)))</f>
         <v>45189</v>
       </c>
       <c r="AB61" s="1"/>
       <c r="AC61" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+12,DAY($C61)))</f>
         <v>45219</v>
       </c>
       <c r="AD61" s="14"/>
@@ -13052,84 +13052,84 @@
         <v>55</v>
       </c>
       <c r="G62" s="25">
-        <f t="shared" si="12"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+1,DAY($C62)))</f>
         <v>44307</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="25">
-        <f t="shared" si="13"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+2,DAY($C62)))</f>
         <v>44337</v>
       </c>
       <c r="J62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="25">
-        <f t="shared" si="14"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+3,DAY($C62)))</f>
         <v>44368</v>
       </c>
       <c r="L62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M62" s="25">
-        <f t="shared" si="15"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+4,DAY($C62)))</f>
         <v>44398</v>
       </c>
       <c r="N62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="25">
-        <f t="shared" si="16"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+5,DAY($C62)))</f>
         <v>44429</v>
       </c>
       <c r="P62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="25">
-        <f t="shared" si="17"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+6,DAY($C62)))</f>
         <v>44460</v>
       </c>
       <c r="R62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="25">
-        <f t="shared" si="18"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+7,DAY($C62)))</f>
         <v>44490</v>
       </c>
       <c r="T62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="25">
-        <f t="shared" si="19"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+8,DAY($C62)))</f>
         <v>44521</v>
       </c>
       <c r="V62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="25">
-        <f t="shared" si="20"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+9,DAY($C62)))</f>
         <v>44551</v>
       </c>
       <c r="X62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="25">
-        <f t="shared" si="21"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+10,DAY($C62)))</f>
         <v>44582</v>
       </c>
       <c r="Z62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="25">
-        <f t="shared" si="22"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+11,DAY($C62)))</f>
         <v>44613</v>
       </c>
       <c r="AB62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="25">
-        <f t="shared" si="23"/>
+        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+12,DAY($C62)))</f>
         <v>44641</v>
       </c>
       <c r="AD62" s="73" t="s">
@@ -13158,80 +13158,80 @@
         <v>380</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+1,DAY($C63)))</f>
         <v>44825</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+2,DAY($C63)))</f>
         <v>44855</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+3,DAY($C63)))</f>
         <v>44886</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+4,DAY($C63)))</f>
         <v>44916</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+5,DAY($C63)))</f>
         <v>44947</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q63" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+6,DAY($C63)))</f>
         <v>44978</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S63" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+7,DAY($C63)))</f>
         <v>45006</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U63" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+8,DAY($C63)))</f>
         <v>45037</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W63" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+9,DAY($C63)))</f>
         <v>45067</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y63" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+10,DAY($C63)))</f>
         <v>45098</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA63" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+11,DAY($C63)))</f>
         <v>45128</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC63" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+12,DAY($C63)))</f>
         <v>45159</v>
       </c>
       <c r="AD63" s="14"/>
@@ -13258,82 +13258,82 @@
         <v>223</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+1,DAY($C64)))</f>
         <v>44616</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+2,DAY($C64)))</f>
         <v>44644</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+3,DAY($C64)))</f>
         <v>44675</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+4,DAY($C64)))</f>
         <v>44705</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+5,DAY($C64)))</f>
         <v>44736</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q64" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+6,DAY($C64)))</f>
         <v>44766</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S64" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+7,DAY($C64)))</f>
         <v>44797</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U64" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+8,DAY($C64)))</f>
         <v>44828</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W64" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+9,DAY($C64)))</f>
         <v>44858</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y64" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+10,DAY($C64)))</f>
         <v>44889</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA64" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+11,DAY($C64)))</f>
         <v>44919</v>
       </c>
       <c r="AB64" s="1"/>
       <c r="AC64" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+12,DAY($C64)))</f>
         <v>44950</v>
       </c>
       <c r="AD64" s="14"/>
@@ -13361,72 +13361,72 @@
         <v>282</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="12"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+1,DAY($C65)))</f>
         <v>44764</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="13"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+2,DAY($C65)))</f>
         <v>44795</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="3">
-        <f t="shared" si="14"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+3,DAY($C65)))</f>
         <v>44826</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="15"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+4,DAY($C65)))</f>
         <v>44856</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="16"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+5,DAY($C65)))</f>
         <v>44887</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q65" s="3">
-        <f t="shared" si="17"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+6,DAY($C65)))</f>
         <v>44917</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="3">
-        <f t="shared" si="18"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+7,DAY($C65)))</f>
         <v>44948</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="3">
-        <f t="shared" si="19"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+8,DAY($C65)))</f>
         <v>44979</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="3">
-        <f t="shared" si="20"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+9,DAY($C65)))</f>
         <v>45007</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="3">
-        <f t="shared" si="21"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+10,DAY($C65)))</f>
         <v>45038</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="3">
-        <f t="shared" si="22"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+11,DAY($C65)))</f>
         <v>45068</v>
       </c>
       <c r="AB65" s="1"/>
       <c r="AC65" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+12,DAY($C65)))</f>
         <v>45099</v>
       </c>
       <c r="AD65" s="14"/>
@@ -13453,68 +13453,68 @@
         <v>279</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" ref="G66:G97" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
         <v>44757</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I97" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
         <v>44788</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3">
-        <f t="shared" ref="K66:K97" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
         <v>44819</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3">
-        <f t="shared" ref="M66:M97" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
         <v>44849</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="3">
-        <f t="shared" ref="O66:O97" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
         <v>44880</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="3">
-        <f t="shared" ref="Q66:Q97" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
         <v>44910</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="3">
-        <f t="shared" ref="S66:S97" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
         <v>44941</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="3">
-        <f t="shared" ref="U66:U97" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
         <v>44972</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="3">
-        <f t="shared" ref="W66:W97" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
         <v>45000</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="3">
-        <f t="shared" ref="Y66:Y97" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
         <v>45031</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="3">
-        <f t="shared" ref="AA66:AA97" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
         <v>45061</v>
       </c>
       <c r="AB66" s="1"/>
       <c r="AC66" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+12,DAY($C66)))</f>
         <v>45092</v>
       </c>
       <c r="AD66" s="1"/>
@@ -13539,84 +13539,84 @@
         <v>138</v>
       </c>
       <c r="G67" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+1,DAY($C67)))</f>
         <v>44827</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+2,DAY($C67)))</f>
         <v>44857</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K67" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+3,DAY($C67)))</f>
         <v>44888</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+4,DAY($C67)))</f>
         <v>44918</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+5,DAY($C67)))</f>
         <v>44949</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q67" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+6,DAY($C67)))</f>
         <v>44980</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S67" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+7,DAY($C67)))</f>
         <v>45008</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U67" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+8,DAY($C67)))</f>
         <v>45039</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W67" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+9,DAY($C67)))</f>
         <v>45069</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y67" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+10,DAY($C67)))</f>
         <v>45100</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA67" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+11,DAY($C67)))</f>
         <v>45130</v>
       </c>
       <c r="AB67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC67" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+12,DAY($C67)))</f>
         <v>45161</v>
       </c>
       <c r="AD67" s="14" t="s">
@@ -13644,62 +13644,62 @@
         <v>236</v>
       </c>
       <c r="G68" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+1,DAY($C68)))</f>
         <v>44643</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+2,DAY($C68)))</f>
         <v>44674</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+3,DAY($C68)))</f>
         <v>44704</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+4,DAY($C68)))</f>
         <v>44735</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+5,DAY($C68)))</f>
         <v>44765</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+6,DAY($C68)))</f>
         <v>44796</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+7,DAY($C68)))</f>
         <v>44827</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+8,DAY($C68)))</f>
         <v>44857</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+9,DAY($C68)))</f>
         <v>44888</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+10,DAY($C68)))</f>
         <v>44918</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+11,DAY($C68)))</f>
         <v>44949</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+12,DAY($C68)))</f>
         <v>44980</v>
       </c>
       <c r="AD68" s="14"/>
@@ -13727,72 +13727,72 @@
         <v>289</v>
       </c>
       <c r="G69" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+1,DAY($C69)))</f>
         <v>44765</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+2,DAY($C69)))</f>
         <v>44796</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+3,DAY($C69)))</f>
         <v>44827</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+4,DAY($C69)))</f>
         <v>44857</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+5,DAY($C69)))</f>
         <v>44888</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q69" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+6,DAY($C69)))</f>
         <v>44918</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+7,DAY($C69)))</f>
         <v>44949</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+8,DAY($C69)))</f>
         <v>44980</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+9,DAY($C69)))</f>
         <v>45008</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+10,DAY($C69)))</f>
         <v>45039</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+11,DAY($C69)))</f>
         <v>45069</v>
       </c>
       <c r="AB69" s="1"/>
       <c r="AC69" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+12,DAY($C69)))</f>
         <v>45100</v>
       </c>
       <c r="AD69" s="1"/>
@@ -13819,84 +13819,84 @@
         <v>97</v>
       </c>
       <c r="G70" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+1,DAY($C70)))</f>
         <v>44797</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+2,DAY($C70)))</f>
         <v>44828</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+3,DAY($C70)))</f>
         <v>44858</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+4,DAY($C70)))</f>
         <v>44889</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+5,DAY($C70)))</f>
         <v>44919</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q70" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+6,DAY($C70)))</f>
         <v>44950</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S70" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+7,DAY($C70)))</f>
         <v>44981</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U70" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+8,DAY($C70)))</f>
         <v>45009</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W70" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+9,DAY($C70)))</f>
         <v>45040</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y70" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+10,DAY($C70)))</f>
         <v>45070</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA70" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+11,DAY($C70)))</f>
         <v>45101</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC70" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+12,DAY($C70)))</f>
         <v>45131</v>
       </c>
       <c r="AD70" s="1" t="s">
@@ -13926,62 +13926,62 @@
         <v>293</v>
       </c>
       <c r="G71" s="25">
-        <f t="shared" si="24"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+1,DAY($C71)))</f>
         <v>44766</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="25">
-        <f t="shared" si="25"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+2,DAY($C71)))</f>
         <v>44797</v>
       </c>
       <c r="J71" s="36"/>
       <c r="K71" s="25">
-        <f t="shared" si="26"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+3,DAY($C71)))</f>
         <v>44828</v>
       </c>
       <c r="L71" s="36"/>
       <c r="M71" s="25">
-        <f t="shared" si="27"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+4,DAY($C71)))</f>
         <v>44858</v>
       </c>
       <c r="N71" s="36"/>
       <c r="O71" s="25">
-        <f t="shared" si="28"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+5,DAY($C71)))</f>
         <v>44889</v>
       </c>
       <c r="P71" s="36"/>
       <c r="Q71" s="25">
-        <f t="shared" si="29"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+6,DAY($C71)))</f>
         <v>44919</v>
       </c>
       <c r="R71" s="36"/>
       <c r="S71" s="25">
-        <f t="shared" si="30"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+7,DAY($C71)))</f>
         <v>44950</v>
       </c>
       <c r="T71" s="36"/>
       <c r="U71" s="25">
-        <f t="shared" si="31"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+8,DAY($C71)))</f>
         <v>44981</v>
       </c>
       <c r="V71" s="36"/>
       <c r="W71" s="25">
-        <f t="shared" si="32"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+9,DAY($C71)))</f>
         <v>45009</v>
       </c>
       <c r="X71" s="36"/>
       <c r="Y71" s="25">
-        <f t="shared" si="33"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+10,DAY($C71)))</f>
         <v>45040</v>
       </c>
       <c r="Z71" s="36"/>
       <c r="AA71" s="25">
-        <f t="shared" si="34"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+11,DAY($C71)))</f>
         <v>45070</v>
       </c>
       <c r="AB71" s="36"/>
       <c r="AC71" s="25">
-        <f t="shared" si="23"/>
+        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+12,DAY($C71)))</f>
         <v>45101</v>
       </c>
       <c r="AD71" s="36"/>
@@ -14009,68 +14009,68 @@
         <v>333</v>
       </c>
       <c r="G72" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+1,DAY($C72)))</f>
         <v>44828</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+2,DAY($C72)))</f>
         <v>44858</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+3,DAY($C72)))</f>
         <v>44889</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+4,DAY($C72)))</f>
         <v>44919</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+5,DAY($C72)))</f>
         <v>44950</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+6,DAY($C72)))</f>
         <v>44981</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+7,DAY($C72)))</f>
         <v>45009</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+8,DAY($C72)))</f>
         <v>45040</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+9,DAY($C72)))</f>
         <v>45070</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+10,DAY($C72)))</f>
         <v>45101</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+11,DAY($C72)))</f>
         <v>45131</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
         <v>45162</v>
       </c>
       <c r="AD72" s="1"/>
@@ -14098,66 +14098,66 @@
         <v>348</v>
       </c>
       <c r="G73" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+1,DAY($C73)))</f>
         <v>44858</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+2,DAY($C73)))</f>
         <v>44889</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K73" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+3,DAY($C73)))</f>
         <v>44919</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+4,DAY($C73)))</f>
         <v>44950</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+5,DAY($C73)))</f>
         <v>44981</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+6,DAY($C73)))</f>
         <v>45009</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+7,DAY($C73)))</f>
         <v>45040</v>
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+8,DAY($C73)))</f>
         <v>45070</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+9,DAY($C73)))</f>
         <v>45101</v>
       </c>
       <c r="X73" s="1"/>
       <c r="Y73" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+10,DAY($C73)))</f>
         <v>45131</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+11,DAY($C73)))</f>
         <v>45162</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="3">
-        <f t="shared" si="23"/>
+        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+12,DAY($C73)))</f>
         <v>45193</v>
       </c>
       <c r="AD73" s="1"/>
@@ -14184,84 +14184,84 @@
         <v>349</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+1,DAY($C74)))</f>
         <v>44829</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+2,DAY($C74)))</f>
         <v>44859</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K74" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+3,DAY($C74)))</f>
         <v>44890</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+4,DAY($C74)))</f>
         <v>44920</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O74" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+5,DAY($C74)))</f>
         <v>44951</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q74" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+6,DAY($C74)))</f>
         <v>44982</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+7,DAY($C74)))</f>
         <v>45010</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U74" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+8,DAY($C74)))</f>
         <v>45041</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W74" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+9,DAY($C74)))</f>
         <v>45071</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y74" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+10,DAY($C74)))</f>
         <v>45102</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA74" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+11,DAY($C74)))</f>
         <v>45132</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC74" s="3">
-        <f t="shared" ref="AC74:AC97" si="35">IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
+        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
         <v>45163</v>
       </c>
       <c r="AD74" s="1" t="s">
@@ -14291,78 +14291,78 @@
         <v>142</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+1,DAY($C75)))</f>
         <v>44464</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+2,DAY($C75)))</f>
         <v>44494</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K75" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+3,DAY($C75)))</f>
         <v>44525</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+4,DAY($C75)))</f>
         <v>44555</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O75" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+5,DAY($C75)))</f>
         <v>44586</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q75" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+6,DAY($C75)))</f>
         <v>44617</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S75" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+7,DAY($C75)))</f>
         <v>44645</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U75" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+8,DAY($C75)))</f>
         <v>44676</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W75" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+9,DAY($C75)))</f>
         <v>44706</v>
       </c>
       <c r="X75" s="1"/>
       <c r="Y75" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+10,DAY($C75)))</f>
         <v>44737</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+11,DAY($C75)))</f>
         <v>44767</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+12,DAY($C75)))</f>
         <v>44798</v>
       </c>
       <c r="AD75" s="1"/>
@@ -14389,82 +14389,82 @@
         <v>217</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+1,DAY($C76)))</f>
         <v>44615</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+2,DAY($C76)))</f>
         <v>44643</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+3,DAY($C76)))</f>
         <v>44674</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+4,DAY($C76)))</f>
         <v>44704</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+5,DAY($C76)))</f>
         <v>44735</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+6,DAY($C76)))</f>
         <v>44765</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+7,DAY($C76)))</f>
         <v>44796</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+8,DAY($C76)))</f>
         <v>44827</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+9,DAY($C76)))</f>
         <v>44857</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+10,DAY($C76)))</f>
         <v>44888</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+11,DAY($C76)))</f>
         <v>44918</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+12,DAY($C76)))</f>
         <v>44949</v>
       </c>
       <c r="AD76" s="1"/>
@@ -14491,82 +14491,82 @@
         <v>220</v>
       </c>
       <c r="G77" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+1,DAY($C77)))</f>
         <v>44616</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+2,DAY($C77)))</f>
         <v>44644</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+3,DAY($C77)))</f>
         <v>44675</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+4,DAY($C77)))</f>
         <v>44705</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+5,DAY($C77)))</f>
         <v>44736</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q77" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+6,DAY($C77)))</f>
         <v>44766</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S77" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+7,DAY($C77)))</f>
         <v>44797</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U77" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+8,DAY($C77)))</f>
         <v>44828</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W77" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+9,DAY($C77)))</f>
         <v>44858</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y77" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+10,DAY($C77)))</f>
         <v>44889</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA77" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+11,DAY($C77)))</f>
         <v>44919</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+12,DAY($C77)))</f>
         <v>44950</v>
       </c>
       <c r="AD77" s="1"/>
@@ -14594,72 +14594,72 @@
         <v>297</v>
       </c>
       <c r="G78" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+1,DAY($C78)))</f>
         <v>44767</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+2,DAY($C78)))</f>
         <v>44798</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K78" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+3,DAY($C78)))</f>
         <v>44829</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+4,DAY($C78)))</f>
         <v>44859</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O78" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+5,DAY($C78)))</f>
         <v>44890</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q78" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+6,DAY($C78)))</f>
         <v>44920</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+7,DAY($C78)))</f>
         <v>44951</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+8,DAY($C78)))</f>
         <v>44982</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+9,DAY($C78)))</f>
         <v>45010</v>
       </c>
       <c r="X78" s="1"/>
       <c r="Y78" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+10,DAY($C78)))</f>
         <v>45041</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+11,DAY($C78)))</f>
         <v>45071</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+12,DAY($C78)))</f>
         <v>45102</v>
       </c>
       <c r="AD78" s="1"/>
@@ -14687,62 +14687,62 @@
         <v>350</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+1,DAY($C79)))</f>
         <v>44767</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+2,DAY($C79)))</f>
         <v>44798</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+3,DAY($C79)))</f>
         <v>44829</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+4,DAY($C79)))</f>
         <v>44859</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+5,DAY($C79)))</f>
         <v>44890</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+6,DAY($C79)))</f>
         <v>44920</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+7,DAY($C79)))</f>
         <v>44951</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+8,DAY($C79)))</f>
         <v>44982</v>
       </c>
       <c r="V79" s="1"/>
       <c r="W79" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+9,DAY($C79)))</f>
         <v>45010</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+10,DAY($C79)))</f>
         <v>45041</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+11,DAY($C79)))</f>
         <v>45071</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+12,DAY($C79)))</f>
         <v>45102</v>
       </c>
       <c r="AD79" s="1"/>
@@ -14770,78 +14770,78 @@
         <v>252</v>
       </c>
       <c r="G80" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+1,DAY($C80)))</f>
         <v>44677</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+2,DAY($C80)))</f>
         <v>44707</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+3,DAY($C80)))</f>
         <v>44738</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+4,DAY($C80)))</f>
         <v>44768</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O80" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+5,DAY($C80)))</f>
         <v>44799</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q80" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+6,DAY($C80)))</f>
         <v>44830</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S80" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+7,DAY($C80)))</f>
         <v>44860</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U80" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+8,DAY($C80)))</f>
         <v>44891</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W80" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+9,DAY($C80)))</f>
         <v>44921</v>
       </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+10,DAY($C80)))</f>
         <v>44952</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+11,DAY($C80)))</f>
         <v>44983</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+12,DAY($C80)))</f>
         <v>45011</v>
       </c>
       <c r="AD80" s="1"/>
@@ -14869,62 +14869,62 @@
         <v>270</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+1,DAY($C81)))</f>
         <v>44677</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+2,DAY($C81)))</f>
         <v>44707</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+3,DAY($C81)))</f>
         <v>44738</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+4,DAY($C81)))</f>
         <v>44768</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+5,DAY($C81)))</f>
         <v>44799</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+6,DAY($C81)))</f>
         <v>44830</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+7,DAY($C81)))</f>
         <v>44860</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+8,DAY($C81)))</f>
         <v>44891</v>
       </c>
       <c r="V81" s="1"/>
       <c r="W81" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+9,DAY($C81)))</f>
         <v>44921</v>
       </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+10,DAY($C81)))</f>
         <v>44952</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+11,DAY($C81)))</f>
         <v>44983</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+12,DAY($C81)))</f>
         <v>45011</v>
       </c>
       <c r="AD81" s="1"/>
@@ -14951,70 +14951,70 @@
         <v>302</v>
       </c>
       <c r="G82" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+1,DAY($C82)))</f>
         <v>44778</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+2,DAY($C82)))</f>
         <v>44809</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K82" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+3,DAY($C82)))</f>
         <v>44839</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M82" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+4,DAY($C82)))</f>
         <v>44870</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O82" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+5,DAY($C82)))</f>
         <v>44900</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+6,DAY($C82)))</f>
         <v>44931</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+7,DAY($C82)))</f>
         <v>44962</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+8,DAY($C82)))</f>
         <v>44990</v>
       </c>
       <c r="V82" s="1"/>
       <c r="W82" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+9,DAY($C82)))</f>
         <v>45021</v>
       </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+10,DAY($C82)))</f>
         <v>45051</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+11,DAY($C82)))</f>
         <v>45082</v>
       </c>
       <c r="AB82" s="1"/>
       <c r="AC82" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+12,DAY($C82)))</f>
         <v>45112</v>
       </c>
       <c r="AD82" s="1"/>
@@ -15039,72 +15039,72 @@
         <v>73</v>
       </c>
       <c r="G83" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+1,DAY($C83)))</f>
         <v>44769</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+2,DAY($C83)))</f>
         <v>44800</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+3,DAY($C83)))</f>
         <v>44831</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+4,DAY($C83)))</f>
         <v>44861</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+5,DAY($C83)))</f>
         <v>44892</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+6,DAY($C83)))</f>
         <v>44922</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+7,DAY($C83)))</f>
         <v>44953</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+8,DAY($C83)))</f>
         <v>44984</v>
       </c>
       <c r="V83" s="1"/>
       <c r="W83" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+9,DAY($C83)))</f>
         <v>45012</v>
       </c>
       <c r="X83" s="1"/>
       <c r="Y83" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+10,DAY($C83)))</f>
         <v>45043</v>
       </c>
       <c r="Z83" s="1"/>
       <c r="AA83" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+11,DAY($C83)))</f>
         <v>45073</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+12,DAY($C83)))</f>
         <v>45104</v>
       </c>
       <c r="AD83" s="1"/>
@@ -15131,78 +15131,78 @@
         <v>247</v>
       </c>
       <c r="G84" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+1,DAY($C84)))</f>
         <v>44673</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+2,DAY($C84)))</f>
         <v>44703</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K84" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+3,DAY($C84)))</f>
         <v>44734</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M84" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+4,DAY($C84)))</f>
         <v>44764</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O84" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+5,DAY($C84)))</f>
         <v>44795</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q84" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+6,DAY($C84)))</f>
         <v>44826</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S84" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+7,DAY($C84)))</f>
         <v>44856</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U84" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+8,DAY($C84)))</f>
         <v>44887</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W84" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+9,DAY($C84)))</f>
         <v>44917</v>
       </c>
       <c r="X84" s="1"/>
       <c r="Y84" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+10,DAY($C84)))</f>
         <v>44948</v>
       </c>
       <c r="Z84" s="1"/>
       <c r="AA84" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+11,DAY($C84)))</f>
         <v>44979</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+12,DAY($C84)))</f>
         <v>45007</v>
       </c>
       <c r="AD84" s="1"/>
@@ -15229,78 +15229,78 @@
         <v>43</v>
       </c>
       <c r="G85" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+1,DAY($C85)))</f>
         <v>44255</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+2,DAY($C85)))</f>
         <v>44283</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K85" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+3,DAY($C85)))</f>
         <v>44314</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+4,DAY($C85)))</f>
         <v>44344</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O85" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+5,DAY($C85)))</f>
         <v>44375</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q85" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+6,DAY($C85)))</f>
         <v>44405</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S85" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+7,DAY($C85)))</f>
         <v>44436</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U85" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+8,DAY($C85)))</f>
         <v>44467</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W85" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+9,DAY($C85)))</f>
         <v>44497</v>
       </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+10,DAY($C85)))</f>
         <v>44528</v>
       </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+11,DAY($C85)))</f>
         <v>44558</v>
       </c>
       <c r="AB85" s="1"/>
       <c r="AC85" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+12,DAY($C85)))</f>
         <v>44589</v>
       </c>
       <c r="AD85" s="1"/>
@@ -15325,84 +15325,84 @@
         <v>369</v>
       </c>
       <c r="G86" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+1,DAY($C86)))</f>
         <v>44770</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+2,DAY($C86)))</f>
         <v>44801</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K86" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+3,DAY($C86)))</f>
         <v>44832</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M86" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+4,DAY($C86)))</f>
         <v>44862</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O86" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+5,DAY($C86)))</f>
         <v>44893</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q86" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+6,DAY($C86)))</f>
         <v>44923</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S86" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+7,DAY($C86)))</f>
         <v>44954</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U86" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+8,DAY($C86)))</f>
         <v>44985</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W86" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+9,DAY($C86)))</f>
         <v>45013</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y86" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+10,DAY($C86)))</f>
         <v>45044</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA86" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+11,DAY($C86)))</f>
         <v>45074</v>
       </c>
       <c r="AB86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC86" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+12,DAY($C86)))</f>
         <v>45105</v>
       </c>
       <c r="AD86" s="1" t="s">
@@ -15428,80 +15428,80 @@
         <v>197</v>
       </c>
       <c r="G87" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+1,DAY($C87)))</f>
         <v>44241</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+2,DAY($C87)))</f>
         <v>44269</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K87" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+3,DAY($C87)))</f>
         <v>44300</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M87" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+4,DAY($C87)))</f>
         <v>44330</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O87" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+5,DAY($C87)))</f>
         <v>44361</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q87" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+6,DAY($C87)))</f>
         <v>44391</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S87" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+7,DAY($C87)))</f>
         <v>44422</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U87" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+8,DAY($C87)))</f>
         <v>44453</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W87" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+9,DAY($C87)))</f>
         <v>44483</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y87" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+10,DAY($C87)))</f>
         <v>44514</v>
       </c>
       <c r="Z87" s="1"/>
       <c r="AA87" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+11,DAY($C87)))</f>
         <v>44544</v>
       </c>
       <c r="AB87" s="1"/>
       <c r="AC87" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+12,DAY($C87)))</f>
         <v>44575</v>
       </c>
       <c r="AD87" s="1"/>
@@ -15529,62 +15529,62 @@
         <v>356</v>
       </c>
       <c r="G88" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+1,DAY($C88)))</f>
         <v>44893</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+2,DAY($C88)))</f>
         <v>44923</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+3,DAY($C88)))</f>
         <v>44954</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+4,DAY($C88)))</f>
         <v>44985</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+5,DAY($C88)))</f>
         <v>45013</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+6,DAY($C88)))</f>
         <v>45044</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+7,DAY($C88)))</f>
         <v>45074</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+8,DAY($C88)))</f>
         <v>45105</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+9,DAY($C88)))</f>
         <v>45135</v>
       </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+10,DAY($C88)))</f>
         <v>45166</v>
       </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+11,DAY($C88)))</f>
         <v>45197</v>
       </c>
       <c r="AB88" s="1"/>
       <c r="AC88" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+12,DAY($C88)))</f>
         <v>45227</v>
       </c>
       <c r="AD88" s="1"/>
@@ -15612,64 +15612,64 @@
         <v>373</v>
       </c>
       <c r="G89" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+1,DAY($C89)))</f>
         <v>44954</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+2,DAY($C89)))</f>
         <v>44985</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+3,DAY($C89)))</f>
         <v>45013</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+4,DAY($C89)))</f>
         <v>45044</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+5,DAY($C89)))</f>
         <v>45074</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+6,DAY($C89)))</f>
         <v>45105</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+7,DAY($C89)))</f>
         <v>45135</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+8,DAY($C89)))</f>
         <v>45166</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+9,DAY($C89)))</f>
         <v>45197</v>
       </c>
       <c r="X89" s="1"/>
       <c r="Y89" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+10,DAY($C89)))</f>
         <v>45227</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+11,DAY($C89)))</f>
         <v>45258</v>
       </c>
       <c r="AB89" s="1"/>
       <c r="AC89" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+12,DAY($C89)))</f>
         <v>45288</v>
       </c>
       <c r="AD89" s="1"/>
@@ -15695,78 +15695,78 @@
         <v>265</v>
       </c>
       <c r="G90" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+1,DAY($C90)))</f>
         <v>44680</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+2,DAY($C90)))</f>
         <v>44710</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K90" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+3,DAY($C90)))</f>
         <v>44741</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M90" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+4,DAY($C90)))</f>
         <v>44771</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O90" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+5,DAY($C90)))</f>
         <v>44802</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q90" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+6,DAY($C90)))</f>
         <v>44833</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+7,DAY($C90)))</f>
         <v>44863</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U90" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+8,DAY($C90)))</f>
         <v>44894</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W90" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+9,DAY($C90)))</f>
         <v>44924</v>
       </c>
       <c r="X90" s="1"/>
       <c r="Y90" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+10,DAY($C90)))</f>
         <v>44955</v>
       </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+11,DAY($C90)))</f>
         <v>44986</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+12,DAY($C90)))</f>
         <v>45014</v>
       </c>
       <c r="AD90" s="1"/>
@@ -15793,70 +15793,70 @@
         <v>318</v>
       </c>
       <c r="G91" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+1,DAY($C91)))</f>
         <v>44803</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+2,DAY($C91)))</f>
         <v>44834</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+3,DAY($C91)))</f>
         <v>44864</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+4,DAY($C91)))</f>
         <v>44895</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+5,DAY($C91)))</f>
         <v>44925</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+6,DAY($C91)))</f>
         <v>44956</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+7,DAY($C91)))</f>
         <v>44987</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+8,DAY($C91)))</f>
         <v>45015</v>
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+9,DAY($C91)))</f>
         <v>45046</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+10,DAY($C91)))</f>
         <v>45076</v>
       </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+11,DAY($C91)))</f>
         <v>45107</v>
       </c>
       <c r="AB91" s="1"/>
       <c r="AC91" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+12,DAY($C91)))</f>
         <v>45137</v>
       </c>
       <c r="AD91" s="1"/>
@@ -15883,74 +15883,74 @@
         <v>201</v>
       </c>
       <c r="G92" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+1,DAY($C92)))</f>
         <v>44742</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+2,DAY($C92)))</f>
         <v>44772</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K92" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+3,DAY($C92)))</f>
         <v>44803</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M92" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+4,DAY($C92)))</f>
         <v>44834</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O92" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+5,DAY($C92)))</f>
         <v>44864</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q92" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+6,DAY($C92)))</f>
         <v>44895</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S92" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+7,DAY($C92)))</f>
         <v>44925</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+8,DAY($C92)))</f>
         <v>44956</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+9,DAY($C92)))</f>
         <v>44987</v>
       </c>
       <c r="X92" s="1"/>
       <c r="Y92" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+10,DAY($C92)))</f>
         <v>45015</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+11,DAY($C92)))</f>
         <v>45046</v>
       </c>
       <c r="AB92" s="1"/>
       <c r="AC92" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+12,DAY($C92)))</f>
         <v>45076</v>
       </c>
       <c r="AD92" s="1"/>
@@ -15977,82 +15977,82 @@
         <v>396</v>
       </c>
       <c r="G93" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+1,DAY($C93)))</f>
         <v>44803</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+2,DAY($C93)))</f>
         <v>44834</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K93" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+3,DAY($C93)))</f>
         <v>44864</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M93" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+4,DAY($C93)))</f>
         <v>44895</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O93" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+5,DAY($C93)))</f>
         <v>44925</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q93" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+6,DAY($C93)))</f>
         <v>44956</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+7,DAY($C93)))</f>
         <v>44987</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U93" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+8,DAY($C93)))</f>
         <v>45015</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W93" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+9,DAY($C93)))</f>
         <v>45046</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y93" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+10,DAY($C93)))</f>
         <v>45076</v>
       </c>
       <c r="Z93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA93" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+11,DAY($C93)))</f>
         <v>45107</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC93" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+12,DAY($C93)))</f>
         <v>45137</v>
       </c>
       <c r="AD93" s="1" t="s">
@@ -16081,84 +16081,84 @@
         <v>185</v>
       </c>
       <c r="G94" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+1,DAY($C94)))</f>
         <v>44555</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+2,DAY($C94)))</f>
         <v>44586</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+3,DAY($C94)))</f>
         <v>44617</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+4,DAY($C94)))</f>
         <v>44645</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+5,DAY($C94)))</f>
         <v>44676</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+6,DAY($C94)))</f>
         <v>44706</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+7,DAY($C94)))</f>
         <v>44737</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U94" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+8,DAY($C94)))</f>
         <v>44767</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W94" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+9,DAY($C94)))</f>
         <v>44798</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y94" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+10,DAY($C94)))</f>
         <v>44829</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA94" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+11,DAY($C94)))</f>
         <v>44859</v>
       </c>
       <c r="AB94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC94" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+12,DAY($C94)))</f>
         <v>44890</v>
       </c>
       <c r="AD94" s="1" t="s">
@@ -16187,64 +16187,64 @@
         <v>366</v>
       </c>
       <c r="G95" s="38">
-        <f t="shared" si="24"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+1,DAY($C95)))</f>
         <v>44560</v>
       </c>
       <c r="H95" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="38">
-        <f t="shared" si="25"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+2,DAY($C95)))</f>
         <v>44591</v>
       </c>
       <c r="J95" s="45"/>
       <c r="K95" s="38">
-        <f t="shared" si="26"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+3,DAY($C95)))</f>
         <v>44622</v>
       </c>
       <c r="L95" s="45"/>
       <c r="M95" s="38">
-        <f t="shared" si="27"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+4,DAY($C95)))</f>
         <v>44650</v>
       </c>
       <c r="N95" s="45"/>
       <c r="O95" s="38">
-        <f t="shared" si="28"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+5,DAY($C95)))</f>
         <v>44681</v>
       </c>
       <c r="P95" s="45"/>
       <c r="Q95" s="38">
-        <f t="shared" si="29"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+6,DAY($C95)))</f>
         <v>44711</v>
       </c>
       <c r="R95" s="45"/>
       <c r="S95" s="38">
-        <f t="shared" si="30"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+7,DAY($C95)))</f>
         <v>44742</v>
       </c>
       <c r="T95" s="45"/>
       <c r="U95" s="38">
-        <f t="shared" si="31"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+8,DAY($C95)))</f>
         <v>44772</v>
       </c>
       <c r="V95" s="45"/>
       <c r="W95" s="38">
-        <f t="shared" si="32"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+9,DAY($C95)))</f>
         <v>44803</v>
       </c>
       <c r="X95" s="45"/>
       <c r="Y95" s="38">
-        <f t="shared" si="33"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+10,DAY($C95)))</f>
         <v>44834</v>
       </c>
       <c r="Z95" s="45"/>
       <c r="AA95" s="38">
-        <f t="shared" si="34"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+11,DAY($C95)))</f>
         <v>44864</v>
       </c>
       <c r="AB95" s="45"/>
       <c r="AC95" s="38">
-        <f t="shared" si="35"/>
+        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+12,DAY($C95)))</f>
         <v>44895</v>
       </c>
       <c r="AD95" s="72"/>
@@ -16271,84 +16271,84 @@
         <v>365</v>
       </c>
       <c r="G96" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+1,DAY($C96)))</f>
         <v>44584</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+2,DAY($C96)))</f>
         <v>44615</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K96" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+3,DAY($C96)))</f>
         <v>44643</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M96" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+4,DAY($C96)))</f>
         <v>44674</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O96" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+5,DAY($C96)))</f>
         <v>44704</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q96" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+6,DAY($C96)))</f>
         <v>44735</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S96" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+7,DAY($C96)))</f>
         <v>44765</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U96" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+8,DAY($C96)))</f>
         <v>44796</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W96" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+9,DAY($C96)))</f>
         <v>44827</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y96" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+10,DAY($C96)))</f>
         <v>44857</v>
       </c>
       <c r="Z96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA96" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+11,DAY($C96)))</f>
         <v>44888</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC96" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+12,DAY($C96)))</f>
         <v>44918</v>
       </c>
       <c r="AD96" s="14"/>
@@ -16376,70 +16376,70 @@
         <v>321</v>
       </c>
       <c r="G97" s="3">
-        <f t="shared" si="24"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+1,DAY($C97)))</f>
         <v>44803</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="3">
-        <f t="shared" si="25"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+2,DAY($C97)))</f>
         <v>44834</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K97" s="3">
-        <f t="shared" si="26"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+3,DAY($C97)))</f>
         <v>44864</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M97" s="3">
-        <f t="shared" si="27"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+4,DAY($C97)))</f>
         <v>44895</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O97" s="3">
-        <f t="shared" si="28"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+5,DAY($C97)))</f>
         <v>44925</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3">
-        <f t="shared" si="29"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+6,DAY($C97)))</f>
         <v>44956</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="3">
-        <f t="shared" si="30"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+7,DAY($C97)))</f>
         <v>44987</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="3">
-        <f t="shared" si="31"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+8,DAY($C97)))</f>
         <v>45015</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="3">
-        <f t="shared" si="32"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+9,DAY($C97)))</f>
         <v>45046</v>
       </c>
       <c r="X97" s="1"/>
       <c r="Y97" s="3">
-        <f t="shared" si="33"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+10,DAY($C97)))</f>
         <v>45076</v>
       </c>
       <c r="Z97" s="1"/>
       <c r="AA97" s="3">
-        <f t="shared" si="34"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+11,DAY($C97)))</f>
         <v>45107</v>
       </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="3">
-        <f t="shared" si="35"/>
+        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+12,DAY($C97)))</f>
         <v>45137</v>
       </c>
       <c r="AD97" s="14"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8668F9F4-0C02-4364-AEE6-AA8ADBE2B658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C1E43-A995-4C2C-806A-A5BCD353A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -7187,10 +7187,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F25" sqref="F25"/>
+      <selection pane="topRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7339,84 +7339,84 @@
         <v>255</v>
       </c>
       <c r="G2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
+        <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
         <v>44835</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
+        <f t="shared" ref="I2:I33" si="1">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
         <v>44866</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
+        <f t="shared" ref="K2:K33" si="2">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
         <v>44896</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
+        <f t="shared" ref="M2:M33" si="3">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
         <v>44927</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
+        <f t="shared" ref="O2:O33" si="4">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
         <v>44958</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
+        <f t="shared" ref="Q2:Q33" si="5">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
         <v>44986</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
+        <f t="shared" ref="S2:S33" si="6">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
         <v>45017</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
+        <f t="shared" ref="U2:U33" si="7">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
         <v>45047</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
+        <f t="shared" ref="W2:W33" si="8">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
         <v>45078</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
+        <f t="shared" ref="Y2:Y33" si="9">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
         <v>45108</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
+        <f t="shared" ref="AA2:AA33" si="10">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
         <v>45139</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
+        <f t="shared" ref="AC2:AC40" si="11">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
         <v>45170</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -7446,62 +7446,62 @@
         <v>226</v>
       </c>
       <c r="G3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+1,DAY($C3)))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+2,DAY($C3)))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+3,DAY($C3)))</f>
+        <f t="shared" si="2"/>
         <v>44682</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+4,DAY($C3)))</f>
+        <f t="shared" si="3"/>
         <v>44713</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+5,DAY($C3)))</f>
+        <f t="shared" si="4"/>
         <v>44743</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+6,DAY($C3)))</f>
+        <f t="shared" si="5"/>
         <v>44774</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+7,DAY($C3)))</f>
+        <f t="shared" si="6"/>
         <v>44805</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+8,DAY($C3)))</f>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+9,DAY($C3)))</f>
+        <f t="shared" si="8"/>
         <v>44866</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+10,DAY($C3)))</f>
+        <f t="shared" si="9"/>
         <v>44896</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+11,DAY($C3)))</f>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+12,DAY($C3)))</f>
+        <f t="shared" si="11"/>
         <v>44958</v>
       </c>
       <c r="AD3" s="14"/>
@@ -7528,72 +7528,72 @@
         <v>285</v>
       </c>
       <c r="G4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+1,DAY($C4)))</f>
+        <f t="shared" si="0"/>
         <v>44759</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+2,DAY($C4)))</f>
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+3,DAY($C4)))</f>
+        <f t="shared" si="2"/>
         <v>44821</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+4,DAY($C4)))</f>
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+5,DAY($C4)))</f>
+        <f t="shared" si="4"/>
         <v>44882</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+6,DAY($C4)))</f>
+        <f t="shared" si="5"/>
         <v>44912</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+7,DAY($C4)))</f>
+        <f t="shared" si="6"/>
         <v>44943</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+8,DAY($C4)))</f>
+        <f t="shared" si="7"/>
         <v>44974</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+9,DAY($C4)))</f>
+        <f t="shared" si="8"/>
         <v>45002</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+10,DAY($C4)))</f>
+        <f t="shared" si="9"/>
         <v>45033</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+11,DAY($C4)))</f>
+        <f t="shared" si="10"/>
         <v>45063</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+12,DAY($C4)))</f>
+        <f t="shared" si="11"/>
         <v>45094</v>
       </c>
       <c r="AD4" s="1"/>
@@ -7621,64 +7621,64 @@
         <v>360</v>
       </c>
       <c r="G5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+1,DAY($C5)))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+2,DAY($C5)))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+3,DAY($C5)))</f>
+        <f t="shared" si="2"/>
         <v>44958</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+4,DAY($C5)))</f>
+        <f t="shared" si="3"/>
         <v>44986</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+5,DAY($C5)))</f>
+        <f t="shared" si="4"/>
         <v>45017</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+6,DAY($C5)))</f>
+        <f t="shared" si="5"/>
         <v>45047</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+7,DAY($C5)))</f>
+        <f t="shared" si="6"/>
         <v>45078</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+8,DAY($C5)))</f>
+        <f t="shared" si="7"/>
         <v>45108</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+9,DAY($C5)))</f>
+        <f t="shared" si="8"/>
         <v>45139</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+10,DAY($C5)))</f>
+        <f t="shared" si="9"/>
         <v>45170</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+11,DAY($C5)))</f>
+        <f t="shared" si="10"/>
         <v>45200</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+12,DAY($C5)))</f>
+        <f t="shared" si="11"/>
         <v>45231</v>
       </c>
       <c r="AD5" s="18"/>
@@ -7706,70 +7706,70 @@
         <v>378</v>
       </c>
       <c r="G6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+1,DAY($C6)))</f>
+        <f t="shared" si="0"/>
         <v>44805</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+2,DAY($C6)))</f>
+        <f t="shared" si="1"/>
         <v>44835</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+3,DAY($C6)))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+4,DAY($C6)))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="N6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+5,DAY($C6)))</f>
+        <f t="shared" si="4"/>
         <v>44927</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="12">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+6,DAY($C6)))</f>
+        <f t="shared" si="5"/>
         <v>44958</v>
       </c>
       <c r="R6" s="10"/>
       <c r="S6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+7,DAY($C6)))</f>
+        <f t="shared" si="6"/>
         <v>44986</v>
       </c>
       <c r="T6" s="10"/>
       <c r="U6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+8,DAY($C6)))</f>
+        <f t="shared" si="7"/>
         <v>45017</v>
       </c>
       <c r="V6" s="10"/>
       <c r="W6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+9,DAY($C6)))</f>
+        <f t="shared" si="8"/>
         <v>45047</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+10,DAY($C6)))</f>
+        <f t="shared" si="9"/>
         <v>45078</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+11,DAY($C6)))</f>
+        <f t="shared" si="10"/>
         <v>45108</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="3">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+12,DAY($C6)))</f>
+        <f t="shared" si="11"/>
         <v>45139</v>
       </c>
       <c r="AD6" s="10"/>
@@ -7796,84 +7796,84 @@
         <v>211</v>
       </c>
       <c r="G7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+1,DAY($C7)))</f>
+        <f t="shared" si="0"/>
         <v>44836</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+2,DAY($C7)))</f>
+        <f t="shared" si="1"/>
         <v>44867</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+3,DAY($C7)))</f>
+        <f t="shared" si="2"/>
         <v>44897</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+4,DAY($C7)))</f>
+        <f t="shared" si="3"/>
         <v>44928</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+5,DAY($C7)))</f>
+        <f t="shared" si="4"/>
         <v>44959</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+6,DAY($C7)))</f>
+        <f t="shared" si="5"/>
         <v>44987</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+7,DAY($C7)))</f>
+        <f t="shared" si="6"/>
         <v>45018</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+8,DAY($C7)))</f>
+        <f t="shared" si="7"/>
         <v>45048</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+9,DAY($C7)))</f>
+        <f t="shared" si="8"/>
         <v>45079</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+10,DAY($C7)))</f>
+        <f t="shared" si="9"/>
         <v>45109</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+11,DAY($C7)))</f>
+        <f t="shared" si="10"/>
         <v>45140</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+12,DAY($C7)))</f>
+        <f t="shared" si="11"/>
         <v>45171</v>
       </c>
       <c r="AD7" s="14" t="s">
@@ -7903,78 +7903,78 @@
         <v>258</v>
       </c>
       <c r="G8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+1,DAY($C8)))</f>
+        <f t="shared" si="0"/>
         <v>44683</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+2,DAY($C8)))</f>
+        <f t="shared" si="1"/>
         <v>44714</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+3,DAY($C8)))</f>
+        <f t="shared" si="2"/>
         <v>44744</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+4,DAY($C8)))</f>
+        <f t="shared" si="3"/>
         <v>44775</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+5,DAY($C8)))</f>
+        <f t="shared" si="4"/>
         <v>44806</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+6,DAY($C8)))</f>
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+7,DAY($C8)))</f>
+        <f t="shared" si="6"/>
         <v>44867</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+8,DAY($C8)))</f>
+        <f t="shared" si="7"/>
         <v>44897</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+9,DAY($C8)))</f>
+        <f t="shared" si="8"/>
         <v>44928</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+10,DAY($C8)))</f>
+        <f t="shared" si="9"/>
         <v>44959</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+11,DAY($C8)))</f>
+        <f t="shared" si="10"/>
         <v>44987</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+12,DAY($C8)))</f>
+        <f t="shared" si="11"/>
         <v>45018</v>
       </c>
       <c r="AD8" s="1"/>
@@ -8002,64 +8002,64 @@
         <v>336</v>
       </c>
       <c r="G9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+1,DAY($C9)))</f>
+        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+2,DAY($C9)))</f>
+        <f t="shared" si="1"/>
         <v>44868</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+3,DAY($C9)))</f>
+        <f t="shared" si="2"/>
         <v>44898</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+4,DAY($C9)))</f>
+        <f t="shared" si="3"/>
         <v>44929</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+5,DAY($C9)))</f>
+        <f t="shared" si="4"/>
         <v>44960</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+6,DAY($C9)))</f>
+        <f t="shared" si="5"/>
         <v>44988</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+7,DAY($C9)))</f>
+        <f t="shared" si="6"/>
         <v>45019</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+8,DAY($C9)))</f>
+        <f t="shared" si="7"/>
         <v>45049</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+9,DAY($C9)))</f>
+        <f t="shared" si="8"/>
         <v>45080</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+10,DAY($C9)))</f>
+        <f t="shared" si="9"/>
         <v>45110</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+11,DAY($C9)))</f>
+        <f t="shared" si="10"/>
         <v>45141</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+12,DAY($C9)))</f>
+        <f t="shared" si="11"/>
         <v>45172</v>
       </c>
       <c r="AD9" s="1"/>
@@ -8086,84 +8086,84 @@
         <v>173</v>
       </c>
       <c r="G10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+1,DAY($C10)))</f>
+        <f t="shared" si="0"/>
         <v>44899</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+2,DAY($C10)))</f>
+        <f t="shared" si="1"/>
         <v>44930</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+3,DAY($C10)))</f>
+        <f t="shared" si="2"/>
         <v>44961</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+4,DAY($C10)))</f>
+        <f t="shared" si="3"/>
         <v>44989</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+5,DAY($C10)))</f>
+        <f t="shared" si="4"/>
         <v>45020</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+6,DAY($C10)))</f>
+        <f t="shared" si="5"/>
         <v>45050</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+7,DAY($C10)))</f>
+        <f t="shared" si="6"/>
         <v>45081</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+8,DAY($C10)))</f>
+        <f t="shared" si="7"/>
         <v>45111</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+9,DAY($C10)))</f>
+        <f t="shared" si="8"/>
         <v>45142</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+10,DAY($C10)))</f>
+        <f t="shared" si="9"/>
         <v>45173</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AA10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+11,DAY($C10)))</f>
+        <f t="shared" si="10"/>
         <v>45203</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+12,DAY($C10)))</f>
+        <f t="shared" si="11"/>
         <v>45234</v>
       </c>
       <c r="AD10" s="18" t="s">
@@ -8193,62 +8193,62 @@
         <v>237</v>
       </c>
       <c r="G11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+1,DAY($C11)))</f>
+        <f t="shared" si="0"/>
         <v>44534</v>
       </c>
       <c r="H11" s="50"/>
       <c r="I11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+2,DAY($C11)))</f>
+        <f t="shared" si="1"/>
         <v>44565</v>
       </c>
       <c r="J11" s="61"/>
       <c r="K11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+3,DAY($C11)))</f>
+        <f t="shared" si="2"/>
         <v>44596</v>
       </c>
       <c r="L11" s="50"/>
       <c r="M11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+4,DAY($C11)))</f>
+        <f t="shared" si="3"/>
         <v>44624</v>
       </c>
       <c r="N11" s="50"/>
       <c r="O11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+5,DAY($C11)))</f>
+        <f t="shared" si="4"/>
         <v>44655</v>
       </c>
       <c r="P11" s="50"/>
       <c r="Q11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+6,DAY($C11)))</f>
+        <f t="shared" si="5"/>
         <v>44685</v>
       </c>
       <c r="R11" s="50"/>
       <c r="S11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+7,DAY($C11)))</f>
+        <f t="shared" si="6"/>
         <v>44716</v>
       </c>
       <c r="T11" s="50"/>
       <c r="U11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+8,DAY($C11)))</f>
+        <f t="shared" si="7"/>
         <v>44746</v>
       </c>
       <c r="V11" s="50"/>
       <c r="W11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+9,DAY($C11)))</f>
+        <f t="shared" si="8"/>
         <v>44777</v>
       </c>
       <c r="X11" s="50"/>
       <c r="Y11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+10,DAY($C11)))</f>
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="Z11" s="50"/>
       <c r="AA11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+11,DAY($C11)))</f>
+        <f t="shared" si="10"/>
         <v>44838</v>
       </c>
       <c r="AB11" s="50"/>
       <c r="AC11" s="49">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+12,DAY($C11)))</f>
+        <f t="shared" si="11"/>
         <v>44869</v>
       </c>
       <c r="AD11" s="67"/>
@@ -8274,84 +8274,84 @@
         <v>188</v>
       </c>
       <c r="G12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+1,DAY($C12)))</f>
+        <f t="shared" si="0"/>
         <v>44565</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+2,DAY($C12)))</f>
+        <f t="shared" si="1"/>
         <v>44596</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+3,DAY($C12)))</f>
+        <f t="shared" si="2"/>
         <v>44624</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+4,DAY($C12)))</f>
+        <f t="shared" si="3"/>
         <v>44655</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+5,DAY($C12)))</f>
+        <f t="shared" si="4"/>
         <v>44685</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+6,DAY($C12)))</f>
+        <f t="shared" si="5"/>
         <v>44716</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+7,DAY($C12)))</f>
+        <f t="shared" si="6"/>
         <v>44746</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+8,DAY($C12)))</f>
+        <f t="shared" si="7"/>
         <v>44777</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+9,DAY($C12)))</f>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+10,DAY($C12)))</f>
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+11,DAY($C12)))</f>
+        <f t="shared" si="10"/>
         <v>44869</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+12,DAY($C12)))</f>
+        <f t="shared" si="11"/>
         <v>44899</v>
       </c>
       <c r="AD12" s="1" t="s">
@@ -8381,74 +8381,74 @@
         <v>274</v>
       </c>
       <c r="G13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+1,DAY($C13)))</f>
+        <f t="shared" si="0"/>
         <v>44746</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+2,DAY($C13)))</f>
+        <f t="shared" si="1"/>
         <v>44777</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+3,DAY($C13)))</f>
+        <f t="shared" si="2"/>
         <v>44808</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+4,DAY($C13)))</f>
+        <f t="shared" si="3"/>
         <v>44838</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+5,DAY($C13)))</f>
+        <f t="shared" si="4"/>
         <v>44869</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+6,DAY($C13)))</f>
+        <f t="shared" si="5"/>
         <v>44899</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+7,DAY($C13)))</f>
+        <f t="shared" si="6"/>
         <v>44930</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+8,DAY($C13)))</f>
+        <f t="shared" si="7"/>
         <v>44961</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+9,DAY($C13)))</f>
+        <f t="shared" si="8"/>
         <v>44989</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+10,DAY($C13)))</f>
+        <f t="shared" si="9"/>
         <v>45020</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+11,DAY($C13)))</f>
+        <f t="shared" si="10"/>
         <v>45050</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+12,DAY($C13)))</f>
+        <f t="shared" si="11"/>
         <v>45081</v>
       </c>
       <c r="AD13" s="14"/>
@@ -8476,84 +8476,84 @@
         <v>164</v>
       </c>
       <c r="G14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+1,DAY($C14)))</f>
+        <f t="shared" si="0"/>
         <v>44506</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+2,DAY($C14)))</f>
+        <f t="shared" si="1"/>
         <v>44536</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+3,DAY($C14)))</f>
+        <f t="shared" si="2"/>
         <v>44567</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+4,DAY($C14)))</f>
+        <f t="shared" si="3"/>
         <v>44598</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+5,DAY($C14)))</f>
+        <f t="shared" si="4"/>
         <v>44626</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+6,DAY($C14)))</f>
+        <f t="shared" si="5"/>
         <v>44657</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+7,DAY($C14)))</f>
+        <f t="shared" si="6"/>
         <v>44687</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+8,DAY($C14)))</f>
+        <f t="shared" si="7"/>
         <v>44718</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+9,DAY($C14)))</f>
+        <f t="shared" si="8"/>
         <v>44748</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+10,DAY($C14)))</f>
+        <f t="shared" si="9"/>
         <v>44779</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+11,DAY($C14)))</f>
+        <f t="shared" si="10"/>
         <v>44810</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+12,DAY($C14)))</f>
+        <f t="shared" si="11"/>
         <v>44840</v>
       </c>
       <c r="AD14" s="14" t="s">
@@ -8583,82 +8583,82 @@
         <v>230</v>
       </c>
       <c r="G15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+1,DAY($C15)))</f>
+        <f t="shared" si="0"/>
         <v>44626</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+2,DAY($C15)))</f>
+        <f t="shared" si="1"/>
         <v>44657</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+3,DAY($C15)))</f>
+        <f t="shared" si="2"/>
         <v>44687</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+4,DAY($C15)))</f>
+        <f t="shared" si="3"/>
         <v>44718</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+5,DAY($C15)))</f>
+        <f t="shared" si="4"/>
         <v>44748</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+6,DAY($C15)))</f>
+        <f t="shared" si="5"/>
         <v>44779</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+7,DAY($C15)))</f>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+8,DAY($C15)))</f>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+9,DAY($C15)))</f>
+        <f t="shared" si="8"/>
         <v>44871</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+10,DAY($C15)))</f>
+        <f t="shared" si="9"/>
         <v>44901</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+11,DAY($C15)))</f>
+        <f t="shared" si="10"/>
         <v>44932</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+12,DAY($C15)))</f>
+        <f t="shared" si="11"/>
         <v>44963</v>
       </c>
       <c r="AD15" s="14"/>
@@ -8686,62 +8686,62 @@
         <v>305</v>
       </c>
       <c r="G16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+1,DAY($C16)))</f>
+        <f t="shared" si="0"/>
         <v>44779</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+2,DAY($C16)))</f>
+        <f t="shared" si="1"/>
         <v>44810</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+3,DAY($C16)))</f>
+        <f t="shared" si="2"/>
         <v>44840</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+4,DAY($C16)))</f>
+        <f t="shared" si="3"/>
         <v>44871</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+5,DAY($C16)))</f>
+        <f t="shared" si="4"/>
         <v>44901</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+6,DAY($C16)))</f>
+        <f t="shared" si="5"/>
         <v>44932</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+7,DAY($C16)))</f>
+        <f t="shared" si="6"/>
         <v>44963</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+8,DAY($C16)))</f>
+        <f t="shared" si="7"/>
         <v>44991</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+9,DAY($C16)))</f>
+        <f t="shared" si="8"/>
         <v>45022</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+10,DAY($C16)))</f>
+        <f t="shared" si="9"/>
         <v>45052</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+11,DAY($C16)))</f>
+        <f t="shared" si="10"/>
         <v>45083</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+12,DAY($C16)))</f>
+        <f t="shared" si="11"/>
         <v>45113</v>
       </c>
       <c r="AD16" s="14"/>
@@ -8769,74 +8769,74 @@
         <v>165</v>
       </c>
       <c r="G17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+1,DAY($C17)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+2,DAY($C17)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+3,DAY($C17)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+4,DAY($C17)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+5,DAY($C17)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+6,DAY($C17)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+7,DAY($C17)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+8,DAY($C17)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+9,DAY($C17)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+10,DAY($C17)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+11,DAY($C17)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AC17" s="3">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+12,DAY($C17)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD17" s="14"/>
@@ -8864,62 +8864,62 @@
         <v>48</v>
       </c>
       <c r="G18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+1,DAY($C18)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+2,DAY($C18)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+3,DAY($C18)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+4,DAY($C18)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+5,DAY($C18)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+6,DAY($C18)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+7,DAY($C18)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T18" s="1"/>
       <c r="U18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+8,DAY($C18)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+9,DAY($C18)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X18" s="1"/>
       <c r="Y18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+10,DAY($C18)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+11,DAY($C18)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AC18" s="3">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+12,DAY($C18)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD18" s="1"/>
@@ -8947,84 +8947,84 @@
         <v>340</v>
       </c>
       <c r="G19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+1,DAY($C19)))</f>
+        <f t="shared" si="0"/>
         <v>44477</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+2,DAY($C19)))</f>
+        <f t="shared" si="1"/>
         <v>44508</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+3,DAY($C19)))</f>
+        <f t="shared" si="2"/>
         <v>44538</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+4,DAY($C19)))</f>
+        <f t="shared" si="3"/>
         <v>44569</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+5,DAY($C19)))</f>
+        <f t="shared" si="4"/>
         <v>44600</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+6,DAY($C19)))</f>
+        <f t="shared" si="5"/>
         <v>44628</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+7,DAY($C19)))</f>
+        <f t="shared" si="6"/>
         <v>44659</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+8,DAY($C19)))</f>
+        <f t="shared" si="7"/>
         <v>44689</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+9,DAY($C19)))</f>
+        <f t="shared" si="8"/>
         <v>44720</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+10,DAY($C19)))</f>
+        <f t="shared" si="9"/>
         <v>44750</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+11,DAY($C19)))</f>
+        <f t="shared" si="10"/>
         <v>44781</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+12,DAY($C19)))</f>
+        <f t="shared" si="11"/>
         <v>44812</v>
       </c>
       <c r="AD19" s="1"/>
@@ -9051,84 +9051,84 @@
         <v>192</v>
       </c>
       <c r="G20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+1,DAY($C20)))</f>
+        <f t="shared" si="0"/>
         <v>44568</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+2,DAY($C20)))</f>
+        <f t="shared" si="1"/>
         <v>44599</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+3,DAY($C20)))</f>
+        <f t="shared" si="2"/>
         <v>44627</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+4,DAY($C20)))</f>
+        <f t="shared" si="3"/>
         <v>44658</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+5,DAY($C20)))</f>
+        <f t="shared" si="4"/>
         <v>44688</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+6,DAY($C20)))</f>
+        <f t="shared" si="5"/>
         <v>44719</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+7,DAY($C20)))</f>
+        <f t="shared" si="6"/>
         <v>44749</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+8,DAY($C20)))</f>
+        <f t="shared" si="7"/>
         <v>44780</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+9,DAY($C20)))</f>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+10,DAY($C20)))</f>
+        <f t="shared" si="9"/>
         <v>44841</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+11,DAY($C20)))</f>
+        <f t="shared" si="10"/>
         <v>44872</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+12,DAY($C20)))</f>
+        <f t="shared" si="11"/>
         <v>44902</v>
       </c>
       <c r="AD20" s="1" t="s">
@@ -9157,80 +9157,80 @@
         <v>385</v>
       </c>
       <c r="G21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+1,DAY($C21)))</f>
+        <f t="shared" si="0"/>
         <v>44676</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+2,DAY($C21)))</f>
+        <f t="shared" si="1"/>
         <v>44706</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+3,DAY($C21)))</f>
+        <f t="shared" si="2"/>
         <v>44737</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+4,DAY($C21)))</f>
+        <f t="shared" si="3"/>
         <v>44767</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+5,DAY($C21)))</f>
+        <f t="shared" si="4"/>
         <v>44798</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+6,DAY($C21)))</f>
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+7,DAY($C21)))</f>
+        <f t="shared" si="6"/>
         <v>44859</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+8,DAY($C21)))</f>
+        <f t="shared" si="7"/>
         <v>44890</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+9,DAY($C21)))</f>
+        <f t="shared" si="8"/>
         <v>44920</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+10,DAY($C21)))</f>
+        <f t="shared" si="9"/>
         <v>44951</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+11,DAY($C21)))</f>
+        <f t="shared" si="10"/>
         <v>44982</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+12,DAY($C21)))</f>
+        <f t="shared" si="11"/>
         <v>45010</v>
       </c>
       <c r="AD21" s="1"/>
@@ -9256,72 +9256,72 @@
         <v>78</v>
       </c>
       <c r="G22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+1,DAY($C22)))</f>
+        <f t="shared" si="0"/>
         <v>44781</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+2,DAY($C22)))</f>
+        <f t="shared" si="1"/>
         <v>44812</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+3,DAY($C22)))</f>
+        <f t="shared" si="2"/>
         <v>44842</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+4,DAY($C22)))</f>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+5,DAY($C22)))</f>
+        <f t="shared" si="4"/>
         <v>44903</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+6,DAY($C22)))</f>
+        <f t="shared" si="5"/>
         <v>44934</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+7,DAY($C22)))</f>
+        <f t="shared" si="6"/>
         <v>44965</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+8,DAY($C22)))</f>
+        <f t="shared" si="7"/>
         <v>44993</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+9,DAY($C22)))</f>
+        <f t="shared" si="8"/>
         <v>45024</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+10,DAY($C22)))</f>
+        <f t="shared" si="9"/>
         <v>45054</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+11,DAY($C22)))</f>
+        <f t="shared" si="10"/>
         <v>45085</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+12,DAY($C22)))</f>
+        <f t="shared" si="11"/>
         <v>45115</v>
       </c>
       <c r="AD22" s="1"/>
@@ -9349,62 +9349,62 @@
         <v>392</v>
       </c>
       <c r="G23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+1,DAY($C23)))</f>
+        <f t="shared" si="0"/>
         <v>45086</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+2,DAY($C23)))</f>
+        <f t="shared" si="1"/>
         <v>45116</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+3,DAY($C23)))</f>
+        <f t="shared" si="2"/>
         <v>45147</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+4,DAY($C23)))</f>
+        <f t="shared" si="3"/>
         <v>45178</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+5,DAY($C23)))</f>
+        <f t="shared" si="4"/>
         <v>45208</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+6,DAY($C23)))</f>
+        <f t="shared" si="5"/>
         <v>45239</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+7,DAY($C23)))</f>
+        <f t="shared" si="6"/>
         <v>45269</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+8,DAY($C23)))</f>
+        <f t="shared" si="7"/>
         <v>45300</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+9,DAY($C23)))</f>
+        <f t="shared" si="8"/>
         <v>45331</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+10,DAY($C23)))</f>
+        <f t="shared" si="9"/>
         <v>45360</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+11,DAY($C23)))</f>
+        <f t="shared" si="10"/>
         <v>45391</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+12,DAY($C23)))</f>
+        <f t="shared" si="11"/>
         <v>45421</v>
       </c>
       <c r="AD23" s="14"/>
@@ -9431,84 +9431,84 @@
         <v>206</v>
       </c>
       <c r="G24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+1,DAY($C24)))</f>
+        <f t="shared" si="0"/>
         <v>44607</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+2,DAY($C24)))</f>
+        <f t="shared" si="1"/>
         <v>44635</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+3,DAY($C24)))</f>
+        <f t="shared" si="2"/>
         <v>44666</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+4,DAY($C24)))</f>
+        <f t="shared" si="3"/>
         <v>44696</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+5,DAY($C24)))</f>
+        <f t="shared" si="4"/>
         <v>44727</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+6,DAY($C24)))</f>
+        <f t="shared" si="5"/>
         <v>44757</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+7,DAY($C24)))</f>
+        <f t="shared" si="6"/>
         <v>44788</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+8,DAY($C24)))</f>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+9,DAY($C24)))</f>
+        <f t="shared" si="8"/>
         <v>44849</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+10,DAY($C24)))</f>
+        <f t="shared" si="9"/>
         <v>44880</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+11,DAY($C24)))</f>
+        <f t="shared" si="10"/>
         <v>44910</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+12,DAY($C24)))</f>
+        <f t="shared" si="11"/>
         <v>44941</v>
       </c>
       <c r="AD24" s="1"/>
@@ -9535,62 +9535,62 @@
         <v>321</v>
       </c>
       <c r="G25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+1,DAY($C25)))</f>
+        <f t="shared" si="0"/>
         <v>45209</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+2,DAY($C25)))</f>
+        <f t="shared" si="1"/>
         <v>45240</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+3,DAY($C25)))</f>
+        <f t="shared" si="2"/>
         <v>45270</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+4,DAY($C25)))</f>
+        <f t="shared" si="3"/>
         <v>45301</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+5,DAY($C25)))</f>
+        <f t="shared" si="4"/>
         <v>45332</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+6,DAY($C25)))</f>
+        <f t="shared" si="5"/>
         <v>45361</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+7,DAY($C25)))</f>
+        <f t="shared" si="6"/>
         <v>45392</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+8,DAY($C25)))</f>
+        <f t="shared" si="7"/>
         <v>45422</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+9,DAY($C25)))</f>
+        <f t="shared" si="8"/>
         <v>45453</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+10,DAY($C25)))</f>
+        <f t="shared" si="9"/>
         <v>45483</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+11,DAY($C25)))</f>
+        <f t="shared" si="10"/>
         <v>45514</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+12,DAY($C25)))</f>
+        <f t="shared" si="11"/>
         <v>45545</v>
       </c>
       <c r="AD25" s="14"/>
@@ -9618,70 +9618,70 @@
         <v>388</v>
       </c>
       <c r="G26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+1,DAY($C26)))</f>
+        <f t="shared" si="0"/>
         <v>45056</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+2,DAY($C26)))</f>
+        <f t="shared" si="1"/>
         <v>45087</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+3,DAY($C26)))</f>
+        <f t="shared" si="2"/>
         <v>45117</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+4,DAY($C26)))</f>
+        <f t="shared" si="3"/>
         <v>45148</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+5,DAY($C26)))</f>
+        <f t="shared" si="4"/>
         <v>45179</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+6,DAY($C26)))</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+7,DAY($C26)))</f>
+        <f t="shared" si="6"/>
         <v>45240</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+8,DAY($C26)))</f>
+        <f t="shared" si="7"/>
         <v>45270</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+9,DAY($C26)))</f>
+        <f t="shared" si="8"/>
         <v>45301</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+10,DAY($C26)))</f>
+        <f t="shared" si="9"/>
         <v>45332</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+11,DAY($C26)))</f>
+        <f t="shared" si="10"/>
         <v>45361</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+12,DAY($C26)))</f>
+        <f t="shared" si="11"/>
         <v>45392</v>
       </c>
       <c r="AD26" s="14"/>
@@ -9708,72 +9708,72 @@
         <v>70</v>
       </c>
       <c r="G27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+1,DAY($C27)))</f>
+        <f t="shared" si="0"/>
         <v>44753</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+2,DAY($C27)))</f>
+        <f t="shared" si="1"/>
         <v>44784</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+3,DAY($C27)))</f>
+        <f t="shared" si="2"/>
         <v>44815</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+4,DAY($C27)))</f>
+        <f t="shared" si="3"/>
         <v>44845</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+5,DAY($C27)))</f>
+        <f t="shared" si="4"/>
         <v>44876</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+6,DAY($C27)))</f>
+        <f t="shared" si="5"/>
         <v>44906</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+7,DAY($C27)))</f>
+        <f t="shared" si="6"/>
         <v>44937</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+8,DAY($C27)))</f>
+        <f t="shared" si="7"/>
         <v>44968</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+9,DAY($C27)))</f>
+        <f t="shared" si="8"/>
         <v>44996</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+10,DAY($C27)))</f>
+        <f t="shared" si="9"/>
         <v>45027</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+11,DAY($C27)))</f>
+        <f t="shared" si="10"/>
         <v>45057</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+12,DAY($C27)))</f>
+        <f t="shared" si="11"/>
         <v>45088</v>
       </c>
       <c r="AD27" s="14"/>
@@ -9800,70 +9800,70 @@
         <v>81</v>
       </c>
       <c r="G28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+1,DAY($C28)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+2,DAY($C28)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+3,DAY($C28)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+4,DAY($C28)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+5,DAY($C28)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+6,DAY($C28)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+7,DAY($C28)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+8,DAY($C28)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+9,DAY($C28)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+10,DAY($C28)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+11,DAY($C28)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+12,DAY($C28)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD28" s="1"/>
@@ -9890,72 +9890,72 @@
         <v>84</v>
       </c>
       <c r="G29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+1,DAY($C29)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+2,DAY($C29)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+3,DAY($C29)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+4,DAY($C29)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+5,DAY($C29)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+6,DAY($C29)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R29" s="1"/>
       <c r="S29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+7,DAY($C29)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T29" s="1"/>
       <c r="U29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+8,DAY($C29)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+9,DAY($C29)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X29" s="1"/>
       <c r="Y29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+10,DAY($C29)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+11,DAY($C29)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB29" s="1"/>
       <c r="AC29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+12,DAY($C29)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD29" s="1"/>
@@ -9983,84 +9983,84 @@
         <v>97</v>
       </c>
       <c r="G30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+1,DAY($C30)))</f>
+        <f t="shared" si="0"/>
         <v>44603</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+2,DAY($C30)))</f>
+        <f t="shared" si="1"/>
         <v>44631</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+3,DAY($C30)))</f>
+        <f t="shared" si="2"/>
         <v>44662</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+4,DAY($C30)))</f>
+        <f t="shared" si="3"/>
         <v>44692</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+5,DAY($C30)))</f>
+        <f t="shared" si="4"/>
         <v>44723</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+6,DAY($C30)))</f>
+        <f t="shared" si="5"/>
         <v>44753</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+7,DAY($C30)))</f>
+        <f t="shared" si="6"/>
         <v>44784</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+8,DAY($C30)))</f>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+9,DAY($C30)))</f>
+        <f t="shared" si="8"/>
         <v>44845</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+10,DAY($C30)))</f>
+        <f t="shared" si="9"/>
         <v>44876</v>
       </c>
       <c r="Z30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+11,DAY($C30)))</f>
+        <f t="shared" si="10"/>
         <v>44906</v>
       </c>
       <c r="AB30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+12,DAY($C30)))</f>
+        <f t="shared" si="11"/>
         <v>44937</v>
       </c>
       <c r="AD30" s="1"/>
@@ -10088,80 +10088,80 @@
         <v>244</v>
       </c>
       <c r="G31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+1,DAY($C31)))</f>
+        <f t="shared" si="0"/>
         <v>44662</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+2,DAY($C31)))</f>
+        <f t="shared" si="1"/>
         <v>44692</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+3,DAY($C31)))</f>
+        <f t="shared" si="2"/>
         <v>44723</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+4,DAY($C31)))</f>
+        <f t="shared" si="3"/>
         <v>44753</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+5,DAY($C31)))</f>
+        <f t="shared" si="4"/>
         <v>44784</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+6,DAY($C31)))</f>
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+7,DAY($C31)))</f>
+        <f t="shared" si="6"/>
         <v>44845</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+8,DAY($C31)))</f>
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="V31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+9,DAY($C31)))</f>
+        <f t="shared" si="8"/>
         <v>44906</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+10,DAY($C31)))</f>
+        <f t="shared" si="9"/>
         <v>44937</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+11,DAY($C31)))</f>
+        <f t="shared" si="10"/>
         <v>44968</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+12,DAY($C31)))</f>
+        <f t="shared" si="11"/>
         <v>44996</v>
       </c>
       <c r="AD31" s="14"/>
@@ -10188,70 +10188,70 @@
         <v>129</v>
       </c>
       <c r="G32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+1,DAY($C32)))</f>
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+2,DAY($C32)))</f>
+        <f t="shared" si="1"/>
         <v>44846</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+3,DAY($C32)))</f>
+        <f t="shared" si="2"/>
         <v>44877</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+4,DAY($C32)))</f>
+        <f t="shared" si="3"/>
         <v>44907</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+5,DAY($C32)))</f>
+        <f t="shared" si="4"/>
         <v>44938</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+6,DAY($C32)))</f>
+        <f t="shared" si="5"/>
         <v>44969</v>
       </c>
       <c r="R32" s="1"/>
       <c r="S32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+7,DAY($C32)))</f>
+        <f t="shared" si="6"/>
         <v>44997</v>
       </c>
       <c r="T32" s="1"/>
       <c r="U32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+8,DAY($C32)))</f>
+        <f t="shared" si="7"/>
         <v>45028</v>
       </c>
       <c r="V32" s="1"/>
       <c r="W32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+9,DAY($C32)))</f>
+        <f t="shared" si="8"/>
         <v>45058</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+10,DAY($C32)))</f>
+        <f t="shared" si="9"/>
         <v>45089</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+11,DAY($C32)))</f>
+        <f t="shared" si="10"/>
         <v>45119</v>
       </c>
       <c r="AB32" s="1"/>
       <c r="AC32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+12,DAY($C32)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD32" s="14"/>
@@ -10279,84 +10279,84 @@
         <v>212</v>
       </c>
       <c r="G33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+1,DAY($C33)))</f>
+        <f t="shared" si="0"/>
         <v>44512</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+2,DAY($C33)))</f>
+        <f t="shared" si="1"/>
         <v>44542</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+3,DAY($C33)))</f>
+        <f t="shared" si="2"/>
         <v>44573</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+4,DAY($C33)))</f>
+        <f t="shared" si="3"/>
         <v>44604</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+5,DAY($C33)))</f>
+        <f t="shared" si="4"/>
         <v>44632</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+6,DAY($C33)))</f>
+        <f t="shared" si="5"/>
         <v>44663</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+7,DAY($C33)))</f>
+        <f t="shared" si="6"/>
         <v>44693</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+8,DAY($C33)))</f>
+        <f t="shared" si="7"/>
         <v>44724</v>
       </c>
       <c r="V33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+9,DAY($C33)))</f>
+        <f t="shared" si="8"/>
         <v>44754</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+10,DAY($C33)))</f>
+        <f t="shared" si="9"/>
         <v>44785</v>
       </c>
       <c r="Z33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+11,DAY($C33)))</f>
+        <f t="shared" si="10"/>
         <v>44816</v>
       </c>
       <c r="AB33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+12,DAY($C33)))</f>
+        <f t="shared" si="11"/>
         <v>44846</v>
       </c>
       <c r="AD33" s="14" t="s">
@@ -10386,70 +10386,70 @@
         <v>324</v>
       </c>
       <c r="G34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
+        <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
         <v>44816</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
+        <f t="shared" ref="I34:I65" si="13">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
         <v>44846</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
+        <f t="shared" ref="K34:K65" si="14">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
         <v>44877</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
+        <f t="shared" ref="M34:M65" si="15">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
         <v>44907</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
+        <f t="shared" ref="O34:O65" si="16">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
         <v>44938</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
+        <f t="shared" ref="Q34:Q65" si="17">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
         <v>44969</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
+        <f t="shared" ref="S34:S65" si="18">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
         <v>44997</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
+        <f t="shared" ref="U34:U65" si="19">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
         <v>45028</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
+        <f t="shared" ref="W34:W65" si="20">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
         <v>45058</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
+        <f t="shared" ref="Y34:Y65" si="21">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
         <v>45089</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
+        <f t="shared" ref="AA34:AA65" si="22">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
         <v>45119</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+12,DAY($C34)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD34" s="14"/>
@@ -10474,64 +10474,64 @@
         <v>170</v>
       </c>
       <c r="G35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+1,DAY($C35)))</f>
+        <f t="shared" si="12"/>
         <v>44513</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+2,DAY($C35)))</f>
+        <f t="shared" si="13"/>
         <v>44543</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+3,DAY($C35)))</f>
+        <f t="shared" si="14"/>
         <v>44574</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+4,DAY($C35)))</f>
+        <f t="shared" si="15"/>
         <v>44605</v>
       </c>
       <c r="N35" s="1"/>
       <c r="O35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+5,DAY($C35)))</f>
+        <f t="shared" si="16"/>
         <v>44633</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+6,DAY($C35)))</f>
+        <f t="shared" si="17"/>
         <v>44664</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+7,DAY($C35)))</f>
+        <f t="shared" si="18"/>
         <v>44694</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+8,DAY($C35)))</f>
+        <f t="shared" si="19"/>
         <v>44725</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+9,DAY($C35)))</f>
+        <f t="shared" si="20"/>
         <v>44755</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+10,DAY($C35)))</f>
+        <f t="shared" si="21"/>
         <v>44786</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+11,DAY($C35)))</f>
+        <f t="shared" si="22"/>
         <v>44817</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+12,DAY($C35)))</f>
+        <f t="shared" si="11"/>
         <v>44847</v>
       </c>
       <c r="AD35" s="14"/>
@@ -10558,70 +10558,70 @@
         <v>363</v>
       </c>
       <c r="G36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+1,DAY($C36)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+2,DAY($C36)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+3,DAY($C36)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+4,DAY($C36)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+5,DAY($C36)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+6,DAY($C36)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R36" s="1"/>
       <c r="S36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+7,DAY($C36)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T36" s="1"/>
       <c r="U36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+8,DAY($C36)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V36" s="1"/>
       <c r="W36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+9,DAY($C36)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X36" s="1"/>
       <c r="Y36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+10,DAY($C36)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+11,DAY($C36)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB36" s="1"/>
       <c r="AC36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+12,DAY($C36)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD36" s="14"/>
@@ -10644,88 +10644,88 @@
       <c r="E37" s="75" t="s">
         <v>393</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+1,DAY($C37)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+2,DAY($C37)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+3,DAY($C37)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+4,DAY($C37)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+5,DAY($C37)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+6,DAY($C37)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+7,DAY($C37)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+8,DAY($C37)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+9,DAY($C37)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+10,DAY($C37)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+11,DAY($C37)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+12,DAY($C37)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD37" s="1" t="s">
@@ -10754,80 +10754,80 @@
         <v>139</v>
       </c>
       <c r="G38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+1,DAY($C38)))</f>
+        <f t="shared" si="12"/>
         <v>44818</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+2,DAY($C38)))</f>
+        <f t="shared" si="13"/>
         <v>44848</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+3,DAY($C38)))</f>
+        <f t="shared" si="14"/>
         <v>44879</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+4,DAY($C38)))</f>
+        <f t="shared" si="15"/>
         <v>44909</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+5,DAY($C38)))</f>
+        <f t="shared" si="16"/>
         <v>44940</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+6,DAY($C38)))</f>
+        <f t="shared" si="17"/>
         <v>44971</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+7,DAY($C38)))</f>
+        <f t="shared" si="18"/>
         <v>44999</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+8,DAY($C38)))</f>
+        <f t="shared" si="19"/>
         <v>45030</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+9,DAY($C38)))</f>
+        <f t="shared" si="20"/>
         <v>45060</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+10,DAY($C38)))</f>
+        <f t="shared" si="21"/>
         <v>45091</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+11,DAY($C38)))</f>
+        <f t="shared" si="22"/>
         <v>45121</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+12,DAY($C38)))</f>
+        <f t="shared" si="11"/>
         <v>45152</v>
       </c>
       <c r="AD38" s="14" t="s">
@@ -10856,84 +10856,84 @@
         <v>178</v>
       </c>
       <c r="G39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+1,DAY($C39)))</f>
+        <f t="shared" si="12"/>
         <v>44544</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+2,DAY($C39)))</f>
+        <f t="shared" si="13"/>
         <v>44575</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+3,DAY($C39)))</f>
+        <f t="shared" si="14"/>
         <v>44606</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+4,DAY($C39)))</f>
+        <f t="shared" si="15"/>
         <v>44634</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+5,DAY($C39)))</f>
+        <f t="shared" si="16"/>
         <v>44665</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+6,DAY($C39)))</f>
+        <f t="shared" si="17"/>
         <v>44695</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+7,DAY($C39)))</f>
+        <f t="shared" si="18"/>
         <v>44726</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+8,DAY($C39)))</f>
+        <f t="shared" si="19"/>
         <v>44756</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+9,DAY($C39)))</f>
+        <f t="shared" si="20"/>
         <v>44787</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+10,DAY($C39)))</f>
+        <f t="shared" si="21"/>
         <v>44818</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+11,DAY($C39)))</f>
+        <f t="shared" si="22"/>
         <v>44848</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+12,DAY($C39)))</f>
+        <f t="shared" si="11"/>
         <v>44879</v>
       </c>
       <c r="AD39" s="1" t="s">
@@ -10963,84 +10963,84 @@
         <v>194</v>
       </c>
       <c r="G40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+1,DAY($C40)))</f>
+        <f t="shared" si="12"/>
         <v>44575</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+2,DAY($C40)))</f>
+        <f t="shared" si="13"/>
         <v>44606</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+3,DAY($C40)))</f>
+        <f t="shared" si="14"/>
         <v>44634</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+4,DAY($C40)))</f>
+        <f t="shared" si="15"/>
         <v>44665</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+5,DAY($C40)))</f>
+        <f t="shared" si="16"/>
         <v>44695</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+6,DAY($C40)))</f>
+        <f t="shared" si="17"/>
         <v>44726</v>
       </c>
       <c r="R40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+7,DAY($C40)))</f>
+        <f t="shared" si="18"/>
         <v>44756</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+8,DAY($C40)))</f>
+        <f t="shared" si="19"/>
         <v>44787</v>
       </c>
       <c r="V40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+9,DAY($C40)))</f>
+        <f t="shared" si="20"/>
         <v>44818</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+10,DAY($C40)))</f>
+        <f t="shared" si="21"/>
         <v>44848</v>
       </c>
       <c r="Z40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+11,DAY($C40)))</f>
+        <f t="shared" si="22"/>
         <v>44879</v>
       </c>
       <c r="AB40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC40" s="3">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+12,DAY($C40)))</f>
+        <f t="shared" si="11"/>
         <v>44909</v>
       </c>
       <c r="AD40" s="1"/>
@@ -11068,77 +11068,77 @@
         <v>60</v>
       </c>
       <c r="G41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+1,DAY($C41)))</f>
+        <f t="shared" si="12"/>
         <v>44301</v>
       </c>
       <c r="H41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+2,DAY($C41)))</f>
+        <f t="shared" si="13"/>
         <v>44331</v>
       </c>
       <c r="J41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+3,DAY($C41)))</f>
+        <f t="shared" si="14"/>
         <v>44362</v>
       </c>
       <c r="L41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+4,DAY($C41)))</f>
+        <f t="shared" si="15"/>
         <v>44392</v>
       </c>
       <c r="N41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+5,DAY($C41)))</f>
+        <f t="shared" si="16"/>
         <v>44423</v>
       </c>
       <c r="P41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+6,DAY($C41)))</f>
+        <f t="shared" si="17"/>
         <v>44454</v>
       </c>
       <c r="R41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+7,DAY($C41)))</f>
+        <f t="shared" si="18"/>
         <v>44484</v>
       </c>
       <c r="T41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+8,DAY($C41)))</f>
+        <f t="shared" si="19"/>
         <v>44515</v>
       </c>
       <c r="V41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+9,DAY($C41)))</f>
+        <f t="shared" si="20"/>
         <v>44545</v>
       </c>
       <c r="X41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+10,DAY($C41)))</f>
+        <f t="shared" si="21"/>
         <v>44576</v>
       </c>
       <c r="Z41" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="25">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+11,DAY($C41)))</f>
+        <f t="shared" si="22"/>
         <v>44607</v>
       </c>
       <c r="AB41" s="36" t="s">
@@ -11169,80 +11169,80 @@
         <v>153</v>
       </c>
       <c r="G42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+1,DAY($C42)))</f>
+        <f t="shared" si="12"/>
         <v>44484</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+2,DAY($C42)))</f>
+        <f t="shared" si="13"/>
         <v>44515</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+3,DAY($C42)))</f>
+        <f t="shared" si="14"/>
         <v>44545</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+4,DAY($C42)))</f>
+        <f t="shared" si="15"/>
         <v>44576</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+5,DAY($C42)))</f>
+        <f t="shared" si="16"/>
         <v>44607</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+6,DAY($C42)))</f>
+        <f t="shared" si="17"/>
         <v>44635</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+7,DAY($C42)))</f>
+        <f t="shared" si="18"/>
         <v>44666</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+8,DAY($C42)))</f>
+        <f t="shared" si="19"/>
         <v>44696</v>
       </c>
       <c r="V42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+9,DAY($C42)))</f>
+        <f t="shared" si="20"/>
         <v>44727</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+10,DAY($C42)))</f>
+        <f t="shared" si="21"/>
         <v>44757</v>
       </c>
       <c r="Z42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+11,DAY($C42)))</f>
+        <f t="shared" si="22"/>
         <v>44788</v>
       </c>
       <c r="AB42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
+        <f t="shared" ref="AC42:AC73" si="23">IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
         <v>44819</v>
       </c>
       <c r="AD42" s="14" t="s">
@@ -11272,74 +11272,74 @@
         <v>269</v>
       </c>
       <c r="G43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+1,DAY($C43)))</f>
+        <f t="shared" si="12"/>
         <v>44727</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+2,DAY($C43)))</f>
+        <f t="shared" si="13"/>
         <v>44757</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+3,DAY($C43)))</f>
+        <f t="shared" si="14"/>
         <v>44788</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+4,DAY($C43)))</f>
+        <f t="shared" si="15"/>
         <v>44819</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+5,DAY($C43)))</f>
+        <f t="shared" si="16"/>
         <v>44849</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+6,DAY($C43)))</f>
+        <f t="shared" si="17"/>
         <v>44880</v>
       </c>
       <c r="R43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+7,DAY($C43)))</f>
+        <f t="shared" si="18"/>
         <v>44910</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+8,DAY($C43)))</f>
+        <f t="shared" si="19"/>
         <v>44941</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+9,DAY($C43)))</f>
+        <f t="shared" si="20"/>
         <v>44972</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+10,DAY($C43)))</f>
+        <f t="shared" si="21"/>
         <v>45000</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+11,DAY($C43)))</f>
+        <f t="shared" si="22"/>
         <v>45031</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+12,DAY($C43)))</f>
+        <f t="shared" si="23"/>
         <v>45061</v>
       </c>
       <c r="AD43" s="14"/>
@@ -11367,70 +11367,70 @@
         <v>308</v>
       </c>
       <c r="G44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+1,DAY($C44)))</f>
+        <f t="shared" si="12"/>
         <v>44788</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+2,DAY($C44)))</f>
+        <f t="shared" si="13"/>
         <v>44819</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+3,DAY($C44)))</f>
+        <f t="shared" si="14"/>
         <v>44849</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+4,DAY($C44)))</f>
+        <f t="shared" si="15"/>
         <v>44880</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+5,DAY($C44)))</f>
+        <f t="shared" si="16"/>
         <v>44910</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+6,DAY($C44)))</f>
+        <f t="shared" si="17"/>
         <v>44941</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+7,DAY($C44)))</f>
+        <f t="shared" si="18"/>
         <v>44972</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+8,DAY($C44)))</f>
+        <f t="shared" si="19"/>
         <v>45000</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+9,DAY($C44)))</f>
+        <f t="shared" si="20"/>
         <v>45031</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+10,DAY($C44)))</f>
+        <f t="shared" si="21"/>
         <v>45061</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+11,DAY($C44)))</f>
+        <f t="shared" si="22"/>
         <v>45092</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+12,DAY($C44)))</f>
+        <f t="shared" si="23"/>
         <v>45122</v>
       </c>
       <c r="AD44" s="14"/>
@@ -11458,62 +11458,62 @@
         <v>372</v>
       </c>
       <c r="G45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+1,DAY($C45)))</f>
+        <f t="shared" si="12"/>
         <v>44942</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+2,DAY($C45)))</f>
+        <f t="shared" si="13"/>
         <v>44973</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+3,DAY($C45)))</f>
+        <f t="shared" si="14"/>
         <v>45001</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+4,DAY($C45)))</f>
+        <f t="shared" si="15"/>
         <v>45032</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+5,DAY($C45)))</f>
+        <f t="shared" si="16"/>
         <v>45062</v>
       </c>
       <c r="P45" s="1"/>
       <c r="Q45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+6,DAY($C45)))</f>
+        <f t="shared" si="17"/>
         <v>45093</v>
       </c>
       <c r="R45" s="1"/>
       <c r="S45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+7,DAY($C45)))</f>
+        <f t="shared" si="18"/>
         <v>45123</v>
       </c>
       <c r="T45" s="1"/>
       <c r="U45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+8,DAY($C45)))</f>
+        <f t="shared" si="19"/>
         <v>45154</v>
       </c>
       <c r="V45" s="1"/>
       <c r="W45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+9,DAY($C45)))</f>
+        <f t="shared" si="20"/>
         <v>45185</v>
       </c>
       <c r="X45" s="1"/>
       <c r="Y45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+10,DAY($C45)))</f>
+        <f t="shared" si="21"/>
         <v>45215</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+11,DAY($C45)))</f>
+        <f t="shared" si="22"/>
         <v>45246</v>
       </c>
       <c r="AB45" s="1"/>
       <c r="AC45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+12,DAY($C45)))</f>
+        <f t="shared" si="23"/>
         <v>45276</v>
       </c>
       <c r="AD45" s="14"/>
@@ -11540,84 +11540,84 @@
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+1,DAY($C46)))</f>
+        <f t="shared" si="12"/>
         <v>44790</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+2,DAY($C46)))</f>
+        <f t="shared" si="13"/>
         <v>44821</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+3,DAY($C46)))</f>
+        <f t="shared" si="14"/>
         <v>44851</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+4,DAY($C46)))</f>
+        <f t="shared" si="15"/>
         <v>44882</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+5,DAY($C46)))</f>
+        <f t="shared" si="16"/>
         <v>44912</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+6,DAY($C46)))</f>
+        <f t="shared" si="17"/>
         <v>44943</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+7,DAY($C46)))</f>
+        <f t="shared" si="18"/>
         <v>44974</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+8,DAY($C46)))</f>
+        <f t="shared" si="19"/>
         <v>45002</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+9,DAY($C46)))</f>
+        <f t="shared" si="20"/>
         <v>45033</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+10,DAY($C46)))</f>
+        <f t="shared" si="21"/>
         <v>45063</v>
       </c>
       <c r="Z46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+11,DAY($C46)))</f>
+        <f t="shared" si="22"/>
         <v>45094</v>
       </c>
       <c r="AB46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+12,DAY($C46)))</f>
+        <f t="shared" si="23"/>
         <v>45124</v>
       </c>
       <c r="AD46" s="1" t="s">
@@ -11647,78 +11647,78 @@
         <v>351</v>
       </c>
       <c r="G47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+1,DAY($C47)))</f>
+        <f t="shared" si="12"/>
         <v>44668</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+2,DAY($C47)))</f>
+        <f t="shared" si="13"/>
         <v>44698</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+3,DAY($C47)))</f>
+        <f t="shared" si="14"/>
         <v>44729</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+4,DAY($C47)))</f>
+        <f t="shared" si="15"/>
         <v>44759</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+5,DAY($C47)))</f>
+        <f t="shared" si="16"/>
         <v>44790</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+6,DAY($C47)))</f>
+        <f t="shared" si="17"/>
         <v>44821</v>
       </c>
       <c r="R47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+7,DAY($C47)))</f>
+        <f t="shared" si="18"/>
         <v>44851</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+8,DAY($C47)))</f>
+        <f t="shared" si="19"/>
         <v>44882</v>
       </c>
       <c r="V47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+9,DAY($C47)))</f>
+        <f t="shared" si="20"/>
         <v>44912</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+10,DAY($C47)))</f>
+        <f t="shared" si="21"/>
         <v>44943</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+11,DAY($C47)))</f>
+        <f t="shared" si="22"/>
         <v>44974</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+12,DAY($C47)))</f>
+        <f t="shared" si="23"/>
         <v>45002</v>
       </c>
       <c r="AD47" s="1"/>
@@ -11745,62 +11745,62 @@
         <v>357</v>
       </c>
       <c r="G48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+1,DAY($C48)))</f>
+        <f t="shared" si="12"/>
         <v>44748</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+2,DAY($C48)))</f>
+        <f t="shared" si="13"/>
         <v>44779</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+3,DAY($C48)))</f>
+        <f t="shared" si="14"/>
         <v>44810</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+4,DAY($C48)))</f>
+        <f t="shared" si="15"/>
         <v>44840</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+5,DAY($C48)))</f>
+        <f t="shared" si="16"/>
         <v>44871</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+6,DAY($C48)))</f>
+        <f t="shared" si="17"/>
         <v>44901</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+7,DAY($C48)))</f>
+        <f t="shared" si="18"/>
         <v>44932</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+8,DAY($C48)))</f>
+        <f t="shared" si="19"/>
         <v>44963</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+9,DAY($C48)))</f>
+        <f t="shared" si="20"/>
         <v>44991</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+10,DAY($C48)))</f>
+        <f t="shared" si="21"/>
         <v>45022</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+11,DAY($C48)))</f>
+        <f t="shared" si="22"/>
         <v>45052</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+12,DAY($C48)))</f>
+        <f t="shared" si="23"/>
         <v>45083</v>
       </c>
       <c r="AD48" s="1"/>
@@ -11828,62 +11828,62 @@
         <v>384</v>
       </c>
       <c r="G49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+1,DAY($C49)))</f>
+        <f t="shared" si="12"/>
         <v>45002</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+2,DAY($C49)))</f>
+        <f t="shared" si="13"/>
         <v>45033</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+3,DAY($C49)))</f>
+        <f t="shared" si="14"/>
         <v>45063</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+4,DAY($C49)))</f>
+        <f t="shared" si="15"/>
         <v>45094</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+5,DAY($C49)))</f>
+        <f t="shared" si="16"/>
         <v>45124</v>
       </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+6,DAY($C49)))</f>
+        <f t="shared" si="17"/>
         <v>45155</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+7,DAY($C49)))</f>
+        <f t="shared" si="18"/>
         <v>45186</v>
       </c>
       <c r="T49" s="1"/>
       <c r="U49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+8,DAY($C49)))</f>
+        <f t="shared" si="19"/>
         <v>45216</v>
       </c>
       <c r="V49" s="1"/>
       <c r="W49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+9,DAY($C49)))</f>
+        <f t="shared" si="20"/>
         <v>45247</v>
       </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+10,DAY($C49)))</f>
+        <f t="shared" si="21"/>
         <v>45277</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+11,DAY($C49)))</f>
+        <f t="shared" si="22"/>
         <v>45308</v>
       </c>
       <c r="AB49" s="1"/>
       <c r="AC49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+12,DAY($C49)))</f>
+        <f t="shared" si="23"/>
         <v>45339</v>
       </c>
       <c r="AD49" s="14"/>
@@ -11910,84 +11910,84 @@
         <v>59</v>
       </c>
       <c r="G50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+1,DAY($C50)))</f>
+        <f t="shared" si="12"/>
         <v>44334</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+2,DAY($C50)))</f>
+        <f t="shared" si="13"/>
         <v>44365</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+3,DAY($C50)))</f>
+        <f t="shared" si="14"/>
         <v>44395</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+4,DAY($C50)))</f>
+        <f t="shared" si="15"/>
         <v>44426</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+5,DAY($C50)))</f>
+        <f t="shared" si="16"/>
         <v>44457</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+6,DAY($C50)))</f>
+        <f t="shared" si="17"/>
         <v>44487</v>
       </c>
       <c r="R50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+7,DAY($C50)))</f>
+        <f t="shared" si="18"/>
         <v>44518</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+8,DAY($C50)))</f>
+        <f t="shared" si="19"/>
         <v>44548</v>
       </c>
       <c r="V50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+9,DAY($C50)))</f>
+        <f t="shared" si="20"/>
         <v>44579</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+10,DAY($C50)))</f>
+        <f t="shared" si="21"/>
         <v>44610</v>
       </c>
       <c r="Z50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+11,DAY($C50)))</f>
+        <f t="shared" si="22"/>
         <v>44638</v>
       </c>
       <c r="AB50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+12,DAY($C50)))</f>
+        <f t="shared" si="23"/>
         <v>44669</v>
       </c>
       <c r="AD50" s="14" t="s">
@@ -12017,70 +12017,70 @@
         <v>311</v>
       </c>
       <c r="G51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+1,DAY($C51)))</f>
+        <f t="shared" si="12"/>
         <v>44791</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+2,DAY($C51)))</f>
+        <f t="shared" si="13"/>
         <v>44822</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+3,DAY($C51)))</f>
+        <f t="shared" si="14"/>
         <v>44852</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+4,DAY($C51)))</f>
+        <f t="shared" si="15"/>
         <v>44883</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+5,DAY($C51)))</f>
+        <f t="shared" si="16"/>
         <v>44913</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+6,DAY($C51)))</f>
+        <f t="shared" si="17"/>
         <v>44944</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+7,DAY($C51)))</f>
+        <f t="shared" si="18"/>
         <v>44975</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+8,DAY($C51)))</f>
+        <f t="shared" si="19"/>
         <v>45003</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+9,DAY($C51)))</f>
+        <f t="shared" si="20"/>
         <v>45034</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+10,DAY($C51)))</f>
+        <f t="shared" si="21"/>
         <v>45064</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+11,DAY($C51)))</f>
+        <f t="shared" si="22"/>
         <v>45095</v>
       </c>
       <c r="AB51" s="1"/>
       <c r="AC51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+12,DAY($C51)))</f>
+        <f t="shared" si="23"/>
         <v>45125</v>
       </c>
       <c r="AD51" s="14"/>
@@ -12107,66 +12107,66 @@
         <v>352</v>
       </c>
       <c r="G52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+1,DAY($C52)))</f>
+        <f t="shared" si="12"/>
         <v>44853</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+2,DAY($C52)))</f>
+        <f t="shared" si="13"/>
         <v>44884</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+3,DAY($C52)))</f>
+        <f t="shared" si="14"/>
         <v>44914</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+4,DAY($C52)))</f>
+        <f t="shared" si="15"/>
         <v>44945</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+5,DAY($C52)))</f>
+        <f t="shared" si="16"/>
         <v>44976</v>
       </c>
       <c r="P52" s="1"/>
       <c r="Q52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+6,DAY($C52)))</f>
+        <f t="shared" si="17"/>
         <v>45004</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+7,DAY($C52)))</f>
+        <f t="shared" si="18"/>
         <v>45035</v>
       </c>
       <c r="T52" s="1"/>
       <c r="U52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+8,DAY($C52)))</f>
+        <f t="shared" si="19"/>
         <v>45065</v>
       </c>
       <c r="V52" s="1"/>
       <c r="W52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+9,DAY($C52)))</f>
+        <f t="shared" si="20"/>
         <v>45096</v>
       </c>
       <c r="X52" s="1"/>
       <c r="Y52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+10,DAY($C52)))</f>
+        <f t="shared" si="21"/>
         <v>45126</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+11,DAY($C52)))</f>
+        <f t="shared" si="22"/>
         <v>45157</v>
       </c>
       <c r="AB52" s="1"/>
       <c r="AC52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+12,DAY($C52)))</f>
+        <f t="shared" si="23"/>
         <v>45188</v>
       </c>
       <c r="AD52" s="14"/>
@@ -12192,84 +12192,84 @@
         <v>145</v>
       </c>
       <c r="G53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+1,DAY($C53)))</f>
+        <f t="shared" si="12"/>
         <v>44859</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+2,DAY($C53)))</f>
+        <f t="shared" si="13"/>
         <v>44890</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+3,DAY($C53)))</f>
+        <f t="shared" si="14"/>
         <v>44920</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+4,DAY($C53)))</f>
+        <f t="shared" si="15"/>
         <v>44951</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+5,DAY($C53)))</f>
+        <f t="shared" si="16"/>
         <v>44982</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+6,DAY($C53)))</f>
+        <f t="shared" si="17"/>
         <v>45010</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+7,DAY($C53)))</f>
+        <f t="shared" si="18"/>
         <v>45041</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+8,DAY($C53)))</f>
+        <f t="shared" si="19"/>
         <v>45071</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+9,DAY($C53)))</f>
+        <f t="shared" si="20"/>
         <v>45102</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+10,DAY($C53)))</f>
+        <f t="shared" si="21"/>
         <v>45132</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+11,DAY($C53)))</f>
+        <f t="shared" si="22"/>
         <v>45163</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+12,DAY($C53)))</f>
+        <f t="shared" si="23"/>
         <v>45194</v>
       </c>
       <c r="AD53" s="14" t="s">
@@ -12299,84 +12299,84 @@
         <v>181</v>
       </c>
       <c r="G54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+1,DAY($C54)))</f>
+        <f t="shared" si="12"/>
         <v>44549</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+2,DAY($C54)))</f>
+        <f t="shared" si="13"/>
         <v>44580</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+3,DAY($C54)))</f>
+        <f t="shared" si="14"/>
         <v>44611</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+4,DAY($C54)))</f>
+        <f t="shared" si="15"/>
         <v>44639</v>
       </c>
       <c r="N54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+5,DAY($C54)))</f>
+        <f t="shared" si="16"/>
         <v>44670</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+6,DAY($C54)))</f>
+        <f t="shared" si="17"/>
         <v>44700</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+7,DAY($C54)))</f>
+        <f t="shared" si="18"/>
         <v>44731</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+8,DAY($C54)))</f>
+        <f t="shared" si="19"/>
         <v>44761</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+9,DAY($C54)))</f>
+        <f t="shared" si="20"/>
         <v>44792</v>
       </c>
       <c r="X54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+10,DAY($C54)))</f>
+        <f t="shared" si="21"/>
         <v>44823</v>
       </c>
       <c r="Z54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+11,DAY($C54)))</f>
+        <f t="shared" si="22"/>
         <v>44853</v>
       </c>
       <c r="AB54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC54" s="3">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+12,DAY($C54)))</f>
+        <f t="shared" si="23"/>
         <v>44884</v>
       </c>
       <c r="AD54" s="14" t="s">
@@ -12406,62 +12406,62 @@
         <v>314</v>
       </c>
       <c r="G55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+1,DAY($C55)))</f>
+        <f t="shared" si="12"/>
         <v>44792</v>
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+2,DAY($C55)))</f>
+        <f t="shared" si="13"/>
         <v>44823</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+3,DAY($C55)))</f>
+        <f t="shared" si="14"/>
         <v>44853</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+4,DAY($C55)))</f>
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+5,DAY($C55)))</f>
+        <f t="shared" si="16"/>
         <v>44914</v>
       </c>
       <c r="P55" s="1"/>
       <c r="Q55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+6,DAY($C55)))</f>
+        <f t="shared" si="17"/>
         <v>44945</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+7,DAY($C55)))</f>
+        <f t="shared" si="18"/>
         <v>44976</v>
       </c>
       <c r="T55" s="1"/>
       <c r="U55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+8,DAY($C55)))</f>
+        <f t="shared" si="19"/>
         <v>45004</v>
       </c>
       <c r="V55" s="1"/>
       <c r="W55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+9,DAY($C55)))</f>
+        <f t="shared" si="20"/>
         <v>45035</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+10,DAY($C55)))</f>
+        <f t="shared" si="21"/>
         <v>45065</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+11,DAY($C55)))</f>
+        <f t="shared" si="22"/>
         <v>45096</v>
       </c>
       <c r="AB55" s="1"/>
       <c r="AC55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+12,DAY($C55)))</f>
+        <f t="shared" si="23"/>
         <v>45126</v>
       </c>
       <c r="AD55" s="1"/>
@@ -12488,78 +12488,78 @@
         <v>395</v>
       </c>
       <c r="G56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+1,DAY($C56)))</f>
+        <f t="shared" si="12"/>
         <v>44657</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+2,DAY($C56)))</f>
+        <f t="shared" si="13"/>
         <v>44687</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+3,DAY($C56)))</f>
+        <f t="shared" si="14"/>
         <v>44718</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+4,DAY($C56)))</f>
+        <f t="shared" si="15"/>
         <v>44748</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+5,DAY($C56)))</f>
+        <f t="shared" si="16"/>
         <v>44779</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+6,DAY($C56)))</f>
+        <f t="shared" si="17"/>
         <v>44810</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+7,DAY($C56)))</f>
+        <f t="shared" si="18"/>
         <v>44840</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+8,DAY($C56)))</f>
+        <f t="shared" si="19"/>
         <v>44871</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+9,DAY($C56)))</f>
+        <f t="shared" si="20"/>
         <v>44901</v>
       </c>
       <c r="X56" s="1"/>
       <c r="Y56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+10,DAY($C56)))</f>
+        <f t="shared" si="21"/>
         <v>44932</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+11,DAY($C56)))</f>
+        <f t="shared" si="22"/>
         <v>44963</v>
       </c>
       <c r="AB56" s="1"/>
       <c r="AC56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+12,DAY($C56)))</f>
+        <f t="shared" si="23"/>
         <v>44991</v>
       </c>
       <c r="AD56" s="14"/>
@@ -12586,80 +12586,80 @@
         <v>94</v>
       </c>
       <c r="G57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+1,DAY($C57)))</f>
+        <f t="shared" si="12"/>
         <v>44793</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+2,DAY($C57)))</f>
+        <f t="shared" si="13"/>
         <v>44824</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+3,DAY($C57)))</f>
+        <f t="shared" si="14"/>
         <v>44854</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+4,DAY($C57)))</f>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+5,DAY($C57)))</f>
+        <f t="shared" si="16"/>
         <v>44915</v>
       </c>
       <c r="P57" s="1"/>
       <c r="Q57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+6,DAY($C57)))</f>
+        <f t="shared" si="17"/>
         <v>44946</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+7,DAY($C57)))</f>
+        <f t="shared" si="18"/>
         <v>44977</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+8,DAY($C57)))</f>
+        <f t="shared" si="19"/>
         <v>45005</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+9,DAY($C57)))</f>
+        <f t="shared" si="20"/>
         <v>45036</v>
       </c>
       <c r="X57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+10,DAY($C57)))</f>
+        <f t="shared" si="21"/>
         <v>45066</v>
       </c>
       <c r="Z57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+11,DAY($C57)))</f>
+        <f t="shared" si="22"/>
         <v>45097</v>
       </c>
       <c r="AB57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+12,DAY($C57)))</f>
+        <f t="shared" si="23"/>
         <v>45127</v>
       </c>
       <c r="AD57" s="1" t="s">
@@ -12689,78 +12689,78 @@
         <v>362</v>
       </c>
       <c r="G58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+1,DAY($C58)))</f>
+        <f t="shared" si="12"/>
         <v>44701</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+2,DAY($C58)))</f>
+        <f t="shared" si="13"/>
         <v>44732</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+3,DAY($C58)))</f>
+        <f t="shared" si="14"/>
         <v>44762</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+4,DAY($C58)))</f>
+        <f t="shared" si="15"/>
         <v>44793</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+5,DAY($C58)))</f>
+        <f t="shared" si="16"/>
         <v>44824</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+6,DAY($C58)))</f>
+        <f t="shared" si="17"/>
         <v>44854</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+7,DAY($C58)))</f>
+        <f t="shared" si="18"/>
         <v>44885</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+8,DAY($C58)))</f>
+        <f t="shared" si="19"/>
         <v>44915</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+9,DAY($C58)))</f>
+        <f t="shared" si="20"/>
         <v>44946</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+10,DAY($C58)))</f>
+        <f t="shared" si="21"/>
         <v>44977</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+11,DAY($C58)))</f>
+        <f t="shared" si="22"/>
         <v>45005</v>
       </c>
       <c r="AB58" s="1"/>
       <c r="AC58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+12,DAY($C58)))</f>
+        <f t="shared" si="23"/>
         <v>45036</v>
       </c>
       <c r="AD58" s="1"/>
@@ -12788,68 +12788,68 @@
         <v>327</v>
       </c>
       <c r="G59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+1,DAY($C59)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+2,DAY($C59)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+3,DAY($C59)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+4,DAY($C59)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+5,DAY($C59)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+6,DAY($C59)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+7,DAY($C59)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+8,DAY($C59)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+9,DAY($C59)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+10,DAY($C59)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+11,DAY($C59)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB59" s="1"/>
       <c r="AC59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+12,DAY($C59)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD59" s="14"/>
@@ -12877,68 +12877,68 @@
         <v>330</v>
       </c>
       <c r="G60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+1,DAY($C60)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+2,DAY($C60)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+3,DAY($C60)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+4,DAY($C60)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+5,DAY($C60)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+6,DAY($C60)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+7,DAY($C60)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+8,DAY($C60)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+9,DAY($C60)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+10,DAY($C60)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+11,DAY($C60)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB60" s="1"/>
       <c r="AC60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+12,DAY($C60)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD60" s="1"/>
@@ -12965,66 +12965,66 @@
         <v>344</v>
       </c>
       <c r="G61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+1,DAY($C61)))</f>
+        <f t="shared" si="12"/>
         <v>44885</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+2,DAY($C61)))</f>
+        <f t="shared" si="13"/>
         <v>44915</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+3,DAY($C61)))</f>
+        <f t="shared" si="14"/>
         <v>44946</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+4,DAY($C61)))</f>
+        <f t="shared" si="15"/>
         <v>44977</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+5,DAY($C61)))</f>
+        <f t="shared" si="16"/>
         <v>45005</v>
       </c>
       <c r="P61" s="1"/>
       <c r="Q61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+6,DAY($C61)))</f>
+        <f t="shared" si="17"/>
         <v>45036</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+7,DAY($C61)))</f>
+        <f t="shared" si="18"/>
         <v>45066</v>
       </c>
       <c r="T61" s="1"/>
       <c r="U61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+8,DAY($C61)))</f>
+        <f t="shared" si="19"/>
         <v>45097</v>
       </c>
       <c r="V61" s="1"/>
       <c r="W61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+9,DAY($C61)))</f>
+        <f t="shared" si="20"/>
         <v>45127</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+10,DAY($C61)))</f>
+        <f t="shared" si="21"/>
         <v>45158</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+11,DAY($C61)))</f>
+        <f t="shared" si="22"/>
         <v>45189</v>
       </c>
       <c r="AB61" s="1"/>
       <c r="AC61" s="3">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+12,DAY($C61)))</f>
+        <f t="shared" si="23"/>
         <v>45219</v>
       </c>
       <c r="AD61" s="14"/>
@@ -13052,84 +13052,84 @@
         <v>55</v>
       </c>
       <c r="G62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+1,DAY($C62)))</f>
+        <f t="shared" si="12"/>
         <v>44307</v>
       </c>
       <c r="H62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+2,DAY($C62)))</f>
+        <f t="shared" si="13"/>
         <v>44337</v>
       </c>
       <c r="J62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+3,DAY($C62)))</f>
+        <f t="shared" si="14"/>
         <v>44368</v>
       </c>
       <c r="L62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+4,DAY($C62)))</f>
+        <f t="shared" si="15"/>
         <v>44398</v>
       </c>
       <c r="N62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+5,DAY($C62)))</f>
+        <f t="shared" si="16"/>
         <v>44429</v>
       </c>
       <c r="P62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+6,DAY($C62)))</f>
+        <f t="shared" si="17"/>
         <v>44460</v>
       </c>
       <c r="R62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+7,DAY($C62)))</f>
+        <f t="shared" si="18"/>
         <v>44490</v>
       </c>
       <c r="T62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+8,DAY($C62)))</f>
+        <f t="shared" si="19"/>
         <v>44521</v>
       </c>
       <c r="V62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+9,DAY($C62)))</f>
+        <f t="shared" si="20"/>
         <v>44551</v>
       </c>
       <c r="X62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+10,DAY($C62)))</f>
+        <f t="shared" si="21"/>
         <v>44582</v>
       </c>
       <c r="Z62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+11,DAY($C62)))</f>
+        <f t="shared" si="22"/>
         <v>44613</v>
       </c>
       <c r="AB62" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="25">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+12,DAY($C62)))</f>
+        <f t="shared" si="23"/>
         <v>44641</v>
       </c>
       <c r="AD62" s="73" t="s">
@@ -13158,80 +13158,80 @@
         <v>380</v>
       </c>
       <c r="G63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+1,DAY($C63)))</f>
+        <f t="shared" si="12"/>
         <v>44825</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+2,DAY($C63)))</f>
+        <f t="shared" si="13"/>
         <v>44855</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+3,DAY($C63)))</f>
+        <f t="shared" si="14"/>
         <v>44886</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+4,DAY($C63)))</f>
+        <f t="shared" si="15"/>
         <v>44916</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+5,DAY($C63)))</f>
+        <f t="shared" si="16"/>
         <v>44947</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+6,DAY($C63)))</f>
+        <f t="shared" si="17"/>
         <v>44978</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+7,DAY($C63)))</f>
+        <f t="shared" si="18"/>
         <v>45006</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+8,DAY($C63)))</f>
+        <f t="shared" si="19"/>
         <v>45037</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+9,DAY($C63)))</f>
+        <f t="shared" si="20"/>
         <v>45067</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+10,DAY($C63)))</f>
+        <f t="shared" si="21"/>
         <v>45098</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+11,DAY($C63)))</f>
+        <f t="shared" si="22"/>
         <v>45128</v>
       </c>
       <c r="AB63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+12,DAY($C63)))</f>
+        <f t="shared" si="23"/>
         <v>45159</v>
       </c>
       <c r="AD63" s="14"/>
@@ -13258,82 +13258,82 @@
         <v>223</v>
       </c>
       <c r="G64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+1,DAY($C64)))</f>
+        <f t="shared" si="12"/>
         <v>44616</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+2,DAY($C64)))</f>
+        <f t="shared" si="13"/>
         <v>44644</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+3,DAY($C64)))</f>
+        <f t="shared" si="14"/>
         <v>44675</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+4,DAY($C64)))</f>
+        <f t="shared" si="15"/>
         <v>44705</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+5,DAY($C64)))</f>
+        <f t="shared" si="16"/>
         <v>44736</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+6,DAY($C64)))</f>
+        <f t="shared" si="17"/>
         <v>44766</v>
       </c>
       <c r="R64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+7,DAY($C64)))</f>
+        <f t="shared" si="18"/>
         <v>44797</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+8,DAY($C64)))</f>
+        <f t="shared" si="19"/>
         <v>44828</v>
       </c>
       <c r="V64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+9,DAY($C64)))</f>
+        <f t="shared" si="20"/>
         <v>44858</v>
       </c>
       <c r="X64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+10,DAY($C64)))</f>
+        <f t="shared" si="21"/>
         <v>44889</v>
       </c>
       <c r="Z64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+11,DAY($C64)))</f>
+        <f t="shared" si="22"/>
         <v>44919</v>
       </c>
       <c r="AB64" s="1"/>
       <c r="AC64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+12,DAY($C64)))</f>
+        <f t="shared" si="23"/>
         <v>44950</v>
       </c>
       <c r="AD64" s="14"/>
@@ -13361,72 +13361,72 @@
         <v>282</v>
       </c>
       <c r="G65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+1,DAY($C65)))</f>
+        <f t="shared" si="12"/>
         <v>44764</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+2,DAY($C65)))</f>
+        <f t="shared" si="13"/>
         <v>44795</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+3,DAY($C65)))</f>
+        <f t="shared" si="14"/>
         <v>44826</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+4,DAY($C65)))</f>
+        <f t="shared" si="15"/>
         <v>44856</v>
       </c>
       <c r="N65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+5,DAY($C65)))</f>
+        <f t="shared" si="16"/>
         <v>44887</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+6,DAY($C65)))</f>
+        <f t="shared" si="17"/>
         <v>44917</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+7,DAY($C65)))</f>
+        <f t="shared" si="18"/>
         <v>44948</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+8,DAY($C65)))</f>
+        <f t="shared" si="19"/>
         <v>44979</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+9,DAY($C65)))</f>
+        <f t="shared" si="20"/>
         <v>45007</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+10,DAY($C65)))</f>
+        <f t="shared" si="21"/>
         <v>45038</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+11,DAY($C65)))</f>
+        <f t="shared" si="22"/>
         <v>45068</v>
       </c>
       <c r="AB65" s="1"/>
       <c r="AC65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+12,DAY($C65)))</f>
+        <f t="shared" si="23"/>
         <v>45099</v>
       </c>
       <c r="AD65" s="14"/>
@@ -13453,68 +13453,68 @@
         <v>279</v>
       </c>
       <c r="G66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
+        <f t="shared" ref="G66:G97" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
         <v>44757</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
+        <f t="shared" ref="I66:I97" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
         <v>44788</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
+        <f t="shared" ref="K66:K97" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
         <v>44819</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
+        <f t="shared" ref="M66:M97" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
         <v>44849</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
+        <f t="shared" ref="O66:O97" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
         <v>44880</v>
       </c>
       <c r="P66" s="1"/>
       <c r="Q66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
+        <f t="shared" ref="Q66:Q97" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
         <v>44910</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
+        <f t="shared" ref="S66:S97" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
         <v>44941</v>
       </c>
       <c r="T66" s="1"/>
       <c r="U66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
+        <f t="shared" ref="U66:U97" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
         <v>44972</v>
       </c>
       <c r="V66" s="1"/>
       <c r="W66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
+        <f t="shared" ref="W66:W97" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
         <v>45000</v>
       </c>
       <c r="X66" s="1"/>
       <c r="Y66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
+        <f t="shared" ref="Y66:Y97" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
         <v>45031</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
+        <f t="shared" ref="AA66:AA97" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
         <v>45061</v>
       </c>
       <c r="AB66" s="1"/>
       <c r="AC66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+12,DAY($C66)))</f>
+        <f t="shared" si="23"/>
         <v>45092</v>
       </c>
       <c r="AD66" s="1"/>
@@ -13539,84 +13539,84 @@
         <v>138</v>
       </c>
       <c r="G67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+1,DAY($C67)))</f>
+        <f t="shared" si="24"/>
         <v>44827</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+2,DAY($C67)))</f>
+        <f t="shared" si="25"/>
         <v>44857</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+3,DAY($C67)))</f>
+        <f t="shared" si="26"/>
         <v>44888</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+4,DAY($C67)))</f>
+        <f t="shared" si="27"/>
         <v>44918</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+5,DAY($C67)))</f>
+        <f t="shared" si="28"/>
         <v>44949</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+6,DAY($C67)))</f>
+        <f t="shared" si="29"/>
         <v>44980</v>
       </c>
       <c r="R67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+7,DAY($C67)))</f>
+        <f t="shared" si="30"/>
         <v>45008</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+8,DAY($C67)))</f>
+        <f t="shared" si="31"/>
         <v>45039</v>
       </c>
       <c r="V67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+9,DAY($C67)))</f>
+        <f t="shared" si="32"/>
         <v>45069</v>
       </c>
       <c r="X67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+10,DAY($C67)))</f>
+        <f t="shared" si="33"/>
         <v>45100</v>
       </c>
       <c r="Z67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+11,DAY($C67)))</f>
+        <f t="shared" si="34"/>
         <v>45130</v>
       </c>
       <c r="AB67" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+12,DAY($C67)))</f>
+        <f t="shared" si="23"/>
         <v>45161</v>
       </c>
       <c r="AD67" s="14" t="s">
@@ -13644,62 +13644,62 @@
         <v>236</v>
       </c>
       <c r="G68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+1,DAY($C68)))</f>
+        <f t="shared" si="24"/>
         <v>44643</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+2,DAY($C68)))</f>
+        <f t="shared" si="25"/>
         <v>44674</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+3,DAY($C68)))</f>
+        <f t="shared" si="26"/>
         <v>44704</v>
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+4,DAY($C68)))</f>
+        <f t="shared" si="27"/>
         <v>44735</v>
       </c>
       <c r="N68" s="1"/>
       <c r="O68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+5,DAY($C68)))</f>
+        <f t="shared" si="28"/>
         <v>44765</v>
       </c>
       <c r="P68" s="1"/>
       <c r="Q68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+6,DAY($C68)))</f>
+        <f t="shared" si="29"/>
         <v>44796</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+7,DAY($C68)))</f>
+        <f t="shared" si="30"/>
         <v>44827</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+8,DAY($C68)))</f>
+        <f t="shared" si="31"/>
         <v>44857</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+9,DAY($C68)))</f>
+        <f t="shared" si="32"/>
         <v>44888</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+10,DAY($C68)))</f>
+        <f t="shared" si="33"/>
         <v>44918</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+11,DAY($C68)))</f>
+        <f t="shared" si="34"/>
         <v>44949</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+12,DAY($C68)))</f>
+        <f t="shared" si="23"/>
         <v>44980</v>
       </c>
       <c r="AD68" s="14"/>
@@ -13727,72 +13727,72 @@
         <v>289</v>
       </c>
       <c r="G69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+1,DAY($C69)))</f>
+        <f t="shared" si="24"/>
         <v>44765</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+2,DAY($C69)))</f>
+        <f t="shared" si="25"/>
         <v>44796</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+3,DAY($C69)))</f>
+        <f t="shared" si="26"/>
         <v>44827</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+4,DAY($C69)))</f>
+        <f t="shared" si="27"/>
         <v>44857</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+5,DAY($C69)))</f>
+        <f t="shared" si="28"/>
         <v>44888</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+6,DAY($C69)))</f>
+        <f t="shared" si="29"/>
         <v>44918</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+7,DAY($C69)))</f>
+        <f t="shared" si="30"/>
         <v>44949</v>
       </c>
       <c r="T69" s="1"/>
       <c r="U69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+8,DAY($C69)))</f>
+        <f t="shared" si="31"/>
         <v>44980</v>
       </c>
       <c r="V69" s="1"/>
       <c r="W69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+9,DAY($C69)))</f>
+        <f t="shared" si="32"/>
         <v>45008</v>
       </c>
       <c r="X69" s="1"/>
       <c r="Y69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+10,DAY($C69)))</f>
+        <f t="shared" si="33"/>
         <v>45039</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+11,DAY($C69)))</f>
+        <f t="shared" si="34"/>
         <v>45069</v>
       </c>
       <c r="AB69" s="1"/>
       <c r="AC69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+12,DAY($C69)))</f>
+        <f t="shared" si="23"/>
         <v>45100</v>
       </c>
       <c r="AD69" s="1"/>
@@ -13819,84 +13819,84 @@
         <v>97</v>
       </c>
       <c r="G70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+1,DAY($C70)))</f>
+        <f t="shared" si="24"/>
         <v>44797</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+2,DAY($C70)))</f>
+        <f t="shared" si="25"/>
         <v>44828</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+3,DAY($C70)))</f>
+        <f t="shared" si="26"/>
         <v>44858</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+4,DAY($C70)))</f>
+        <f t="shared" si="27"/>
         <v>44889</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+5,DAY($C70)))</f>
+        <f t="shared" si="28"/>
         <v>44919</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+6,DAY($C70)))</f>
+        <f t="shared" si="29"/>
         <v>44950</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+7,DAY($C70)))</f>
+        <f t="shared" si="30"/>
         <v>44981</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+8,DAY($C70)))</f>
+        <f t="shared" si="31"/>
         <v>45009</v>
       </c>
       <c r="V70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+9,DAY($C70)))</f>
+        <f t="shared" si="32"/>
         <v>45040</v>
       </c>
       <c r="X70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+10,DAY($C70)))</f>
+        <f t="shared" si="33"/>
         <v>45070</v>
       </c>
       <c r="Z70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+11,DAY($C70)))</f>
+        <f t="shared" si="34"/>
         <v>45101</v>
       </c>
       <c r="AB70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC70" s="3">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+12,DAY($C70)))</f>
+        <f t="shared" si="23"/>
         <v>45131</v>
       </c>
       <c r="AD70" s="1" t="s">
@@ -13926,62 +13926,62 @@
         <v>293</v>
       </c>
       <c r="G71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+1,DAY($C71)))</f>
+        <f t="shared" si="24"/>
         <v>44766</v>
       </c>
       <c r="H71" s="36"/>
       <c r="I71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+2,DAY($C71)))</f>
+        <f t="shared" si="25"/>
         <v>44797</v>
       </c>
       <c r="J71" s="36"/>
       <c r="K71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+3,DAY($C71)))</f>
+        <f t="shared" si="26"/>
         <v>44828</v>
       </c>
       <c r="L71" s="36"/>
       <c r="M71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+4,DAY($C71)))</f>
+        <f t="shared" si="27"/>
         <v>44858</v>
       </c>
       <c r="N71" s="36"/>
       <c r="O71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+5,DAY($C71)))</f>
+        <f t="shared" si="28"/>
         <v>44889</v>
       </c>
       <c r="P71" s="36"/>
       <c r="Q71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+6,DAY($C71)))</f>
+        <f t="shared" si="29"/>
         <v>44919</v>
       </c>
       <c r="R71" s="36"/>
       <c r="S71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+7,DAY($C71)))</f>
+        <f t="shared" si="30"/>
         <v>44950</v>
       </c>
       <c r="T71" s="36"/>
       <c r="U71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+8,DAY($C71)))</f>
+        <f t="shared" si="31"/>
         <v>44981</v>
       </c>
       <c r="V71" s="36"/>
       <c r="W71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+9,DAY($C71)))</f>
+        <f t="shared" si="32"/>
         <v>45009</v>
       </c>
       <c r="X71" s="36"/>
       <c r="Y71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+10,DAY($C71)))</f>
+        <f t="shared" si="33"/>
         <v>45040</v>
       </c>
       <c r="Z71" s="36"/>
       <c r="AA71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+11,DAY($C71)))</f>
+        <f t="shared" si="34"/>
         <v>45070</v>
       </c>
       <c r="AB71" s="36"/>
       <c r="AC71" s="25">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+12,DAY($C71)))</f>
+        <f t="shared" si="23"/>
         <v>45101</v>
       </c>
       <c r="AD71" s="36"/>
@@ -14009,68 +14009,68 @@
         <v>333</v>
       </c>
       <c r="G72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+1,DAY($C72)))</f>
+        <f t="shared" si="24"/>
         <v>44828</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+2,DAY($C72)))</f>
+        <f t="shared" si="25"/>
         <v>44858</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+3,DAY($C72)))</f>
+        <f t="shared" si="26"/>
         <v>44889</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+4,DAY($C72)))</f>
+        <f t="shared" si="27"/>
         <v>44919</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+5,DAY($C72)))</f>
+        <f t="shared" si="28"/>
         <v>44950</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+6,DAY($C72)))</f>
+        <f t="shared" si="29"/>
         <v>44981</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+7,DAY($C72)))</f>
+        <f t="shared" si="30"/>
         <v>45009</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+8,DAY($C72)))</f>
+        <f t="shared" si="31"/>
         <v>45040</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+9,DAY($C72)))</f>
+        <f t="shared" si="32"/>
         <v>45070</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+10,DAY($C72)))</f>
+        <f t="shared" si="33"/>
         <v>45101</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+11,DAY($C72)))</f>
+        <f t="shared" si="34"/>
         <v>45131</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
+        <f t="shared" si="23"/>
         <v>45162</v>
       </c>
       <c r="AD72" s="1"/>
@@ -14098,66 +14098,66 @@
         <v>348</v>
       </c>
       <c r="G73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+1,DAY($C73)))</f>
+        <f t="shared" si="24"/>
         <v>44858</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+2,DAY($C73)))</f>
+        <f t="shared" si="25"/>
         <v>44889</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+3,DAY($C73)))</f>
+        <f t="shared" si="26"/>
         <v>44919</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+4,DAY($C73)))</f>
+        <f t="shared" si="27"/>
         <v>44950</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+5,DAY($C73)))</f>
+        <f t="shared" si="28"/>
         <v>44981</v>
       </c>
       <c r="P73" s="1"/>
       <c r="Q73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+6,DAY($C73)))</f>
+        <f t="shared" si="29"/>
         <v>45009</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+7,DAY($C73)))</f>
+        <f t="shared" si="30"/>
         <v>45040</v>
       </c>
       <c r="T73" s="1"/>
       <c r="U73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+8,DAY($C73)))</f>
+        <f t="shared" si="31"/>
         <v>45070</v>
       </c>
       <c r="V73" s="1"/>
       <c r="W73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+9,DAY($C73)))</f>
+        <f t="shared" si="32"/>
         <v>45101</v>
       </c>
       <c r="X73" s="1"/>
       <c r="Y73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+10,DAY($C73)))</f>
+        <f t="shared" si="33"/>
         <v>45131</v>
       </c>
       <c r="Z73" s="1"/>
       <c r="AA73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+11,DAY($C73)))</f>
+        <f t="shared" si="34"/>
         <v>45162</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AC73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+12,DAY($C73)))</f>
+        <f t="shared" si="23"/>
         <v>45193</v>
       </c>
       <c r="AD73" s="1"/>
@@ -14184,84 +14184,84 @@
         <v>349</v>
       </c>
       <c r="G74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+1,DAY($C74)))</f>
+        <f t="shared" si="24"/>
         <v>44829</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+2,DAY($C74)))</f>
+        <f t="shared" si="25"/>
         <v>44859</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+3,DAY($C74)))</f>
+        <f t="shared" si="26"/>
         <v>44890</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+4,DAY($C74)))</f>
+        <f t="shared" si="27"/>
         <v>44920</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+5,DAY($C74)))</f>
+        <f t="shared" si="28"/>
         <v>44951</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+6,DAY($C74)))</f>
+        <f t="shared" si="29"/>
         <v>44982</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+7,DAY($C74)))</f>
+        <f t="shared" si="30"/>
         <v>45010</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+8,DAY($C74)))</f>
+        <f t="shared" si="31"/>
         <v>45041</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+9,DAY($C74)))</f>
+        <f t="shared" si="32"/>
         <v>45071</v>
       </c>
       <c r="X74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+10,DAY($C74)))</f>
+        <f t="shared" si="33"/>
         <v>45102</v>
       </c>
       <c r="Z74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+11,DAY($C74)))</f>
+        <f t="shared" si="34"/>
         <v>45132</v>
       </c>
       <c r="AB74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
+        <f t="shared" ref="AC74:AC97" si="35">IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
         <v>45163</v>
       </c>
       <c r="AD74" s="1" t="s">
@@ -14291,78 +14291,78 @@
         <v>142</v>
       </c>
       <c r="G75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+1,DAY($C75)))</f>
+        <f t="shared" si="24"/>
         <v>44464</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+2,DAY($C75)))</f>
+        <f t="shared" si="25"/>
         <v>44494</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+3,DAY($C75)))</f>
+        <f t="shared" si="26"/>
         <v>44525</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+4,DAY($C75)))</f>
+        <f t="shared" si="27"/>
         <v>44555</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+5,DAY($C75)))</f>
+        <f t="shared" si="28"/>
         <v>44586</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+6,DAY($C75)))</f>
+        <f t="shared" si="29"/>
         <v>44617</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+7,DAY($C75)))</f>
+        <f t="shared" si="30"/>
         <v>44645</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+8,DAY($C75)))</f>
+        <f t="shared" si="31"/>
         <v>44676</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+9,DAY($C75)))</f>
+        <f t="shared" si="32"/>
         <v>44706</v>
       </c>
       <c r="X75" s="1"/>
       <c r="Y75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+10,DAY($C75)))</f>
+        <f t="shared" si="33"/>
         <v>44737</v>
       </c>
       <c r="Z75" s="1"/>
       <c r="AA75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+11,DAY($C75)))</f>
+        <f t="shared" si="34"/>
         <v>44767</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+12,DAY($C75)))</f>
+        <f t="shared" si="35"/>
         <v>44798</v>
       </c>
       <c r="AD75" s="1"/>
@@ -14389,82 +14389,82 @@
         <v>217</v>
       </c>
       <c r="G76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+1,DAY($C76)))</f>
+        <f t="shared" si="24"/>
         <v>44615</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+2,DAY($C76)))</f>
+        <f t="shared" si="25"/>
         <v>44643</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+3,DAY($C76)))</f>
+        <f t="shared" si="26"/>
         <v>44674</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+4,DAY($C76)))</f>
+        <f t="shared" si="27"/>
         <v>44704</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+5,DAY($C76)))</f>
+        <f t="shared" si="28"/>
         <v>44735</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+6,DAY($C76)))</f>
+        <f t="shared" si="29"/>
         <v>44765</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+7,DAY($C76)))</f>
+        <f t="shared" si="30"/>
         <v>44796</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+8,DAY($C76)))</f>
+        <f t="shared" si="31"/>
         <v>44827</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+9,DAY($C76)))</f>
+        <f t="shared" si="32"/>
         <v>44857</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+10,DAY($C76)))</f>
+        <f t="shared" si="33"/>
         <v>44888</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+11,DAY($C76)))</f>
+        <f t="shared" si="34"/>
         <v>44918</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+12,DAY($C76)))</f>
+        <f t="shared" si="35"/>
         <v>44949</v>
       </c>
       <c r="AD76" s="1"/>
@@ -14491,82 +14491,82 @@
         <v>220</v>
       </c>
       <c r="G77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+1,DAY($C77)))</f>
+        <f t="shared" si="24"/>
         <v>44616</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+2,DAY($C77)))</f>
+        <f t="shared" si="25"/>
         <v>44644</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+3,DAY($C77)))</f>
+        <f t="shared" si="26"/>
         <v>44675</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+4,DAY($C77)))</f>
+        <f t="shared" si="27"/>
         <v>44705</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+5,DAY($C77)))</f>
+        <f t="shared" si="28"/>
         <v>44736</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+6,DAY($C77)))</f>
+        <f t="shared" si="29"/>
         <v>44766</v>
       </c>
       <c r="R77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+7,DAY($C77)))</f>
+        <f t="shared" si="30"/>
         <v>44797</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+8,DAY($C77)))</f>
+        <f t="shared" si="31"/>
         <v>44828</v>
       </c>
       <c r="V77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+9,DAY($C77)))</f>
+        <f t="shared" si="32"/>
         <v>44858</v>
       </c>
       <c r="X77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+10,DAY($C77)))</f>
+        <f t="shared" si="33"/>
         <v>44889</v>
       </c>
       <c r="Z77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+11,DAY($C77)))</f>
+        <f t="shared" si="34"/>
         <v>44919</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+12,DAY($C77)))</f>
+        <f t="shared" si="35"/>
         <v>44950</v>
       </c>
       <c r="AD77" s="1"/>
@@ -14594,72 +14594,72 @@
         <v>297</v>
       </c>
       <c r="G78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+1,DAY($C78)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+2,DAY($C78)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+3,DAY($C78)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+4,DAY($C78)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+5,DAY($C78)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+6,DAY($C78)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+7,DAY($C78)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+8,DAY($C78)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+9,DAY($C78)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X78" s="1"/>
       <c r="Y78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+10,DAY($C78)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+11,DAY($C78)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+12,DAY($C78)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD78" s="1"/>
@@ -14687,62 +14687,62 @@
         <v>350</v>
       </c>
       <c r="G79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+1,DAY($C79)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H79" s="1"/>
       <c r="I79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+2,DAY($C79)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+3,DAY($C79)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+4,DAY($C79)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+5,DAY($C79)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P79" s="1"/>
       <c r="Q79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+6,DAY($C79)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+7,DAY($C79)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T79" s="1"/>
       <c r="U79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+8,DAY($C79)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V79" s="1"/>
       <c r="W79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+9,DAY($C79)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+10,DAY($C79)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+11,DAY($C79)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+12,DAY($C79)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD79" s="1"/>
@@ -14770,78 +14770,78 @@
         <v>252</v>
       </c>
       <c r="G80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+1,DAY($C80)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+2,DAY($C80)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+3,DAY($C80)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+4,DAY($C80)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+5,DAY($C80)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+6,DAY($C80)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+7,DAY($C80)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+8,DAY($C80)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V80" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+9,DAY($C80)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+10,DAY($C80)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+11,DAY($C80)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+12,DAY($C80)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD80" s="1"/>
@@ -14869,62 +14869,62 @@
         <v>270</v>
       </c>
       <c r="G81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+1,DAY($C81)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+2,DAY($C81)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+3,DAY($C81)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+4,DAY($C81)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+5,DAY($C81)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+6,DAY($C81)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+7,DAY($C81)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+8,DAY($C81)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V81" s="1"/>
       <c r="W81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+9,DAY($C81)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+10,DAY($C81)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+11,DAY($C81)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+12,DAY($C81)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD81" s="1"/>
@@ -14951,70 +14951,70 @@
         <v>302</v>
       </c>
       <c r="G82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+1,DAY($C82)))</f>
+        <f t="shared" si="24"/>
         <v>44778</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+2,DAY($C82)))</f>
+        <f t="shared" si="25"/>
         <v>44809</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+3,DAY($C82)))</f>
+        <f t="shared" si="26"/>
         <v>44839</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+4,DAY($C82)))</f>
+        <f t="shared" si="27"/>
         <v>44870</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+5,DAY($C82)))</f>
+        <f t="shared" si="28"/>
         <v>44900</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+6,DAY($C82)))</f>
+        <f t="shared" si="29"/>
         <v>44931</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+7,DAY($C82)))</f>
+        <f t="shared" si="30"/>
         <v>44962</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+8,DAY($C82)))</f>
+        <f t="shared" si="31"/>
         <v>44990</v>
       </c>
       <c r="V82" s="1"/>
       <c r="W82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+9,DAY($C82)))</f>
+        <f t="shared" si="32"/>
         <v>45021</v>
       </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+10,DAY($C82)))</f>
+        <f t="shared" si="33"/>
         <v>45051</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+11,DAY($C82)))</f>
+        <f t="shared" si="34"/>
         <v>45082</v>
       </c>
       <c r="AB82" s="1"/>
       <c r="AC82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+12,DAY($C82)))</f>
+        <f t="shared" si="35"/>
         <v>45112</v>
       </c>
       <c r="AD82" s="1"/>
@@ -15039,72 +15039,72 @@
         <v>73</v>
       </c>
       <c r="G83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+1,DAY($C83)))</f>
+        <f t="shared" si="24"/>
         <v>44769</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+2,DAY($C83)))</f>
+        <f t="shared" si="25"/>
         <v>44800</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+3,DAY($C83)))</f>
+        <f t="shared" si="26"/>
         <v>44831</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+4,DAY($C83)))</f>
+        <f t="shared" si="27"/>
         <v>44861</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+5,DAY($C83)))</f>
+        <f t="shared" si="28"/>
         <v>44892</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+6,DAY($C83)))</f>
+        <f t="shared" si="29"/>
         <v>44922</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+7,DAY($C83)))</f>
+        <f t="shared" si="30"/>
         <v>44953</v>
       </c>
       <c r="T83" s="1"/>
       <c r="U83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+8,DAY($C83)))</f>
+        <f t="shared" si="31"/>
         <v>44984</v>
       </c>
       <c r="V83" s="1"/>
       <c r="W83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+9,DAY($C83)))</f>
+        <f t="shared" si="32"/>
         <v>45012</v>
       </c>
       <c r="X83" s="1"/>
       <c r="Y83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+10,DAY($C83)))</f>
+        <f t="shared" si="33"/>
         <v>45043</v>
       </c>
       <c r="Z83" s="1"/>
       <c r="AA83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+11,DAY($C83)))</f>
+        <f t="shared" si="34"/>
         <v>45073</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+12,DAY($C83)))</f>
+        <f t="shared" si="35"/>
         <v>45104</v>
       </c>
       <c r="AD83" s="1"/>
@@ -15131,78 +15131,78 @@
         <v>247</v>
       </c>
       <c r="G84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+1,DAY($C84)))</f>
+        <f t="shared" si="24"/>
         <v>44673</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+2,DAY($C84)))</f>
+        <f t="shared" si="25"/>
         <v>44703</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+3,DAY($C84)))</f>
+        <f t="shared" si="26"/>
         <v>44734</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+4,DAY($C84)))</f>
+        <f t="shared" si="27"/>
         <v>44764</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+5,DAY($C84)))</f>
+        <f t="shared" si="28"/>
         <v>44795</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+6,DAY($C84)))</f>
+        <f t="shared" si="29"/>
         <v>44826</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+7,DAY($C84)))</f>
+        <f t="shared" si="30"/>
         <v>44856</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+8,DAY($C84)))</f>
+        <f t="shared" si="31"/>
         <v>44887</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+9,DAY($C84)))</f>
+        <f t="shared" si="32"/>
         <v>44917</v>
       </c>
       <c r="X84" s="1"/>
       <c r="Y84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+10,DAY($C84)))</f>
+        <f t="shared" si="33"/>
         <v>44948</v>
       </c>
       <c r="Z84" s="1"/>
       <c r="AA84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+11,DAY($C84)))</f>
+        <f t="shared" si="34"/>
         <v>44979</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+12,DAY($C84)))</f>
+        <f t="shared" si="35"/>
         <v>45007</v>
       </c>
       <c r="AD84" s="1"/>
@@ -15229,78 +15229,78 @@
         <v>43</v>
       </c>
       <c r="G85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+1,DAY($C85)))</f>
+        <f t="shared" si="24"/>
         <v>44255</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+2,DAY($C85)))</f>
+        <f t="shared" si="25"/>
         <v>44283</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+3,DAY($C85)))</f>
+        <f t="shared" si="26"/>
         <v>44314</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+4,DAY($C85)))</f>
+        <f t="shared" si="27"/>
         <v>44344</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+5,DAY($C85)))</f>
+        <f t="shared" si="28"/>
         <v>44375</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+6,DAY($C85)))</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+7,DAY($C85)))</f>
+        <f t="shared" si="30"/>
         <v>44436</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+8,DAY($C85)))</f>
+        <f t="shared" si="31"/>
         <v>44467</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+9,DAY($C85)))</f>
+        <f t="shared" si="32"/>
         <v>44497</v>
       </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+10,DAY($C85)))</f>
+        <f t="shared" si="33"/>
         <v>44528</v>
       </c>
       <c r="Z85" s="1"/>
       <c r="AA85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+11,DAY($C85)))</f>
+        <f t="shared" si="34"/>
         <v>44558</v>
       </c>
       <c r="AB85" s="1"/>
       <c r="AC85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+12,DAY($C85)))</f>
+        <f t="shared" si="35"/>
         <v>44589</v>
       </c>
       <c r="AD85" s="1"/>
@@ -15325,84 +15325,84 @@
         <v>369</v>
       </c>
       <c r="G86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+1,DAY($C86)))</f>
+        <f t="shared" si="24"/>
         <v>44770</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+2,DAY($C86)))</f>
+        <f t="shared" si="25"/>
         <v>44801</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+3,DAY($C86)))</f>
+        <f t="shared" si="26"/>
         <v>44832</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+4,DAY($C86)))</f>
+        <f t="shared" si="27"/>
         <v>44862</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+5,DAY($C86)))</f>
+        <f t="shared" si="28"/>
         <v>44893</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+6,DAY($C86)))</f>
+        <f t="shared" si="29"/>
         <v>44923</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+7,DAY($C86)))</f>
+        <f t="shared" si="30"/>
         <v>44954</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+8,DAY($C86)))</f>
+        <f t="shared" si="31"/>
         <v>44985</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+9,DAY($C86)))</f>
+        <f t="shared" si="32"/>
         <v>45013</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+10,DAY($C86)))</f>
+        <f t="shared" si="33"/>
         <v>45044</v>
       </c>
       <c r="Z86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+11,DAY($C86)))</f>
+        <f t="shared" si="34"/>
         <v>45074</v>
       </c>
       <c r="AB86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+12,DAY($C86)))</f>
+        <f t="shared" si="35"/>
         <v>45105</v>
       </c>
       <c r="AD86" s="1" t="s">
@@ -15428,80 +15428,80 @@
         <v>197</v>
       </c>
       <c r="G87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+1,DAY($C87)))</f>
+        <f t="shared" si="24"/>
         <v>44241</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+2,DAY($C87)))</f>
+        <f t="shared" si="25"/>
         <v>44269</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+3,DAY($C87)))</f>
+        <f t="shared" si="26"/>
         <v>44300</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+4,DAY($C87)))</f>
+        <f t="shared" si="27"/>
         <v>44330</v>
       </c>
       <c r="N87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+5,DAY($C87)))</f>
+        <f t="shared" si="28"/>
         <v>44361</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+6,DAY($C87)))</f>
+        <f t="shared" si="29"/>
         <v>44391</v>
       </c>
       <c r="R87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+7,DAY($C87)))</f>
+        <f t="shared" si="30"/>
         <v>44422</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+8,DAY($C87)))</f>
+        <f t="shared" si="31"/>
         <v>44453</v>
       </c>
       <c r="V87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+9,DAY($C87)))</f>
+        <f t="shared" si="32"/>
         <v>44483</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+10,DAY($C87)))</f>
+        <f t="shared" si="33"/>
         <v>44514</v>
       </c>
       <c r="Z87" s="1"/>
       <c r="AA87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+11,DAY($C87)))</f>
+        <f t="shared" si="34"/>
         <v>44544</v>
       </c>
       <c r="AB87" s="1"/>
       <c r="AC87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+12,DAY($C87)))</f>
+        <f t="shared" si="35"/>
         <v>44575</v>
       </c>
       <c r="AD87" s="1"/>
@@ -15529,62 +15529,62 @@
         <v>356</v>
       </c>
       <c r="G88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+1,DAY($C88)))</f>
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+2,DAY($C88)))</f>
+        <f t="shared" si="25"/>
         <v>44923</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+3,DAY($C88)))</f>
+        <f t="shared" si="26"/>
         <v>44954</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+4,DAY($C88)))</f>
+        <f t="shared" si="27"/>
         <v>44985</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+5,DAY($C88)))</f>
+        <f t="shared" si="28"/>
         <v>45013</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+6,DAY($C88)))</f>
+        <f t="shared" si="29"/>
         <v>45044</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+7,DAY($C88)))</f>
+        <f t="shared" si="30"/>
         <v>45074</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+8,DAY($C88)))</f>
+        <f t="shared" si="31"/>
         <v>45105</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+9,DAY($C88)))</f>
+        <f t="shared" si="32"/>
         <v>45135</v>
       </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+10,DAY($C88)))</f>
+        <f t="shared" si="33"/>
         <v>45166</v>
       </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+11,DAY($C88)))</f>
+        <f t="shared" si="34"/>
         <v>45197</v>
       </c>
       <c r="AB88" s="1"/>
       <c r="AC88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+12,DAY($C88)))</f>
+        <f t="shared" si="35"/>
         <v>45227</v>
       </c>
       <c r="AD88" s="1"/>
@@ -15612,64 +15612,64 @@
         <v>373</v>
       </c>
       <c r="G89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+1,DAY($C89)))</f>
+        <f t="shared" si="24"/>
         <v>44954</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+2,DAY($C89)))</f>
+        <f t="shared" si="25"/>
         <v>44985</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+3,DAY($C89)))</f>
+        <f t="shared" si="26"/>
         <v>45013</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+4,DAY($C89)))</f>
+        <f t="shared" si="27"/>
         <v>45044</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+5,DAY($C89)))</f>
+        <f t="shared" si="28"/>
         <v>45074</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+6,DAY($C89)))</f>
+        <f t="shared" si="29"/>
         <v>45105</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+7,DAY($C89)))</f>
+        <f t="shared" si="30"/>
         <v>45135</v>
       </c>
       <c r="T89" s="1"/>
       <c r="U89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+8,DAY($C89)))</f>
+        <f t="shared" si="31"/>
         <v>45166</v>
       </c>
       <c r="V89" s="1"/>
       <c r="W89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+9,DAY($C89)))</f>
+        <f t="shared" si="32"/>
         <v>45197</v>
       </c>
       <c r="X89" s="1"/>
       <c r="Y89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+10,DAY($C89)))</f>
+        <f t="shared" si="33"/>
         <v>45227</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+11,DAY($C89)))</f>
+        <f t="shared" si="34"/>
         <v>45258</v>
       </c>
       <c r="AB89" s="1"/>
       <c r="AC89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+12,DAY($C89)))</f>
+        <f t="shared" si="35"/>
         <v>45288</v>
       </c>
       <c r="AD89" s="1"/>
@@ -15695,78 +15695,78 @@
         <v>265</v>
       </c>
       <c r="G90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+1,DAY($C90)))</f>
+        <f t="shared" si="24"/>
         <v>44680</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+2,DAY($C90)))</f>
+        <f t="shared" si="25"/>
         <v>44710</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+3,DAY($C90)))</f>
+        <f t="shared" si="26"/>
         <v>44741</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+4,DAY($C90)))</f>
+        <f t="shared" si="27"/>
         <v>44771</v>
       </c>
       <c r="N90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+5,DAY($C90)))</f>
+        <f t="shared" si="28"/>
         <v>44802</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+6,DAY($C90)))</f>
+        <f t="shared" si="29"/>
         <v>44833</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+7,DAY($C90)))</f>
+        <f t="shared" si="30"/>
         <v>44863</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+8,DAY($C90)))</f>
+        <f t="shared" si="31"/>
         <v>44894</v>
       </c>
       <c r="V90" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+9,DAY($C90)))</f>
+        <f t="shared" si="32"/>
         <v>44924</v>
       </c>
       <c r="X90" s="1"/>
       <c r="Y90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+10,DAY($C90)))</f>
+        <f t="shared" si="33"/>
         <v>44955</v>
       </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+11,DAY($C90)))</f>
+        <f t="shared" si="34"/>
         <v>44986</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+12,DAY($C90)))</f>
+        <f t="shared" si="35"/>
         <v>45014</v>
       </c>
       <c r="AD90" s="1"/>
@@ -15793,70 +15793,70 @@
         <v>318</v>
       </c>
       <c r="G91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+1,DAY($C91)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+2,DAY($C91)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+3,DAY($C91)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+4,DAY($C91)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+5,DAY($C91)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+6,DAY($C91)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+7,DAY($C91)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+8,DAY($C91)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+9,DAY($C91)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+10,DAY($C91)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+11,DAY($C91)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB91" s="1"/>
       <c r="AC91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+12,DAY($C91)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD91" s="1"/>
@@ -15883,74 +15883,74 @@
         <v>201</v>
       </c>
       <c r="G92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+1,DAY($C92)))</f>
+        <f t="shared" si="24"/>
         <v>44742</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+2,DAY($C92)))</f>
+        <f t="shared" si="25"/>
         <v>44772</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+3,DAY($C92)))</f>
+        <f t="shared" si="26"/>
         <v>44803</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+4,DAY($C92)))</f>
+        <f t="shared" si="27"/>
         <v>44834</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+5,DAY($C92)))</f>
+        <f t="shared" si="28"/>
         <v>44864</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+6,DAY($C92)))</f>
+        <f t="shared" si="29"/>
         <v>44895</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+7,DAY($C92)))</f>
+        <f t="shared" si="30"/>
         <v>44925</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+8,DAY($C92)))</f>
+        <f t="shared" si="31"/>
         <v>44956</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+9,DAY($C92)))</f>
+        <f t="shared" si="32"/>
         <v>44987</v>
       </c>
       <c r="X92" s="1"/>
       <c r="Y92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+10,DAY($C92)))</f>
+        <f t="shared" si="33"/>
         <v>45015</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+11,DAY($C92)))</f>
+        <f t="shared" si="34"/>
         <v>45046</v>
       </c>
       <c r="AB92" s="1"/>
       <c r="AC92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+12,DAY($C92)))</f>
+        <f t="shared" si="35"/>
         <v>45076</v>
       </c>
       <c r="AD92" s="1"/>
@@ -15977,82 +15977,82 @@
         <v>396</v>
       </c>
       <c r="G93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+1,DAY($C93)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+2,DAY($C93)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+3,DAY($C93)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+4,DAY($C93)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+5,DAY($C93)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+6,DAY($C93)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+7,DAY($C93)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+8,DAY($C93)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+9,DAY($C93)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+10,DAY($C93)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+11,DAY($C93)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+12,DAY($C93)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD93" s="1" t="s">
@@ -16081,84 +16081,84 @@
         <v>185</v>
       </c>
       <c r="G94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+1,DAY($C94)))</f>
+        <f t="shared" si="24"/>
         <v>44555</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+2,DAY($C94)))</f>
+        <f t="shared" si="25"/>
         <v>44586</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+3,DAY($C94)))</f>
+        <f t="shared" si="26"/>
         <v>44617</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+4,DAY($C94)))</f>
+        <f t="shared" si="27"/>
         <v>44645</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+5,DAY($C94)))</f>
+        <f t="shared" si="28"/>
         <v>44676</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+6,DAY($C94)))</f>
+        <f t="shared" si="29"/>
         <v>44706</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+7,DAY($C94)))</f>
+        <f t="shared" si="30"/>
         <v>44737</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+8,DAY($C94)))</f>
+        <f t="shared" si="31"/>
         <v>44767</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+9,DAY($C94)))</f>
+        <f t="shared" si="32"/>
         <v>44798</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+10,DAY($C94)))</f>
+        <f t="shared" si="33"/>
         <v>44829</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+11,DAY($C94)))</f>
+        <f t="shared" si="34"/>
         <v>44859</v>
       </c>
       <c r="AB94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+12,DAY($C94)))</f>
+        <f t="shared" si="35"/>
         <v>44890</v>
       </c>
       <c r="AD94" s="1" t="s">
@@ -16187,64 +16187,64 @@
         <v>366</v>
       </c>
       <c r="G95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+1,DAY($C95)))</f>
+        <f t="shared" si="24"/>
         <v>44560</v>
       </c>
       <c r="H95" s="45" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+2,DAY($C95)))</f>
+        <f t="shared" si="25"/>
         <v>44591</v>
       </c>
       <c r="J95" s="45"/>
       <c r="K95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+3,DAY($C95)))</f>
+        <f t="shared" si="26"/>
         <v>44622</v>
       </c>
       <c r="L95" s="45"/>
       <c r="M95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+4,DAY($C95)))</f>
+        <f t="shared" si="27"/>
         <v>44650</v>
       </c>
       <c r="N95" s="45"/>
       <c r="O95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+5,DAY($C95)))</f>
+        <f t="shared" si="28"/>
         <v>44681</v>
       </c>
       <c r="P95" s="45"/>
       <c r="Q95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+6,DAY($C95)))</f>
+        <f t="shared" si="29"/>
         <v>44711</v>
       </c>
       <c r="R95" s="45"/>
       <c r="S95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+7,DAY($C95)))</f>
+        <f t="shared" si="30"/>
         <v>44742</v>
       </c>
       <c r="T95" s="45"/>
       <c r="U95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+8,DAY($C95)))</f>
+        <f t="shared" si="31"/>
         <v>44772</v>
       </c>
       <c r="V95" s="45"/>
       <c r="W95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+9,DAY($C95)))</f>
+        <f t="shared" si="32"/>
         <v>44803</v>
       </c>
       <c r="X95" s="45"/>
       <c r="Y95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+10,DAY($C95)))</f>
+        <f t="shared" si="33"/>
         <v>44834</v>
       </c>
       <c r="Z95" s="45"/>
       <c r="AA95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+11,DAY($C95)))</f>
+        <f t="shared" si="34"/>
         <v>44864</v>
       </c>
       <c r="AB95" s="45"/>
       <c r="AC95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+12,DAY($C95)))</f>
+        <f t="shared" si="35"/>
         <v>44895</v>
       </c>
       <c r="AD95" s="72"/>
@@ -16271,84 +16271,84 @@
         <v>365</v>
       </c>
       <c r="G96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+1,DAY($C96)))</f>
+        <f t="shared" si="24"/>
         <v>44584</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+2,DAY($C96)))</f>
+        <f t="shared" si="25"/>
         <v>44615</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+3,DAY($C96)))</f>
+        <f t="shared" si="26"/>
         <v>44643</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+4,DAY($C96)))</f>
+        <f t="shared" si="27"/>
         <v>44674</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+5,DAY($C96)))</f>
+        <f t="shared" si="28"/>
         <v>44704</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+6,DAY($C96)))</f>
+        <f t="shared" si="29"/>
         <v>44735</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+7,DAY($C96)))</f>
+        <f t="shared" si="30"/>
         <v>44765</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+8,DAY($C96)))</f>
+        <f t="shared" si="31"/>
         <v>44796</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+9,DAY($C96)))</f>
+        <f t="shared" si="32"/>
         <v>44827</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+10,DAY($C96)))</f>
+        <f t="shared" si="33"/>
         <v>44857</v>
       </c>
       <c r="Z96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+11,DAY($C96)))</f>
+        <f t="shared" si="34"/>
         <v>44888</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+12,DAY($C96)))</f>
+        <f t="shared" si="35"/>
         <v>44918</v>
       </c>
       <c r="AD96" s="14"/>
@@ -16376,70 +16376,70 @@
         <v>321</v>
       </c>
       <c r="G97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+1,DAY($C97)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+2,DAY($C97)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+3,DAY($C97)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+4,DAY($C97)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+5,DAY($C97)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+6,DAY($C97)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+7,DAY($C97)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+8,DAY($C97)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+9,DAY($C97)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X97" s="1"/>
       <c r="Y97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+10,DAY($C97)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z97" s="1"/>
       <c r="AA97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+11,DAY($C97)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+12,DAY($C97)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD97" s="14"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C1E43-A995-4C2C-806A-A5BCD353A31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5627A-1092-4EBA-A68A-006D15D7E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2847,9 +2847,6 @@
     <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2879,6 +2876,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7187,10 +7187,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="C36" sqref="C36"/>
+      <selection pane="topRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7699,7 +7699,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>1</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="74" t="s">
         <v>294</v>
       </c>
       <c r="F6" s="51" t="s">
@@ -8186,7 +8186,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>4</v>
       </c>
-      <c r="E11" s="76" t="s">
+      <c r="E11" s="75" t="s">
         <v>41</v>
       </c>
       <c r="F11" s="65" t="s">
@@ -8469,7 +8469,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>6</v>
       </c>
-      <c r="E14" s="77" t="s">
+      <c r="E14" s="76" t="s">
         <v>227</v>
       </c>
       <c r="F14" s="52" t="s">
@@ -8762,7 +8762,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="19" t="s">
@@ -8857,7 +8857,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>41</v>
       </c>
       <c r="F18" s="43" t="s">
@@ -8940,7 +8940,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>8</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="78" t="s">
         <v>260</v>
       </c>
       <c r="F19" s="44" t="s">
@@ -9150,7 +9150,7 @@
       <c r="D21" s="19">
         <v>8</v>
       </c>
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="77" t="s">
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
@@ -9883,7 +9883,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>11</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -10641,7 +10641,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>14</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="74" t="s">
         <v>393</v>
       </c>
       <c r="F37" s="30" t="s">
@@ -11145,7 +11145,7 @@
         <v>8</v>
       </c>
       <c r="AC41" s="25"/>
-      <c r="AD41" s="73"/>
+      <c r="AD41" s="72"/>
     </row>
     <row r="42" spans="1:30" ht="37.5">
       <c r="A42" s="27" t="s">
@@ -11451,7 +11451,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>16</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="74" t="s">
         <v>375</v>
       </c>
       <c r="F45" s="54" t="s">
@@ -11640,10 +11640,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E47" s="74" t="s">
+      <c r="E47" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="80" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
@@ -11738,7 +11738,7 @@
       <c r="D48" s="30">
         <v>17</v>
       </c>
-      <c r="E48" s="75" t="s">
+      <c r="E48" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F48" s="44" t="s">
@@ -11821,7 +11821,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
@@ -11903,7 +11903,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>18</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="19" t="s">
@@ -12100,7 +12100,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E52" s="74" t="s">
+      <c r="E52" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="42" t="s">
@@ -12399,7 +12399,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E55" s="75" t="s">
+      <c r="E55" s="74" t="s">
         <v>315</v>
       </c>
       <c r="F55" s="30" t="s">
@@ -12481,7 +12481,7 @@
       <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E56" s="75" t="s">
+      <c r="E56" s="74" t="s">
         <v>294</v>
       </c>
       <c r="F56" s="54" t="s">
@@ -12682,7 +12682,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E58" s="75" t="s">
+      <c r="E58" s="74" t="s">
         <v>383</v>
       </c>
       <c r="F58" s="54" t="s">
@@ -12958,7 +12958,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F61" s="54" t="s">
@@ -13045,7 +13045,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>21</v>
       </c>
-      <c r="E62" s="74" t="s">
+      <c r="E62" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="26" t="s">
@@ -13132,7 +13132,7 @@
         <f t="shared" si="23"/>
         <v>44641</v>
       </c>
-      <c r="AD62" s="73" t="s">
+      <c r="AD62" s="72" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13720,7 +13720,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>23</v>
       </c>
-      <c r="E69" s="75" t="s">
+      <c r="E69" s="74" t="s">
         <v>341</v>
       </c>
       <c r="F69" s="54" t="s">
@@ -13812,7 +13812,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E70" s="74" t="s">
+      <c r="E70" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="42" t="s">
@@ -14002,7 +14002,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E72" s="75" t="s">
+      <c r="E72" s="74" t="s">
         <v>364</v>
       </c>
       <c r="F72" s="46" t="s">
@@ -14284,7 +14284,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>25</v>
       </c>
-      <c r="E75" s="75" t="s">
+      <c r="E75" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F75" s="30" t="s">
@@ -15222,7 +15222,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E85" s="74" t="s">
+      <c r="E85" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="19" t="s">
@@ -15605,7 +15605,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E89" s="75" t="s">
+      <c r="E89" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F89" s="54" t="s">
@@ -15970,7 +15970,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E93" s="75" t="s">
+      <c r="E93" s="74" t="s">
         <v>41</v>
       </c>
       <c r="F93" s="69" t="s">
@@ -16180,7 +16180,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E95" s="75" t="s">
+      <c r="E95" s="74" t="s">
         <v>271</v>
       </c>
       <c r="F95" s="60" t="s">
@@ -16247,7 +16247,7 @@
         <f t="shared" si="35"/>
         <v>44895</v>
       </c>
-      <c r="AD95" s="72"/>
+      <c r="AD95" s="71"/>
     </row>
     <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
@@ -16264,10 +16264,10 @@
       <c r="D96" s="19">
         <v>30</v>
       </c>
-      <c r="E96" s="80" t="s">
+      <c r="E96" s="79" t="s">
         <v>394</v>
       </c>
-      <c r="F96" s="71" t="s">
+      <c r="F96" s="70" t="s">
         <v>365</v>
       </c>
       <c r="G96" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5627A-1092-4EBA-A68A-006D15D7E24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE1C5B-E349-4205-8CFB-868F5CA92649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2300,20 +2300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>沼田愛美 
-支払い25回で終了</t>
-    <rPh sb="6" eb="8">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>b123</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2417,6 +2403,43 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>沼田愛美 
+支払い</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回で終了</t>
+    </r>
+    <rPh sb="6" eb="8">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2430,7 +2453,7 @@
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;"/>
     <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2517,6 +2540,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2692,7 +2723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2877,7 +2908,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4202,8 +4242,8 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7099,10 +7139,10 @@
     </row>
     <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7126,15 +7166,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>391</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7187,10 +7227,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="A97" sqref="A97"/>
-      <selection pane="topRight" activeCell="F49" sqref="F49"/>
+      <selection activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9154,7 +9194,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9328,7 +9368,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9346,7 +9386,7 @@
         <v>159</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -9597,7 +9637,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9615,7 +9655,7 @@
         <v>159</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -10642,9 +10682,9 @@
         <v>14</v>
       </c>
       <c r="E37" s="74" t="s">
-        <v>393</v>
-      </c>
-      <c r="F37" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="F37" s="82" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -12103,7 +12143,7 @@
       <c r="E52" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="42" t="s">
+      <c r="F52" s="83" t="s">
         <v>352</v>
       </c>
       <c r="G52" s="3">
@@ -12484,8 +12524,8 @@
       <c r="E56" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="54" t="s">
-        <v>395</v>
+      <c r="F56" s="81" t="s">
+        <v>394</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12685,7 +12725,7 @@
       <c r="E58" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="81" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -12961,7 +13001,7 @@
       <c r="E61" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="81" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -15974,7 +16014,7 @@
         <v>41</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="24"/>
@@ -16265,7 +16305,7 @@
         <v>30</v>
       </c>
       <c r="E96" s="79" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F96" s="70" t="s">
         <v>365</v>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CE1C5B-E349-4205-8CFB-868F5CA92649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902869E0-66E0-43E5-BE77-07187F08D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2914,11 +2914,11 @@
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7227,10 +7227,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="D67" sqref="D67"/>
+      <selection pane="topRight" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10684,7 +10684,7 @@
       <c r="E37" s="74" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="82" t="s">
+      <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -12143,7 +12143,7 @@
       <c r="E52" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="42" t="s">
         <v>352</v>
       </c>
       <c r="G52" s="3">
@@ -12725,7 +12725,7 @@
       <c r="E58" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="81" t="s">
+      <c r="F58" s="82" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -13855,7 +13855,7 @@
       <c r="E70" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="44" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -14045,7 +14045,7 @@
       <c r="E72" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="83" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902869E0-66E0-43E5-BE77-07187F08D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175198B-E2D5-4EFF-8896-5BD13015D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2367,14 +2367,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>KOUTAROU
-2023/7/20に振込</t>
-    <rPh sb="19" eb="21">
-      <t>フリコミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2438,6 +2430,10 @@
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KOUTAROU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2723,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2916,9 +2912,6 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7227,10 +7220,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="F72" sqref="F72"/>
+      <selection pane="topRight" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9194,7 +9187,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -12506,7 +12499,7 @@
       </c>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" ht="37.5">
+    <row r="56" spans="1:30">
       <c r="A56" s="9" t="s">
         <v>238</v>
       </c>
@@ -12524,8 +12517,8 @@
       <c r="E56" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="81" t="s">
-        <v>394</v>
+      <c r="F56" s="82" t="s">
+        <v>396</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12725,7 +12718,7 @@
       <c r="E58" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="54" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -13001,7 +12994,7 @@
       <c r="E61" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="81" t="s">
+      <c r="F61" s="82" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -14045,7 +14038,7 @@
       <c r="E72" s="74" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="46" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">
@@ -15648,7 +15641,7 @@
       <c r="E89" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="81" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="3">
@@ -16014,7 +16007,7 @@
         <v>41</v>
       </c>
       <c r="F93" s="69" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="24"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B175198B-E2D5-4EFF-8896-5BD13015D4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE68680-5F72-4E3C-89FB-E992B619D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2905,9 +2905,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7220,10 +7217,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="E67" sqref="E67"/>
+      <selection pane="topRight" activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12517,7 +12514,7 @@
       <c r="E56" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="82" t="s">
+      <c r="F56" s="54" t="s">
         <v>396</v>
       </c>
       <c r="G56" s="3">
@@ -12994,7 +12991,7 @@
       <c r="E61" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="54" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE68680-5F72-4E3C-89FB-E992B619D49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991CE360-B85B-4A4B-BB70-899D97620318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2905,9 +2905,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7217,10 +7214,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="F88" sqref="F88"/>
+      <selection pane="topRight" activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -13845,7 +13842,7 @@
       <c r="E70" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F70" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -15638,7 +15635,7 @@
       <c r="E89" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="81" t="s">
+      <c r="F89" s="54" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991CE360-B85B-4A4B-BB70-899D97620318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF48604-DA8C-49C9-84DD-5141CC7F6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7217,7 +7217,7 @@
     <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="F94" sqref="F94"/>
+      <selection pane="topRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF48604-DA8C-49C9-84DD-5141CC7F6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5AE41-CFCE-425B-A5BA-DD238ACCDC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2806,9 +2806,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2905,6 +2902,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4818,10 +4830,10 @@
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="59"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
@@ -5120,7 +5132,7 @@
       <c r="A30" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="68" t="s">
+      <c r="B30" s="67" t="s">
         <v>152</v>
       </c>
       <c r="C30" s="1"/>
@@ -7214,10 +7226,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="C11" sqref="C11"/>
-      <selection pane="topRight" activeCell="F95" sqref="F95"/>
+      <selection activeCell="A17" sqref="A17:XFD18"/>
+      <selection pane="topRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7551,7 +7563,7 @@
       <c r="E4" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="53" t="s">
         <v>285</v>
       </c>
       <c r="G4" s="3">
@@ -7644,7 +7656,7 @@
       <c r="E5" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="50" t="s">
         <v>360</v>
       </c>
       <c r="G5" s="12">
@@ -7711,95 +7723,95 @@
       <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="B6" s="11" t="str">
+      <c r="B6" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>北砂　渓翔</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="63">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44774</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="26">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>1</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="63">
         <f t="shared" si="0"/>
         <v>44805</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="63">
         <f t="shared" si="1"/>
         <v>44835</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="12">
+      <c r="J6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="63">
         <f t="shared" si="2"/>
         <v>44866</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M6" s="12">
+      <c r="L6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="63">
         <f t="shared" si="3"/>
         <v>44896</v>
       </c>
-      <c r="N6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="12">
+      <c r="N6" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="63">
         <f t="shared" si="4"/>
         <v>44927</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="12">
+      <c r="P6" s="58"/>
+      <c r="Q6" s="63">
         <f t="shared" si="5"/>
         <v>44958</v>
       </c>
-      <c r="R6" s="10"/>
-      <c r="S6" s="3">
+      <c r="R6" s="58"/>
+      <c r="S6" s="25">
         <f t="shared" si="6"/>
         <v>44986</v>
       </c>
-      <c r="T6" s="10"/>
-      <c r="U6" s="3">
+      <c r="T6" s="58"/>
+      <c r="U6" s="25">
         <f t="shared" si="7"/>
         <v>45017</v>
       </c>
-      <c r="V6" s="10"/>
-      <c r="W6" s="3">
+      <c r="V6" s="58"/>
+      <c r="W6" s="25">
         <f t="shared" si="8"/>
         <v>45047</v>
       </c>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="3">
+      <c r="X6" s="58"/>
+      <c r="Y6" s="25">
         <f t="shared" si="9"/>
         <v>45078</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="3">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="25">
         <f t="shared" si="10"/>
         <v>45108</v>
       </c>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="3">
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="25">
         <f t="shared" si="11"/>
         <v>45139</v>
       </c>
-      <c r="AD6" s="10"/>
+      <c r="AD6" s="58"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="9" t="s">
@@ -7819,7 +7831,7 @@
       <c r="E7" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="65" t="s">
         <v>211</v>
       </c>
       <c r="G7" s="3">
@@ -7926,7 +7938,7 @@
       <c r="E8" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="45" t="s">
         <v>258</v>
       </c>
       <c r="G8" s="3">
@@ -8025,7 +8037,7 @@
       <c r="E9" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="45" t="s">
         <v>336</v>
       </c>
       <c r="G9" s="3">
@@ -8095,11 +8107,11 @@
       <c r="A10" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="63" t="str">
+      <c r="B10" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>徳山　和也</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="63">
         <v>44869</v>
       </c>
       <c r="D10" s="19">
@@ -8198,87 +8210,87 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="87.75">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="B11" s="62" t="str">
+      <c r="B11" s="61" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>奥寺　響</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="48">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44504</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="47">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>4</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="64" t="s">
         <v>237</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="48">
         <f t="shared" si="0"/>
         <v>44534</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="49">
+      <c r="H11" s="49"/>
+      <c r="I11" s="48">
         <f t="shared" si="1"/>
         <v>44565</v>
       </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="49">
+      <c r="J11" s="60"/>
+      <c r="K11" s="48">
         <f t="shared" si="2"/>
         <v>44596</v>
       </c>
-      <c r="L11" s="50"/>
-      <c r="M11" s="49">
+      <c r="L11" s="49"/>
+      <c r="M11" s="48">
         <f t="shared" si="3"/>
         <v>44624</v>
       </c>
-      <c r="N11" s="50"/>
-      <c r="O11" s="49">
+      <c r="N11" s="49"/>
+      <c r="O11" s="48">
         <f t="shared" si="4"/>
         <v>44655</v>
       </c>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="49">
+      <c r="P11" s="49"/>
+      <c r="Q11" s="48">
         <f t="shared" si="5"/>
         <v>44685</v>
       </c>
-      <c r="R11" s="50"/>
-      <c r="S11" s="49">
+      <c r="R11" s="49"/>
+      <c r="S11" s="48">
         <f t="shared" si="6"/>
         <v>44716</v>
       </c>
-      <c r="T11" s="50"/>
-      <c r="U11" s="49">
+      <c r="T11" s="49"/>
+      <c r="U11" s="48">
         <f t="shared" si="7"/>
         <v>44746</v>
       </c>
-      <c r="V11" s="50"/>
-      <c r="W11" s="49">
+      <c r="V11" s="49"/>
+      <c r="W11" s="48">
         <f t="shared" si="8"/>
         <v>44777</v>
       </c>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="49">
+      <c r="X11" s="49"/>
+      <c r="Y11" s="48">
         <f t="shared" si="9"/>
         <v>44808</v>
       </c>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="49">
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="48">
         <f t="shared" si="10"/>
         <v>44838</v>
       </c>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="49">
+      <c r="AB11" s="49"/>
+      <c r="AC11" s="48">
         <f t="shared" si="11"/>
         <v>44869</v>
       </c>
-      <c r="AD11" s="67"/>
+      <c r="AD11" s="66"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="9" t="s">
@@ -8492,14 +8504,14 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44475</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="51">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>6</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="81" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
@@ -8606,7 +8618,7 @@
       <c r="E15" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F15" s="45" t="s">
         <v>230</v>
       </c>
       <c r="G15" s="3">
@@ -8709,7 +8721,7 @@
       <c r="E16" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F16" s="45" t="s">
         <v>305</v>
       </c>
       <c r="G16" s="3">
@@ -8773,183 +8785,183 @@
       </c>
       <c r="AD16" s="14"/>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:30" s="37" customFormat="1">
+      <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>クボ　ユウマ</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="25">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44262</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="26">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="77" t="s">
+      <c r="E17" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="25">
         <f t="shared" si="0"/>
         <v>44293</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="H17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="25">
         <f t="shared" si="1"/>
         <v>44323</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="J17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="25">
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="L17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="25">
         <f t="shared" si="3"/>
         <v>44384</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="25">
         <f t="shared" si="4"/>
         <v>44415</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="P17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="25">
         <f t="shared" si="5"/>
         <v>44446</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="R17" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="25">
         <f t="shared" si="6"/>
         <v>44476</v>
       </c>
-      <c r="T17" s="1"/>
-      <c r="U17" s="3">
+      <c r="T17" s="36"/>
+      <c r="U17" s="25">
         <f t="shared" si="7"/>
         <v>44507</v>
       </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="3">
+      <c r="V17" s="36"/>
+      <c r="W17" s="25">
         <f t="shared" si="8"/>
         <v>44537</v>
       </c>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="3">
+      <c r="X17" s="36"/>
+      <c r="Y17" s="25">
         <f t="shared" si="9"/>
         <v>44568</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="3">
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="25">
         <f t="shared" si="10"/>
         <v>44599</v>
       </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="3">
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="25">
         <f t="shared" si="11"/>
         <v>44627</v>
       </c>
-      <c r="AD17" s="14"/>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="9" t="s">
+      <c r="AD17" s="71"/>
+    </row>
+    <row r="18" spans="1:30" s="37" customFormat="1">
+      <c r="A18" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>鈴木　貴雅</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="25">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44262</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="26">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="77" t="s">
+      <c r="E18" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="25">
         <f t="shared" si="0"/>
         <v>44293</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3">
+      <c r="H18" s="36"/>
+      <c r="I18" s="25">
         <f t="shared" si="1"/>
         <v>44323</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="3">
+      <c r="J18" s="36"/>
+      <c r="K18" s="25">
         <f t="shared" si="2"/>
         <v>44354</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="3">
+      <c r="L18" s="36"/>
+      <c r="M18" s="25">
         <f t="shared" si="3"/>
         <v>44384</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="3">
+      <c r="N18" s="36"/>
+      <c r="O18" s="25">
         <f t="shared" si="4"/>
         <v>44415</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="3">
+      <c r="P18" s="36"/>
+      <c r="Q18" s="25">
         <f t="shared" si="5"/>
         <v>44446</v>
       </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3">
+      <c r="R18" s="36"/>
+      <c r="S18" s="25">
         <f t="shared" si="6"/>
         <v>44476</v>
       </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="3">
+      <c r="T18" s="36"/>
+      <c r="U18" s="25">
         <f t="shared" si="7"/>
         <v>44507</v>
       </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="3">
+      <c r="V18" s="36"/>
+      <c r="W18" s="25">
         <f t="shared" si="8"/>
         <v>44537</v>
       </c>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="3">
+      <c r="X18" s="36"/>
+      <c r="Y18" s="25">
         <f t="shared" si="9"/>
         <v>44568</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="3">
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="25">
         <f t="shared" si="10"/>
         <v>44599</v>
       </c>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="3">
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="25">
         <f t="shared" si="11"/>
         <v>44627</v>
       </c>
-      <c r="AD18" s="1"/>
+      <c r="AD18" s="36"/>
     </row>
     <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
@@ -8967,10 +8979,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>8</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="43" t="s">
         <v>340</v>
       </c>
       <c r="G19" s="3">
@@ -9177,10 +9189,10 @@
       <c r="D21" s="19">
         <v>8</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="84" t="s">
         <v>395</v>
       </c>
       <c r="G21" s="3">
@@ -9372,7 +9384,7 @@
       <c r="E23" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="45" t="s">
         <v>391</v>
       </c>
       <c r="G23" s="3">
@@ -9558,7 +9570,7 @@
       <c r="E25" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="45" t="s">
         <v>321</v>
       </c>
       <c r="G25" s="3">
@@ -9641,7 +9653,7 @@
       <c r="E26" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="46" t="s">
+      <c r="F26" s="45" t="s">
         <v>387</v>
       </c>
       <c r="G26" s="3">
@@ -9910,7 +9922,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>11</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F29" s="19" t="s">
@@ -10409,7 +10421,7 @@
       <c r="E34" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="F34" s="45" t="s">
         <v>324</v>
       </c>
       <c r="G34" s="3">
@@ -10668,7 +10680,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>14</v>
       </c>
-      <c r="E37" s="74" t="s">
+      <c r="E37" s="73" t="s">
         <v>392</v>
       </c>
       <c r="F37" s="19" t="s">
@@ -11172,7 +11184,7 @@
         <v>8</v>
       </c>
       <c r="AC41" s="25"/>
-      <c r="AD41" s="72"/>
+      <c r="AD41" s="71"/>
     </row>
     <row r="42" spans="1:30" ht="37.5">
       <c r="A42" s="27" t="s">
@@ -11478,10 +11490,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>16</v>
       </c>
-      <c r="E45" s="74" t="s">
+      <c r="E45" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="F45" s="54" t="s">
+      <c r="F45" s="53" t="s">
         <v>372</v>
       </c>
       <c r="G45" s="3">
@@ -11667,10 +11679,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E47" s="73" t="s">
+      <c r="E47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="80" t="s">
+      <c r="F47" s="79" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
@@ -11754,7 +11766,7 @@
       <c r="A48" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B48" s="57" t="str">
+      <c r="B48" s="56" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>横山　裕哉</v>
       </c>
@@ -11765,10 +11777,10 @@
       <c r="D48" s="30">
         <v>17</v>
       </c>
-      <c r="E48" s="74" t="s">
+      <c r="E48" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="43" t="s">
         <v>357</v>
       </c>
       <c r="G48" s="3">
@@ -11848,7 +11860,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>17</v>
       </c>
-      <c r="E49" s="74" t="s">
+      <c r="E49" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
@@ -11930,7 +11942,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>18</v>
       </c>
-      <c r="E50" s="73" t="s">
+      <c r="E50" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F50" s="19" t="s">
@@ -12127,7 +12139,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E52" s="73" t="s">
+      <c r="E52" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F52" s="42" t="s">
@@ -12426,7 +12438,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E55" s="74" t="s">
+      <c r="E55" s="73" t="s">
         <v>315</v>
       </c>
       <c r="F55" s="30" t="s">
@@ -12508,10 +12520,10 @@
       <c r="D56" s="19">
         <v>20</v>
       </c>
-      <c r="E56" s="74" t="s">
+      <c r="E56" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="54" t="s">
+      <c r="F56" s="53" t="s">
         <v>396</v>
       </c>
       <c r="G56" s="3">
@@ -12709,10 +12721,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E58" s="74" t="s">
+      <c r="E58" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="54" t="s">
+      <c r="F58" s="53" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -12811,7 +12823,7 @@
       <c r="E59" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F59" s="46" t="s">
+      <c r="F59" s="45" t="s">
         <v>327</v>
       </c>
       <c r="G59" s="3">
@@ -12900,7 +12912,7 @@
       <c r="E60" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F60" s="46" t="s">
+      <c r="F60" s="45" t="s">
         <v>330</v>
       </c>
       <c r="G60" s="3">
@@ -12985,10 +12997,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>20</v>
       </c>
-      <c r="E61" s="73" t="s">
+      <c r="E61" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="54" t="s">
+      <c r="F61" s="53" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -13072,7 +13084,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>21</v>
       </c>
-      <c r="E62" s="73" t="s">
+      <c r="E62" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F62" s="26" t="s">
@@ -13159,7 +13171,7 @@
         <f t="shared" si="23"/>
         <v>44641</v>
       </c>
-      <c r="AD62" s="72" t="s">
+      <c r="AD62" s="71" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13181,7 +13193,7 @@
       <c r="E63" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="44" t="s">
+      <c r="F63" s="43" t="s">
         <v>380</v>
       </c>
       <c r="G63" s="3">
@@ -13384,7 +13396,7 @@
       <c r="E65" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F65" s="46" t="s">
+      <c r="F65" s="45" t="s">
         <v>282</v>
       </c>
       <c r="G65" s="3">
@@ -13476,7 +13488,7 @@
       <c r="E66" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="F66" s="46" t="s">
+      <c r="F66" s="45" t="s">
         <v>279</v>
       </c>
       <c r="G66" s="3">
@@ -13667,7 +13679,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="19"/>
-      <c r="F68" s="46" t="s">
+      <c r="F68" s="45" t="s">
         <v>236</v>
       </c>
       <c r="G68" s="3">
@@ -13747,10 +13759,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>23</v>
       </c>
-      <c r="E69" s="74" t="s">
+      <c r="E69" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="F69" s="54" t="s">
+      <c r="F69" s="53" t="s">
         <v>289</v>
       </c>
       <c r="G69" s="3">
@@ -13839,7 +13851,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E70" s="73" t="s">
+      <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F70" s="42" t="s">
@@ -13946,10 +13958,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E71" s="55" t="s">
+      <c r="E71" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="F71" s="56" t="s">
+      <c r="F71" s="55" t="s">
         <v>293</v>
       </c>
       <c r="G71" s="25">
@@ -14029,10 +14041,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>24</v>
       </c>
-      <c r="E72" s="74" t="s">
+      <c r="E72" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="F72" s="45" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">
@@ -14121,7 +14133,7 @@
       <c r="E73" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="46" t="s">
+      <c r="F73" s="45" t="s">
         <v>348</v>
       </c>
       <c r="G73" s="3">
@@ -14303,7 +14315,7 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v xml:space="preserve"> 阿部　つかさ</v>
       </c>
-      <c r="C75" s="53">
+      <c r="C75" s="52">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44433</v>
       </c>
@@ -14311,7 +14323,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>25</v>
       </c>
-      <c r="E75" s="74" t="s">
+      <c r="E75" s="73" t="s">
         <v>41</v>
       </c>
       <c r="F75" s="30" t="s">
@@ -14617,7 +14629,7 @@
       <c r="E78" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F78" s="54" t="s">
+      <c r="F78" s="53" t="s">
         <v>297</v>
       </c>
       <c r="G78" s="3">
@@ -14710,7 +14722,7 @@
       <c r="E79" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F79" s="54" t="s">
+      <c r="F79" s="53" t="s">
         <v>350</v>
       </c>
       <c r="G79" s="3">
@@ -14974,7 +14986,7 @@
       <c r="E82" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="53" t="s">
         <v>302</v>
       </c>
       <c r="G82" s="3">
@@ -15249,7 +15261,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E85" s="73" t="s">
+      <c r="E85" s="72" t="s">
         <v>41</v>
       </c>
       <c r="F85" s="19" t="s">
@@ -15552,7 +15564,7 @@
       <c r="E88" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="F88" s="46" t="s">
+      <c r="F88" s="45" t="s">
         <v>356</v>
       </c>
       <c r="G88" s="3">
@@ -15632,10 +15644,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E89" s="74" t="s">
+      <c r="E89" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="54" t="s">
+      <c r="F89" s="53" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="3">
@@ -15718,7 +15730,7 @@
         <v>29</v>
       </c>
       <c r="E90" s="19"/>
-      <c r="F90" s="46" t="s">
+      <c r="F90" s="45" t="s">
         <v>265</v>
       </c>
       <c r="G90" s="3">
@@ -15816,7 +15828,7 @@
       <c r="E91" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F91" s="46" t="s">
+      <c r="F91" s="45" t="s">
         <v>318</v>
       </c>
       <c r="G91" s="3">
@@ -15906,7 +15918,7 @@
       <c r="E92" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="F92" s="52" t="s">
+      <c r="F92" s="51" t="s">
         <v>201</v>
       </c>
       <c r="G92" s="3">
@@ -15997,10 +16009,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E93" s="74" t="s">
+      <c r="E93" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F93" s="69" t="s">
+      <c r="F93" s="68" t="s">
         <v>394</v>
       </c>
       <c r="G93" s="3">
@@ -16104,7 +16116,7 @@
       <c r="E94" s="42" t="s">
         <v>374</v>
       </c>
-      <c r="F94" s="52" t="s">
+      <c r="F94" s="51" t="s">
         <v>185</v>
       </c>
       <c r="G94" s="3">
@@ -16200,81 +16212,81 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>澁谷 貴嗣</v>
       </c>
-      <c r="C95" s="53">
+      <c r="C95" s="52">
         <v>44530</v>
       </c>
-      <c r="D95" s="58">
+      <c r="D95" s="57">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E95" s="74" t="s">
+      <c r="E95" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="F95" s="60" t="s">
+      <c r="F95" s="59" t="s">
         <v>366</v>
       </c>
       <c r="G95" s="38">
         <f t="shared" si="24"/>
         <v>44560</v>
       </c>
-      <c r="H95" s="45" t="s">
+      <c r="H95" s="44" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="38">
         <f t="shared" si="25"/>
         <v>44591</v>
       </c>
-      <c r="J95" s="45"/>
+      <c r="J95" s="44"/>
       <c r="K95" s="38">
         <f t="shared" si="26"/>
         <v>44622</v>
       </c>
-      <c r="L95" s="45"/>
+      <c r="L95" s="44"/>
       <c r="M95" s="38">
         <f t="shared" si="27"/>
         <v>44650</v>
       </c>
-      <c r="N95" s="45"/>
+      <c r="N95" s="44"/>
       <c r="O95" s="38">
         <f t="shared" si="28"/>
         <v>44681</v>
       </c>
-      <c r="P95" s="45"/>
+      <c r="P95" s="44"/>
       <c r="Q95" s="38">
         <f t="shared" si="29"/>
         <v>44711</v>
       </c>
-      <c r="R95" s="45"/>
+      <c r="R95" s="44"/>
       <c r="S95" s="38">
         <f t="shared" si="30"/>
         <v>44742</v>
       </c>
-      <c r="T95" s="45"/>
+      <c r="T95" s="44"/>
       <c r="U95" s="38">
         <f t="shared" si="31"/>
         <v>44772</v>
       </c>
-      <c r="V95" s="45"/>
+      <c r="V95" s="44"/>
       <c r="W95" s="38">
         <f t="shared" si="32"/>
         <v>44803</v>
       </c>
-      <c r="X95" s="45"/>
+      <c r="X95" s="44"/>
       <c r="Y95" s="38">
         <f t="shared" si="33"/>
         <v>44834</v>
       </c>
-      <c r="Z95" s="45"/>
+      <c r="Z95" s="44"/>
       <c r="AA95" s="38">
         <f t="shared" si="34"/>
         <v>44864</v>
       </c>
-      <c r="AB95" s="45"/>
+      <c r="AB95" s="44"/>
       <c r="AC95" s="38">
         <f t="shared" si="35"/>
         <v>44895</v>
       </c>
-      <c r="AD95" s="71"/>
+      <c r="AD95" s="70"/>
     </row>
     <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
@@ -16291,10 +16303,10 @@
       <c r="D96" s="19">
         <v>30</v>
       </c>
-      <c r="E96" s="79" t="s">
+      <c r="E96" s="78" t="s">
         <v>393</v>
       </c>
-      <c r="F96" s="70" t="s">
+      <c r="F96" s="69" t="s">
         <v>365</v>
       </c>
       <c r="G96" s="3">
@@ -16399,7 +16411,7 @@
       <c r="E97" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F97" s="51" t="s">
+      <c r="F97" s="50" t="s">
         <v>321</v>
       </c>
       <c r="G97" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC5AE41-CFCE-425B-A5BA-DD238ACCDC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90C63A-E118-49A8-BE82-F0A01F336D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2907,17 +2907,11 @@
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4242,7 +4236,7 @@
   <dimension ref="A1:L98"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7226,10 +7220,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A17" sqref="A17:XFD18"/>
-      <selection pane="topRight" activeCell="F23" sqref="F23"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8511,7 +8505,7 @@
       <c r="E14" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="81" t="s">
+      <c r="F14" s="51" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
@@ -8801,7 +8795,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="82" t="s">
+      <c r="E17" s="81" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -8896,10 +8890,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="82" t="s">
+      <c r="E18" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="83" t="s">
+      <c r="F18" s="82" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="25">
@@ -9192,7 +9186,7 @@
       <c r="E21" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="84" t="s">
+      <c r="F21" s="42" t="s">
         <v>395</v>
       </c>
       <c r="G21" s="3">
@@ -10683,7 +10677,7 @@
       <c r="E37" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B90C63A-E118-49A8-BE82-F0A01F336D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58055670-0486-4875-B5EA-055CA5650207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2911,6 +2911,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7220,10 +7226,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="A17" sqref="A17:XFD18"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection activeCell="A55" sqref="A55:XFD55"/>
+      <selection pane="topRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -12416,88 +12422,88 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="37.5">
-      <c r="A55" s="9" t="s">
+    <row r="55" spans="1:30" s="37" customFormat="1" ht="37.5">
+      <c r="A55" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
         <v>辻　美智</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="25">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44761</v>
       </c>
-      <c r="D55" s="30">
+      <c r="D55" s="26">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E55" s="73" t="s">
+      <c r="E55" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="F55" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="25">
         <f t="shared" si="12"/>
         <v>44792</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="3">
+      <c r="H55" s="36"/>
+      <c r="I55" s="25">
         <f t="shared" si="13"/>
         <v>44823</v>
       </c>
-      <c r="J55" s="1"/>
-      <c r="K55" s="3">
+      <c r="J55" s="36"/>
+      <c r="K55" s="25">
         <f t="shared" si="14"/>
         <v>44853</v>
       </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="3">
+      <c r="L55" s="36"/>
+      <c r="M55" s="25">
         <f t="shared" si="15"/>
         <v>44884</v>
       </c>
-      <c r="N55" s="1"/>
-      <c r="O55" s="3">
+      <c r="N55" s="36"/>
+      <c r="O55" s="25">
         <f t="shared" si="16"/>
         <v>44914</v>
       </c>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="3">
+      <c r="P55" s="36"/>
+      <c r="Q55" s="25">
         <f t="shared" si="17"/>
         <v>44945</v>
       </c>
-      <c r="R55" s="1"/>
-      <c r="S55" s="3">
+      <c r="R55" s="36"/>
+      <c r="S55" s="25">
         <f t="shared" si="18"/>
         <v>44976</v>
       </c>
-      <c r="T55" s="1"/>
-      <c r="U55" s="3">
+      <c r="T55" s="36"/>
+      <c r="U55" s="25">
         <f t="shared" si="19"/>
         <v>45004</v>
       </c>
-      <c r="V55" s="1"/>
-      <c r="W55" s="3">
+      <c r="V55" s="36"/>
+      <c r="W55" s="25">
         <f t="shared" si="20"/>
         <v>45035</v>
       </c>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="3">
+      <c r="X55" s="36"/>
+      <c r="Y55" s="25">
         <f t="shared" si="21"/>
         <v>45065</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="3">
+      <c r="Z55" s="36"/>
+      <c r="AA55" s="25">
         <f t="shared" si="22"/>
         <v>45096</v>
       </c>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="3">
+      <c r="AB55" s="36"/>
+      <c r="AC55" s="25">
         <f t="shared" si="23"/>
         <v>45126</v>
       </c>
-      <c r="AD55" s="1"/>
+      <c r="AD55" s="36"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="9" t="s">
@@ -12517,7 +12523,7 @@
       <c r="E56" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="83" t="s">
         <v>396</v>
       </c>
       <c r="G56" s="3">
@@ -12718,7 +12724,7 @@
       <c r="E58" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="83" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -12994,7 +13000,7 @@
       <c r="E61" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="53" t="s">
+      <c r="F61" s="83" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -13848,7 +13854,7 @@
       <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="43" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -14038,7 +14044,7 @@
       <c r="E72" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="84" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58055670-0486-4875-B5EA-055CA5650207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8742CC77-28BB-4AD7-ACFB-F087748EBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2396,6 +2396,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KOUTAROU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>沼田愛美 
 支払い</t>
@@ -2409,7 +2413,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>19</t>
+      <t>18</t>
     </r>
     <r>
       <rPr>
@@ -2430,10 +2434,6 @@
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KOUTAROU</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2915,9 +2915,6 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7226,10 +7223,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="D64" sqref="D64"/>
+      <selection pane="topRight" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -9193,7 +9190,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -10683,7 +10680,7 @@
       <c r="E37" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -12523,8 +12520,8 @@
       <c r="E56" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="83" t="s">
-        <v>396</v>
+      <c r="F56" s="53" t="s">
+        <v>395</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12724,7 +12721,7 @@
       <c r="E58" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="83" t="s">
+      <c r="F58" s="53" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -13854,7 +13851,7 @@
       <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -14044,7 +14041,7 @@
       <c r="E72" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="84" t="s">
+      <c r="F72" s="45" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8742CC77-28BB-4AD7-ACFB-F087748EBE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118FE31-F934-4CA3-A988-A65294B81C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2901,9 +2901,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2914,6 +2911,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4242,17 +4242,17 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" customWidth="1"/>
+    <col min="8" max="11" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="44.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4431,7 +4431,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="56.25">
+    <row r="7" spans="1:12" ht="54">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="37.5">
+    <row r="15" spans="1:12" ht="36">
       <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="37.5">
+    <row r="20" spans="1:12" ht="36">
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="37.5">
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="37.5">
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="37.5">
+    <row r="97" spans="1:12" ht="36">
       <c r="A97" s="4" t="s">
         <v>385</v>
       </c>
@@ -7223,44 +7223,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="G88" sqref="G88"/>
+      <selection pane="topRight" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7355,7 +7355,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="37.5">
+    <row r="2" spans="1:30" ht="36">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
@@ -7542,7 +7542,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A4" s="4" t="s">
         <v>283</v>
       </c>
@@ -7719,7 +7719,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>376</v>
       </c>
@@ -7738,7 +7738,7 @@
       <c r="E6" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="80" t="s">
+      <c r="F6" s="79" t="s">
         <v>378</v>
       </c>
       <c r="G6" s="63">
@@ -8206,7 +8206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="87.75">
+    <row r="11" spans="1:30" ht="85.5">
       <c r="A11" s="46" t="s">
         <v>174</v>
       </c>
@@ -8489,7 +8489,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="37.5">
+    <row r="14" spans="1:30" ht="36">
       <c r="A14" s="27" t="s">
         <v>162</v>
       </c>
@@ -8798,7 +8798,7 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>41</v>
       </c>
       <c r="F17" s="26" t="s">
@@ -8893,10 +8893,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>7</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="81" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="25">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
       <c r="A19" s="27" t="s">
         <v>149</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="37.5">
+    <row r="21" spans="1:30" ht="36">
       <c r="A21" s="9" t="s">
         <v>248</v>
       </c>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30" ht="56.25">
+    <row r="25" spans="1:30" ht="54">
       <c r="A25" s="9" t="s">
         <v>337</v>
       </c>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="AD27" s="14"/>
     </row>
-    <row r="28" spans="1:30" ht="37.5">
+    <row r="28" spans="1:30" ht="36">
       <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A36" s="9" t="s">
         <v>87</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
       <c r="AD36" s="14"/>
     </row>
-    <row r="37" spans="1:30" ht="37.5">
+    <row r="37" spans="1:30" ht="36">
       <c r="A37" s="9" t="s">
         <v>89</v>
       </c>
@@ -10680,7 +10680,7 @@
       <c r="E37" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -11183,7 +11183,7 @@
       <c r="AC41" s="25"/>
       <c r="AD41" s="71"/>
     </row>
-    <row r="42" spans="1:30" ht="37.5">
+    <row r="42" spans="1:30" ht="36">
       <c r="A42" s="27" t="s">
         <v>151</v>
       </c>
@@ -11471,7 +11471,7 @@
       </c>
       <c r="AD44" s="14"/>
     </row>
-    <row r="45" spans="1:30" ht="37.5">
+    <row r="45" spans="1:30" ht="36">
       <c r="A45" s="9" t="s">
         <v>367</v>
       </c>
@@ -11679,7 +11679,7 @@
       <c r="E47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="83" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
@@ -11759,7 +11759,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
       <c r="A48" s="9" t="s">
         <v>275</v>
       </c>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="37.5">
+    <row r="49" spans="1:30" ht="36">
       <c r="A49" s="9" t="s">
         <v>381</v>
       </c>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="AD51" s="14"/>
     </row>
-    <row r="52" spans="1:30" ht="37.5">
+    <row r="52" spans="1:30" ht="36">
       <c r="A52" s="27" t="s">
         <v>154</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="55" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A55" s="27" t="s">
         <v>312</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="37.5">
+    <row r="58" spans="1:30" ht="36">
       <c r="A58" s="27" t="s">
         <v>261</v>
       </c>
@@ -12997,7 +12997,7 @@
       <c r="E61" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="83" t="s">
+      <c r="F61" s="82" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">
@@ -13740,7 +13740,7 @@
       </c>
       <c r="AD68" s="14"/>
     </row>
-    <row r="69" spans="1:30" ht="37.5">
+    <row r="69" spans="1:30" ht="36">
       <c r="A69" s="9" t="s">
         <v>286</v>
       </c>
@@ -14022,7 +14022,7 @@
       </c>
       <c r="AD71" s="36"/>
     </row>
-    <row r="72" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="72" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A72" s="9" t="s">
         <v>332</v>
       </c>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:30" ht="37.5">
+    <row r="74" spans="1:30" ht="36">
       <c r="A74" s="27" t="s">
         <v>98</v>
       </c>
@@ -14700,7 +14700,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" ht="56.25">
+    <row r="79" spans="1:30" ht="54">
       <c r="A79" s="9" t="s">
         <v>298</v>
       </c>
@@ -14882,7 +14882,7 @@
       </c>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="1:30" ht="37.5">
+    <row r="81" spans="1:30" ht="36">
       <c r="A81" s="9" t="s">
         <v>253</v>
       </c>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="AD87" s="1"/>
     </row>
-    <row r="88" spans="1:30" ht="37.5">
+    <row r="88" spans="1:30" ht="36">
       <c r="A88" s="9" t="s">
         <v>354</v>
       </c>
@@ -15991,7 +15991,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="37.5">
+    <row r="93" spans="1:30" ht="36">
       <c r="A93" s="27" t="s">
         <v>85</v>
       </c>
@@ -16095,7 +16095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="37.5">
+    <row r="94" spans="1:30" ht="36">
       <c r="A94" s="9" t="s">
         <v>183</v>
       </c>
@@ -16201,7 +16201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="37.5">
+    <row r="95" spans="1:30" ht="36">
       <c r="A95" s="28" t="s">
         <v>130</v>
       </c>
@@ -16285,7 +16285,7 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="56.25">
+    <row r="96" spans="1:30" ht="54">
       <c r="A96" s="4" t="s">
         <v>202</v>
       </c>
@@ -16503,40 +16503,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16772,10 +16772,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17009,9 +17009,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17244,7 +17244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17269,11 +17269,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A118FE31-F934-4CA3-A988-A65294B81C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819E819-1910-476A-8949-D31908DCA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7223,10 +7223,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="F50" sqref="F50"/>
+      <selection pane="topRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -12520,7 +12520,7 @@
       <c r="E56" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="F56" s="82" t="s">
         <v>395</v>
       </c>
       <c r="G56" s="3">
@@ -12721,7 +12721,7 @@
       <c r="E58" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="F58" s="82" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819E819-1910-476A-8949-D31908DCA4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21149A9F-39E8-489D-8A5B-8096E081BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2719,7 +2719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2915,6 +2915,9 @@
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7223,10 +7226,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="F61" sqref="F61"/>
+      <selection pane="topRight" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13851,7 +13854,7 @@
       <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="42" t="s">
+      <c r="F70" s="43" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -14041,7 +14044,7 @@
       <c r="E72" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="45" t="s">
+      <c r="F72" s="84" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21149A9F-39E8-489D-8A5B-8096E081BC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26A08E-51DE-492D-8C30-3F1DCB431F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2916,8 +2916,8 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7226,10 +7226,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="F37" sqref="F37"/>
+      <selection pane="topRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10683,7 +10683,7 @@
       <c r="E37" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="F37" s="30" t="s">
+      <c r="F37" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="3">
@@ -12724,7 +12724,7 @@
       <c r="E58" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F58" s="82" t="s">
+      <c r="F58" s="53" t="s">
         <v>362</v>
       </c>
       <c r="G58" s="3">
@@ -13854,7 +13854,7 @@
       <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="43" t="s">
+      <c r="F70" s="84" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -14044,7 +14044,7 @@
       <c r="E72" s="73" t="s">
         <v>364</v>
       </c>
-      <c r="F72" s="84" t="s">
+      <c r="F72" s="45" t="s">
         <v>333</v>
       </c>
       <c r="G72" s="3">
@@ -15647,7 +15647,7 @@
       <c r="E89" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="53" t="s">
+      <c r="F89" s="82" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26A08E-51DE-492D-8C30-3F1DCB431F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81822C75-3BA7-4CBE-BCAA-4B465A32D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="398">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2413,7 +2413,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>18</t>
+      <t>17</t>
     </r>
     <r>
       <rPr>
@@ -2434,6 +2434,10 @@
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">田中優河 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2719,7 +2723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2914,9 +2918,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4241,8 +4242,8 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7226,10 +7227,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="A55" sqref="A55:XFD55"/>
-      <selection pane="topRight" activeCell="E73" sqref="E73"/>
+      <selection activeCell="A36" sqref="A36"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9564,14 +9565,13 @@
         <v>45179</v>
       </c>
       <c r="D25" s="19">
-        <f>DAY(テーブル2[[#This Row],[支払日]])</f>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>339</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -12523,7 +12523,7 @@
       <c r="E56" s="73" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="82" t="s">
+      <c r="F56" s="53" t="s">
         <v>395</v>
       </c>
       <c r="G56" s="3">
@@ -13854,7 +13854,7 @@
       <c r="E70" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F70" s="84" t="s">
+      <c r="F70" s="42" t="s">
         <v>97</v>
       </c>
       <c r="G70" s="3">
@@ -15644,10 +15644,10 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>28</v>
       </c>
-      <c r="E89" s="73" t="s">
-        <v>41</v>
-      </c>
-      <c r="F89" s="82" t="s">
+      <c r="E89" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F89" s="53" t="s">
         <v>373</v>
       </c>
       <c r="G89" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81822C75-3BA7-4CBE-BCAA-4B465A32D68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D866E013-74D6-4285-A22D-F5C73AF72EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2400,6 +2400,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t xml:space="preserve">田中優河 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>沼田愛美 
 支払い</t>
@@ -2413,7 +2417,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>17</t>
+      <t>16</t>
     </r>
     <r>
       <rPr>
@@ -2434,10 +2438,6 @@
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">田中優河 </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2914,10 +2914,10 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7227,10 +7227,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="D26" sqref="D26"/>
+      <selection pane="topRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -9194,7 +9194,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9571,7 +9571,7 @@
         <v>339</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -11682,7 +11682,7 @@
       <c r="E47" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="83" t="s">
+      <c r="F47" s="82" t="s">
         <v>351</v>
       </c>
       <c r="G47" s="3">
@@ -13000,7 +13000,7 @@
       <c r="E61" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F61" s="82" t="s">
+      <c r="F61" s="83" t="s">
         <v>344</v>
       </c>
       <c r="G61" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E1CB06-33DD-448E-B856-07E4A7811738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F241F-BDDD-4B6E-B840-F2996F4E4614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2109,10 +2109,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">ザキ </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>伊川 卓也 
 2024/9/19で解約</t>
     <rPh sb="17" eb="19">
@@ -2437,6 +2433,14 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザキ 
+済み</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2917,8 +2921,8 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4242,8 +4246,8 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4862,7 +4866,7 @@
         <v>128</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -6846,7 +6850,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G87" s="3">
         <v>44807</v>
@@ -6959,10 +6963,10 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6989,10 +6993,10 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7019,10 +7023,10 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>368</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7049,10 +7053,10 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>371</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7079,10 +7083,10 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7109,10 +7113,10 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>382</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7139,10 +7143,10 @@
     </row>
     <row r="97" spans="1:12" ht="36">
       <c r="A97" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>386</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7166,15 +7170,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7227,10 +7231,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="E27" sqref="E27"/>
+      <selection activeCell="E93" sqref="E93"/>
+      <selection pane="topRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7379,84 +7383,84 @@
         <v>255</v>
       </c>
       <c r="G2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
+        <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
         <v>44835</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
+        <f t="shared" ref="I2:I33" si="1">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+2,DAY($C2)))</f>
         <v>44866</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
+        <f t="shared" ref="K2:K33" si="2">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+3,DAY($C2)))</f>
         <v>44896</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
+        <f t="shared" ref="M2:M33" si="3">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+4,DAY($C2)))</f>
         <v>44927</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
+        <f t="shared" ref="O2:O33" si="4">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+5,DAY($C2)))</f>
         <v>44958</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
+        <f t="shared" ref="Q2:Q33" si="5">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+6,DAY($C2)))</f>
         <v>44986</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
+        <f t="shared" ref="S2:S33" si="6">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+7,DAY($C2)))</f>
         <v>45017</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
+        <f t="shared" ref="U2:U33" si="7">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+8,DAY($C2)))</f>
         <v>45047</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
+        <f t="shared" ref="W2:W33" si="8">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+9,DAY($C2)))</f>
         <v>45078</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
+        <f t="shared" ref="Y2:Y33" si="9">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+10,DAY($C2)))</f>
         <v>45108</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
+        <f t="shared" ref="AA2:AA33" si="10">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+11,DAY($C2)))</f>
         <v>45139</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC2" s="3">
-        <f>IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
+        <f t="shared" ref="AC2:AC39" si="11">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+12,DAY($C2)))</f>
         <v>45170</v>
       </c>
       <c r="AD2" s="1" t="s">
@@ -7486,62 +7490,62 @@
         <v>226</v>
       </c>
       <c r="G3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+1,DAY($C3)))</f>
+        <f t="shared" si="0"/>
         <v>44621</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+2,DAY($C3)))</f>
+        <f t="shared" si="1"/>
         <v>44652</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+3,DAY($C3)))</f>
+        <f t="shared" si="2"/>
         <v>44682</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+4,DAY($C3)))</f>
+        <f t="shared" si="3"/>
         <v>44713</v>
       </c>
       <c r="N3" s="1"/>
       <c r="O3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+5,DAY($C3)))</f>
+        <f t="shared" si="4"/>
         <v>44743</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+6,DAY($C3)))</f>
+        <f t="shared" si="5"/>
         <v>44774</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+7,DAY($C3)))</f>
+        <f t="shared" si="6"/>
         <v>44805</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+8,DAY($C3)))</f>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+9,DAY($C3)))</f>
+        <f t="shared" si="8"/>
         <v>44866</v>
       </c>
       <c r="X3" s="1"/>
       <c r="Y3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+10,DAY($C3)))</f>
+        <f t="shared" si="9"/>
         <v>44896</v>
       </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+11,DAY($C3)))</f>
+        <f t="shared" si="10"/>
         <v>44927</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="3">
-        <f>IF($C3="","",DATE(YEAR($C3),MONTH($C3)+12,DAY($C3)))</f>
+        <f t="shared" si="11"/>
         <v>44958</v>
       </c>
       <c r="AD3" s="14"/>
@@ -7568,79 +7572,79 @@
         <v>285</v>
       </c>
       <c r="G4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+1,DAY($C4)))</f>
+        <f t="shared" si="0"/>
         <v>44759</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+2,DAY($C4)))</f>
+        <f t="shared" si="1"/>
         <v>44790</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+3,DAY($C4)))</f>
+        <f t="shared" si="2"/>
         <v>44821</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+4,DAY($C4)))</f>
+        <f t="shared" si="3"/>
         <v>44851</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+5,DAY($C4)))</f>
+        <f t="shared" si="4"/>
         <v>44882</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+6,DAY($C4)))</f>
+        <f t="shared" si="5"/>
         <v>44912</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+7,DAY($C4)))</f>
+        <f t="shared" si="6"/>
         <v>44943</v>
       </c>
       <c r="T4" s="1"/>
       <c r="U4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+8,DAY($C4)))</f>
+        <f t="shared" si="7"/>
         <v>44974</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+9,DAY($C4)))</f>
+        <f t="shared" si="8"/>
         <v>45002</v>
       </c>
       <c r="X4" s="1"/>
       <c r="Y4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+10,DAY($C4)))</f>
+        <f t="shared" si="9"/>
         <v>45033</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+11,DAY($C4)))</f>
+        <f t="shared" si="10"/>
         <v>45063</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="3">
-        <f>IF($C4="","",DATE(YEAR($C4),MONTH($C4)+12,DAY($C4)))</f>
+        <f t="shared" si="11"/>
         <v>45094</v>
       </c>
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7658,74 +7662,74 @@
         <v>159</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+1,DAY($C5)))</f>
+        <f t="shared" si="0"/>
         <v>44896</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+2,DAY($C5)))</f>
+        <f t="shared" si="1"/>
         <v>44927</v>
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+3,DAY($C5)))</f>
+        <f t="shared" si="2"/>
         <v>44958</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+4,DAY($C5)))</f>
+        <f t="shared" si="3"/>
         <v>44986</v>
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+5,DAY($C5)))</f>
+        <f t="shared" si="4"/>
         <v>45017</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="12">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+6,DAY($C5)))</f>
+        <f t="shared" si="5"/>
         <v>45047</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+7,DAY($C5)))</f>
+        <f t="shared" si="6"/>
         <v>45078</v>
       </c>
       <c r="T5" s="10"/>
       <c r="U5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+8,DAY($C5)))</f>
+        <f t="shared" si="7"/>
         <v>45108</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+9,DAY($C5)))</f>
+        <f t="shared" si="8"/>
         <v>45139</v>
       </c>
       <c r="X5" s="10"/>
       <c r="Y5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+10,DAY($C5)))</f>
+        <f t="shared" si="9"/>
         <v>45170</v>
       </c>
       <c r="Z5" s="10"/>
       <c r="AA5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+11,DAY($C5)))</f>
+        <f t="shared" si="10"/>
         <v>45200</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="3">
-        <f>IF($C5="","",DATE(YEAR($C5),MONTH($C5)+12,DAY($C5)))</f>
+        <f t="shared" si="11"/>
         <v>45231</v>
       </c>
       <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B6" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7743,73 +7747,73 @@
         <v>294</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+1,DAY($C6)))</f>
+        <f t="shared" si="0"/>
         <v>44805</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+2,DAY($C6)))</f>
+        <f t="shared" si="1"/>
         <v>44835</v>
       </c>
       <c r="J6" s="58" t="s">
         <v>8</v>
       </c>
       <c r="K6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+3,DAY($C6)))</f>
+        <f t="shared" si="2"/>
         <v>44866</v>
       </c>
       <c r="L6" s="58" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+4,DAY($C6)))</f>
+        <f t="shared" si="3"/>
         <v>44896</v>
       </c>
       <c r="N6" s="58" t="s">
         <v>8</v>
       </c>
       <c r="O6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+5,DAY($C6)))</f>
+        <f t="shared" si="4"/>
         <v>44927</v>
       </c>
       <c r="P6" s="58"/>
       <c r="Q6" s="63">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+6,DAY($C6)))</f>
+        <f t="shared" si="5"/>
         <v>44958</v>
       </c>
       <c r="R6" s="58"/>
       <c r="S6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+7,DAY($C6)))</f>
+        <f t="shared" si="6"/>
         <v>44986</v>
       </c>
       <c r="T6" s="58"/>
       <c r="U6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+8,DAY($C6)))</f>
+        <f t="shared" si="7"/>
         <v>45017</v>
       </c>
       <c r="V6" s="58"/>
       <c r="W6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+9,DAY($C6)))</f>
+        <f t="shared" si="8"/>
         <v>45047</v>
       </c>
       <c r="X6" s="58"/>
       <c r="Y6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+10,DAY($C6)))</f>
+        <f t="shared" si="9"/>
         <v>45078</v>
       </c>
       <c r="Z6" s="36"/>
       <c r="AA6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+11,DAY($C6)))</f>
+        <f t="shared" si="10"/>
         <v>45108</v>
       </c>
       <c r="AB6" s="58"/>
       <c r="AC6" s="25">
-        <f>IF($C6="","",DATE(YEAR($C6),MONTH($C6)+12,DAY($C6)))</f>
+        <f t="shared" si="11"/>
         <v>45139</v>
       </c>
       <c r="AD6" s="58"/>
@@ -7836,84 +7840,84 @@
         <v>211</v>
       </c>
       <c r="G7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+1,DAY($C7)))</f>
+        <f t="shared" si="0"/>
         <v>44836</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+2,DAY($C7)))</f>
+        <f t="shared" si="1"/>
         <v>44867</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+3,DAY($C7)))</f>
+        <f t="shared" si="2"/>
         <v>44897</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+4,DAY($C7)))</f>
+        <f t="shared" si="3"/>
         <v>44928</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+5,DAY($C7)))</f>
+        <f t="shared" si="4"/>
         <v>44959</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+6,DAY($C7)))</f>
+        <f t="shared" si="5"/>
         <v>44987</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+7,DAY($C7)))</f>
+        <f t="shared" si="6"/>
         <v>45018</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+8,DAY($C7)))</f>
+        <f t="shared" si="7"/>
         <v>45048</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+9,DAY($C7)))</f>
+        <f t="shared" si="8"/>
         <v>45079</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+10,DAY($C7)))</f>
+        <f t="shared" si="9"/>
         <v>45109</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+11,DAY($C7)))</f>
+        <f t="shared" si="10"/>
         <v>45140</v>
       </c>
       <c r="AB7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC7" s="3">
-        <f>IF($C7="","",DATE(YEAR($C7),MONTH($C7)+12,DAY($C7)))</f>
+        <f t="shared" si="11"/>
         <v>45171</v>
       </c>
       <c r="AD7" s="14" t="s">
@@ -7943,78 +7947,78 @@
         <v>258</v>
       </c>
       <c r="G8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+1,DAY($C8)))</f>
+        <f t="shared" si="0"/>
         <v>44683</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+2,DAY($C8)))</f>
+        <f t="shared" si="1"/>
         <v>44714</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+3,DAY($C8)))</f>
+        <f t="shared" si="2"/>
         <v>44744</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+4,DAY($C8)))</f>
+        <f t="shared" si="3"/>
         <v>44775</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+5,DAY($C8)))</f>
+        <f t="shared" si="4"/>
         <v>44806</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+6,DAY($C8)))</f>
+        <f t="shared" si="5"/>
         <v>44836</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+7,DAY($C8)))</f>
+        <f t="shared" si="6"/>
         <v>44867</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+8,DAY($C8)))</f>
+        <f t="shared" si="7"/>
         <v>44897</v>
       </c>
       <c r="V8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+9,DAY($C8)))</f>
+        <f t="shared" si="8"/>
         <v>44928</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+10,DAY($C8)))</f>
+        <f t="shared" si="9"/>
         <v>44959</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+11,DAY($C8)))</f>
+        <f t="shared" si="10"/>
         <v>44987</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="3">
-        <f>IF($C8="","",DATE(YEAR($C8),MONTH($C8)+12,DAY($C8)))</f>
+        <f t="shared" si="11"/>
         <v>45018</v>
       </c>
       <c r="AD8" s="1"/>
@@ -8031,7 +8035,7 @@
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[定額PayPal決済日]],7,FALSE),"")</f>
         <v>44807</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="26">
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>3</v>
       </c>
@@ -8042,64 +8046,64 @@
         <v>336</v>
       </c>
       <c r="G9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+1,DAY($C9)))</f>
+        <f t="shared" si="0"/>
         <v>44837</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+2,DAY($C9)))</f>
+        <f t="shared" si="1"/>
         <v>44868</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+3,DAY($C9)))</f>
+        <f t="shared" si="2"/>
         <v>44898</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+4,DAY($C9)))</f>
+        <f t="shared" si="3"/>
         <v>44929</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+5,DAY($C9)))</f>
+        <f t="shared" si="4"/>
         <v>44960</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+6,DAY($C9)))</f>
+        <f t="shared" si="5"/>
         <v>44988</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+7,DAY($C9)))</f>
+        <f t="shared" si="6"/>
         <v>45019</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+8,DAY($C9)))</f>
+        <f t="shared" si="7"/>
         <v>45049</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+9,DAY($C9)))</f>
+        <f t="shared" si="8"/>
         <v>45080</v>
       </c>
       <c r="X9" s="1"/>
       <c r="Y9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+10,DAY($C9)))</f>
+        <f t="shared" si="9"/>
         <v>45110</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+11,DAY($C9)))</f>
+        <f t="shared" si="10"/>
         <v>45141</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="3">
-        <f>IF($C9="","",DATE(YEAR($C9),MONTH($C9)+12,DAY($C9)))</f>
+        <f t="shared" si="11"/>
         <v>45172</v>
       </c>
       <c r="AD9" s="1"/>
@@ -8126,84 +8130,84 @@
         <v>173</v>
       </c>
       <c r="G10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+1,DAY($C10)))</f>
+        <f t="shared" si="0"/>
         <v>44899</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+2,DAY($C10)))</f>
+        <f t="shared" si="1"/>
         <v>44930</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+3,DAY($C10)))</f>
+        <f t="shared" si="2"/>
         <v>44961</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+4,DAY($C10)))</f>
+        <f t="shared" si="3"/>
         <v>44989</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+5,DAY($C10)))</f>
+        <f t="shared" si="4"/>
         <v>45020</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="12">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+6,DAY($C10)))</f>
+        <f t="shared" si="5"/>
         <v>45050</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+7,DAY($C10)))</f>
+        <f t="shared" si="6"/>
         <v>45081</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="U10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+8,DAY($C10)))</f>
+        <f t="shared" si="7"/>
         <v>45111</v>
       </c>
       <c r="V10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+9,DAY($C10)))</f>
+        <f t="shared" si="8"/>
         <v>45142</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="Y10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+10,DAY($C10)))</f>
+        <f t="shared" si="9"/>
         <v>45173</v>
       </c>
       <c r="Z10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AA10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+11,DAY($C10)))</f>
+        <f t="shared" si="10"/>
         <v>45203</v>
       </c>
       <c r="AB10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AC10" s="3">
-        <f>IF($C10="","",DATE(YEAR($C10),MONTH($C10)+12,DAY($C10)))</f>
+        <f t="shared" si="11"/>
         <v>45234</v>
       </c>
       <c r="AD10" s="18" t="s">
@@ -8233,62 +8237,62 @@
         <v>237</v>
       </c>
       <c r="G11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+1,DAY($C11)))</f>
+        <f t="shared" si="0"/>
         <v>44534</v>
       </c>
       <c r="H11" s="49"/>
       <c r="I11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+2,DAY($C11)))</f>
+        <f t="shared" si="1"/>
         <v>44565</v>
       </c>
       <c r="J11" s="60"/>
       <c r="K11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+3,DAY($C11)))</f>
+        <f t="shared" si="2"/>
         <v>44596</v>
       </c>
       <c r="L11" s="49"/>
       <c r="M11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+4,DAY($C11)))</f>
+        <f t="shared" si="3"/>
         <v>44624</v>
       </c>
       <c r="N11" s="49"/>
       <c r="O11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+5,DAY($C11)))</f>
+        <f t="shared" si="4"/>
         <v>44655</v>
       </c>
       <c r="P11" s="49"/>
       <c r="Q11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+6,DAY($C11)))</f>
+        <f t="shared" si="5"/>
         <v>44685</v>
       </c>
       <c r="R11" s="49"/>
       <c r="S11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+7,DAY($C11)))</f>
+        <f t="shared" si="6"/>
         <v>44716</v>
       </c>
       <c r="T11" s="49"/>
       <c r="U11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+8,DAY($C11)))</f>
+        <f t="shared" si="7"/>
         <v>44746</v>
       </c>
       <c r="V11" s="49"/>
       <c r="W11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+9,DAY($C11)))</f>
+        <f t="shared" si="8"/>
         <v>44777</v>
       </c>
       <c r="X11" s="49"/>
       <c r="Y11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+10,DAY($C11)))</f>
+        <f t="shared" si="9"/>
         <v>44808</v>
       </c>
       <c r="Z11" s="49"/>
       <c r="AA11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+11,DAY($C11)))</f>
+        <f t="shared" si="10"/>
         <v>44838</v>
       </c>
       <c r="AB11" s="49"/>
       <c r="AC11" s="48">
-        <f>IF($C11="","",DATE(YEAR($C11),MONTH($C11)+12,DAY($C11)))</f>
+        <f t="shared" si="11"/>
         <v>44869</v>
       </c>
       <c r="AD11" s="66"/>
@@ -8314,84 +8318,84 @@
         <v>188</v>
       </c>
       <c r="G12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+1,DAY($C12)))</f>
+        <f t="shared" si="0"/>
         <v>44565</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+2,DAY($C12)))</f>
+        <f t="shared" si="1"/>
         <v>44596</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+3,DAY($C12)))</f>
+        <f t="shared" si="2"/>
         <v>44624</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+4,DAY($C12)))</f>
+        <f t="shared" si="3"/>
         <v>44655</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+5,DAY($C12)))</f>
+        <f t="shared" si="4"/>
         <v>44685</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+6,DAY($C12)))</f>
+        <f t="shared" si="5"/>
         <v>44716</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+7,DAY($C12)))</f>
+        <f t="shared" si="6"/>
         <v>44746</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+8,DAY($C12)))</f>
+        <f t="shared" si="7"/>
         <v>44777</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+9,DAY($C12)))</f>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+10,DAY($C12)))</f>
+        <f t="shared" si="9"/>
         <v>44838</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+11,DAY($C12)))</f>
+        <f t="shared" si="10"/>
         <v>44869</v>
       </c>
       <c r="AB12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC12" s="3">
-        <f>IF($C12="","",DATE(YEAR($C12),MONTH($C12)+12,DAY($C12)))</f>
+        <f t="shared" si="11"/>
         <v>44899</v>
       </c>
       <c r="AD12" s="1" t="s">
@@ -8421,74 +8425,74 @@
         <v>274</v>
       </c>
       <c r="G13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+1,DAY($C13)))</f>
+        <f t="shared" si="0"/>
         <v>44746</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+2,DAY($C13)))</f>
+        <f t="shared" si="1"/>
         <v>44777</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+3,DAY($C13)))</f>
+        <f t="shared" si="2"/>
         <v>44808</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+4,DAY($C13)))</f>
+        <f t="shared" si="3"/>
         <v>44838</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+5,DAY($C13)))</f>
+        <f t="shared" si="4"/>
         <v>44869</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+6,DAY($C13)))</f>
+        <f t="shared" si="5"/>
         <v>44899</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+7,DAY($C13)))</f>
+        <f t="shared" si="6"/>
         <v>44930</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+8,DAY($C13)))</f>
+        <f t="shared" si="7"/>
         <v>44961</v>
       </c>
       <c r="V13" s="1"/>
       <c r="W13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+9,DAY($C13)))</f>
+        <f t="shared" si="8"/>
         <v>44989</v>
       </c>
       <c r="X13" s="1"/>
       <c r="Y13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+10,DAY($C13)))</f>
+        <f t="shared" si="9"/>
         <v>45020</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+11,DAY($C13)))</f>
+        <f t="shared" si="10"/>
         <v>45050</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="3">
-        <f>IF($C13="","",DATE(YEAR($C13),MONTH($C13)+12,DAY($C13)))</f>
+        <f t="shared" si="11"/>
         <v>45081</v>
       </c>
       <c r="AD13" s="14"/>
@@ -8512,88 +8516,88 @@
       <c r="E14" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="83" t="s">
+      <c r="F14" s="51" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+1,DAY($C14)))</f>
+        <f t="shared" si="0"/>
         <v>44506</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+2,DAY($C14)))</f>
+        <f t="shared" si="1"/>
         <v>44536</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+3,DAY($C14)))</f>
+        <f t="shared" si="2"/>
         <v>44567</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+4,DAY($C14)))</f>
+        <f t="shared" si="3"/>
         <v>44598</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+5,DAY($C14)))</f>
+        <f t="shared" si="4"/>
         <v>44626</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+6,DAY($C14)))</f>
+        <f t="shared" si="5"/>
         <v>44657</v>
       </c>
       <c r="R14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+7,DAY($C14)))</f>
+        <f t="shared" si="6"/>
         <v>44687</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+8,DAY($C14)))</f>
+        <f t="shared" si="7"/>
         <v>44718</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+9,DAY($C14)))</f>
+        <f t="shared" si="8"/>
         <v>44748</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+10,DAY($C14)))</f>
+        <f t="shared" si="9"/>
         <v>44779</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+11,DAY($C14)))</f>
+        <f t="shared" si="10"/>
         <v>44810</v>
       </c>
       <c r="AB14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC14" s="3">
-        <f>IF($C14="","",DATE(YEAR($C14),MONTH($C14)+12,DAY($C14)))</f>
+        <f t="shared" si="11"/>
         <v>44840</v>
       </c>
       <c r="AD14" s="14" t="s">
@@ -8623,82 +8627,82 @@
         <v>230</v>
       </c>
       <c r="G15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+1,DAY($C15)))</f>
+        <f t="shared" si="0"/>
         <v>44626</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+2,DAY($C15)))</f>
+        <f t="shared" si="1"/>
         <v>44657</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+3,DAY($C15)))</f>
+        <f t="shared" si="2"/>
         <v>44687</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+4,DAY($C15)))</f>
+        <f t="shared" si="3"/>
         <v>44718</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+5,DAY($C15)))</f>
+        <f t="shared" si="4"/>
         <v>44748</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+6,DAY($C15)))</f>
+        <f t="shared" si="5"/>
         <v>44779</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+7,DAY($C15)))</f>
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+8,DAY($C15)))</f>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+9,DAY($C15)))</f>
+        <f t="shared" si="8"/>
         <v>44871</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+10,DAY($C15)))</f>
+        <f t="shared" si="9"/>
         <v>44901</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+11,DAY($C15)))</f>
+        <f t="shared" si="10"/>
         <v>44932</v>
       </c>
       <c r="AB15" s="1"/>
       <c r="AC15" s="3">
-        <f>IF($C15="","",DATE(YEAR($C15),MONTH($C15)+12,DAY($C15)))</f>
+        <f t="shared" si="11"/>
         <v>44963</v>
       </c>
       <c r="AD15" s="14"/>
@@ -8726,62 +8730,62 @@
         <v>305</v>
       </c>
       <c r="G16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+1,DAY($C16)))</f>
+        <f t="shared" si="0"/>
         <v>44779</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+2,DAY($C16)))</f>
+        <f t="shared" si="1"/>
         <v>44810</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+3,DAY($C16)))</f>
+        <f t="shared" si="2"/>
         <v>44840</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+4,DAY($C16)))</f>
+        <f t="shared" si="3"/>
         <v>44871</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+5,DAY($C16)))</f>
+        <f t="shared" si="4"/>
         <v>44901</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+6,DAY($C16)))</f>
+        <f t="shared" si="5"/>
         <v>44932</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+7,DAY($C16)))</f>
+        <f t="shared" si="6"/>
         <v>44963</v>
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+8,DAY($C16)))</f>
+        <f t="shared" si="7"/>
         <v>44991</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+9,DAY($C16)))</f>
+        <f t="shared" si="8"/>
         <v>45022</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+10,DAY($C16)))</f>
+        <f t="shared" si="9"/>
         <v>45052</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+11,DAY($C16)))</f>
+        <f t="shared" si="10"/>
         <v>45083</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="3">
-        <f>IF($C16="","",DATE(YEAR($C16),MONTH($C16)+12,DAY($C16)))</f>
+        <f t="shared" si="11"/>
         <v>45113</v>
       </c>
       <c r="AD16" s="14"/>
@@ -8809,74 +8813,74 @@
         <v>165</v>
       </c>
       <c r="G17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+1,DAY($C17)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+2,DAY($C17)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+3,DAY($C17)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+4,DAY($C17)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+5,DAY($C17)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+6,DAY($C17)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+7,DAY($C17)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T17" s="36"/>
       <c r="U17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+8,DAY($C17)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V17" s="36"/>
       <c r="W17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+9,DAY($C17)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X17" s="36"/>
       <c r="Y17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+10,DAY($C17)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z17" s="36"/>
       <c r="AA17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+11,DAY($C17)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB17" s="36"/>
       <c r="AC17" s="25">
-        <f>IF($C17="","",DATE(YEAR($C17),MONTH($C17)+12,DAY($C17)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD17" s="71"/>
@@ -8904,62 +8908,62 @@
         <v>48</v>
       </c>
       <c r="G18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+1,DAY($C18)))</f>
+        <f t="shared" si="0"/>
         <v>44293</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+2,DAY($C18)))</f>
+        <f t="shared" si="1"/>
         <v>44323</v>
       </c>
       <c r="J18" s="36"/>
       <c r="K18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+3,DAY($C18)))</f>
+        <f t="shared" si="2"/>
         <v>44354</v>
       </c>
       <c r="L18" s="36"/>
       <c r="M18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+4,DAY($C18)))</f>
+        <f t="shared" si="3"/>
         <v>44384</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+5,DAY($C18)))</f>
+        <f t="shared" si="4"/>
         <v>44415</v>
       </c>
       <c r="P18" s="36"/>
       <c r="Q18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+6,DAY($C18)))</f>
+        <f t="shared" si="5"/>
         <v>44446</v>
       </c>
       <c r="R18" s="36"/>
       <c r="S18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+7,DAY($C18)))</f>
+        <f t="shared" si="6"/>
         <v>44476</v>
       </c>
       <c r="T18" s="36"/>
       <c r="U18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+8,DAY($C18)))</f>
+        <f t="shared" si="7"/>
         <v>44507</v>
       </c>
       <c r="V18" s="36"/>
       <c r="W18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+9,DAY($C18)))</f>
+        <f t="shared" si="8"/>
         <v>44537</v>
       </c>
       <c r="X18" s="36"/>
       <c r="Y18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+10,DAY($C18)))</f>
+        <f t="shared" si="9"/>
         <v>44568</v>
       </c>
       <c r="Z18" s="36"/>
       <c r="AA18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+11,DAY($C18)))</f>
+        <f t="shared" si="10"/>
         <v>44599</v>
       </c>
       <c r="AB18" s="36"/>
       <c r="AC18" s="25">
-        <f>IF($C18="","",DATE(YEAR($C18),MONTH($C18)+12,DAY($C18)))</f>
+        <f t="shared" si="11"/>
         <v>44627</v>
       </c>
       <c r="AD18" s="36"/>
@@ -8987,84 +8991,84 @@
         <v>340</v>
       </c>
       <c r="G19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+1,DAY($C19)))</f>
+        <f t="shared" si="0"/>
         <v>44477</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+2,DAY($C19)))</f>
+        <f t="shared" si="1"/>
         <v>44508</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+3,DAY($C19)))</f>
+        <f t="shared" si="2"/>
         <v>44538</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+4,DAY($C19)))</f>
+        <f t="shared" si="3"/>
         <v>44569</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+5,DAY($C19)))</f>
+        <f t="shared" si="4"/>
         <v>44600</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+6,DAY($C19)))</f>
+        <f t="shared" si="5"/>
         <v>44628</v>
       </c>
       <c r="R19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+7,DAY($C19)))</f>
+        <f t="shared" si="6"/>
         <v>44659</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+8,DAY($C19)))</f>
+        <f t="shared" si="7"/>
         <v>44689</v>
       </c>
       <c r="V19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+9,DAY($C19)))</f>
+        <f t="shared" si="8"/>
         <v>44720</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+10,DAY($C19)))</f>
+        <f t="shared" si="9"/>
         <v>44750</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+11,DAY($C19)))</f>
+        <f t="shared" si="10"/>
         <v>44781</v>
       </c>
       <c r="AB19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC19" s="3">
-        <f>IF($C19="","",DATE(YEAR($C19),MONTH($C19)+12,DAY($C19)))</f>
+        <f t="shared" si="11"/>
         <v>44812</v>
       </c>
       <c r="AD19" s="1"/>
@@ -9091,84 +9095,84 @@
         <v>192</v>
       </c>
       <c r="G20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+1,DAY($C20)))</f>
+        <f t="shared" si="0"/>
         <v>44568</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+2,DAY($C20)))</f>
+        <f t="shared" si="1"/>
         <v>44599</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+3,DAY($C20)))</f>
+        <f t="shared" si="2"/>
         <v>44627</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+4,DAY($C20)))</f>
+        <f t="shared" si="3"/>
         <v>44658</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+5,DAY($C20)))</f>
+        <f t="shared" si="4"/>
         <v>44688</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+6,DAY($C20)))</f>
+        <f t="shared" si="5"/>
         <v>44719</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+7,DAY($C20)))</f>
+        <f t="shared" si="6"/>
         <v>44749</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+8,DAY($C20)))</f>
+        <f t="shared" si="7"/>
         <v>44780</v>
       </c>
       <c r="V20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+9,DAY($C20)))</f>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+10,DAY($C20)))</f>
+        <f t="shared" si="9"/>
         <v>44841</v>
       </c>
       <c r="Z20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+11,DAY($C20)))</f>
+        <f t="shared" si="10"/>
         <v>44872</v>
       </c>
       <c r="AB20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC20" s="3">
-        <f>IF($C20="","",DATE(YEAR($C20),MONTH($C20)+12,DAY($C20)))</f>
+        <f t="shared" si="11"/>
         <v>44902</v>
       </c>
       <c r="AD20" s="1" t="s">
@@ -9194,83 +9198,83 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+1,DAY($C21)))</f>
+        <f t="shared" si="0"/>
         <v>44676</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+2,DAY($C21)))</f>
+        <f t="shared" si="1"/>
         <v>44706</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+3,DAY($C21)))</f>
+        <f t="shared" si="2"/>
         <v>44737</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+4,DAY($C21)))</f>
+        <f t="shared" si="3"/>
         <v>44767</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+5,DAY($C21)))</f>
+        <f t="shared" si="4"/>
         <v>44798</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+6,DAY($C21)))</f>
+        <f t="shared" si="5"/>
         <v>44829</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+7,DAY($C21)))</f>
+        <f t="shared" si="6"/>
         <v>44859</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+8,DAY($C21)))</f>
+        <f t="shared" si="7"/>
         <v>44890</v>
       </c>
       <c r="V21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+9,DAY($C21)))</f>
+        <f t="shared" si="8"/>
         <v>44920</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+10,DAY($C21)))</f>
+        <f t="shared" si="9"/>
         <v>44951</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+11,DAY($C21)))</f>
+        <f t="shared" si="10"/>
         <v>44982</v>
       </c>
       <c r="AB21" s="1"/>
       <c r="AC21" s="3">
-        <f>IF($C21="","",DATE(YEAR($C21),MONTH($C21)+12,DAY($C21)))</f>
+        <f t="shared" si="11"/>
         <v>45010</v>
       </c>
       <c r="AD21" s="1"/>
@@ -9296,79 +9300,79 @@
         <v>78</v>
       </c>
       <c r="G22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+1,DAY($C22)))</f>
+        <f t="shared" si="0"/>
         <v>44781</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+2,DAY($C22)))</f>
+        <f t="shared" si="1"/>
         <v>44812</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+3,DAY($C22)))</f>
+        <f t="shared" si="2"/>
         <v>44842</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+4,DAY($C22)))</f>
+        <f t="shared" si="3"/>
         <v>44873</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+5,DAY($C22)))</f>
+        <f t="shared" si="4"/>
         <v>44903</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+6,DAY($C22)))</f>
+        <f t="shared" si="5"/>
         <v>44934</v>
       </c>
       <c r="R22" s="1"/>
       <c r="S22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+7,DAY($C22)))</f>
+        <f t="shared" si="6"/>
         <v>44965</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+8,DAY($C22)))</f>
+        <f t="shared" si="7"/>
         <v>44993</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+9,DAY($C22)))</f>
+        <f t="shared" si="8"/>
         <v>45024</v>
       </c>
       <c r="X22" s="1"/>
       <c r="Y22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+10,DAY($C22)))</f>
+        <f t="shared" si="9"/>
         <v>45054</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+11,DAY($C22)))</f>
+        <f t="shared" si="10"/>
         <v>45085</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AC22" s="3">
-        <f>IF($C22="","",DATE(YEAR($C22),MONTH($C22)+12,DAY($C22)))</f>
+        <f t="shared" si="11"/>
         <v>45115</v>
       </c>
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9386,65 +9390,65 @@
         <v>159</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+1,DAY($C23)))</f>
+        <f t="shared" si="0"/>
         <v>45086</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+2,DAY($C23)))</f>
+        <f t="shared" si="1"/>
         <v>45116</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+3,DAY($C23)))</f>
+        <f t="shared" si="2"/>
         <v>45147</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+4,DAY($C23)))</f>
+        <f t="shared" si="3"/>
         <v>45178</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+5,DAY($C23)))</f>
+        <f t="shared" si="4"/>
         <v>45208</v>
       </c>
       <c r="P23" s="1"/>
       <c r="Q23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+6,DAY($C23)))</f>
+        <f t="shared" si="5"/>
         <v>45239</v>
       </c>
       <c r="R23" s="1"/>
       <c r="S23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+7,DAY($C23)))</f>
+        <f t="shared" si="6"/>
         <v>45269</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+8,DAY($C23)))</f>
+        <f t="shared" si="7"/>
         <v>45300</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+9,DAY($C23)))</f>
+        <f t="shared" si="8"/>
         <v>45331</v>
       </c>
       <c r="X23" s="1"/>
       <c r="Y23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+10,DAY($C23)))</f>
+        <f t="shared" si="9"/>
         <v>45360</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+11,DAY($C23)))</f>
+        <f t="shared" si="10"/>
         <v>45391</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AC23" s="3">
-        <f>IF($C23="","",DATE(YEAR($C23),MONTH($C23)+12,DAY($C23)))</f>
+        <f t="shared" si="11"/>
         <v>45421</v>
       </c>
       <c r="AD23" s="14"/>
@@ -9471,91 +9475,91 @@
         <v>206</v>
       </c>
       <c r="G24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+1,DAY($C24)))</f>
+        <f t="shared" si="0"/>
         <v>44607</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+2,DAY($C24)))</f>
+        <f t="shared" si="1"/>
         <v>44635</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+3,DAY($C24)))</f>
+        <f t="shared" si="2"/>
         <v>44666</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+4,DAY($C24)))</f>
+        <f t="shared" si="3"/>
         <v>44696</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+5,DAY($C24)))</f>
+        <f t="shared" si="4"/>
         <v>44727</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+6,DAY($C24)))</f>
+        <f t="shared" si="5"/>
         <v>44757</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+7,DAY($C24)))</f>
+        <f t="shared" si="6"/>
         <v>44788</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+8,DAY($C24)))</f>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="V24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+9,DAY($C24)))</f>
+        <f t="shared" si="8"/>
         <v>44849</v>
       </c>
       <c r="X24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+10,DAY($C24)))</f>
+        <f t="shared" si="9"/>
         <v>44880</v>
       </c>
       <c r="Z24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+11,DAY($C24)))</f>
+        <f t="shared" si="10"/>
         <v>44910</v>
       </c>
       <c r="AB24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC24" s="3">
-        <f>IF($C24="","",DATE(YEAR($C24),MONTH($C24)+12,DAY($C24)))</f>
+        <f t="shared" si="11"/>
         <v>44941</v>
       </c>
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9573,73 +9577,73 @@
         <v>159</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+1,DAY($C25)))</f>
+        <f t="shared" si="0"/>
         <v>45056</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+2,DAY($C25)))</f>
+        <f t="shared" si="1"/>
         <v>45087</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+3,DAY($C25)))</f>
+        <f t="shared" si="2"/>
         <v>45117</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+4,DAY($C25)))</f>
+        <f t="shared" si="3"/>
         <v>45148</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+5,DAY($C25)))</f>
+        <f t="shared" si="4"/>
         <v>45179</v>
       </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+6,DAY($C25)))</f>
+        <f t="shared" si="5"/>
         <v>45209</v>
       </c>
       <c r="R25" s="1"/>
       <c r="S25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+7,DAY($C25)))</f>
+        <f t="shared" si="6"/>
         <v>45240</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+8,DAY($C25)))</f>
+        <f t="shared" si="7"/>
         <v>45270</v>
       </c>
       <c r="V25" s="1"/>
       <c r="W25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+9,DAY($C25)))</f>
+        <f t="shared" si="8"/>
         <v>45301</v>
       </c>
       <c r="X25" s="1"/>
       <c r="Y25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+10,DAY($C25)))</f>
+        <f t="shared" si="9"/>
         <v>45332</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+11,DAY($C25)))</f>
+        <f t="shared" si="10"/>
         <v>45361</v>
       </c>
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
-        <f>IF($C25="","",DATE(YEAR($C25),MONTH($C25)+12,DAY($C25)))</f>
+        <f t="shared" si="11"/>
         <v>45392</v>
       </c>
       <c r="AD25" s="14"/>
@@ -9666,72 +9670,72 @@
         <v>70</v>
       </c>
       <c r="G26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+1,DAY($C26)))</f>
+        <f t="shared" si="0"/>
         <v>44753</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+2,DAY($C26)))</f>
+        <f t="shared" si="1"/>
         <v>44784</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+3,DAY($C26)))</f>
+        <f t="shared" si="2"/>
         <v>44815</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+4,DAY($C26)))</f>
+        <f t="shared" si="3"/>
         <v>44845</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+5,DAY($C26)))</f>
+        <f t="shared" si="4"/>
         <v>44876</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+6,DAY($C26)))</f>
+        <f t="shared" si="5"/>
         <v>44906</v>
       </c>
       <c r="R26" s="1"/>
       <c r="S26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+7,DAY($C26)))</f>
+        <f t="shared" si="6"/>
         <v>44937</v>
       </c>
       <c r="T26" s="1"/>
       <c r="U26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+8,DAY($C26)))</f>
+        <f t="shared" si="7"/>
         <v>44968</v>
       </c>
       <c r="V26" s="1"/>
       <c r="W26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+9,DAY($C26)))</f>
+        <f t="shared" si="8"/>
         <v>44996</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+10,DAY($C26)))</f>
+        <f t="shared" si="9"/>
         <v>45027</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+11,DAY($C26)))</f>
+        <f t="shared" si="10"/>
         <v>45057</v>
       </c>
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
-        <f>IF($C26="","",DATE(YEAR($C26),MONTH($C26)+12,DAY($C26)))</f>
+        <f t="shared" si="11"/>
         <v>45088</v>
       </c>
       <c r="AD26" s="14"/>
@@ -9758,70 +9762,70 @@
         <v>81</v>
       </c>
       <c r="G27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+1,DAY($C27)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+2,DAY($C27)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+3,DAY($C27)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+4,DAY($C27)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+5,DAY($C27)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+6,DAY($C27)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R27" s="1"/>
       <c r="S27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+7,DAY($C27)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T27" s="1"/>
       <c r="U27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+8,DAY($C27)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+9,DAY($C27)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+10,DAY($C27)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+11,DAY($C27)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
-        <f>IF($C27="","",DATE(YEAR($C27),MONTH($C27)+12,DAY($C27)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD27" s="14"/>
@@ -9848,72 +9852,72 @@
         <v>84</v>
       </c>
       <c r="G28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+1,DAY($C28)))</f>
+        <f t="shared" si="0"/>
         <v>44784</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+2,DAY($C28)))</f>
+        <f t="shared" si="1"/>
         <v>44815</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+3,DAY($C28)))</f>
+        <f t="shared" si="2"/>
         <v>44845</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+4,DAY($C28)))</f>
+        <f t="shared" si="3"/>
         <v>44876</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+5,DAY($C28)))</f>
+        <f t="shared" si="4"/>
         <v>44906</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+6,DAY($C28)))</f>
+        <f t="shared" si="5"/>
         <v>44937</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+7,DAY($C28)))</f>
+        <f t="shared" si="6"/>
         <v>44968</v>
       </c>
       <c r="T28" s="1"/>
       <c r="U28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+8,DAY($C28)))</f>
+        <f t="shared" si="7"/>
         <v>44996</v>
       </c>
       <c r="V28" s="1"/>
       <c r="W28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+9,DAY($C28)))</f>
+        <f t="shared" si="8"/>
         <v>45027</v>
       </c>
       <c r="X28" s="1"/>
       <c r="Y28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+10,DAY($C28)))</f>
+        <f t="shared" si="9"/>
         <v>45057</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+11,DAY($C28)))</f>
+        <f t="shared" si="10"/>
         <v>45088</v>
       </c>
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
-        <f>IF($C28="","",DATE(YEAR($C28),MONTH($C28)+12,DAY($C28)))</f>
+        <f t="shared" si="11"/>
         <v>45118</v>
       </c>
       <c r="AD28" s="1"/>
@@ -9941,84 +9945,84 @@
         <v>97</v>
       </c>
       <c r="G29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+1,DAY($C29)))</f>
+        <f t="shared" si="0"/>
         <v>44603</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+2,DAY($C29)))</f>
+        <f t="shared" si="1"/>
         <v>44631</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+3,DAY($C29)))</f>
+        <f t="shared" si="2"/>
         <v>44662</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+4,DAY($C29)))</f>
+        <f t="shared" si="3"/>
         <v>44692</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+5,DAY($C29)))</f>
+        <f t="shared" si="4"/>
         <v>44723</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+6,DAY($C29)))</f>
+        <f t="shared" si="5"/>
         <v>44753</v>
       </c>
       <c r="R29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+7,DAY($C29)))</f>
+        <f t="shared" si="6"/>
         <v>44784</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+8,DAY($C29)))</f>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="V29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+9,DAY($C29)))</f>
+        <f t="shared" si="8"/>
         <v>44845</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+10,DAY($C29)))</f>
+        <f t="shared" si="9"/>
         <v>44876</v>
       </c>
       <c r="Z29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+11,DAY($C29)))</f>
+        <f t="shared" si="10"/>
         <v>44906</v>
       </c>
       <c r="AB29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC29" s="3">
-        <f>IF($C29="","",DATE(YEAR($C29),MONTH($C29)+12,DAY($C29)))</f>
+        <f t="shared" si="11"/>
         <v>44937</v>
       </c>
       <c r="AD29" s="1"/>
@@ -10046,80 +10050,80 @@
         <v>244</v>
       </c>
       <c r="G30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+1,DAY($C30)))</f>
+        <f t="shared" si="0"/>
         <v>44662</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+2,DAY($C30)))</f>
+        <f t="shared" si="1"/>
         <v>44692</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+3,DAY($C30)))</f>
+        <f t="shared" si="2"/>
         <v>44723</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+4,DAY($C30)))</f>
+        <f t="shared" si="3"/>
         <v>44753</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+5,DAY($C30)))</f>
+        <f t="shared" si="4"/>
         <v>44784</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+6,DAY($C30)))</f>
+        <f t="shared" si="5"/>
         <v>44815</v>
       </c>
       <c r="R30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+7,DAY($C30)))</f>
+        <f t="shared" si="6"/>
         <v>44845</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+8,DAY($C30)))</f>
+        <f t="shared" si="7"/>
         <v>44876</v>
       </c>
       <c r="V30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+9,DAY($C30)))</f>
+        <f t="shared" si="8"/>
         <v>44906</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+10,DAY($C30)))</f>
+        <f t="shared" si="9"/>
         <v>44937</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+11,DAY($C30)))</f>
+        <f t="shared" si="10"/>
         <v>44968</v>
       </c>
       <c r="AB30" s="1"/>
       <c r="AC30" s="3">
-        <f>IF($C30="","",DATE(YEAR($C30),MONTH($C30)+12,DAY($C30)))</f>
+        <f t="shared" si="11"/>
         <v>44996</v>
       </c>
       <c r="AD30" s="1"/>
@@ -10146,70 +10150,70 @@
         <v>129</v>
       </c>
       <c r="G31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+1,DAY($C31)))</f>
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+2,DAY($C31)))</f>
+        <f t="shared" si="1"/>
         <v>44846</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+3,DAY($C31)))</f>
+        <f t="shared" si="2"/>
         <v>44877</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+4,DAY($C31)))</f>
+        <f t="shared" si="3"/>
         <v>44907</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+5,DAY($C31)))</f>
+        <f t="shared" si="4"/>
         <v>44938</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+6,DAY($C31)))</f>
+        <f t="shared" si="5"/>
         <v>44969</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+7,DAY($C31)))</f>
+        <f t="shared" si="6"/>
         <v>44997</v>
       </c>
       <c r="T31" s="1"/>
       <c r="U31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+8,DAY($C31)))</f>
+        <f t="shared" si="7"/>
         <v>45028</v>
       </c>
       <c r="V31" s="1"/>
       <c r="W31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+9,DAY($C31)))</f>
+        <f t="shared" si="8"/>
         <v>45058</v>
       </c>
       <c r="X31" s="1"/>
       <c r="Y31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+10,DAY($C31)))</f>
+        <f t="shared" si="9"/>
         <v>45089</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+11,DAY($C31)))</f>
+        <f t="shared" si="10"/>
         <v>45119</v>
       </c>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3">
-        <f>IF($C31="","",DATE(YEAR($C31),MONTH($C31)+12,DAY($C31)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD31" s="14"/>
@@ -10237,84 +10241,84 @@
         <v>212</v>
       </c>
       <c r="G32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+1,DAY($C32)))</f>
+        <f t="shared" si="0"/>
         <v>44512</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+2,DAY($C32)))</f>
+        <f t="shared" si="1"/>
         <v>44542</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+3,DAY($C32)))</f>
+        <f t="shared" si="2"/>
         <v>44573</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+4,DAY($C32)))</f>
+        <f t="shared" si="3"/>
         <v>44604</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+5,DAY($C32)))</f>
+        <f t="shared" si="4"/>
         <v>44632</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+6,DAY($C32)))</f>
+        <f t="shared" si="5"/>
         <v>44663</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+7,DAY($C32)))</f>
+        <f t="shared" si="6"/>
         <v>44693</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+8,DAY($C32)))</f>
+        <f t="shared" si="7"/>
         <v>44724</v>
       </c>
       <c r="V32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+9,DAY($C32)))</f>
+        <f t="shared" si="8"/>
         <v>44754</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+10,DAY($C32)))</f>
+        <f t="shared" si="9"/>
         <v>44785</v>
       </c>
       <c r="Z32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+11,DAY($C32)))</f>
+        <f t="shared" si="10"/>
         <v>44816</v>
       </c>
       <c r="AB32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC32" s="3">
-        <f>IF($C32="","",DATE(YEAR($C32),MONTH($C32)+12,DAY($C32)))</f>
+        <f t="shared" si="11"/>
         <v>44846</v>
       </c>
       <c r="AD32" s="14" t="s">
@@ -10344,70 +10348,70 @@
         <v>324</v>
       </c>
       <c r="G33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+1,DAY($C33)))</f>
+        <f t="shared" si="0"/>
         <v>44816</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+2,DAY($C33)))</f>
+        <f t="shared" si="1"/>
         <v>44846</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+3,DAY($C33)))</f>
+        <f t="shared" si="2"/>
         <v>44877</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+4,DAY($C33)))</f>
+        <f t="shared" si="3"/>
         <v>44907</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+5,DAY($C33)))</f>
+        <f t="shared" si="4"/>
         <v>44938</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+6,DAY($C33)))</f>
+        <f t="shared" si="5"/>
         <v>44969</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+7,DAY($C33)))</f>
+        <f t="shared" si="6"/>
         <v>44997</v>
       </c>
       <c r="T33" s="1"/>
       <c r="U33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+8,DAY($C33)))</f>
+        <f t="shared" si="7"/>
         <v>45028</v>
       </c>
       <c r="V33" s="1"/>
       <c r="W33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+9,DAY($C33)))</f>
+        <f t="shared" si="8"/>
         <v>45058</v>
       </c>
       <c r="X33" s="1"/>
       <c r="Y33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+10,DAY($C33)))</f>
+        <f t="shared" si="9"/>
         <v>45089</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+11,DAY($C33)))</f>
+        <f t="shared" si="10"/>
         <v>45119</v>
       </c>
       <c r="AB33" s="1"/>
       <c r="AC33" s="3">
-        <f>IF($C33="","",DATE(YEAR($C33),MONTH($C33)+12,DAY($C33)))</f>
+        <f t="shared" si="11"/>
         <v>45150</v>
       </c>
       <c r="AD33" s="14"/>
@@ -10432,64 +10436,64 @@
         <v>170</v>
       </c>
       <c r="G34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
+        <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
         <v>44513</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
+        <f t="shared" ref="I34:I65" si="13">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+2,DAY($C34)))</f>
         <v>44543</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
+        <f t="shared" ref="K34:K65" si="14">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+3,DAY($C34)))</f>
         <v>44574</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
+        <f t="shared" ref="M34:M65" si="15">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+4,DAY($C34)))</f>
         <v>44605</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
+        <f t="shared" ref="O34:O65" si="16">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+5,DAY($C34)))</f>
         <v>44633</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
+        <f t="shared" ref="Q34:Q65" si="17">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+6,DAY($C34)))</f>
         <v>44664</v>
       </c>
       <c r="R34" s="1"/>
       <c r="S34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
+        <f t="shared" ref="S34:S65" si="18">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+7,DAY($C34)))</f>
         <v>44694</v>
       </c>
       <c r="T34" s="1"/>
       <c r="U34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
+        <f t="shared" ref="U34:U65" si="19">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+8,DAY($C34)))</f>
         <v>44725</v>
       </c>
       <c r="V34" s="1"/>
       <c r="W34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
+        <f t="shared" ref="W34:W65" si="20">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+9,DAY($C34)))</f>
         <v>44755</v>
       </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
+        <f t="shared" ref="Y34:Y65" si="21">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+10,DAY($C34)))</f>
         <v>44786</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
+        <f t="shared" ref="AA34:AA65" si="22">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+11,DAY($C34)))</f>
         <v>44817</v>
       </c>
       <c r="AB34" s="1"/>
       <c r="AC34" s="3">
-        <f>IF($C34="","",DATE(YEAR($C34),MONTH($C34)+12,DAY($C34)))</f>
+        <f t="shared" si="11"/>
         <v>44847</v>
       </c>
       <c r="AD34" s="14"/>
@@ -10513,73 +10517,73 @@
         <v>161</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+1,DAY($C35)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+2,DAY($C35)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+3,DAY($C35)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+4,DAY($C35)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+5,DAY($C35)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+6,DAY($C35)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R35" s="1"/>
       <c r="S35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+7,DAY($C35)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T35" s="1"/>
       <c r="U35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+8,DAY($C35)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V35" s="1"/>
       <c r="W35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+9,DAY($C35)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X35" s="1"/>
       <c r="Y35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+10,DAY($C35)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+11,DAY($C35)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB35" s="1"/>
       <c r="AC35" s="3">
-        <f>IF($C35="","",DATE(YEAR($C35),MONTH($C35)+12,DAY($C35)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD35" s="14"/>
@@ -10600,90 +10604,90 @@
         <v>14</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="F36" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="F36" s="30" t="s">
         <v>91</v>
       </c>
       <c r="G36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+1,DAY($C36)))</f>
+        <f t="shared" si="12"/>
         <v>44787</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+2,DAY($C36)))</f>
+        <f t="shared" si="13"/>
         <v>44818</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+3,DAY($C36)))</f>
+        <f t="shared" si="14"/>
         <v>44848</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+4,DAY($C36)))</f>
+        <f t="shared" si="15"/>
         <v>44879</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+5,DAY($C36)))</f>
+        <f t="shared" si="16"/>
         <v>44909</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+6,DAY($C36)))</f>
+        <f t="shared" si="17"/>
         <v>44940</v>
       </c>
       <c r="R36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+7,DAY($C36)))</f>
+        <f t="shared" si="18"/>
         <v>44971</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+8,DAY($C36)))</f>
+        <f t="shared" si="19"/>
         <v>44999</v>
       </c>
       <c r="V36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+9,DAY($C36)))</f>
+        <f t="shared" si="20"/>
         <v>45030</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+10,DAY($C36)))</f>
+        <f t="shared" si="21"/>
         <v>45060</v>
       </c>
       <c r="Z36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+11,DAY($C36)))</f>
+        <f t="shared" si="22"/>
         <v>45091</v>
       </c>
       <c r="AB36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC36" s="3">
-        <f>IF($C36="","",DATE(YEAR($C36),MONTH($C36)+12,DAY($C36)))</f>
+        <f t="shared" si="11"/>
         <v>45121</v>
       </c>
       <c r="AD36" s="14" t="s">
@@ -10712,80 +10716,80 @@
         <v>139</v>
       </c>
       <c r="G37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+1,DAY($C37)))</f>
+        <f t="shared" si="12"/>
         <v>44818</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+2,DAY($C37)))</f>
+        <f t="shared" si="13"/>
         <v>44848</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+3,DAY($C37)))</f>
+        <f t="shared" si="14"/>
         <v>44879</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+4,DAY($C37)))</f>
+        <f t="shared" si="15"/>
         <v>44909</v>
       </c>
       <c r="N37" s="1"/>
       <c r="O37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+5,DAY($C37)))</f>
+        <f t="shared" si="16"/>
         <v>44940</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+6,DAY($C37)))</f>
+        <f t="shared" si="17"/>
         <v>44971</v>
       </c>
       <c r="R37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+7,DAY($C37)))</f>
+        <f t="shared" si="18"/>
         <v>44999</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+8,DAY($C37)))</f>
+        <f t="shared" si="19"/>
         <v>45030</v>
       </c>
       <c r="V37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+9,DAY($C37)))</f>
+        <f t="shared" si="20"/>
         <v>45060</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+10,DAY($C37)))</f>
+        <f t="shared" si="21"/>
         <v>45091</v>
       </c>
       <c r="Z37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+11,DAY($C37)))</f>
+        <f t="shared" si="22"/>
         <v>45121</v>
       </c>
       <c r="AB37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC37" s="3">
-        <f>IF($C37="","",DATE(YEAR($C37),MONTH($C37)+12,DAY($C37)))</f>
+        <f t="shared" si="11"/>
         <v>45152</v>
       </c>
       <c r="AD37" s="1" t="s">
@@ -10814,84 +10818,84 @@
         <v>178</v>
       </c>
       <c r="G38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+1,DAY($C38)))</f>
+        <f t="shared" si="12"/>
         <v>44544</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+2,DAY($C38)))</f>
+        <f t="shared" si="13"/>
         <v>44575</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+3,DAY($C38)))</f>
+        <f t="shared" si="14"/>
         <v>44606</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+4,DAY($C38)))</f>
+        <f t="shared" si="15"/>
         <v>44634</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+5,DAY($C38)))</f>
+        <f t="shared" si="16"/>
         <v>44665</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+6,DAY($C38)))</f>
+        <f t="shared" si="17"/>
         <v>44695</v>
       </c>
       <c r="R38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+7,DAY($C38)))</f>
+        <f t="shared" si="18"/>
         <v>44726</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+8,DAY($C38)))</f>
+        <f t="shared" si="19"/>
         <v>44756</v>
       </c>
       <c r="V38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+9,DAY($C38)))</f>
+        <f t="shared" si="20"/>
         <v>44787</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+10,DAY($C38)))</f>
+        <f t="shared" si="21"/>
         <v>44818</v>
       </c>
       <c r="Z38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+11,DAY($C38)))</f>
+        <f t="shared" si="22"/>
         <v>44848</v>
       </c>
       <c r="AB38" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC38" s="3">
-        <f>IF($C38="","",DATE(YEAR($C38),MONTH($C38)+12,DAY($C38)))</f>
+        <f t="shared" si="11"/>
         <v>44879</v>
       </c>
       <c r="AD38" s="14" t="s">
@@ -10921,84 +10925,84 @@
         <v>194</v>
       </c>
       <c r="G39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+1,DAY($C39)))</f>
+        <f t="shared" si="12"/>
         <v>44575</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+2,DAY($C39)))</f>
+        <f t="shared" si="13"/>
         <v>44606</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+3,DAY($C39)))</f>
+        <f t="shared" si="14"/>
         <v>44634</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+4,DAY($C39)))</f>
+        <f t="shared" si="15"/>
         <v>44665</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+5,DAY($C39)))</f>
+        <f t="shared" si="16"/>
         <v>44695</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+6,DAY($C39)))</f>
+        <f t="shared" si="17"/>
         <v>44726</v>
       </c>
       <c r="R39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+7,DAY($C39)))</f>
+        <f t="shared" si="18"/>
         <v>44756</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+8,DAY($C39)))</f>
+        <f t="shared" si="19"/>
         <v>44787</v>
       </c>
       <c r="V39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+9,DAY($C39)))</f>
+        <f t="shared" si="20"/>
         <v>44818</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+10,DAY($C39)))</f>
+        <f t="shared" si="21"/>
         <v>44848</v>
       </c>
       <c r="Z39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+11,DAY($C39)))</f>
+        <f t="shared" si="22"/>
         <v>44879</v>
       </c>
       <c r="AB39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC39" s="3">
-        <f>IF($C39="","",DATE(YEAR($C39),MONTH($C39)+12,DAY($C39)))</f>
+        <f t="shared" si="11"/>
         <v>44909</v>
       </c>
       <c r="AD39" s="1"/>
@@ -11026,77 +11030,77 @@
         <v>60</v>
       </c>
       <c r="G40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+1,DAY($C40)))</f>
+        <f t="shared" si="12"/>
         <v>44301</v>
       </c>
       <c r="H40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+2,DAY($C40)))</f>
+        <f t="shared" si="13"/>
         <v>44331</v>
       </c>
       <c r="J40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+3,DAY($C40)))</f>
+        <f t="shared" si="14"/>
         <v>44362</v>
       </c>
       <c r="L40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+4,DAY($C40)))</f>
+        <f t="shared" si="15"/>
         <v>44392</v>
       </c>
       <c r="N40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+5,DAY($C40)))</f>
+        <f t="shared" si="16"/>
         <v>44423</v>
       </c>
       <c r="P40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+6,DAY($C40)))</f>
+        <f t="shared" si="17"/>
         <v>44454</v>
       </c>
       <c r="R40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+7,DAY($C40)))</f>
+        <f t="shared" si="18"/>
         <v>44484</v>
       </c>
       <c r="T40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+8,DAY($C40)))</f>
+        <f t="shared" si="19"/>
         <v>44515</v>
       </c>
       <c r="V40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+9,DAY($C40)))</f>
+        <f t="shared" si="20"/>
         <v>44545</v>
       </c>
       <c r="X40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+10,DAY($C40)))</f>
+        <f t="shared" si="21"/>
         <v>44576</v>
       </c>
       <c r="Z40" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA40" s="25">
-        <f>IF($C40="","",DATE(YEAR($C40),MONTH($C40)+11,DAY($C40)))</f>
+        <f t="shared" si="22"/>
         <v>44607</v>
       </c>
       <c r="AB40" s="36" t="s">
@@ -11121,86 +11125,86 @@
         <v>15</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>153</v>
       </c>
       <c r="G41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+1,DAY($C41)))</f>
+        <f t="shared" si="12"/>
         <v>44484</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+2,DAY($C41)))</f>
+        <f t="shared" si="13"/>
         <v>44515</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+3,DAY($C41)))</f>
+        <f t="shared" si="14"/>
         <v>44545</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+4,DAY($C41)))</f>
+        <f t="shared" si="15"/>
         <v>44576</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+5,DAY($C41)))</f>
+        <f t="shared" si="16"/>
         <v>44607</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+6,DAY($C41)))</f>
+        <f t="shared" si="17"/>
         <v>44635</v>
       </c>
       <c r="R41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+7,DAY($C41)))</f>
+        <f t="shared" si="18"/>
         <v>44666</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+8,DAY($C41)))</f>
+        <f t="shared" si="19"/>
         <v>44696</v>
       </c>
       <c r="V41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+9,DAY($C41)))</f>
+        <f t="shared" si="20"/>
         <v>44727</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+10,DAY($C41)))</f>
+        <f t="shared" si="21"/>
         <v>44757</v>
       </c>
       <c r="Z41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+11,DAY($C41)))</f>
+        <f t="shared" si="22"/>
         <v>44788</v>
       </c>
       <c r="AB41" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC41" s="3">
-        <f>IF($C41="","",DATE(YEAR($C41),MONTH($C41)+12,DAY($C41)))</f>
+        <f t="shared" ref="AC41:AC72" si="23">IF($C41="","",DATE(YEAR($C41),MONTH($C41)+12,DAY($C41)))</f>
         <v>44819</v>
       </c>
       <c r="AD41" s="14" t="s">
@@ -11230,74 +11234,74 @@
         <v>269</v>
       </c>
       <c r="G42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+1,DAY($C42)))</f>
+        <f t="shared" si="12"/>
         <v>44727</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+2,DAY($C42)))</f>
+        <f t="shared" si="13"/>
         <v>44757</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+3,DAY($C42)))</f>
+        <f t="shared" si="14"/>
         <v>44788</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+4,DAY($C42)))</f>
+        <f t="shared" si="15"/>
         <v>44819</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+5,DAY($C42)))</f>
+        <f t="shared" si="16"/>
         <v>44849</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+6,DAY($C42)))</f>
+        <f t="shared" si="17"/>
         <v>44880</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+7,DAY($C42)))</f>
+        <f t="shared" si="18"/>
         <v>44910</v>
       </c>
       <c r="T42" s="1"/>
       <c r="U42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+8,DAY($C42)))</f>
+        <f t="shared" si="19"/>
         <v>44941</v>
       </c>
       <c r="V42" s="1"/>
       <c r="W42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+9,DAY($C42)))</f>
+        <f t="shared" si="20"/>
         <v>44972</v>
       </c>
       <c r="X42" s="1"/>
       <c r="Y42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+10,DAY($C42)))</f>
+        <f t="shared" si="21"/>
         <v>45000</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+11,DAY($C42)))</f>
+        <f t="shared" si="22"/>
         <v>45031</v>
       </c>
       <c r="AB42" s="1"/>
       <c r="AC42" s="3">
-        <f>IF($C42="","",DATE(YEAR($C42),MONTH($C42)+12,DAY($C42)))</f>
+        <f t="shared" si="23"/>
         <v>45061</v>
       </c>
       <c r="AD42" s="14"/>
@@ -11325,77 +11329,77 @@
         <v>308</v>
       </c>
       <c r="G43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+1,DAY($C43)))</f>
+        <f t="shared" si="12"/>
         <v>44788</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+2,DAY($C43)))</f>
+        <f t="shared" si="13"/>
         <v>44819</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+3,DAY($C43)))</f>
+        <f t="shared" si="14"/>
         <v>44849</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+4,DAY($C43)))</f>
+        <f t="shared" si="15"/>
         <v>44880</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+5,DAY($C43)))</f>
+        <f t="shared" si="16"/>
         <v>44910</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+6,DAY($C43)))</f>
+        <f t="shared" si="17"/>
         <v>44941</v>
       </c>
       <c r="R43" s="1"/>
       <c r="S43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+7,DAY($C43)))</f>
+        <f t="shared" si="18"/>
         <v>44972</v>
       </c>
       <c r="T43" s="1"/>
       <c r="U43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+8,DAY($C43)))</f>
+        <f t="shared" si="19"/>
         <v>45000</v>
       </c>
       <c r="V43" s="1"/>
       <c r="W43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+9,DAY($C43)))</f>
+        <f t="shared" si="20"/>
         <v>45031</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+10,DAY($C43)))</f>
+        <f t="shared" si="21"/>
         <v>45061</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+11,DAY($C43)))</f>
+        <f t="shared" si="22"/>
         <v>45092</v>
       </c>
       <c r="AB43" s="1"/>
       <c r="AC43" s="3">
-        <f>IF($C43="","",DATE(YEAR($C43),MONTH($C43)+12,DAY($C43)))</f>
+        <f t="shared" si="23"/>
         <v>45122</v>
       </c>
       <c r="AD43" s="14"/>
     </row>
     <row r="44" spans="1:30" ht="36">
       <c r="A44" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11410,68 +11414,68 @@
         <v>16</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+1,DAY($C44)))</f>
+        <f t="shared" si="12"/>
         <v>44942</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+2,DAY($C44)))</f>
+        <f t="shared" si="13"/>
         <v>44973</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+3,DAY($C44)))</f>
+        <f t="shared" si="14"/>
         <v>45001</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+4,DAY($C44)))</f>
+        <f t="shared" si="15"/>
         <v>45032</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+5,DAY($C44)))</f>
+        <f t="shared" si="16"/>
         <v>45062</v>
       </c>
       <c r="P44" s="1"/>
       <c r="Q44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+6,DAY($C44)))</f>
+        <f t="shared" si="17"/>
         <v>45093</v>
       </c>
       <c r="R44" s="1"/>
       <c r="S44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+7,DAY($C44)))</f>
+        <f t="shared" si="18"/>
         <v>45123</v>
       </c>
       <c r="T44" s="1"/>
       <c r="U44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+8,DAY($C44)))</f>
+        <f t="shared" si="19"/>
         <v>45154</v>
       </c>
       <c r="V44" s="1"/>
       <c r="W44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+9,DAY($C44)))</f>
+        <f t="shared" si="20"/>
         <v>45185</v>
       </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+10,DAY($C44)))</f>
+        <f t="shared" si="21"/>
         <v>45215</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+11,DAY($C44)))</f>
+        <f t="shared" si="22"/>
         <v>45246</v>
       </c>
       <c r="AB44" s="1"/>
       <c r="AC44" s="3">
-        <f>IF($C44="","",DATE(YEAR($C44),MONTH($C44)+12,DAY($C44)))</f>
+        <f t="shared" si="23"/>
         <v>45276</v>
       </c>
       <c r="AD44" s="14"/>
@@ -11498,91 +11502,91 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+1,DAY($C45)))</f>
+        <f t="shared" si="12"/>
         <v>44790</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+2,DAY($C45)))</f>
+        <f t="shared" si="13"/>
         <v>44821</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+3,DAY($C45)))</f>
+        <f t="shared" si="14"/>
         <v>44851</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+4,DAY($C45)))</f>
+        <f t="shared" si="15"/>
         <v>44882</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+5,DAY($C45)))</f>
+        <f t="shared" si="16"/>
         <v>44912</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+6,DAY($C45)))</f>
+        <f t="shared" si="17"/>
         <v>44943</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+7,DAY($C45)))</f>
+        <f t="shared" si="18"/>
         <v>44974</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+8,DAY($C45)))</f>
+        <f t="shared" si="19"/>
         <v>45002</v>
       </c>
       <c r="V45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+9,DAY($C45)))</f>
+        <f t="shared" si="20"/>
         <v>45033</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+10,DAY($C45)))</f>
+        <f t="shared" si="21"/>
         <v>45063</v>
       </c>
       <c r="Z45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+11,DAY($C45)))</f>
+        <f t="shared" si="22"/>
         <v>45094</v>
       </c>
       <c r="AB45" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC45" s="3">
-        <f>IF($C45="","",DATE(YEAR($C45),MONTH($C45)+12,DAY($C45)))</f>
+        <f t="shared" si="23"/>
         <v>45124</v>
       </c>
       <c r="AD45" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30">
+    <row r="46" spans="1:30" ht="36">
       <c r="A46" s="9" t="s">
         <v>240</v>
       </c>
@@ -11602,81 +11606,81 @@
         <v>41</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="G46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+1,DAY($C46)))</f>
+        <f t="shared" si="12"/>
         <v>44668</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+2,DAY($C46)))</f>
+        <f t="shared" si="13"/>
         <v>44698</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+3,DAY($C46)))</f>
+        <f t="shared" si="14"/>
         <v>44729</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+4,DAY($C46)))</f>
+        <f t="shared" si="15"/>
         <v>44759</v>
       </c>
       <c r="N46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+5,DAY($C46)))</f>
+        <f t="shared" si="16"/>
         <v>44790</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+6,DAY($C46)))</f>
+        <f t="shared" si="17"/>
         <v>44821</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+7,DAY($C46)))</f>
+        <f t="shared" si="18"/>
         <v>44851</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+8,DAY($C46)))</f>
+        <f t="shared" si="19"/>
         <v>44882</v>
       </c>
       <c r="V46" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+9,DAY($C46)))</f>
+        <f t="shared" si="20"/>
         <v>44912</v>
       </c>
       <c r="X46" s="1"/>
       <c r="Y46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+10,DAY($C46)))</f>
+        <f t="shared" si="21"/>
         <v>44943</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+11,DAY($C46)))</f>
+        <f t="shared" si="22"/>
         <v>44974</v>
       </c>
       <c r="AB46" s="1"/>
       <c r="AC46" s="3">
-        <f>IF($C46="","",DATE(YEAR($C46),MONTH($C46)+12,DAY($C46)))</f>
+        <f t="shared" si="23"/>
         <v>45002</v>
       </c>
       <c r="AD46" s="1"/>
@@ -11700,72 +11704,72 @@
         <v>41</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+1,DAY($C47)))</f>
+        <f t="shared" si="12"/>
         <v>44748</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+2,DAY($C47)))</f>
+        <f t="shared" si="13"/>
         <v>44779</v>
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+3,DAY($C47)))</f>
+        <f t="shared" si="14"/>
         <v>44810</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+4,DAY($C47)))</f>
+        <f t="shared" si="15"/>
         <v>44840</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+5,DAY($C47)))</f>
+        <f t="shared" si="16"/>
         <v>44871</v>
       </c>
       <c r="P47" s="1"/>
       <c r="Q47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+6,DAY($C47)))</f>
+        <f t="shared" si="17"/>
         <v>44901</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+7,DAY($C47)))</f>
+        <f t="shared" si="18"/>
         <v>44932</v>
       </c>
       <c r="T47" s="1"/>
       <c r="U47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+8,DAY($C47)))</f>
+        <f t="shared" si="19"/>
         <v>44963</v>
       </c>
       <c r="V47" s="1"/>
       <c r="W47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+9,DAY($C47)))</f>
+        <f t="shared" si="20"/>
         <v>44991</v>
       </c>
       <c r="X47" s="1"/>
       <c r="Y47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+10,DAY($C47)))</f>
+        <f t="shared" si="21"/>
         <v>45022</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+11,DAY($C47)))</f>
+        <f t="shared" si="22"/>
         <v>45052</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AC47" s="3">
-        <f>IF($C47="","",DATE(YEAR($C47),MONTH($C47)+12,DAY($C47)))</f>
+        <f t="shared" si="23"/>
         <v>45083</v>
       </c>
       <c r="AD47" s="1"/>
     </row>
     <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
       <c r="A48" s="9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11783,65 +11787,65 @@
         <v>41</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+1,DAY($C48)))</f>
+        <f t="shared" si="12"/>
         <v>45002</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+2,DAY($C48)))</f>
+        <f t="shared" si="13"/>
         <v>45033</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+3,DAY($C48)))</f>
+        <f t="shared" si="14"/>
         <v>45063</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+4,DAY($C48)))</f>
+        <f t="shared" si="15"/>
         <v>45094</v>
       </c>
       <c r="N48" s="1"/>
       <c r="O48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+5,DAY($C48)))</f>
+        <f t="shared" si="16"/>
         <v>45124</v>
       </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+6,DAY($C48)))</f>
+        <f t="shared" si="17"/>
         <v>45155</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+7,DAY($C48)))</f>
+        <f t="shared" si="18"/>
         <v>45186</v>
       </c>
       <c r="T48" s="1"/>
       <c r="U48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+8,DAY($C48)))</f>
+        <f t="shared" si="19"/>
         <v>45216</v>
       </c>
       <c r="V48" s="1"/>
       <c r="W48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+9,DAY($C48)))</f>
+        <f t="shared" si="20"/>
         <v>45247</v>
       </c>
       <c r="X48" s="1"/>
       <c r="Y48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+10,DAY($C48)))</f>
+        <f t="shared" si="21"/>
         <v>45277</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+11,DAY($C48)))</f>
+        <f t="shared" si="22"/>
         <v>45308</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AC48" s="3">
-        <f>IF($C48="","",DATE(YEAR($C48),MONTH($C48)+12,DAY($C48)))</f>
+        <f t="shared" si="23"/>
         <v>45339</v>
       </c>
       <c r="AD48" s="1"/>
@@ -11868,84 +11872,84 @@
         <v>59</v>
       </c>
       <c r="G49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+1,DAY($C49)))</f>
+        <f t="shared" si="12"/>
         <v>44334</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+2,DAY($C49)))</f>
+        <f t="shared" si="13"/>
         <v>44365</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+3,DAY($C49)))</f>
+        <f t="shared" si="14"/>
         <v>44395</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+4,DAY($C49)))</f>
+        <f t="shared" si="15"/>
         <v>44426</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+5,DAY($C49)))</f>
+        <f t="shared" si="16"/>
         <v>44457</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+6,DAY($C49)))</f>
+        <f t="shared" si="17"/>
         <v>44487</v>
       </c>
       <c r="R49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+7,DAY($C49)))</f>
+        <f t="shared" si="18"/>
         <v>44518</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+8,DAY($C49)))</f>
+        <f t="shared" si="19"/>
         <v>44548</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+9,DAY($C49)))</f>
+        <f t="shared" si="20"/>
         <v>44579</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+10,DAY($C49)))</f>
+        <f t="shared" si="21"/>
         <v>44610</v>
       </c>
       <c r="Z49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+11,DAY($C49)))</f>
+        <f t="shared" si="22"/>
         <v>44638</v>
       </c>
       <c r="AB49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC49" s="3">
-        <f>IF($C49="","",DATE(YEAR($C49),MONTH($C49)+12,DAY($C49)))</f>
+        <f t="shared" si="23"/>
         <v>44669</v>
       </c>
       <c r="AD49" s="14" t="s">
@@ -11975,70 +11979,70 @@
         <v>311</v>
       </c>
       <c r="G50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+1,DAY($C50)))</f>
+        <f t="shared" si="12"/>
         <v>44791</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+2,DAY($C50)))</f>
+        <f t="shared" si="13"/>
         <v>44822</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+3,DAY($C50)))</f>
+        <f t="shared" si="14"/>
         <v>44852</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+4,DAY($C50)))</f>
+        <f t="shared" si="15"/>
         <v>44883</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+5,DAY($C50)))</f>
+        <f t="shared" si="16"/>
         <v>44913</v>
       </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+6,DAY($C50)))</f>
+        <f t="shared" si="17"/>
         <v>44944</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+7,DAY($C50)))</f>
+        <f t="shared" si="18"/>
         <v>44975</v>
       </c>
       <c r="T50" s="1"/>
       <c r="U50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+8,DAY($C50)))</f>
+        <f t="shared" si="19"/>
         <v>45003</v>
       </c>
       <c r="V50" s="1"/>
       <c r="W50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+9,DAY($C50)))</f>
+        <f t="shared" si="20"/>
         <v>45034</v>
       </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+10,DAY($C50)))</f>
+        <f t="shared" si="21"/>
         <v>45064</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+11,DAY($C50)))</f>
+        <f t="shared" si="22"/>
         <v>45095</v>
       </c>
       <c r="AB50" s="1"/>
       <c r="AC50" s="3">
-        <f>IF($C50="","",DATE(YEAR($C50),MONTH($C50)+12,DAY($C50)))</f>
+        <f t="shared" si="23"/>
         <v>45125</v>
       </c>
       <c r="AD50" s="14"/>
@@ -12062,69 +12066,69 @@
         <v>41</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+1,DAY($C51)))</f>
+        <f t="shared" si="12"/>
         <v>44853</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+2,DAY($C51)))</f>
+        <f t="shared" si="13"/>
         <v>44884</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+3,DAY($C51)))</f>
+        <f t="shared" si="14"/>
         <v>44914</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+4,DAY($C51)))</f>
+        <f t="shared" si="15"/>
         <v>44945</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+5,DAY($C51)))</f>
+        <f t="shared" si="16"/>
         <v>44976</v>
       </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+6,DAY($C51)))</f>
+        <f t="shared" si="17"/>
         <v>45004</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+7,DAY($C51)))</f>
+        <f t="shared" si="18"/>
         <v>45035</v>
       </c>
       <c r="T51" s="1"/>
       <c r="U51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+8,DAY($C51)))</f>
+        <f t="shared" si="19"/>
         <v>45065</v>
       </c>
       <c r="V51" s="1"/>
       <c r="W51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+9,DAY($C51)))</f>
+        <f t="shared" si="20"/>
         <v>45096</v>
       </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+10,DAY($C51)))</f>
+        <f t="shared" si="21"/>
         <v>45126</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+11,DAY($C51)))</f>
+        <f t="shared" si="22"/>
         <v>45157</v>
       </c>
       <c r="AB51" s="1"/>
       <c r="AC51" s="3">
-        <f>IF($C51="","",DATE(YEAR($C51),MONTH($C51)+12,DAY($C51)))</f>
+        <f t="shared" si="23"/>
         <v>45188</v>
       </c>
       <c r="AD51" s="14"/>
@@ -12150,84 +12154,84 @@
         <v>145</v>
       </c>
       <c r="G52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+1,DAY($C52)))</f>
+        <f t="shared" si="12"/>
         <v>44859</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+2,DAY($C52)))</f>
+        <f t="shared" si="13"/>
         <v>44890</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+3,DAY($C52)))</f>
+        <f t="shared" si="14"/>
         <v>44920</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+4,DAY($C52)))</f>
+        <f t="shared" si="15"/>
         <v>44951</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+5,DAY($C52)))</f>
+        <f t="shared" si="16"/>
         <v>44982</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+6,DAY($C52)))</f>
+        <f t="shared" si="17"/>
         <v>45010</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+7,DAY($C52)))</f>
+        <f t="shared" si="18"/>
         <v>45041</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+8,DAY($C52)))</f>
+        <f t="shared" si="19"/>
         <v>45071</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+9,DAY($C52)))</f>
+        <f t="shared" si="20"/>
         <v>45102</v>
       </c>
       <c r="X52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+10,DAY($C52)))</f>
+        <f t="shared" si="21"/>
         <v>45132</v>
       </c>
       <c r="Z52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+11,DAY($C52)))</f>
+        <f t="shared" si="22"/>
         <v>45163</v>
       </c>
       <c r="AB52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC52" s="3">
-        <f>IF($C52="","",DATE(YEAR($C52),MONTH($C52)+12,DAY($C52)))</f>
+        <f t="shared" si="23"/>
         <v>45194</v>
       </c>
       <c r="AD52" s="14" t="s">
@@ -12257,84 +12261,84 @@
         <v>181</v>
       </c>
       <c r="G53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+1,DAY($C53)))</f>
+        <f t="shared" si="12"/>
         <v>44549</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+2,DAY($C53)))</f>
+        <f t="shared" si="13"/>
         <v>44580</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+3,DAY($C53)))</f>
+        <f t="shared" si="14"/>
         <v>44611</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+4,DAY($C53)))</f>
+        <f t="shared" si="15"/>
         <v>44639</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+5,DAY($C53)))</f>
+        <f t="shared" si="16"/>
         <v>44670</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+6,DAY($C53)))</f>
+        <f t="shared" si="17"/>
         <v>44700</v>
       </c>
       <c r="R53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+7,DAY($C53)))</f>
+        <f t="shared" si="18"/>
         <v>44731</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+8,DAY($C53)))</f>
+        <f t="shared" si="19"/>
         <v>44761</v>
       </c>
       <c r="V53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+9,DAY($C53)))</f>
+        <f t="shared" si="20"/>
         <v>44792</v>
       </c>
       <c r="X53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+10,DAY($C53)))</f>
+        <f t="shared" si="21"/>
         <v>44823</v>
       </c>
       <c r="Z53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+11,DAY($C53)))</f>
+        <f t="shared" si="22"/>
         <v>44853</v>
       </c>
       <c r="AB53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC53" s="3">
-        <f>IF($C53="","",DATE(YEAR($C53),MONTH($C53)+12,DAY($C53)))</f>
+        <f t="shared" si="23"/>
         <v>44884</v>
       </c>
       <c r="AD53" s="14" t="s">
@@ -12364,62 +12368,62 @@
         <v>314</v>
       </c>
       <c r="G54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+1,DAY($C54)))</f>
+        <f t="shared" si="12"/>
         <v>44792</v>
       </c>
       <c r="H54" s="36"/>
       <c r="I54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+2,DAY($C54)))</f>
+        <f t="shared" si="13"/>
         <v>44823</v>
       </c>
       <c r="J54" s="36"/>
       <c r="K54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+3,DAY($C54)))</f>
+        <f t="shared" si="14"/>
         <v>44853</v>
       </c>
       <c r="L54" s="36"/>
       <c r="M54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+4,DAY($C54)))</f>
+        <f t="shared" si="15"/>
         <v>44884</v>
       </c>
       <c r="N54" s="36"/>
       <c r="O54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+5,DAY($C54)))</f>
+        <f t="shared" si="16"/>
         <v>44914</v>
       </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+6,DAY($C54)))</f>
+        <f t="shared" si="17"/>
         <v>44945</v>
       </c>
       <c r="R54" s="36"/>
       <c r="S54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+7,DAY($C54)))</f>
+        <f t="shared" si="18"/>
         <v>44976</v>
       </c>
       <c r="T54" s="36"/>
       <c r="U54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+8,DAY($C54)))</f>
+        <f t="shared" si="19"/>
         <v>45004</v>
       </c>
       <c r="V54" s="36"/>
       <c r="W54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+9,DAY($C54)))</f>
+        <f t="shared" si="20"/>
         <v>45035</v>
       </c>
       <c r="X54" s="36"/>
       <c r="Y54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+10,DAY($C54)))</f>
+        <f t="shared" si="21"/>
         <v>45065</v>
       </c>
       <c r="Z54" s="36"/>
       <c r="AA54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+11,DAY($C54)))</f>
+        <f t="shared" si="22"/>
         <v>45096</v>
       </c>
       <c r="AB54" s="36"/>
       <c r="AC54" s="25">
-        <f>IF($C54="","",DATE(YEAR($C54),MONTH($C54)+12,DAY($C54)))</f>
+        <f t="shared" si="23"/>
         <v>45126</v>
       </c>
       <c r="AD54" s="71"/>
@@ -12443,81 +12447,81 @@
         <v>294</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+1,DAY($C55)))</f>
+        <f t="shared" si="12"/>
         <v>44657</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+2,DAY($C55)))</f>
+        <f t="shared" si="13"/>
         <v>44687</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+3,DAY($C55)))</f>
+        <f t="shared" si="14"/>
         <v>44718</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+4,DAY($C55)))</f>
+        <f t="shared" si="15"/>
         <v>44748</v>
       </c>
       <c r="N55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+5,DAY($C55)))</f>
+        <f t="shared" si="16"/>
         <v>44779</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+6,DAY($C55)))</f>
+        <f t="shared" si="17"/>
         <v>44810</v>
       </c>
       <c r="R55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+7,DAY($C55)))</f>
+        <f t="shared" si="18"/>
         <v>44840</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+8,DAY($C55)))</f>
+        <f t="shared" si="19"/>
         <v>44871</v>
       </c>
       <c r="V55" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+9,DAY($C55)))</f>
+        <f t="shared" si="20"/>
         <v>44901</v>
       </c>
       <c r="X55" s="1"/>
       <c r="Y55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+10,DAY($C55)))</f>
+        <f t="shared" si="21"/>
         <v>44932</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+11,DAY($C55)))</f>
+        <f t="shared" si="22"/>
         <v>44963</v>
       </c>
       <c r="AB55" s="1"/>
       <c r="AC55" s="3">
-        <f>IF($C55="","",DATE(YEAR($C55),MONTH($C55)+12,DAY($C55)))</f>
+        <f t="shared" si="23"/>
         <v>44991</v>
       </c>
       <c r="AD55" s="1"/>
@@ -12544,80 +12548,80 @@
         <v>94</v>
       </c>
       <c r="G56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+1,DAY($C56)))</f>
+        <f t="shared" si="12"/>
         <v>44793</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+2,DAY($C56)))</f>
+        <f t="shared" si="13"/>
         <v>44824</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+3,DAY($C56)))</f>
+        <f t="shared" si="14"/>
         <v>44854</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+4,DAY($C56)))</f>
+        <f t="shared" si="15"/>
         <v>44885</v>
       </c>
       <c r="N56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+5,DAY($C56)))</f>
+        <f t="shared" si="16"/>
         <v>44915</v>
       </c>
       <c r="P56" s="1"/>
       <c r="Q56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+6,DAY($C56)))</f>
+        <f t="shared" si="17"/>
         <v>44946</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+7,DAY($C56)))</f>
+        <f t="shared" si="18"/>
         <v>44977</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+8,DAY($C56)))</f>
+        <f t="shared" si="19"/>
         <v>45005</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+9,DAY($C56)))</f>
+        <f t="shared" si="20"/>
         <v>45036</v>
       </c>
       <c r="X56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+10,DAY($C56)))</f>
+        <f t="shared" si="21"/>
         <v>45066</v>
       </c>
       <c r="Z56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+11,DAY($C56)))</f>
+        <f t="shared" si="22"/>
         <v>45097</v>
       </c>
       <c r="AB56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC56" s="3">
-        <f>IF($C56="","",DATE(YEAR($C56),MONTH($C56)+12,DAY($C56)))</f>
+        <f t="shared" si="23"/>
         <v>45127</v>
       </c>
       <c r="AD56" s="14" t="s">
@@ -12641,84 +12645,84 @@
         <v>20</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+1,DAY($C57)))</f>
+        <f t="shared" si="12"/>
         <v>44701</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+2,DAY($C57)))</f>
+        <f t="shared" si="13"/>
         <v>44732</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+3,DAY($C57)))</f>
+        <f t="shared" si="14"/>
         <v>44762</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+4,DAY($C57)))</f>
+        <f t="shared" si="15"/>
         <v>44793</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+5,DAY($C57)))</f>
+        <f t="shared" si="16"/>
         <v>44824</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+6,DAY($C57)))</f>
+        <f t="shared" si="17"/>
         <v>44854</v>
       </c>
       <c r="R57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+7,DAY($C57)))</f>
+        <f t="shared" si="18"/>
         <v>44885</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+8,DAY($C57)))</f>
+        <f t="shared" si="19"/>
         <v>44915</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+9,DAY($C57)))</f>
+        <f t="shared" si="20"/>
         <v>44946</v>
       </c>
       <c r="X57" s="1"/>
       <c r="Y57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+10,DAY($C57)))</f>
+        <f t="shared" si="21"/>
         <v>44977</v>
       </c>
       <c r="Z57" s="1"/>
       <c r="AA57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+11,DAY($C57)))</f>
+        <f t="shared" si="22"/>
         <v>45005</v>
       </c>
       <c r="AB57" s="1"/>
       <c r="AC57" s="3">
-        <f>IF($C57="","",DATE(YEAR($C57),MONTH($C57)+12,DAY($C57)))</f>
+        <f t="shared" si="23"/>
         <v>45036</v>
       </c>
       <c r="AD57" s="1"/>
@@ -12746,68 +12750,68 @@
         <v>327</v>
       </c>
       <c r="G58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+1,DAY($C58)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+2,DAY($C58)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+3,DAY($C58)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+4,DAY($C58)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N58" s="1"/>
       <c r="O58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+5,DAY($C58)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P58" s="1"/>
       <c r="Q58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+6,DAY($C58)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R58" s="1"/>
       <c r="S58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+7,DAY($C58)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T58" s="1"/>
       <c r="U58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+8,DAY($C58)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V58" s="1"/>
       <c r="W58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+9,DAY($C58)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X58" s="1"/>
       <c r="Y58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+10,DAY($C58)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+11,DAY($C58)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB58" s="1"/>
       <c r="AC58" s="3">
-        <f>IF($C58="","",DATE(YEAR($C58),MONTH($C58)+12,DAY($C58)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD58" s="1"/>
@@ -12835,68 +12839,68 @@
         <v>330</v>
       </c>
       <c r="G59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+1,DAY($C59)))</f>
+        <f t="shared" si="12"/>
         <v>44824</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+2,DAY($C59)))</f>
+        <f t="shared" si="13"/>
         <v>44854</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+3,DAY($C59)))</f>
+        <f t="shared" si="14"/>
         <v>44885</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+4,DAY($C59)))</f>
+        <f t="shared" si="15"/>
         <v>44915</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+5,DAY($C59)))</f>
+        <f t="shared" si="16"/>
         <v>44946</v>
       </c>
       <c r="P59" s="1"/>
       <c r="Q59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+6,DAY($C59)))</f>
+        <f t="shared" si="17"/>
         <v>44977</v>
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+7,DAY($C59)))</f>
+        <f t="shared" si="18"/>
         <v>45005</v>
       </c>
       <c r="T59" s="1"/>
       <c r="U59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+8,DAY($C59)))</f>
+        <f t="shared" si="19"/>
         <v>45036</v>
       </c>
       <c r="V59" s="1"/>
       <c r="W59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+9,DAY($C59)))</f>
+        <f t="shared" si="20"/>
         <v>45066</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+10,DAY($C59)))</f>
+        <f t="shared" si="21"/>
         <v>45097</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+11,DAY($C59)))</f>
+        <f t="shared" si="22"/>
         <v>45127</v>
       </c>
       <c r="AB59" s="1"/>
       <c r="AC59" s="3">
-        <f>IF($C59="","",DATE(YEAR($C59),MONTH($C59)+12,DAY($C59)))</f>
+        <f t="shared" si="23"/>
         <v>45158</v>
       </c>
       <c r="AD59" s="14"/>
@@ -12919,70 +12923,70 @@
       <c r="E60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="83" t="s">
         <v>344</v>
       </c>
       <c r="G60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+1,DAY($C60)))</f>
+        <f t="shared" si="12"/>
         <v>44885</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+2,DAY($C60)))</f>
+        <f t="shared" si="13"/>
         <v>44915</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+3,DAY($C60)))</f>
+        <f t="shared" si="14"/>
         <v>44946</v>
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+4,DAY($C60)))</f>
+        <f t="shared" si="15"/>
         <v>44977</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+5,DAY($C60)))</f>
+        <f t="shared" si="16"/>
         <v>45005</v>
       </c>
       <c r="P60" s="1"/>
       <c r="Q60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+6,DAY($C60)))</f>
+        <f t="shared" si="17"/>
         <v>45036</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+7,DAY($C60)))</f>
+        <f t="shared" si="18"/>
         <v>45066</v>
       </c>
       <c r="T60" s="1"/>
       <c r="U60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+8,DAY($C60)))</f>
+        <f t="shared" si="19"/>
         <v>45097</v>
       </c>
       <c r="V60" s="1"/>
       <c r="W60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+9,DAY($C60)))</f>
+        <f t="shared" si="20"/>
         <v>45127</v>
       </c>
       <c r="X60" s="1"/>
       <c r="Y60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+10,DAY($C60)))</f>
+        <f t="shared" si="21"/>
         <v>45158</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+11,DAY($C60)))</f>
+        <f t="shared" si="22"/>
         <v>45189</v>
       </c>
       <c r="AB60" s="1"/>
       <c r="AC60" s="3">
-        <f>IF($C60="","",DATE(YEAR($C60),MONTH($C60)+12,DAY($C60)))</f>
+        <f t="shared" si="23"/>
         <v>45219</v>
       </c>
       <c r="AD60" s="1"/>
@@ -13010,84 +13014,84 @@
         <v>55</v>
       </c>
       <c r="G61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+1,DAY($C61)))</f>
+        <f t="shared" si="12"/>
         <v>44307</v>
       </c>
       <c r="H61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="I61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+2,DAY($C61)))</f>
+        <f t="shared" si="13"/>
         <v>44337</v>
       </c>
       <c r="J61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="K61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+3,DAY($C61)))</f>
+        <f t="shared" si="14"/>
         <v>44368</v>
       </c>
       <c r="L61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="M61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+4,DAY($C61)))</f>
+        <f t="shared" si="15"/>
         <v>44398</v>
       </c>
       <c r="N61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="O61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+5,DAY($C61)))</f>
+        <f t="shared" si="16"/>
         <v>44429</v>
       </c>
       <c r="P61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Q61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+6,DAY($C61)))</f>
+        <f t="shared" si="17"/>
         <v>44460</v>
       </c>
       <c r="R61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="S61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+7,DAY($C61)))</f>
+        <f t="shared" si="18"/>
         <v>44490</v>
       </c>
       <c r="T61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="U61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+8,DAY($C61)))</f>
+        <f t="shared" si="19"/>
         <v>44521</v>
       </c>
       <c r="V61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="W61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+9,DAY($C61)))</f>
+        <f t="shared" si="20"/>
         <v>44551</v>
       </c>
       <c r="X61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="Y61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+10,DAY($C61)))</f>
+        <f t="shared" si="21"/>
         <v>44582</v>
       </c>
       <c r="Z61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AA61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+11,DAY($C61)))</f>
+        <f t="shared" si="22"/>
         <v>44613</v>
       </c>
       <c r="AB61" s="36" t="s">
         <v>8</v>
       </c>
       <c r="AC61" s="25">
-        <f>IF($C61="","",DATE(YEAR($C61),MONTH($C61)+12,DAY($C61)))</f>
+        <f t="shared" si="23"/>
         <v>44641</v>
       </c>
       <c r="AD61" s="71" t="s">
@@ -13113,83 +13117,83 @@
         <v>159</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+1,DAY($C62)))</f>
+        <f t="shared" si="12"/>
         <v>44825</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+2,DAY($C62)))</f>
+        <f t="shared" si="13"/>
         <v>44855</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+3,DAY($C62)))</f>
+        <f t="shared" si="14"/>
         <v>44886</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+4,DAY($C62)))</f>
+        <f t="shared" si="15"/>
         <v>44916</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+5,DAY($C62)))</f>
+        <f t="shared" si="16"/>
         <v>44947</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+6,DAY($C62)))</f>
+        <f t="shared" si="17"/>
         <v>44978</v>
       </c>
       <c r="R62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+7,DAY($C62)))</f>
+        <f t="shared" si="18"/>
         <v>45006</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+8,DAY($C62)))</f>
+        <f t="shared" si="19"/>
         <v>45037</v>
       </c>
       <c r="V62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+9,DAY($C62)))</f>
+        <f t="shared" si="20"/>
         <v>45067</v>
       </c>
       <c r="X62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+10,DAY($C62)))</f>
+        <f t="shared" si="21"/>
         <v>45098</v>
       </c>
       <c r="Z62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+11,DAY($C62)))</f>
+        <f t="shared" si="22"/>
         <v>45128</v>
       </c>
       <c r="AB62" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC62" s="3">
-        <f>IF($C62="","",DATE(YEAR($C62),MONTH($C62)+12,DAY($C62)))</f>
+        <f t="shared" si="23"/>
         <v>45159</v>
       </c>
       <c r="AD62" s="14"/>
@@ -13216,82 +13220,82 @@
         <v>223</v>
       </c>
       <c r="G63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+1,DAY($C63)))</f>
+        <f t="shared" si="12"/>
         <v>44616</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+2,DAY($C63)))</f>
+        <f t="shared" si="13"/>
         <v>44644</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+3,DAY($C63)))</f>
+        <f t="shared" si="14"/>
         <v>44675</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+4,DAY($C63)))</f>
+        <f t="shared" si="15"/>
         <v>44705</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+5,DAY($C63)))</f>
+        <f t="shared" si="16"/>
         <v>44736</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+6,DAY($C63)))</f>
+        <f t="shared" si="17"/>
         <v>44766</v>
       </c>
       <c r="R63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+7,DAY($C63)))</f>
+        <f t="shared" si="18"/>
         <v>44797</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+8,DAY($C63)))</f>
+        <f t="shared" si="19"/>
         <v>44828</v>
       </c>
       <c r="V63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+9,DAY($C63)))</f>
+        <f t="shared" si="20"/>
         <v>44858</v>
       </c>
       <c r="X63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+10,DAY($C63)))</f>
+        <f t="shared" si="21"/>
         <v>44889</v>
       </c>
       <c r="Z63" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+11,DAY($C63)))</f>
+        <f t="shared" si="22"/>
         <v>44919</v>
       </c>
       <c r="AB63" s="1"/>
       <c r="AC63" s="3">
-        <f>IF($C63="","",DATE(YEAR($C63),MONTH($C63)+12,DAY($C63)))</f>
+        <f t="shared" si="23"/>
         <v>44950</v>
       </c>
       <c r="AD63" s="14"/>
@@ -13319,72 +13323,72 @@
         <v>282</v>
       </c>
       <c r="G64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+1,DAY($C64)))</f>
+        <f t="shared" si="12"/>
         <v>44764</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+2,DAY($C64)))</f>
+        <f t="shared" si="13"/>
         <v>44795</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+3,DAY($C64)))</f>
+        <f t="shared" si="14"/>
         <v>44826</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+4,DAY($C64)))</f>
+        <f t="shared" si="15"/>
         <v>44856</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+5,DAY($C64)))</f>
+        <f t="shared" si="16"/>
         <v>44887</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+6,DAY($C64)))</f>
+        <f t="shared" si="17"/>
         <v>44917</v>
       </c>
       <c r="R64" s="1"/>
       <c r="S64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+7,DAY($C64)))</f>
+        <f t="shared" si="18"/>
         <v>44948</v>
       </c>
       <c r="T64" s="1"/>
       <c r="U64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+8,DAY($C64)))</f>
+        <f t="shared" si="19"/>
         <v>44979</v>
       </c>
       <c r="V64" s="1"/>
       <c r="W64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+9,DAY($C64)))</f>
+        <f t="shared" si="20"/>
         <v>45007</v>
       </c>
       <c r="X64" s="1"/>
       <c r="Y64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+10,DAY($C64)))</f>
+        <f t="shared" si="21"/>
         <v>45038</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+11,DAY($C64)))</f>
+        <f t="shared" si="22"/>
         <v>45068</v>
       </c>
       <c r="AB64" s="1"/>
       <c r="AC64" s="3">
-        <f>IF($C64="","",DATE(YEAR($C64),MONTH($C64)+12,DAY($C64)))</f>
+        <f t="shared" si="23"/>
         <v>45099</v>
       </c>
       <c r="AD64" s="14"/>
@@ -13411,68 +13415,68 @@
         <v>279</v>
       </c>
       <c r="G65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+1,DAY($C65)))</f>
+        <f t="shared" si="12"/>
         <v>44757</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+2,DAY($C65)))</f>
+        <f t="shared" si="13"/>
         <v>44788</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+3,DAY($C65)))</f>
+        <f t="shared" si="14"/>
         <v>44819</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+4,DAY($C65)))</f>
+        <f t="shared" si="15"/>
         <v>44849</v>
       </c>
       <c r="N65" s="1"/>
       <c r="O65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+5,DAY($C65)))</f>
+        <f t="shared" si="16"/>
         <v>44880</v>
       </c>
       <c r="P65" s="1"/>
       <c r="Q65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+6,DAY($C65)))</f>
+        <f t="shared" si="17"/>
         <v>44910</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+7,DAY($C65)))</f>
+        <f t="shared" si="18"/>
         <v>44941</v>
       </c>
       <c r="T65" s="1"/>
       <c r="U65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+8,DAY($C65)))</f>
+        <f t="shared" si="19"/>
         <v>44972</v>
       </c>
       <c r="V65" s="1"/>
       <c r="W65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+9,DAY($C65)))</f>
+        <f t="shared" si="20"/>
         <v>45000</v>
       </c>
       <c r="X65" s="1"/>
       <c r="Y65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+10,DAY($C65)))</f>
+        <f t="shared" si="21"/>
         <v>45031</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+11,DAY($C65)))</f>
+        <f t="shared" si="22"/>
         <v>45061</v>
       </c>
       <c r="AB65" s="1"/>
       <c r="AC65" s="3">
-        <f>IF($C65="","",DATE(YEAR($C65),MONTH($C65)+12,DAY($C65)))</f>
+        <f t="shared" si="23"/>
         <v>45092</v>
       </c>
       <c r="AD65" s="14"/>
@@ -13497,84 +13501,84 @@
         <v>138</v>
       </c>
       <c r="G66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
+        <f t="shared" ref="G66:G97" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
         <v>44827</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
+        <f t="shared" ref="I66:I97" si="25">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+2,DAY($C66)))</f>
         <v>44857</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
+        <f t="shared" ref="K66:K97" si="26">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+3,DAY($C66)))</f>
         <v>44888</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
+        <f t="shared" ref="M66:M97" si="27">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+4,DAY($C66)))</f>
         <v>44918</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
+        <f t="shared" ref="O66:O97" si="28">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+5,DAY($C66)))</f>
         <v>44949</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
+        <f t="shared" ref="Q66:Q97" si="29">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+6,DAY($C66)))</f>
         <v>44980</v>
       </c>
       <c r="R66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
+        <f t="shared" ref="S66:S97" si="30">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+7,DAY($C66)))</f>
         <v>45008</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
+        <f t="shared" ref="U66:U97" si="31">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+8,DAY($C66)))</f>
         <v>45039</v>
       </c>
       <c r="V66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
+        <f t="shared" ref="W66:W97" si="32">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+9,DAY($C66)))</f>
         <v>45069</v>
       </c>
       <c r="X66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
+        <f t="shared" ref="Y66:Y97" si="33">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+10,DAY($C66)))</f>
         <v>45100</v>
       </c>
       <c r="Z66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
+        <f t="shared" ref="AA66:AA97" si="34">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+11,DAY($C66)))</f>
         <v>45130</v>
       </c>
       <c r="AB66" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC66" s="3">
-        <f>IF($C66="","",DATE(YEAR($C66),MONTH($C66)+12,DAY($C66)))</f>
+        <f t="shared" si="23"/>
         <v>45161</v>
       </c>
       <c r="AD66" s="1" t="s">
@@ -13602,62 +13606,62 @@
         <v>236</v>
       </c>
       <c r="G67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+1,DAY($C67)))</f>
+        <f t="shared" si="24"/>
         <v>44643</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+2,DAY($C67)))</f>
+        <f t="shared" si="25"/>
         <v>44674</v>
       </c>
       <c r="J67" s="1"/>
       <c r="K67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+3,DAY($C67)))</f>
+        <f t="shared" si="26"/>
         <v>44704</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+4,DAY($C67)))</f>
+        <f t="shared" si="27"/>
         <v>44735</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+5,DAY($C67)))</f>
+        <f t="shared" si="28"/>
         <v>44765</v>
       </c>
       <c r="P67" s="1"/>
       <c r="Q67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+6,DAY($C67)))</f>
+        <f t="shared" si="29"/>
         <v>44796</v>
       </c>
       <c r="R67" s="1"/>
       <c r="S67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+7,DAY($C67)))</f>
+        <f t="shared" si="30"/>
         <v>44827</v>
       </c>
       <c r="T67" s="1"/>
       <c r="U67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+8,DAY($C67)))</f>
+        <f t="shared" si="31"/>
         <v>44857</v>
       </c>
       <c r="V67" s="1"/>
       <c r="W67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+9,DAY($C67)))</f>
+        <f t="shared" si="32"/>
         <v>44888</v>
       </c>
       <c r="X67" s="1"/>
       <c r="Y67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+10,DAY($C67)))</f>
+        <f t="shared" si="33"/>
         <v>44918</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+11,DAY($C67)))</f>
+        <f t="shared" si="34"/>
         <v>44949</v>
       </c>
       <c r="AB67" s="1"/>
       <c r="AC67" s="3">
-        <f>IF($C67="","",DATE(YEAR($C67),MONTH($C67)+12,DAY($C67)))</f>
+        <f t="shared" si="23"/>
         <v>44980</v>
       </c>
       <c r="AD67" s="14"/>
@@ -13685,72 +13689,72 @@
         <v>289</v>
       </c>
       <c r="G68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+1,DAY($C68)))</f>
+        <f t="shared" si="24"/>
         <v>44765</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+2,DAY($C68)))</f>
+        <f t="shared" si="25"/>
         <v>44796</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+3,DAY($C68)))</f>
+        <f t="shared" si="26"/>
         <v>44827</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+4,DAY($C68)))</f>
+        <f t="shared" si="27"/>
         <v>44857</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+5,DAY($C68)))</f>
+        <f t="shared" si="28"/>
         <v>44888</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+6,DAY($C68)))</f>
+        <f t="shared" si="29"/>
         <v>44918</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+7,DAY($C68)))</f>
+        <f t="shared" si="30"/>
         <v>44949</v>
       </c>
       <c r="T68" s="1"/>
       <c r="U68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+8,DAY($C68)))</f>
+        <f t="shared" si="31"/>
         <v>44980</v>
       </c>
       <c r="V68" s="1"/>
       <c r="W68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+9,DAY($C68)))</f>
+        <f t="shared" si="32"/>
         <v>45008</v>
       </c>
       <c r="X68" s="1"/>
       <c r="Y68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+10,DAY($C68)))</f>
+        <f t="shared" si="33"/>
         <v>45039</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+11,DAY($C68)))</f>
+        <f t="shared" si="34"/>
         <v>45069</v>
       </c>
       <c r="AB68" s="1"/>
       <c r="AC68" s="3">
-        <f>IF($C68="","",DATE(YEAR($C68),MONTH($C68)+12,DAY($C68)))</f>
+        <f t="shared" si="23"/>
         <v>45100</v>
       </c>
       <c r="AD68" s="14"/>
@@ -13777,84 +13781,84 @@
         <v>97</v>
       </c>
       <c r="G69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+1,DAY($C69)))</f>
+        <f t="shared" si="24"/>
         <v>44797</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+2,DAY($C69)))</f>
+        <f t="shared" si="25"/>
         <v>44828</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+3,DAY($C69)))</f>
+        <f t="shared" si="26"/>
         <v>44858</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+4,DAY($C69)))</f>
+        <f t="shared" si="27"/>
         <v>44889</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+5,DAY($C69)))</f>
+        <f t="shared" si="28"/>
         <v>44919</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+6,DAY($C69)))</f>
+        <f t="shared" si="29"/>
         <v>44950</v>
       </c>
       <c r="R69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+7,DAY($C69)))</f>
+        <f t="shared" si="30"/>
         <v>44981</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+8,DAY($C69)))</f>
+        <f t="shared" si="31"/>
         <v>45009</v>
       </c>
       <c r="V69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+9,DAY($C69)))</f>
+        <f t="shared" si="32"/>
         <v>45040</v>
       </c>
       <c r="X69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+10,DAY($C69)))</f>
+        <f t="shared" si="33"/>
         <v>45070</v>
       </c>
       <c r="Z69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+11,DAY($C69)))</f>
+        <f t="shared" si="34"/>
         <v>45101</v>
       </c>
       <c r="AB69" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC69" s="3">
-        <f>IF($C69="","",DATE(YEAR($C69),MONTH($C69)+12,DAY($C69)))</f>
+        <f t="shared" si="23"/>
         <v>45131</v>
       </c>
       <c r="AD69" s="1" t="s">
@@ -13884,62 +13888,62 @@
         <v>293</v>
       </c>
       <c r="G70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+1,DAY($C70)))</f>
+        <f t="shared" si="24"/>
         <v>44766</v>
       </c>
       <c r="H70" s="36"/>
       <c r="I70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+2,DAY($C70)))</f>
+        <f t="shared" si="25"/>
         <v>44797</v>
       </c>
       <c r="J70" s="36"/>
       <c r="K70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+3,DAY($C70)))</f>
+        <f t="shared" si="26"/>
         <v>44828</v>
       </c>
       <c r="L70" s="36"/>
       <c r="M70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+4,DAY($C70)))</f>
+        <f t="shared" si="27"/>
         <v>44858</v>
       </c>
       <c r="N70" s="36"/>
       <c r="O70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+5,DAY($C70)))</f>
+        <f t="shared" si="28"/>
         <v>44889</v>
       </c>
       <c r="P70" s="36"/>
       <c r="Q70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+6,DAY($C70)))</f>
+        <f t="shared" si="29"/>
         <v>44919</v>
       </c>
       <c r="R70" s="36"/>
       <c r="S70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+7,DAY($C70)))</f>
+        <f t="shared" si="30"/>
         <v>44950</v>
       </c>
       <c r="T70" s="36"/>
       <c r="U70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+8,DAY($C70)))</f>
+        <f t="shared" si="31"/>
         <v>44981</v>
       </c>
       <c r="V70" s="36"/>
       <c r="W70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+9,DAY($C70)))</f>
+        <f t="shared" si="32"/>
         <v>45009</v>
       </c>
       <c r="X70" s="36"/>
       <c r="Y70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+10,DAY($C70)))</f>
+        <f t="shared" si="33"/>
         <v>45040</v>
       </c>
       <c r="Z70" s="36"/>
       <c r="AA70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+11,DAY($C70)))</f>
+        <f t="shared" si="34"/>
         <v>45070</v>
       </c>
       <c r="AB70" s="36"/>
       <c r="AC70" s="25">
-        <f>IF($C70="","",DATE(YEAR($C70),MONTH($C70)+12,DAY($C70)))</f>
+        <f t="shared" si="23"/>
         <v>45101</v>
       </c>
       <c r="AD70" s="36"/>
@@ -13961,74 +13965,74 @@
         <v>24</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F71" s="45" t="s">
         <v>333</v>
       </c>
       <c r="G71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+1,DAY($C71)))</f>
+        <f t="shared" si="24"/>
         <v>44828</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+2,DAY($C71)))</f>
+        <f t="shared" si="25"/>
         <v>44858</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+3,DAY($C71)))</f>
+        <f t="shared" si="26"/>
         <v>44889</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+4,DAY($C71)))</f>
+        <f t="shared" si="27"/>
         <v>44919</v>
       </c>
       <c r="N71" s="1"/>
       <c r="O71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+5,DAY($C71)))</f>
+        <f t="shared" si="28"/>
         <v>44950</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+6,DAY($C71)))</f>
+        <f t="shared" si="29"/>
         <v>44981</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+7,DAY($C71)))</f>
+        <f t="shared" si="30"/>
         <v>45009</v>
       </c>
       <c r="T71" s="1"/>
       <c r="U71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+8,DAY($C71)))</f>
+        <f t="shared" si="31"/>
         <v>45040</v>
       </c>
       <c r="V71" s="1"/>
       <c r="W71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+9,DAY($C71)))</f>
+        <f t="shared" si="32"/>
         <v>45070</v>
       </c>
       <c r="X71" s="1"/>
       <c r="Y71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+10,DAY($C71)))</f>
+        <f t="shared" si="33"/>
         <v>45101</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+11,DAY($C71)))</f>
+        <f t="shared" si="34"/>
         <v>45131</v>
       </c>
       <c r="AB71" s="1"/>
       <c r="AC71" s="3">
-        <f>IF($C71="","",DATE(YEAR($C71),MONTH($C71)+12,DAY($C71)))</f>
+        <f t="shared" si="23"/>
         <v>45162</v>
       </c>
       <c r="AD71" s="1"/>
@@ -14056,66 +14060,66 @@
         <v>348</v>
       </c>
       <c r="G72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+1,DAY($C72)))</f>
+        <f t="shared" si="24"/>
         <v>44858</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+2,DAY($C72)))</f>
+        <f t="shared" si="25"/>
         <v>44889</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+3,DAY($C72)))</f>
+        <f t="shared" si="26"/>
         <v>44919</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+4,DAY($C72)))</f>
+        <f t="shared" si="27"/>
         <v>44950</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+5,DAY($C72)))</f>
+        <f t="shared" si="28"/>
         <v>44981</v>
       </c>
       <c r="P72" s="1"/>
       <c r="Q72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+6,DAY($C72)))</f>
+        <f t="shared" si="29"/>
         <v>45009</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+7,DAY($C72)))</f>
+        <f t="shared" si="30"/>
         <v>45040</v>
       </c>
       <c r="T72" s="1"/>
       <c r="U72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+8,DAY($C72)))</f>
+        <f t="shared" si="31"/>
         <v>45070</v>
       </c>
       <c r="V72" s="1"/>
       <c r="W72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+9,DAY($C72)))</f>
+        <f t="shared" si="32"/>
         <v>45101</v>
       </c>
       <c r="X72" s="1"/>
       <c r="Y72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+10,DAY($C72)))</f>
+        <f t="shared" si="33"/>
         <v>45131</v>
       </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+11,DAY($C72)))</f>
+        <f t="shared" si="34"/>
         <v>45162</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AC72" s="3">
-        <f>IF($C72="","",DATE(YEAR($C72),MONTH($C72)+12,DAY($C72)))</f>
+        <f t="shared" si="23"/>
         <v>45193</v>
       </c>
       <c r="AD72" s="1"/>
@@ -14142,84 +14146,84 @@
         <v>349</v>
       </c>
       <c r="G73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+1,DAY($C73)))</f>
+        <f t="shared" si="24"/>
         <v>44829</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+2,DAY($C73)))</f>
+        <f t="shared" si="25"/>
         <v>44859</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+3,DAY($C73)))</f>
+        <f t="shared" si="26"/>
         <v>44890</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+4,DAY($C73)))</f>
+        <f t="shared" si="27"/>
         <v>44920</v>
       </c>
       <c r="N73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+5,DAY($C73)))</f>
+        <f t="shared" si="28"/>
         <v>44951</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+6,DAY($C73)))</f>
+        <f t="shared" si="29"/>
         <v>44982</v>
       </c>
       <c r="R73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+7,DAY($C73)))</f>
+        <f t="shared" si="30"/>
         <v>45010</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+8,DAY($C73)))</f>
+        <f t="shared" si="31"/>
         <v>45041</v>
       </c>
       <c r="V73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+9,DAY($C73)))</f>
+        <f t="shared" si="32"/>
         <v>45071</v>
       </c>
       <c r="X73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+10,DAY($C73)))</f>
+        <f t="shared" si="33"/>
         <v>45102</v>
       </c>
       <c r="Z73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+11,DAY($C73)))</f>
+        <f t="shared" si="34"/>
         <v>45132</v>
       </c>
       <c r="AB73" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC73" s="3">
-        <f>IF($C73="","",DATE(YEAR($C73),MONTH($C73)+12,DAY($C73)))</f>
+        <f t="shared" ref="AC73:AC97" si="35">IF($C73="","",DATE(YEAR($C73),MONTH($C73)+12,DAY($C73)))</f>
         <v>45163</v>
       </c>
       <c r="AD73" s="1" t="s">
@@ -14249,78 +14253,78 @@
         <v>142</v>
       </c>
       <c r="G74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+1,DAY($C74)))</f>
+        <f t="shared" si="24"/>
         <v>44464</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+2,DAY($C74)))</f>
+        <f t="shared" si="25"/>
         <v>44494</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+3,DAY($C74)))</f>
+        <f t="shared" si="26"/>
         <v>44525</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+4,DAY($C74)))</f>
+        <f t="shared" si="27"/>
         <v>44555</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+5,DAY($C74)))</f>
+        <f t="shared" si="28"/>
         <v>44586</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+6,DAY($C74)))</f>
+        <f t="shared" si="29"/>
         <v>44617</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+7,DAY($C74)))</f>
+        <f t="shared" si="30"/>
         <v>44645</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+8,DAY($C74)))</f>
+        <f t="shared" si="31"/>
         <v>44676</v>
       </c>
       <c r="V74" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+9,DAY($C74)))</f>
+        <f t="shared" si="32"/>
         <v>44706</v>
       </c>
       <c r="X74" s="1"/>
       <c r="Y74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+10,DAY($C74)))</f>
+        <f t="shared" si="33"/>
         <v>44737</v>
       </c>
       <c r="Z74" s="1"/>
       <c r="AA74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+11,DAY($C74)))</f>
+        <f t="shared" si="34"/>
         <v>44767</v>
       </c>
       <c r="AB74" s="1"/>
       <c r="AC74" s="3">
-        <f>IF($C74="","",DATE(YEAR($C74),MONTH($C74)+12,DAY($C74)))</f>
+        <f t="shared" si="35"/>
         <v>44798</v>
       </c>
       <c r="AD74" s="1"/>
@@ -14347,82 +14351,82 @@
         <v>217</v>
       </c>
       <c r="G75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+1,DAY($C75)))</f>
+        <f t="shared" si="24"/>
         <v>44615</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+2,DAY($C75)))</f>
+        <f t="shared" si="25"/>
         <v>44643</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+3,DAY($C75)))</f>
+        <f t="shared" si="26"/>
         <v>44674</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+4,DAY($C75)))</f>
+        <f t="shared" si="27"/>
         <v>44704</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+5,DAY($C75)))</f>
+        <f t="shared" si="28"/>
         <v>44735</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+6,DAY($C75)))</f>
+        <f t="shared" si="29"/>
         <v>44765</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+7,DAY($C75)))</f>
+        <f t="shared" si="30"/>
         <v>44796</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+8,DAY($C75)))</f>
+        <f t="shared" si="31"/>
         <v>44827</v>
       </c>
       <c r="V75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+9,DAY($C75)))</f>
+        <f t="shared" si="32"/>
         <v>44857</v>
       </c>
       <c r="X75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+10,DAY($C75)))</f>
+        <f t="shared" si="33"/>
         <v>44888</v>
       </c>
       <c r="Z75" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+11,DAY($C75)))</f>
+        <f t="shared" si="34"/>
         <v>44918</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AC75" s="3">
-        <f>IF($C75="","",DATE(YEAR($C75),MONTH($C75)+12,DAY($C75)))</f>
+        <f t="shared" si="35"/>
         <v>44949</v>
       </c>
       <c r="AD75" s="1"/>
@@ -14449,82 +14453,82 @@
         <v>220</v>
       </c>
       <c r="G76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+1,DAY($C76)))</f>
+        <f t="shared" si="24"/>
         <v>44616</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+2,DAY($C76)))</f>
+        <f t="shared" si="25"/>
         <v>44644</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+3,DAY($C76)))</f>
+        <f t="shared" si="26"/>
         <v>44675</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+4,DAY($C76)))</f>
+        <f t="shared" si="27"/>
         <v>44705</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+5,DAY($C76)))</f>
+        <f t="shared" si="28"/>
         <v>44736</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+6,DAY($C76)))</f>
+        <f t="shared" si="29"/>
         <v>44766</v>
       </c>
       <c r="R76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+7,DAY($C76)))</f>
+        <f t="shared" si="30"/>
         <v>44797</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+8,DAY($C76)))</f>
+        <f t="shared" si="31"/>
         <v>44828</v>
       </c>
       <c r="V76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+9,DAY($C76)))</f>
+        <f t="shared" si="32"/>
         <v>44858</v>
       </c>
       <c r="X76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+10,DAY($C76)))</f>
+        <f t="shared" si="33"/>
         <v>44889</v>
       </c>
       <c r="Z76" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+11,DAY($C76)))</f>
+        <f t="shared" si="34"/>
         <v>44919</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AC76" s="3">
-        <f>IF($C76="","",DATE(YEAR($C76),MONTH($C76)+12,DAY($C76)))</f>
+        <f t="shared" si="35"/>
         <v>44950</v>
       </c>
       <c r="AD76" s="1"/>
@@ -14552,72 +14556,72 @@
         <v>297</v>
       </c>
       <c r="G77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+1,DAY($C77)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+2,DAY($C77)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+3,DAY($C77)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+4,DAY($C77)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+5,DAY($C77)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+6,DAY($C77)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+7,DAY($C77)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T77" s="1"/>
       <c r="U77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+8,DAY($C77)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V77" s="1"/>
       <c r="W77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+9,DAY($C77)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X77" s="1"/>
       <c r="Y77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+10,DAY($C77)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z77" s="1"/>
       <c r="AA77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+11,DAY($C77)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AC77" s="3">
-        <f>IF($C77="","",DATE(YEAR($C77),MONTH($C77)+12,DAY($C77)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD77" s="1"/>
@@ -14645,62 +14649,62 @@
         <v>350</v>
       </c>
       <c r="G78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+1,DAY($C78)))</f>
+        <f t="shared" si="24"/>
         <v>44767</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+2,DAY($C78)))</f>
+        <f t="shared" si="25"/>
         <v>44798</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+3,DAY($C78)))</f>
+        <f t="shared" si="26"/>
         <v>44829</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+4,DAY($C78)))</f>
+        <f t="shared" si="27"/>
         <v>44859</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+5,DAY($C78)))</f>
+        <f t="shared" si="28"/>
         <v>44890</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+6,DAY($C78)))</f>
+        <f t="shared" si="29"/>
         <v>44920</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+7,DAY($C78)))</f>
+        <f t="shared" si="30"/>
         <v>44951</v>
       </c>
       <c r="T78" s="1"/>
       <c r="U78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+8,DAY($C78)))</f>
+        <f t="shared" si="31"/>
         <v>44982</v>
       </c>
       <c r="V78" s="1"/>
       <c r="W78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+9,DAY($C78)))</f>
+        <f t="shared" si="32"/>
         <v>45010</v>
       </c>
       <c r="X78" s="1"/>
       <c r="Y78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+10,DAY($C78)))</f>
+        <f t="shared" si="33"/>
         <v>45041</v>
       </c>
       <c r="Z78" s="1"/>
       <c r="AA78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+11,DAY($C78)))</f>
+        <f t="shared" si="34"/>
         <v>45071</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AC78" s="3">
-        <f>IF($C78="","",DATE(YEAR($C78),MONTH($C78)+12,DAY($C78)))</f>
+        <f t="shared" si="35"/>
         <v>45102</v>
       </c>
       <c r="AD78" s="1"/>
@@ -14728,78 +14732,78 @@
         <v>252</v>
       </c>
       <c r="G79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+1,DAY($C79)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+2,DAY($C79)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+3,DAY($C79)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+4,DAY($C79)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+5,DAY($C79)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+6,DAY($C79)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+7,DAY($C79)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+8,DAY($C79)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V79" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+9,DAY($C79)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X79" s="1"/>
       <c r="Y79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+10,DAY($C79)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z79" s="1"/>
       <c r="AA79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+11,DAY($C79)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="3">
-        <f>IF($C79="","",DATE(YEAR($C79),MONTH($C79)+12,DAY($C79)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD79" s="1"/>
@@ -14827,62 +14831,62 @@
         <v>270</v>
       </c>
       <c r="G80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+1,DAY($C80)))</f>
+        <f t="shared" si="24"/>
         <v>44677</v>
       </c>
       <c r="H80" s="1"/>
       <c r="I80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+2,DAY($C80)))</f>
+        <f t="shared" si="25"/>
         <v>44707</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+3,DAY($C80)))</f>
+        <f t="shared" si="26"/>
         <v>44738</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+4,DAY($C80)))</f>
+        <f t="shared" si="27"/>
         <v>44768</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+5,DAY($C80)))</f>
+        <f t="shared" si="28"/>
         <v>44799</v>
       </c>
       <c r="P80" s="1"/>
       <c r="Q80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+6,DAY($C80)))</f>
+        <f t="shared" si="29"/>
         <v>44830</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+7,DAY($C80)))</f>
+        <f t="shared" si="30"/>
         <v>44860</v>
       </c>
       <c r="T80" s="1"/>
       <c r="U80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+8,DAY($C80)))</f>
+        <f t="shared" si="31"/>
         <v>44891</v>
       </c>
       <c r="V80" s="1"/>
       <c r="W80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+9,DAY($C80)))</f>
+        <f t="shared" si="32"/>
         <v>44921</v>
       </c>
       <c r="X80" s="1"/>
       <c r="Y80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+10,DAY($C80)))</f>
+        <f t="shared" si="33"/>
         <v>44952</v>
       </c>
       <c r="Z80" s="1"/>
       <c r="AA80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+11,DAY($C80)))</f>
+        <f t="shared" si="34"/>
         <v>44983</v>
       </c>
       <c r="AB80" s="1"/>
       <c r="AC80" s="3">
-        <f>IF($C80="","",DATE(YEAR($C80),MONTH($C80)+12,DAY($C80)))</f>
+        <f t="shared" si="35"/>
         <v>45011</v>
       </c>
       <c r="AD80" s="1"/>
@@ -14909,70 +14913,70 @@
         <v>302</v>
       </c>
       <c r="G81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+1,DAY($C81)))</f>
+        <f t="shared" si="24"/>
         <v>44778</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+2,DAY($C81)))</f>
+        <f t="shared" si="25"/>
         <v>44809</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+3,DAY($C81)))</f>
+        <f t="shared" si="26"/>
         <v>44839</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+4,DAY($C81)))</f>
+        <f t="shared" si="27"/>
         <v>44870</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+5,DAY($C81)))</f>
+        <f t="shared" si="28"/>
         <v>44900</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+6,DAY($C81)))</f>
+        <f t="shared" si="29"/>
         <v>44931</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+7,DAY($C81)))</f>
+        <f t="shared" si="30"/>
         <v>44962</v>
       </c>
       <c r="T81" s="1"/>
       <c r="U81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+8,DAY($C81)))</f>
+        <f t="shared" si="31"/>
         <v>44990</v>
       </c>
       <c r="V81" s="1"/>
       <c r="W81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+9,DAY($C81)))</f>
+        <f t="shared" si="32"/>
         <v>45021</v>
       </c>
       <c r="X81" s="1"/>
       <c r="Y81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+10,DAY($C81)))</f>
+        <f t="shared" si="33"/>
         <v>45051</v>
       </c>
       <c r="Z81" s="1"/>
       <c r="AA81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+11,DAY($C81)))</f>
+        <f t="shared" si="34"/>
         <v>45082</v>
       </c>
       <c r="AB81" s="1"/>
       <c r="AC81" s="3">
-        <f>IF($C81="","",DATE(YEAR($C81),MONTH($C81)+12,DAY($C81)))</f>
+        <f t="shared" si="35"/>
         <v>45112</v>
       </c>
       <c r="AD81" s="1"/>
@@ -14997,72 +15001,72 @@
         <v>73</v>
       </c>
       <c r="G82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+1,DAY($C82)))</f>
+        <f t="shared" si="24"/>
         <v>44769</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+2,DAY($C82)))</f>
+        <f t="shared" si="25"/>
         <v>44800</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+3,DAY($C82)))</f>
+        <f t="shared" si="26"/>
         <v>44831</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+4,DAY($C82)))</f>
+        <f t="shared" si="27"/>
         <v>44861</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+5,DAY($C82)))</f>
+        <f t="shared" si="28"/>
         <v>44892</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+6,DAY($C82)))</f>
+        <f t="shared" si="29"/>
         <v>44922</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+7,DAY($C82)))</f>
+        <f t="shared" si="30"/>
         <v>44953</v>
       </c>
       <c r="T82" s="1"/>
       <c r="U82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+8,DAY($C82)))</f>
+        <f t="shared" si="31"/>
         <v>44984</v>
       </c>
       <c r="V82" s="1"/>
       <c r="W82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+9,DAY($C82)))</f>
+        <f t="shared" si="32"/>
         <v>45012</v>
       </c>
       <c r="X82" s="1"/>
       <c r="Y82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+10,DAY($C82)))</f>
+        <f t="shared" si="33"/>
         <v>45043</v>
       </c>
       <c r="Z82" s="1"/>
       <c r="AA82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+11,DAY($C82)))</f>
+        <f t="shared" si="34"/>
         <v>45073</v>
       </c>
       <c r="AB82" s="1"/>
       <c r="AC82" s="3">
-        <f>IF($C82="","",DATE(YEAR($C82),MONTH($C82)+12,DAY($C82)))</f>
+        <f t="shared" si="35"/>
         <v>45104</v>
       </c>
       <c r="AD82" s="1"/>
@@ -15089,78 +15093,78 @@
         <v>247</v>
       </c>
       <c r="G83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+1,DAY($C83)))</f>
+        <f t="shared" si="24"/>
         <v>44673</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+2,DAY($C83)))</f>
+        <f t="shared" si="25"/>
         <v>44703</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+3,DAY($C83)))</f>
+        <f t="shared" si="26"/>
         <v>44734</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+4,DAY($C83)))</f>
+        <f t="shared" si="27"/>
         <v>44764</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+5,DAY($C83)))</f>
+        <f t="shared" si="28"/>
         <v>44795</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+6,DAY($C83)))</f>
+        <f t="shared" si="29"/>
         <v>44826</v>
       </c>
       <c r="R83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+7,DAY($C83)))</f>
+        <f t="shared" si="30"/>
         <v>44856</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+8,DAY($C83)))</f>
+        <f t="shared" si="31"/>
         <v>44887</v>
       </c>
       <c r="V83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+9,DAY($C83)))</f>
+        <f t="shared" si="32"/>
         <v>44917</v>
       </c>
       <c r="X83" s="1"/>
       <c r="Y83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+10,DAY($C83)))</f>
+        <f t="shared" si="33"/>
         <v>44948</v>
       </c>
       <c r="Z83" s="1"/>
       <c r="AA83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+11,DAY($C83)))</f>
+        <f t="shared" si="34"/>
         <v>44979</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AC83" s="3">
-        <f>IF($C83="","",DATE(YEAR($C83),MONTH($C83)+12,DAY($C83)))</f>
+        <f t="shared" si="35"/>
         <v>45007</v>
       </c>
       <c r="AD83" s="1"/>
@@ -15187,78 +15191,78 @@
         <v>43</v>
       </c>
       <c r="G84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+1,DAY($C84)))</f>
+        <f t="shared" si="24"/>
         <v>44255</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+2,DAY($C84)))</f>
+        <f t="shared" si="25"/>
         <v>44283</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+3,DAY($C84)))</f>
+        <f t="shared" si="26"/>
         <v>44314</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+4,DAY($C84)))</f>
+        <f t="shared" si="27"/>
         <v>44344</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+5,DAY($C84)))</f>
+        <f t="shared" si="28"/>
         <v>44375</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+6,DAY($C84)))</f>
+        <f t="shared" si="29"/>
         <v>44405</v>
       </c>
       <c r="R84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+7,DAY($C84)))</f>
+        <f t="shared" si="30"/>
         <v>44436</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+8,DAY($C84)))</f>
+        <f t="shared" si="31"/>
         <v>44467</v>
       </c>
       <c r="V84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+9,DAY($C84)))</f>
+        <f t="shared" si="32"/>
         <v>44497</v>
       </c>
       <c r="X84" s="1"/>
       <c r="Y84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+10,DAY($C84)))</f>
+        <f t="shared" si="33"/>
         <v>44528</v>
       </c>
       <c r="Z84" s="1"/>
       <c r="AA84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+11,DAY($C84)))</f>
+        <f t="shared" si="34"/>
         <v>44558</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AC84" s="3">
-        <f>IF($C84="","",DATE(YEAR($C84),MONTH($C84)+12,DAY($C84)))</f>
+        <f t="shared" si="35"/>
         <v>44589</v>
       </c>
       <c r="AD84" s="1"/>
@@ -15280,87 +15284,87 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="42" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+1,DAY($C85)))</f>
+        <f t="shared" si="24"/>
         <v>44770</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+2,DAY($C85)))</f>
+        <f t="shared" si="25"/>
         <v>44801</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+3,DAY($C85)))</f>
+        <f t="shared" si="26"/>
         <v>44832</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+4,DAY($C85)))</f>
+        <f t="shared" si="27"/>
         <v>44862</v>
       </c>
       <c r="N85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+5,DAY($C85)))</f>
+        <f t="shared" si="28"/>
         <v>44893</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+6,DAY($C85)))</f>
+        <f t="shared" si="29"/>
         <v>44923</v>
       </c>
       <c r="R85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+7,DAY($C85)))</f>
+        <f t="shared" si="30"/>
         <v>44954</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+8,DAY($C85)))</f>
+        <f t="shared" si="31"/>
         <v>44985</v>
       </c>
       <c r="V85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+9,DAY($C85)))</f>
+        <f t="shared" si="32"/>
         <v>45013</v>
       </c>
       <c r="X85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+10,DAY($C85)))</f>
+        <f t="shared" si="33"/>
         <v>45044</v>
       </c>
       <c r="Z85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+11,DAY($C85)))</f>
+        <f t="shared" si="34"/>
         <v>45074</v>
       </c>
       <c r="AB85" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC85" s="3">
-        <f>IF($C85="","",DATE(YEAR($C85),MONTH($C85)+12,DAY($C85)))</f>
+        <f t="shared" si="35"/>
         <v>45105</v>
       </c>
       <c r="AD85" s="1" t="s">
@@ -15386,87 +15390,87 @@
         <v>197</v>
       </c>
       <c r="G86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+1,DAY($C86)))</f>
+        <f t="shared" si="24"/>
         <v>44241</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+2,DAY($C86)))</f>
+        <f t="shared" si="25"/>
         <v>44269</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+3,DAY($C86)))</f>
+        <f t="shared" si="26"/>
         <v>44300</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+4,DAY($C86)))</f>
+        <f t="shared" si="27"/>
         <v>44330</v>
       </c>
       <c r="N86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+5,DAY($C86)))</f>
+        <f t="shared" si="28"/>
         <v>44361</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+6,DAY($C86)))</f>
+        <f t="shared" si="29"/>
         <v>44391</v>
       </c>
       <c r="R86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+7,DAY($C86)))</f>
+        <f t="shared" si="30"/>
         <v>44422</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+8,DAY($C86)))</f>
+        <f t="shared" si="31"/>
         <v>44453</v>
       </c>
       <c r="V86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+9,DAY($C86)))</f>
+        <f t="shared" si="32"/>
         <v>44483</v>
       </c>
       <c r="X86" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+10,DAY($C86)))</f>
+        <f t="shared" si="33"/>
         <v>44514</v>
       </c>
       <c r="Z86" s="1"/>
       <c r="AA86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+11,DAY($C86)))</f>
+        <f t="shared" si="34"/>
         <v>44544</v>
       </c>
       <c r="AB86" s="1"/>
       <c r="AC86" s="3">
-        <f>IF($C86="","",DATE(YEAR($C86),MONTH($C86)+12,DAY($C86)))</f>
+        <f t="shared" si="35"/>
         <v>44575</v>
       </c>
       <c r="AD86" s="1"/>
     </row>
     <row r="87" spans="1:30" ht="36">
       <c r="A87" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15481,75 +15485,75 @@
         <v>28</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+1,DAY($C87)))</f>
+        <f t="shared" si="24"/>
         <v>44893</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+2,DAY($C87)))</f>
+        <f t="shared" si="25"/>
         <v>44923</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+3,DAY($C87)))</f>
+        <f t="shared" si="26"/>
         <v>44954</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+4,DAY($C87)))</f>
+        <f t="shared" si="27"/>
         <v>44985</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+5,DAY($C87)))</f>
+        <f t="shared" si="28"/>
         <v>45013</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+6,DAY($C87)))</f>
+        <f t="shared" si="29"/>
         <v>45044</v>
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+7,DAY($C87)))</f>
+        <f t="shared" si="30"/>
         <v>45074</v>
       </c>
       <c r="T87" s="1"/>
       <c r="U87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+8,DAY($C87)))</f>
+        <f t="shared" si="31"/>
         <v>45105</v>
       </c>
       <c r="V87" s="1"/>
       <c r="W87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+9,DAY($C87)))</f>
+        <f t="shared" si="32"/>
         <v>45135</v>
       </c>
       <c r="X87" s="1"/>
       <c r="Y87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+10,DAY($C87)))</f>
+        <f t="shared" si="33"/>
         <v>45166</v>
       </c>
       <c r="Z87" s="1"/>
       <c r="AA87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+11,DAY($C87)))</f>
+        <f t="shared" si="34"/>
         <v>45197</v>
       </c>
       <c r="AB87" s="1"/>
       <c r="AC87" s="3">
-        <f>IF($C87="","",DATE(YEAR($C87),MONTH($C87)+12,DAY($C87)))</f>
+        <f t="shared" si="35"/>
         <v>45227</v>
       </c>
       <c r="AD87" s="1"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15567,67 +15571,67 @@
         <v>159</v>
       </c>
       <c r="F88" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+1,DAY($C88)))</f>
+        <f t="shared" si="24"/>
         <v>44954</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+2,DAY($C88)))</f>
+        <f t="shared" si="25"/>
         <v>44985</v>
       </c>
       <c r="J88" s="1"/>
       <c r="K88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+3,DAY($C88)))</f>
+        <f t="shared" si="26"/>
         <v>45013</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+4,DAY($C88)))</f>
+        <f t="shared" si="27"/>
         <v>45044</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+5,DAY($C88)))</f>
+        <f t="shared" si="28"/>
         <v>45074</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+6,DAY($C88)))</f>
+        <f t="shared" si="29"/>
         <v>45105</v>
       </c>
       <c r="R88" s="1"/>
       <c r="S88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+7,DAY($C88)))</f>
+        <f t="shared" si="30"/>
         <v>45135</v>
       </c>
       <c r="T88" s="1"/>
       <c r="U88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+8,DAY($C88)))</f>
+        <f t="shared" si="31"/>
         <v>45166</v>
       </c>
       <c r="V88" s="1"/>
       <c r="W88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+9,DAY($C88)))</f>
+        <f t="shared" si="32"/>
         <v>45197</v>
       </c>
       <c r="X88" s="1"/>
       <c r="Y88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+10,DAY($C88)))</f>
+        <f t="shared" si="33"/>
         <v>45227</v>
       </c>
       <c r="Z88" s="1"/>
       <c r="AA88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+11,DAY($C88)))</f>
+        <f t="shared" si="34"/>
         <v>45258</v>
       </c>
       <c r="AB88" s="1"/>
       <c r="AC88" s="3">
-        <f>IF($C88="","",DATE(YEAR($C88),MONTH($C88)+12,DAY($C88)))</f>
+        <f t="shared" si="35"/>
         <v>45288</v>
       </c>
       <c r="AD88" s="1"/>
@@ -15653,78 +15657,78 @@
         <v>265</v>
       </c>
       <c r="G89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+1,DAY($C89)))</f>
+        <f t="shared" si="24"/>
         <v>44680</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+2,DAY($C89)))</f>
+        <f t="shared" si="25"/>
         <v>44710</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+3,DAY($C89)))</f>
+        <f t="shared" si="26"/>
         <v>44741</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+4,DAY($C89)))</f>
+        <f t="shared" si="27"/>
         <v>44771</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+5,DAY($C89)))</f>
+        <f t="shared" si="28"/>
         <v>44802</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+6,DAY($C89)))</f>
+        <f t="shared" si="29"/>
         <v>44833</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+7,DAY($C89)))</f>
+        <f t="shared" si="30"/>
         <v>44863</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+8,DAY($C89)))</f>
+        <f t="shared" si="31"/>
         <v>44894</v>
       </c>
       <c r="V89" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+9,DAY($C89)))</f>
+        <f t="shared" si="32"/>
         <v>44924</v>
       </c>
       <c r="X89" s="1"/>
       <c r="Y89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+10,DAY($C89)))</f>
+        <f t="shared" si="33"/>
         <v>44955</v>
       </c>
       <c r="Z89" s="1"/>
       <c r="AA89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+11,DAY($C89)))</f>
+        <f t="shared" si="34"/>
         <v>44986</v>
       </c>
       <c r="AB89" s="1"/>
       <c r="AC89" s="3">
-        <f>IF($C89="","",DATE(YEAR($C89),MONTH($C89)+12,DAY($C89)))</f>
+        <f t="shared" si="35"/>
         <v>45014</v>
       </c>
       <c r="AD89" s="1"/>
@@ -15747,65 +15751,65 @@
         <v>339</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+1,DAY($C90)))</f>
+        <f t="shared" si="24"/>
         <v>45209</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+2,DAY($C90)))</f>
+        <f t="shared" si="25"/>
         <v>45240</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+3,DAY($C90)))</f>
+        <f t="shared" si="26"/>
         <v>45270</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+4,DAY($C90)))</f>
+        <f t="shared" si="27"/>
         <v>45301</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+5,DAY($C90)))</f>
+        <f t="shared" si="28"/>
         <v>45332</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+6,DAY($C90)))</f>
+        <f t="shared" si="29"/>
         <v>45361</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+7,DAY($C90)))</f>
+        <f t="shared" si="30"/>
         <v>45392</v>
       </c>
       <c r="T90" s="1"/>
       <c r="U90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+8,DAY($C90)))</f>
+        <f t="shared" si="31"/>
         <v>45422</v>
       </c>
       <c r="V90" s="1"/>
       <c r="W90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+9,DAY($C90)))</f>
+        <f t="shared" si="32"/>
         <v>45453</v>
       </c>
       <c r="X90" s="1"/>
       <c r="Y90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+10,DAY($C90)))</f>
+        <f t="shared" si="33"/>
         <v>45483</v>
       </c>
       <c r="Z90" s="1"/>
       <c r="AA90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+11,DAY($C90)))</f>
+        <f t="shared" si="34"/>
         <v>45514</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AC90" s="3">
-        <f>IF($C90="","",DATE(YEAR($C90),MONTH($C90)+12,DAY($C90)))</f>
+        <f t="shared" si="35"/>
         <v>45545</v>
       </c>
       <c r="AD90" s="1"/>
@@ -15832,70 +15836,70 @@
         <v>318</v>
       </c>
       <c r="G91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+1,DAY($C91)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+2,DAY($C91)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+3,DAY($C91)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+4,DAY($C91)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N91" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+5,DAY($C91)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+6,DAY($C91)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+7,DAY($C91)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T91" s="1"/>
       <c r="U91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+8,DAY($C91)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V91" s="1"/>
       <c r="W91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+9,DAY($C91)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X91" s="1"/>
       <c r="Y91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+10,DAY($C91)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z91" s="1"/>
       <c r="AA91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+11,DAY($C91)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB91" s="1"/>
       <c r="AC91" s="3">
-        <f>IF($C91="","",DATE(YEAR($C91),MONTH($C91)+12,DAY($C91)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD91" s="1"/>
@@ -15922,74 +15926,74 @@
         <v>201</v>
       </c>
       <c r="G92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+1,DAY($C92)))</f>
+        <f t="shared" si="24"/>
         <v>44742</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+2,DAY($C92)))</f>
+        <f t="shared" si="25"/>
         <v>44772</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+3,DAY($C92)))</f>
+        <f t="shared" si="26"/>
         <v>44803</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+4,DAY($C92)))</f>
+        <f t="shared" si="27"/>
         <v>44834</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+5,DAY($C92)))</f>
+        <f t="shared" si="28"/>
         <v>44864</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+6,DAY($C92)))</f>
+        <f t="shared" si="29"/>
         <v>44895</v>
       </c>
       <c r="R92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+7,DAY($C92)))</f>
+        <f t="shared" si="30"/>
         <v>44925</v>
       </c>
       <c r="T92" s="1"/>
       <c r="U92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+8,DAY($C92)))</f>
+        <f t="shared" si="31"/>
         <v>44956</v>
       </c>
       <c r="V92" s="1"/>
       <c r="W92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+9,DAY($C92)))</f>
+        <f t="shared" si="32"/>
         <v>44987</v>
       </c>
       <c r="X92" s="1"/>
       <c r="Y92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+10,DAY($C92)))</f>
+        <f t="shared" si="33"/>
         <v>45015</v>
       </c>
       <c r="Z92" s="1"/>
       <c r="AA92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+11,DAY($C92)))</f>
+        <f t="shared" si="34"/>
         <v>45046</v>
       </c>
       <c r="AB92" s="1"/>
       <c r="AC92" s="3">
-        <f>IF($C92="","",DATE(YEAR($C92),MONTH($C92)+12,DAY($C92)))</f>
+        <f t="shared" si="35"/>
         <v>45076</v>
       </c>
       <c r="AD92" s="1"/>
@@ -16013,85 +16017,85 @@
         <v>41</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+1,DAY($C93)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+2,DAY($C93)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+3,DAY($C93)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+4,DAY($C93)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+5,DAY($C93)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+6,DAY($C93)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+7,DAY($C93)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+8,DAY($C93)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+9,DAY($C93)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+10,DAY($C93)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+11,DAY($C93)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB93" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC93" s="3">
-        <f>IF($C93="","",DATE(YEAR($C93),MONTH($C93)+12,DAY($C93)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD93" s="1" t="s">
@@ -16114,90 +16118,90 @@
         <v>30</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F94" s="51" t="s">
         <v>185</v>
       </c>
       <c r="G94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+1,DAY($C94)))</f>
+        <f t="shared" si="24"/>
         <v>44555</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+2,DAY($C94)))</f>
+        <f t="shared" si="25"/>
         <v>44586</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+3,DAY($C94)))</f>
+        <f t="shared" si="26"/>
         <v>44617</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+4,DAY($C94)))</f>
+        <f t="shared" si="27"/>
         <v>44645</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+5,DAY($C94)))</f>
+        <f t="shared" si="28"/>
         <v>44676</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+6,DAY($C94)))</f>
+        <f t="shared" si="29"/>
         <v>44706</v>
       </c>
       <c r="R94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+7,DAY($C94)))</f>
+        <f t="shared" si="30"/>
         <v>44737</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+8,DAY($C94)))</f>
+        <f t="shared" si="31"/>
         <v>44767</v>
       </c>
       <c r="V94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+9,DAY($C94)))</f>
+        <f t="shared" si="32"/>
         <v>44798</v>
       </c>
       <c r="X94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+10,DAY($C94)))</f>
+        <f t="shared" si="33"/>
         <v>44829</v>
       </c>
       <c r="Z94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+11,DAY($C94)))</f>
+        <f t="shared" si="34"/>
         <v>44859</v>
       </c>
       <c r="AB94" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC94" s="3">
-        <f>IF($C94="","",DATE(YEAR($C94),MONTH($C94)+12,DAY($C94)))</f>
+        <f t="shared" si="35"/>
         <v>44890</v>
       </c>
       <c r="AD94" s="1" t="s">
@@ -16223,67 +16227,67 @@
         <v>271</v>
       </c>
       <c r="F95" s="59" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+1,DAY($C95)))</f>
+        <f t="shared" si="24"/>
         <v>44560</v>
       </c>
       <c r="H95" s="44" t="s">
         <v>8</v>
       </c>
       <c r="I95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+2,DAY($C95)))</f>
+        <f t="shared" si="25"/>
         <v>44591</v>
       </c>
       <c r="J95" s="44"/>
       <c r="K95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+3,DAY($C95)))</f>
+        <f t="shared" si="26"/>
         <v>44622</v>
       </c>
       <c r="L95" s="44"/>
       <c r="M95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+4,DAY($C95)))</f>
+        <f t="shared" si="27"/>
         <v>44650</v>
       </c>
       <c r="N95" s="44"/>
       <c r="O95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+5,DAY($C95)))</f>
+        <f t="shared" si="28"/>
         <v>44681</v>
       </c>
       <c r="P95" s="44"/>
       <c r="Q95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+6,DAY($C95)))</f>
+        <f t="shared" si="29"/>
         <v>44711</v>
       </c>
       <c r="R95" s="44"/>
       <c r="S95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+7,DAY($C95)))</f>
+        <f t="shared" si="30"/>
         <v>44742</v>
       </c>
       <c r="T95" s="44"/>
       <c r="U95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+8,DAY($C95)))</f>
+        <f t="shared" si="31"/>
         <v>44772</v>
       </c>
       <c r="V95" s="44"/>
       <c r="W95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+9,DAY($C95)))</f>
+        <f t="shared" si="32"/>
         <v>44803</v>
       </c>
       <c r="X95" s="44"/>
       <c r="Y95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+10,DAY($C95)))</f>
+        <f t="shared" si="33"/>
         <v>44834</v>
       </c>
       <c r="Z95" s="44"/>
       <c r="AA95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+11,DAY($C95)))</f>
+        <f t="shared" si="34"/>
         <v>44864</v>
       </c>
       <c r="AB95" s="44"/>
       <c r="AC95" s="38">
-        <f>IF($C95="","",DATE(YEAR($C95),MONTH($C95)+12,DAY($C95)))</f>
+        <f t="shared" si="35"/>
         <v>44895</v>
       </c>
       <c r="AD95" s="70"/>
@@ -16304,90 +16308,90 @@
         <v>30</v>
       </c>
       <c r="E96" s="78" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+1,DAY($C96)))</f>
+        <f t="shared" si="24"/>
         <v>44584</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+2,DAY($C96)))</f>
+        <f t="shared" si="25"/>
         <v>44615</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+3,DAY($C96)))</f>
+        <f t="shared" si="26"/>
         <v>44643</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+4,DAY($C96)))</f>
+        <f t="shared" si="27"/>
         <v>44674</v>
       </c>
       <c r="N96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+5,DAY($C96)))</f>
+        <f t="shared" si="28"/>
         <v>44704</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Q96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+6,DAY($C96)))</f>
+        <f t="shared" si="29"/>
         <v>44735</v>
       </c>
       <c r="R96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="S96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+7,DAY($C96)))</f>
+        <f t="shared" si="30"/>
         <v>44765</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="U96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+8,DAY($C96)))</f>
+        <f t="shared" si="31"/>
         <v>44796</v>
       </c>
       <c r="V96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="W96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+9,DAY($C96)))</f>
+        <f t="shared" si="32"/>
         <v>44827</v>
       </c>
       <c r="X96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Y96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+10,DAY($C96)))</f>
+        <f t="shared" si="33"/>
         <v>44857</v>
       </c>
       <c r="Z96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AA96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+11,DAY($C96)))</f>
+        <f t="shared" si="34"/>
         <v>44888</v>
       </c>
       <c r="AB96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="AC96" s="3">
-        <f>IF($C96="","",DATE(YEAR($C96),MONTH($C96)+12,DAY($C96)))</f>
+        <f t="shared" si="35"/>
         <v>44918</v>
       </c>
       <c r="AD96" s="14"/>
@@ -16415,70 +16419,70 @@
         <v>321</v>
       </c>
       <c r="G97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+1,DAY($C97)))</f>
+        <f t="shared" si="24"/>
         <v>44803</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+2,DAY($C97)))</f>
+        <f t="shared" si="25"/>
         <v>44834</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="K97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+3,DAY($C97)))</f>
+        <f t="shared" si="26"/>
         <v>44864</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+4,DAY($C97)))</f>
+        <f t="shared" si="27"/>
         <v>44895</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+5,DAY($C97)))</f>
+        <f t="shared" si="28"/>
         <v>44925</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+6,DAY($C97)))</f>
+        <f t="shared" si="29"/>
         <v>44956</v>
       </c>
       <c r="R97" s="1"/>
       <c r="S97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+7,DAY($C97)))</f>
+        <f t="shared" si="30"/>
         <v>44987</v>
       </c>
       <c r="T97" s="1"/>
       <c r="U97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+8,DAY($C97)))</f>
+        <f t="shared" si="31"/>
         <v>45015</v>
       </c>
       <c r="V97" s="1"/>
       <c r="W97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+9,DAY($C97)))</f>
+        <f t="shared" si="32"/>
         <v>45046</v>
       </c>
       <c r="X97" s="1"/>
       <c r="Y97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+10,DAY($C97)))</f>
+        <f t="shared" si="33"/>
         <v>45076</v>
       </c>
       <c r="Z97" s="1"/>
       <c r="AA97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+11,DAY($C97)))</f>
+        <f t="shared" si="34"/>
         <v>45107</v>
       </c>
       <c r="AB97" s="1"/>
       <c r="AC97" s="3">
-        <f>IF($C97="","",DATE(YEAR($C97),MONTH($C97)+12,DAY($C97)))</f>
+        <f t="shared" si="35"/>
         <v>45137</v>
       </c>
       <c r="AD97" s="14"/>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889F241F-BDDD-4B6E-B840-F2996F4E4614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0882E-33C2-4742-9550-781B1885B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2921,8 +2921,8 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4250,17 +4250,17 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4439,7 +4439,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
+    <row r="7" spans="1:12" ht="56.25">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.5">
       <c r="A15" s="9" t="s">
         <v>85</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>98</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="9" t="s">
         <v>130</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="4" t="s">
         <v>144</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="36">
+    <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -7231,44 +7231,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="E93" sqref="E93"/>
-      <selection pane="topRight" activeCell="E35" sqref="E35"/>
+      <selection pane="topRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7363,7 +7363,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="36">
+    <row r="2" spans="1:30" ht="37.5">
       <c r="A2" s="28" t="s">
         <v>133</v>
       </c>
@@ -7550,7 +7550,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
         <v>283</v>
       </c>
@@ -7727,7 +7727,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>375</v>
       </c>
@@ -8214,7 +8214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="85.5">
+    <row r="11" spans="1:30" ht="87.75">
       <c r="A11" s="46" t="s">
         <v>174</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="36">
+    <row r="14" spans="1:30" ht="37.5">
       <c r="A14" s="27" t="s">
         <v>162</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
         <v>149</v>
       </c>
@@ -9179,7 +9179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="36">
+    <row r="21" spans="1:30" ht="37.5">
       <c r="A21" s="9" t="s">
         <v>248</v>
       </c>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="27" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A27" s="9" t="s">
         <v>79</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" ht="36">
+    <row r="35" spans="1:30" ht="37.5">
       <c r="A35" s="9" t="s">
         <v>87</v>
       </c>
@@ -10588,7 +10588,7 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A36" s="9" t="s">
         <v>89</v>
       </c>
@@ -10606,7 +10606,7 @@
       <c r="E36" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="83" t="s">
         <v>91</v>
       </c>
       <c r="G36" s="3">
@@ -11109,7 +11109,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="36"/>
     </row>
-    <row r="41" spans="1:30" ht="36">
+    <row r="41" spans="1:30" ht="37.5">
       <c r="A41" s="27" t="s">
         <v>151</v>
       </c>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="36">
+    <row r="44" spans="1:30" ht="37.5">
       <c r="A44" s="9" t="s">
         <v>366</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="36">
+    <row r="46" spans="1:30" ht="37.5">
       <c r="A46" s="9" t="s">
         <v>240</v>
       </c>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="36">
+    <row r="47" spans="1:30" ht="37.5">
       <c r="A47" s="9" t="s">
         <v>275</v>
       </c>
@@ -11767,7 +11767,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
       <c r="A48" s="9" t="s">
         <v>380</v>
       </c>
@@ -12047,7 +12047,7 @@
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" ht="36">
+    <row r="51" spans="1:30" ht="37.5">
       <c r="A51" s="27" t="s">
         <v>154</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="36">
+    <row r="54" spans="1:30" ht="37.5">
       <c r="A54" s="27" t="s">
         <v>312</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="36">
+    <row r="57" spans="1:30" ht="37.5">
       <c r="A57" s="27" t="s">
         <v>261</v>
       </c>
@@ -12923,7 +12923,7 @@
       <c r="E60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="83" t="s">
+      <c r="F60" s="53" t="s">
         <v>344</v>
       </c>
       <c r="G60" s="3">
@@ -13666,7 +13666,7 @@
       </c>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" ht="36">
+    <row r="68" spans="1:30" ht="37.5">
       <c r="A68" s="9" t="s">
         <v>286</v>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
       <c r="AD70" s="36"/>
     </row>
-    <row r="71" spans="1:30" ht="36">
+    <row r="71" spans="1:30" ht="37.5">
       <c r="A71" s="9" t="s">
         <v>332</v>
       </c>
@@ -14124,7 +14124,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="36">
+    <row r="73" spans="1:30" ht="37.5">
       <c r="A73" s="27" t="s">
         <v>98</v>
       </c>
@@ -14626,7 +14626,7 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="54">
+    <row r="78" spans="1:30" ht="56.25">
       <c r="A78" s="9" t="s">
         <v>298</v>
       </c>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="36">
+    <row r="80" spans="1:30" ht="37.5">
       <c r="A80" s="9" t="s">
         <v>253</v>
       </c>
@@ -15468,7 +15468,7 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="36">
+    <row r="87" spans="1:30" ht="37.5">
       <c r="A87" s="9" t="s">
         <v>353</v>
       </c>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="54">
+    <row r="90" spans="1:30" ht="56.25">
       <c r="A90" s="9" t="s">
         <v>337</v>
       </c>
@@ -15998,7 +15998,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="36">
+    <row r="93" spans="1:30" ht="37.5">
       <c r="A93" s="27" t="s">
         <v>85</v>
       </c>
@@ -16102,7 +16102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="36">
+    <row r="94" spans="1:30" ht="37.5">
       <c r="A94" s="9" t="s">
         <v>183</v>
       </c>
@@ -16208,7 +16208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="36">
+    <row r="95" spans="1:30" ht="37.5">
       <c r="A95" s="28" t="s">
         <v>130</v>
       </c>
@@ -16292,7 +16292,7 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="54">
+    <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
         <v>202</v>
       </c>
@@ -16510,40 +16510,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16779,10 +16779,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17016,9 +17016,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17251,7 +17251,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17276,11 +17276,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0882E-33C2-4742-9550-781B1885B9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B56E6-1AD4-457D-998F-09D4D39E6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -471,10 +471,6 @@
   </si>
   <si>
     <t>長谷川 智生</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ともき </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2400,6 +2396,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ザキ 
+済み</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ともき 
+済み</t>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>沼田愛美 
 支払い</t>
@@ -2413,7 +2425,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>16</t>
+      <t>14</t>
     </r>
     <r>
       <rPr>
@@ -2433,14 +2445,6 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ザキ 
-済み</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2727,7 +2731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2921,8 +2925,11 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4250,17 +4257,17 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" customWidth="1"/>
+    <col min="8" max="11" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="44.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4286,7 +4293,7 @@
         <v>36</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>33</v>
@@ -4306,7 +4313,7 @@
         <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -4352,7 +4359,7 @@
         <v>8</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4439,7 +4446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="56.25">
+    <row r="7" spans="1:12" ht="54">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4466,15 +4473,15 @@
         <v>8</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -4487,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>37</v>
@@ -4496,15 +4503,15 @@
         <v>8</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -4517,24 +4524,24 @@
         <v>8</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -4547,24 +4554,24 @@
         <v>8</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -4586,15 +4593,15 @@
         <v>8</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>77</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -4616,15 +4623,15 @@
         <v>8</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -4646,15 +4653,15 @@
         <v>8</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -4676,21 +4683,21 @@
         <v>8</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="37.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36">
       <c r="A15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>86</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G15" s="12">
         <v>44407</v>
@@ -4708,15 +4715,15 @@
         <v>8</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -4738,15 +4745,15 @@
         <v>8</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -4768,15 +4775,15 @@
         <v>8</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -4798,15 +4805,15 @@
         <v>8</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>96</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -4828,15 +4835,15 @@
         <v>8</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="37.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="36">
       <c r="A20" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="58" t="s">
         <v>98</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>99</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="10"/>
@@ -4858,15 +4865,15 @@
         <v>8</v>
       </c>
       <c r="L20" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4888,15 +4895,15 @@
         <v>8</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="37.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -4918,15 +4925,15 @@
         <v>8</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -4948,15 +4955,15 @@
         <v>8</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -4978,15 +4985,15 @@
         <v>8</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>136</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>137</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -5008,15 +5015,15 @@
         <v>8</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -5038,15 +5045,15 @@
         <v>8</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="37.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -5068,21 +5075,21 @@
         <v>8</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>147</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="3">
         <v>44441</v>
@@ -5100,15 +5107,15 @@
         <v>8</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>149</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5130,15 +5137,15 @@
         <v>8</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="67" t="s">
         <v>151</v>
-      </c>
-      <c r="B30" s="67" t="s">
-        <v>152</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -5160,15 +5167,15 @@
         <v>8</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="29" t="s">
         <v>154</v>
-      </c>
-      <c r="B31" s="29" t="s">
-        <v>155</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -5190,15 +5197,15 @@
         <v>8</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32" s="29" t="s">
         <v>162</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>163</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -5220,15 +5227,15 @@
         <v>8</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>166</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>167</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -5250,15 +5257,15 @@
         <v>8</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>169</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -5280,15 +5287,15 @@
         <v>8</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="29" t="s">
         <v>171</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>172</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -5310,15 +5317,15 @@
         <v>8</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="B36" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5340,15 +5347,15 @@
         <v>8</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37" s="40" t="s">
         <v>176</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>177</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5370,15 +5377,15 @@
         <v>8</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5400,15 +5407,15 @@
         <v>8</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5428,15 +5435,15 @@
         <v>8</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5458,15 +5465,15 @@
         <v>8</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5488,15 +5495,15 @@
         <v>8</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5518,15 +5525,15 @@
         <v>8</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5548,15 +5555,15 @@
         <v>8</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5578,15 +5585,15 @@
         <v>8</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5604,15 +5611,15 @@
         <v>8</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -5634,15 +5641,15 @@
         <v>8</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -5664,15 +5671,15 @@
         <v>8</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -5694,15 +5701,15 @@
         <v>8</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -5724,21 +5731,21 @@
         <v>8</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G50" s="3">
         <v>44585</v>
@@ -5756,15 +5763,15 @@
         <v>8</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -5786,15 +5793,15 @@
         <v>8</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -5816,15 +5823,15 @@
         <v>8</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5846,15 +5853,15 @@
         <v>8</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5876,15 +5883,15 @@
         <v>8</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5906,15 +5913,15 @@
         <v>8</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5936,15 +5943,15 @@
         <v>8</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5966,15 +5973,15 @@
         <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -5996,15 +6003,15 @@
         <v>8</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6026,15 +6033,15 @@
         <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6056,15 +6063,15 @@
         <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>251</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6086,15 +6093,15 @@
         <v>8</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>254</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6116,15 +6123,15 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6146,15 +6153,15 @@
         <v>8</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6176,15 +6183,15 @@
         <v>8</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6206,15 +6213,15 @@
         <v>8</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>268</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -6236,15 +6243,15 @@
         <v>8</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>273</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -6266,15 +6273,15 @@
         <v>8</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -6296,15 +6303,15 @@
         <v>8</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>277</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>278</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -6326,15 +6333,15 @@
         <v>8</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>280</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -6356,15 +6363,15 @@
         <v>8</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -6386,15 +6393,15 @@
         <v>8</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6416,15 +6423,15 @@
         <v>8</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6446,15 +6453,15 @@
         <v>8</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6476,15 +6483,15 @@
         <v>8</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6506,15 +6513,15 @@
         <v>8</v>
       </c>
       <c r="L75" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6536,15 +6543,15 @@
         <v>8</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6566,15 +6573,15 @@
         <v>8</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6596,15 +6603,15 @@
         <v>8</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6626,15 +6633,15 @@
         <v>8</v>
       </c>
       <c r="L79" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6656,15 +6663,15 @@
         <v>8</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6686,15 +6693,15 @@
         <v>8</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>320</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -6716,15 +6723,15 @@
         <v>8</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6746,15 +6753,15 @@
         <v>8</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>326</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6776,15 +6783,15 @@
         <v>8</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6806,15 +6813,15 @@
         <v>8</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6836,21 +6843,21 @@
         <v>8</v>
       </c>
       <c r="L86" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G87" s="3">
         <v>44807</v>
@@ -6868,15 +6875,15 @@
         <v>8</v>
       </c>
       <c r="L87" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>338</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6898,15 +6905,15 @@
         <v>8</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6928,15 +6935,15 @@
         <v>8</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6958,15 +6965,15 @@
         <v>8</v>
       </c>
       <c r="L90" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -6988,15 +6995,15 @@
         <v>8</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7018,15 +7025,15 @@
         <v>8</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7048,15 +7055,15 @@
         <v>8</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>370</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7078,15 +7085,15 @@
         <v>8</v>
       </c>
       <c r="L94" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>376</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7108,15 +7115,15 @@
         <v>8</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7138,20 +7145,20 @@
         <v>8</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="37.5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="36">
       <c r="A97" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
@@ -7170,15 +7177,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7200,7 +7207,7 @@
         <v>8</v>
       </c>
       <c r="L98" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -7231,44 +7238,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="E93" sqref="E93"/>
-      <selection pane="topRight" activeCell="F19" sqref="F19"/>
+      <selection pane="topRight" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7282,7 +7289,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>40</v>
@@ -7363,9 +7370,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="37.5">
+    <row r="2" spans="1:30" ht="36">
       <c r="A2" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7380,7 +7387,7 @@
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="42" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
@@ -7469,7 +7476,7 @@
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B3" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7484,10 +7491,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G3" s="3">
         <f t="shared" si="0"/>
@@ -7550,9 +7557,9 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A4" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7566,10 +7573,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -7644,7 +7651,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7659,10 +7666,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
@@ -7727,9 +7734,9 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B6" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7744,10 +7751,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G6" s="63">
         <f t="shared" si="0"/>
@@ -7820,7 +7827,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B7" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7834,10 +7841,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="0"/>
@@ -7926,7 +7933,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7941,10 +7948,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
@@ -8025,7 +8032,7 @@
     </row>
     <row r="9" spans="1:30" s="39" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8040,10 +8047,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
@@ -8110,7 +8117,7 @@
     </row>
     <row r="10" spans="1:30" s="39" customFormat="1">
       <c r="A10" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8124,10 +8131,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="0"/>
@@ -8214,9 +8221,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="87.75">
+    <row r="11" spans="1:30" ht="85.5">
       <c r="A11" s="46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B11" s="61" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8234,7 +8241,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G11" s="48">
         <f t="shared" si="0"/>
@@ -8299,7 +8306,7 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8315,7 +8322,7 @@
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="0"/>
@@ -8404,7 +8411,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8419,10 +8426,10 @@
         <v>4</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -8497,9 +8504,9 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="37.5">
+    <row r="14" spans="1:30" ht="36">
       <c r="A14" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8514,10 +8521,10 @@
         <v>6</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="0"/>
@@ -8606,7 +8613,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8621,10 +8628,10 @@
         <v>6</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -8709,7 +8716,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8724,10 +8731,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -8810,7 +8817,7 @@
         <v>41</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="0"/>
@@ -8968,9 +8975,9 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
       <c r="A19" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8985,10 +8992,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -9075,7 +9082,7 @@
     </row>
     <row r="20" spans="1:30" s="39" customFormat="1">
       <c r="A20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B20" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9089,10 +9096,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="0"/>
@@ -9179,9 +9186,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="37.5">
+    <row r="21" spans="1:30" ht="36">
       <c r="A21" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9198,7 +9205,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9281,7 +9288,7 @@
     </row>
     <row r="22" spans="1:30" s="39" customFormat="1">
       <c r="A22" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9294,10 +9301,10 @@
         <v>9</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="0"/>
@@ -9372,7 +9379,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9387,10 +9394,10 @@
         <v>9</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -9455,7 +9462,7 @@
     </row>
     <row r="24" spans="1:30" s="37" customFormat="1">
       <c r="A24" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9469,10 +9476,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="0"/>
@@ -9559,7 +9566,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9574,10 +9581,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -9650,7 +9657,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9664,10 +9671,10 @@
         <v>11</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="0"/>
@@ -9740,9 +9747,9 @@
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="27" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A27" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9756,10 +9763,10 @@
         <v>11</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="0"/>
@@ -9832,7 +9839,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9849,7 +9856,7 @@
         <v>41</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="0"/>
@@ -9924,7 +9931,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9939,10 +9946,10 @@
         <v>11</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="0"/>
@@ -10029,7 +10036,7 @@
     </row>
     <row r="30" spans="1:30" s="39" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10044,10 +10051,10 @@
         <v>11</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -10130,7 +10137,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10144,10 +10151,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="0"/>
@@ -10220,7 +10227,7 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10235,10 +10242,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="0"/>
@@ -10327,7 +10334,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10342,10 +10349,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -10418,7 +10425,7 @@
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10433,7 +10440,7 @@
       </c>
       <c r="E34" s="30"/>
       <c r="F34" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" ref="G34:G65" si="12">IF($C34="","",DATE(YEAR($C34),MONTH($C34)+1,DAY($C34)))</f>
@@ -10498,9 +10505,9 @@
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" ht="37.5">
+    <row r="35" spans="1:30" ht="36">
       <c r="A35" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10514,10 +10521,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="12"/>
@@ -10588,9 +10595,9 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A36" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10604,10 +10611,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="F36" s="83" t="s">
-        <v>91</v>
+        <v>390</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="12"/>
@@ -10696,7 +10703,7 @@
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10710,10 +10717,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="12"/>
@@ -10798,7 +10805,7 @@
     </row>
     <row r="38" spans="1:30" s="37" customFormat="1">
       <c r="A38" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B38" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10812,10 +10819,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="12"/>
@@ -10904,7 +10911,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10919,10 +10926,10 @@
         <v>14</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="12"/>
@@ -11024,10 +11031,10 @@
         <v>15</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G40" s="25">
         <f t="shared" si="12"/>
@@ -11109,9 +11116,9 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="36"/>
     </row>
-    <row r="41" spans="1:30" ht="37.5">
+    <row r="41" spans="1:30" ht="36">
       <c r="A41" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11125,10 +11132,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="12"/>
@@ -11213,7 +11220,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11228,10 +11235,10 @@
         <v>15</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="12"/>
@@ -11308,7 +11315,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11323,10 +11330,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="12"/>
@@ -11397,9 +11404,9 @@
       </c>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="37.5">
+    <row r="44" spans="1:30" ht="36">
       <c r="A44" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11414,10 +11421,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="12"/>
@@ -11482,7 +11489,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11496,10 +11503,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="12"/>
@@ -11586,9 +11593,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="37.5">
+    <row r="46" spans="1:30" ht="36">
       <c r="A46" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11606,7 +11613,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="12"/>
@@ -11685,9 +11692,9 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="37.5">
+    <row r="47" spans="1:30" ht="36">
       <c r="A47" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" s="56" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11704,7 +11711,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="12"/>
@@ -11767,9 +11774,9 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
       <c r="A48" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11787,7 +11794,7 @@
         <v>41</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="12"/>
@@ -11850,7 +11857,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30">
+    <row r="49" spans="1:30" ht="36">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
@@ -11868,8 +11875,8 @@
       <c r="E49" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F49" s="19" t="s">
-        <v>59</v>
+      <c r="F49" s="42" t="s">
+        <v>396</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="12"/>
@@ -11958,7 +11965,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11973,10 +11980,10 @@
         <v>18</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="12"/>
@@ -12047,9 +12054,9 @@
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" ht="37.5">
+    <row r="51" spans="1:30" ht="36">
       <c r="A51" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B51" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12066,7 +12073,7 @@
         <v>41</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="12"/>
@@ -12135,7 +12142,7 @@
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12148,10 +12155,10 @@
         <v>19</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="12"/>
@@ -12240,7 +12247,7 @@
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B53" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12255,10 +12262,10 @@
         <v>19</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="12"/>
@@ -12345,9 +12352,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="37.5">
+    <row r="54" spans="1:30" ht="36">
       <c r="A54" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B54" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12362,10 +12369,10 @@
         <v>19</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G54" s="25">
         <f t="shared" si="12"/>
@@ -12430,7 +12437,7 @@
     </row>
     <row r="55" spans="1:30" s="37" customFormat="1">
       <c r="A55" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12444,10 +12451,10 @@
         <v>20</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="12"/>
@@ -12528,7 +12535,7 @@
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12542,10 +12549,10 @@
         <v>20</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="12"/>
@@ -12628,9 +12635,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="37.5">
+    <row r="57" spans="1:30" ht="36">
       <c r="A57" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12645,10 +12652,10 @@
         <v>20</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>382</v>
-      </c>
-      <c r="F57" s="53" t="s">
-        <v>361</v>
+        <v>381</v>
+      </c>
+      <c r="F57" s="83" t="s">
+        <v>360</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="12"/>
@@ -12729,7 +12736,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12744,10 +12751,10 @@
         <v>20</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="12"/>
@@ -12818,7 +12825,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12833,10 +12840,10 @@
         <v>20</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="12"/>
@@ -12907,7 +12914,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12923,8 +12930,8 @@
       <c r="E60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="53" t="s">
-        <v>344</v>
+      <c r="F60" s="83" t="s">
+        <v>343</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="12"/>
@@ -13100,7 +13107,7 @@
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B62" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13114,10 +13121,10 @@
         <v>21</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="12"/>
@@ -13200,7 +13207,7 @@
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B63" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13214,10 +13221,10 @@
         <v>22</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="12"/>
@@ -13302,7 +13309,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13317,10 +13324,10 @@
         <v>22</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="12"/>
@@ -13395,7 +13402,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13409,10 +13416,10 @@
         <v>23</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="12"/>
@@ -13483,7 +13490,7 @@
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13498,7 +13505,7 @@
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" ref="G66:G97" si="24">IF($C66="","",DATE(YEAR($C66),MONTH($C66)+1,DAY($C66)))</f>
@@ -13587,7 +13594,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13603,7 +13610,7 @@
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="24"/>
@@ -13666,9 +13673,9 @@
       </c>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" ht="37.5">
+    <row r="68" spans="1:30" ht="36">
       <c r="A68" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13683,10 +13690,10 @@
         <v>23</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F68" s="53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="24"/>
@@ -13761,7 +13768,7 @@
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13777,8 +13784,8 @@
       <c r="E69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="42" t="s">
-        <v>97</v>
+      <c r="F69" s="84" t="s">
+        <v>96</v>
       </c>
       <c r="G69" s="3">
         <f t="shared" si="24"/>
@@ -13867,7 +13874,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B70" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13882,10 +13889,10 @@
         <v>24</v>
       </c>
       <c r="E70" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F70" s="55" t="s">
         <v>292</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>293</v>
       </c>
       <c r="G70" s="25">
         <f t="shared" si="24"/>
@@ -13948,9 +13955,9 @@
       </c>
       <c r="AD70" s="36"/>
     </row>
-    <row r="71" spans="1:30" ht="37.5">
+    <row r="71" spans="1:30" ht="36">
       <c r="A71" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13965,10 +13972,10 @@
         <v>24</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="24"/>
@@ -14039,7 +14046,7 @@
     </row>
     <row r="72" spans="1:30" s="37" customFormat="1">
       <c r="A72" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14054,10 +14061,10 @@
         <v>24</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="24"/>
@@ -14124,9 +14131,9 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="37.5">
+    <row r="73" spans="1:30" ht="36">
       <c r="A73" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="33" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14140,10 +14147,10 @@
         <v>25</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="24"/>
@@ -14232,7 +14239,7 @@
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B74" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14250,7 +14257,7 @@
         <v>41</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="24"/>
@@ -14331,7 +14338,7 @@
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B75" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14345,10 +14352,10 @@
         <v>25</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G75" s="3">
         <f t="shared" si="24"/>
@@ -14433,7 +14440,7 @@
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B76" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14447,10 +14454,10 @@
         <v>25</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="24"/>
@@ -14535,7 +14542,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14550,10 +14557,10 @@
         <v>25</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F77" s="53" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="24"/>
@@ -14626,9 +14633,9 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="56.25">
+    <row r="78" spans="1:30" ht="54">
       <c r="A78" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14643,10 +14650,10 @@
         <v>25</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F78" s="53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="24"/>
@@ -14711,7 +14718,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14726,10 +14733,10 @@
         <v>26</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="24"/>
@@ -14808,9 +14815,9 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="37.5">
+    <row r="80" spans="1:30" ht="36">
       <c r="A80" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14825,10 +14832,10 @@
         <v>26</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="24"/>
@@ -14893,7 +14900,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14907,10 +14914,10 @@
         <v>27</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F81" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="24"/>
@@ -14983,7 +14990,7 @@
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B82" s="33" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14998,7 +15005,7 @@
       </c>
       <c r="E82" s="19"/>
       <c r="F82" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G82" s="3">
         <f t="shared" si="24"/>
@@ -15073,7 +15080,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15087,10 +15094,10 @@
         <v>28</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="24"/>
@@ -15269,7 +15276,7 @@
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B85" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15284,7 +15291,7 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="24"/>
@@ -15373,7 +15380,7 @@
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B86" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15387,7 +15394,7 @@
       </c>
       <c r="E86" s="19"/>
       <c r="F86" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G86" s="3">
         <f t="shared" si="24"/>
@@ -15468,9 +15475,9 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="37.5">
+    <row r="87" spans="1:30" ht="36">
       <c r="A87" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15485,10 +15492,10 @@
         <v>28</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="24"/>
@@ -15553,7 +15560,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15568,10 +15575,10 @@
         <v>28</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F88" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="24"/>
@@ -15638,7 +15645,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15654,7 +15661,7 @@
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="24"/>
@@ -15733,9 +15740,9 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="56.25">
+    <row r="90" spans="1:30" ht="54">
       <c r="A90" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B90" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15748,10 +15755,10 @@
         <v>30</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="24"/>
@@ -15816,7 +15823,7 @@
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B91" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15830,10 +15837,10 @@
         <v>30</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="24"/>
@@ -15906,7 +15913,7 @@
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B92" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15920,10 +15927,10 @@
         <v>30</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F92" s="51" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G92" s="3">
         <f t="shared" si="24"/>
@@ -15998,9 +16005,9 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="37.5">
+    <row r="93" spans="1:30" ht="36">
       <c r="A93" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B93" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16017,7 +16024,7 @@
         <v>41</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="24"/>
@@ -16102,9 +16109,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="37.5">
+    <row r="94" spans="1:30" ht="36">
       <c r="A94" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B94" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16118,10 +16125,10 @@
         <v>30</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F94" s="51" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G94" s="3">
         <f t="shared" si="24"/>
@@ -16208,9 +16215,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="37.5">
+    <row r="95" spans="1:30" ht="36">
       <c r="A95" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B95" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16224,10 +16231,10 @@
         <v>30</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F95" s="59" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G95" s="38">
         <f t="shared" si="24"/>
@@ -16292,9 +16299,9 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="56.25">
+    <row r="96" spans="1:30" ht="54">
       <c r="A96" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B96" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16308,10 +16315,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="78" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="24"/>
@@ -16398,7 +16405,7 @@
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B97" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16413,10 +16420,10 @@
         <v>30</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F97" s="50" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="24"/>
@@ -16510,40 +16517,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16554,7 +16561,7 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -16563,85 +16570,85 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>123</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -16649,7 +16656,7 @@
         <v>5000</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="22">
         <f>VLOOKUP($B2,テーブル2[#Data],3,FALSE)</f>
@@ -16779,10 +16786,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16793,7 +16800,7 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -16802,85 +16809,85 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>123</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -16888,7 +16895,7 @@
         <v>3000</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C2" s="22">
         <f>VLOOKUP($B2,テーブル2[#Data],3,FALSE)</f>
@@ -17016,9 +17023,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17029,7 +17036,7 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -17038,85 +17045,85 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>123</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -17124,7 +17131,7 @@
         <v>5000</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="22">
         <f>VLOOKUP($B2,テーブル2[#Data],3,FALSE)</f>
@@ -17251,7 +17258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17276,11 +17283,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17292,7 +17299,7 @@
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -17301,85 +17308,85 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>103</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>105</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>106</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>123</v>
+      </c>
+      <c r="P1" t="s">
         <v>107</v>
       </c>
-      <c r="O1" t="s">
-        <v>124</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>108</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>109</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>111</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>112</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>113</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>114</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>116</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>117</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>118</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>119</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>120</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>123</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -17387,7 +17394,7 @@
         <v>5000</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="22">
         <f>VLOOKUP($B2,テーブル2[#Data],3,FALSE)</f>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523B56E6-1AD4-457D-998F-09D4D39E6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2161409-419D-41A9-BC4D-87ECBDABAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2731,7 +2731,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2926,9 +2926,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7238,10 +7235,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="E93" sqref="E93"/>
-      <selection pane="topRight" activeCell="F71" sqref="F71"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -13784,7 +13781,7 @@
       <c r="E69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="84" t="s">
+      <c r="F69" s="42" t="s">
         <v>96</v>
       </c>
       <c r="G69" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2161409-419D-41A9-BC4D-87ECBDABAE61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2CB54C-CFCB-4671-ABA9-2115C40B81DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -2396,14 +2396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ザキ 
-済み</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ともき 
 済み</t>
     <rPh sb="5" eb="6">
@@ -2445,6 +2437,17 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザキ 
+支払い済み</t>
+    <rPh sb="4" eb="6">
+      <t>シハラ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4254,17 +4257,17 @@
       <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4443,7 +4446,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
+    <row r="7" spans="1:12" ht="56.25">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4683,7 +4686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.5">
       <c r="A15" s="9" t="s">
         <v>84</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>97</v>
       </c>
@@ -4895,7 +4898,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -5045,7 +5048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="36">
+    <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
         <v>383</v>
       </c>
@@ -7235,44 +7238,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="E93" sqref="E93"/>
-      <selection pane="topRight" activeCell="E21" sqref="E21"/>
+      <selection pane="topRight" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7367,7 +7370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="36">
+    <row r="2" spans="1:30" ht="37.5">
       <c r="A2" s="28" t="s">
         <v>132</v>
       </c>
@@ -7554,7 +7557,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
         <v>282</v>
       </c>
@@ -7731,7 +7734,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>374</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="85.5">
+    <row r="11" spans="1:30" ht="87.75">
       <c r="A11" s="46" t="s">
         <v>173</v>
       </c>
@@ -8501,7 +8504,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="36">
+    <row r="14" spans="1:30" ht="37.5">
       <c r="A14" s="27" t="s">
         <v>161</v>
       </c>
@@ -8972,7 +8975,7 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
         <v>148</v>
       </c>
@@ -9183,7 +9186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="36">
+    <row r="21" spans="1:30" ht="37.5">
       <c r="A21" s="9" t="s">
         <v>247</v>
       </c>
@@ -9202,7 +9205,7 @@
         <v>41</v>
       </c>
       <c r="F21" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9744,7 +9747,7 @@
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="27" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -10502,7 +10505,7 @@
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" ht="36">
+    <row r="35" spans="1:30" ht="37.5">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -10592,7 +10595,7 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A36" s="9" t="s">
         <v>88</v>
       </c>
@@ -10610,7 +10613,7 @@
       <c r="E36" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="30" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="3">
@@ -11113,7 +11116,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="36"/>
     </row>
-    <row r="41" spans="1:30" ht="36">
+    <row r="41" spans="1:30" ht="37.5">
       <c r="A41" s="27" t="s">
         <v>150</v>
       </c>
@@ -11401,7 +11404,7 @@
       </c>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="36">
+    <row r="44" spans="1:30" ht="37.5">
       <c r="A44" s="9" t="s">
         <v>365</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="36">
+    <row r="46" spans="1:30" ht="37.5">
       <c r="A46" s="9" t="s">
         <v>239</v>
       </c>
@@ -11610,7 +11613,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="12"/>
@@ -11689,7 +11692,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="36">
+    <row r="47" spans="1:30" ht="37.5">
       <c r="A47" s="9" t="s">
         <v>274</v>
       </c>
@@ -11771,7 +11774,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
       <c r="A48" s="9" t="s">
         <v>379</v>
       </c>
@@ -11854,7 +11857,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="36">
+    <row r="49" spans="1:30" ht="37.5">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
@@ -11873,7 +11876,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="12"/>
@@ -12051,7 +12054,7 @@
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" ht="36">
+    <row r="51" spans="1:30" ht="37.5">
       <c r="A51" s="27" t="s">
         <v>153</v>
       </c>
@@ -12069,7 +12072,7 @@
       <c r="E51" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="43" t="s">
         <v>350</v>
       </c>
       <c r="G51" s="3">
@@ -12349,7 +12352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="36">
+    <row r="54" spans="1:30" ht="37.5">
       <c r="A54" s="27" t="s">
         <v>311</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="36">
+    <row r="57" spans="1:30" ht="37.5">
       <c r="A57" s="27" t="s">
         <v>260</v>
       </c>
@@ -13670,7 +13673,7 @@
       </c>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" ht="36">
+    <row r="68" spans="1:30" ht="37.5">
       <c r="A68" s="9" t="s">
         <v>285</v>
       </c>
@@ -13952,7 +13955,7 @@
       </c>
       <c r="AD70" s="36"/>
     </row>
-    <row r="71" spans="1:30" ht="36">
+    <row r="71" spans="1:30" ht="37.5">
       <c r="A71" s="9" t="s">
         <v>331</v>
       </c>
@@ -14128,7 +14131,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="36">
+    <row r="73" spans="1:30" ht="37.5">
       <c r="A73" s="27" t="s">
         <v>97</v>
       </c>
@@ -14630,7 +14633,7 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="54">
+    <row r="78" spans="1:30" ht="56.25">
       <c r="A78" s="9" t="s">
         <v>297</v>
       </c>
@@ -14812,7 +14815,7 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="36">
+    <row r="80" spans="1:30" ht="37.5">
       <c r="A80" s="9" t="s">
         <v>252</v>
       </c>
@@ -15472,7 +15475,7 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="36">
+    <row r="87" spans="1:30" ht="37.5">
       <c r="A87" s="9" t="s">
         <v>352</v>
       </c>
@@ -15737,7 +15740,7 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="54">
+    <row r="90" spans="1:30" ht="56.25">
       <c r="A90" s="9" t="s">
         <v>336</v>
       </c>
@@ -16002,7 +16005,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="36">
+    <row r="93" spans="1:30" ht="37.5">
       <c r="A93" s="27" t="s">
         <v>84</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="36">
+    <row r="94" spans="1:30" ht="37.5">
       <c r="A94" s="9" t="s">
         <v>182</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="36">
+    <row r="95" spans="1:30" ht="37.5">
       <c r="A95" s="28" t="s">
         <v>129</v>
       </c>
@@ -16296,7 +16299,7 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="54">
+    <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
         <v>201</v>
       </c>
@@ -16493,7 +16496,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD97 V2:V97 J2:J97 R2:R97 Z2:Z97 T2:T97 AB2:AB97 N2:N97 X2:X97 L2:L97 H2:H97 P2:P97" xr:uid="{A9F869CE-6634-4612-89BD-8711D33CED5E}">
       <formula1>"有,無"</formula1>
     </dataValidation>
@@ -16514,40 +16517,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16783,10 +16786,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17020,9 +17023,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17255,7 +17258,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17280,11 +17283,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2CB54C-CFCB-4671-ABA9-2115C40B81DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A3E16-BF59-45E2-A0AC-682CD7C79E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="399">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -2448,6 +2448,14 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square定期
+2025/7/29で解約</t>
+    <rPh sb="19" eb="21">
+      <t>カイヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2734,7 +2742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2929,6 +2937,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4253,21 +4264,21 @@
   </sheetPr>
   <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="11" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="44.125" customWidth="1"/>
+    <col min="7" max="7" width="19.58203125" customWidth="1"/>
+    <col min="8" max="11" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="44.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4446,7 +4457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="56.25">
+    <row r="7" spans="1:12" ht="54">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4686,7 +4697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="37.5">
+    <row r="15" spans="1:12" ht="36">
       <c r="A15" s="9" t="s">
         <v>84</v>
       </c>
@@ -4838,7 +4849,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="37.5">
+    <row r="20" spans="1:12" ht="36">
       <c r="A20" s="27" t="s">
         <v>97</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="37.5">
+    <row r="22" spans="1:12" ht="36">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -5048,7 +5059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="37.5">
+    <row r="27" spans="1:12" ht="36">
       <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
@@ -7148,7 +7159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="37.5">
+    <row r="97" spans="1:12" ht="36">
       <c r="A97" s="4" t="s">
         <v>383</v>
       </c>
@@ -7238,44 +7249,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
-      <selection activeCell="E93" sqref="E93"/>
-      <selection pane="topRight" activeCell="F51" sqref="F51"/>
+      <selection activeCell="G76" sqref="G76"/>
+      <selection pane="topRight" activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.08203125" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7370,7 +7381,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="37.5">
+    <row r="2" spans="1:30" ht="36">
       <c r="A2" s="28" t="s">
         <v>132</v>
       </c>
@@ -7557,7 +7568,7 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
       <c r="A4" s="4" t="s">
         <v>282</v>
       </c>
@@ -7734,7 +7745,7 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
       <c r="A6" s="27" t="s">
         <v>374</v>
       </c>
@@ -8221,7 +8232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="87.75">
+    <row r="11" spans="1:30" ht="85.5">
       <c r="A11" s="46" t="s">
         <v>173</v>
       </c>
@@ -8504,7 +8515,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="37.5">
+    <row r="14" spans="1:30" ht="36">
       <c r="A14" s="27" t="s">
         <v>161</v>
       </c>
@@ -8975,7 +8986,7 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
       <c r="A19" s="27" t="s">
         <v>148</v>
       </c>
@@ -9186,7 +9197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="37.5">
+    <row r="21" spans="1:30" ht="36">
       <c r="A21" s="9" t="s">
         <v>247</v>
       </c>
@@ -9747,7 +9758,7 @@
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="27" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -10505,7 +10516,7 @@
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" ht="37.5">
+    <row r="35" spans="1:30" ht="36">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -10595,7 +10606,7 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
       <c r="A36" s="9" t="s">
         <v>88</v>
       </c>
@@ -11116,7 +11127,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="36"/>
     </row>
-    <row r="41" spans="1:30" ht="37.5">
+    <row r="41" spans="1:30" ht="36">
       <c r="A41" s="27" t="s">
         <v>150</v>
       </c>
@@ -11404,7 +11415,7 @@
       </c>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="37.5">
+    <row r="44" spans="1:30" ht="36">
       <c r="A44" s="9" t="s">
         <v>365</v>
       </c>
@@ -11593,7 +11604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="37.5">
+    <row r="46" spans="1:30" ht="36">
       <c r="A46" s="9" t="s">
         <v>239</v>
       </c>
@@ -11692,7 +11703,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="37.5">
+    <row r="47" spans="1:30" ht="36">
       <c r="A47" s="9" t="s">
         <v>274</v>
       </c>
@@ -11774,7 +11785,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
       <c r="A48" s="9" t="s">
         <v>379</v>
       </c>
@@ -11857,7 +11868,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="37.5">
+    <row r="49" spans="1:30" ht="36">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
@@ -12054,7 +12065,7 @@
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" ht="37.5">
+    <row r="51" spans="1:30" ht="36">
       <c r="A51" s="27" t="s">
         <v>153</v>
       </c>
@@ -12072,7 +12083,7 @@
       <c r="E51" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="42" t="s">
         <v>350</v>
       </c>
       <c r="G51" s="3">
@@ -12352,7 +12363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="37.5">
+    <row r="54" spans="1:30" ht="36">
       <c r="A54" s="27" t="s">
         <v>311</v>
       </c>
@@ -12635,7 +12646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="37.5">
+    <row r="57" spans="1:30" ht="36">
       <c r="A57" s="27" t="s">
         <v>260</v>
       </c>
@@ -13673,7 +13684,7 @@
       </c>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" ht="37.5">
+    <row r="68" spans="1:30" ht="36">
       <c r="A68" s="9" t="s">
         <v>285</v>
       </c>
@@ -13784,7 +13795,7 @@
       <c r="E69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="84" t="s">
         <v>96</v>
       </c>
       <c r="G69" s="3">
@@ -13955,7 +13966,7 @@
       </c>
       <c r="AD70" s="36"/>
     </row>
-    <row r="71" spans="1:30" ht="37.5">
+    <row r="71" spans="1:30" ht="36">
       <c r="A71" s="9" t="s">
         <v>331</v>
       </c>
@@ -14131,7 +14142,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="37.5">
+    <row r="73" spans="1:30" ht="36">
       <c r="A73" s="27" t="s">
         <v>97</v>
       </c>
@@ -14633,7 +14644,7 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="56.25">
+    <row r="78" spans="1:30" ht="54">
       <c r="A78" s="9" t="s">
         <v>297</v>
       </c>
@@ -14815,7 +14826,7 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="37.5">
+    <row r="80" spans="1:30" ht="36">
       <c r="A80" s="9" t="s">
         <v>252</v>
       </c>
@@ -15475,7 +15486,7 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="37.5">
+    <row r="87" spans="1:30" ht="36">
       <c r="A87" s="9" t="s">
         <v>352</v>
       </c>
@@ -15740,7 +15751,7 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="56.25">
+    <row r="90" spans="1:30" ht="54">
       <c r="A90" s="9" t="s">
         <v>336</v>
       </c>
@@ -15821,7 +15832,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30">
+    <row r="91" spans="1:30" ht="36">
       <c r="A91" s="9" t="s">
         <v>315</v>
       </c>
@@ -15836,8 +15847,8 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E91" s="19" t="s">
-        <v>158</v>
+      <c r="E91" s="42" t="s">
+        <v>398</v>
       </c>
       <c r="F91" s="45" t="s">
         <v>317</v>
@@ -16005,7 +16016,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="37.5">
+    <row r="93" spans="1:30" ht="36">
       <c r="A93" s="27" t="s">
         <v>84</v>
       </c>
@@ -16109,7 +16120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="37.5">
+    <row r="94" spans="1:30" ht="36">
       <c r="A94" s="9" t="s">
         <v>182</v>
       </c>
@@ -16215,7 +16226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="37.5">
+    <row r="95" spans="1:30" ht="36">
       <c r="A95" s="28" t="s">
         <v>129</v>
       </c>
@@ -16299,7 +16310,7 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="56.25">
+    <row r="96" spans="1:30" ht="54">
       <c r="A96" s="4" t="s">
         <v>201</v>
       </c>
@@ -16517,40 +16528,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16786,10 +16797,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17023,9 +17034,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17258,7 +17269,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17283,11 +17294,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4A3E16-BF59-45E2-A0AC-682CD7C79E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7128665-50B7-434D-91D3-522843B6A2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2742,7 +2742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2937,9 +2937,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7249,10 +7246,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="G76" sqref="G76"/>
-      <selection pane="topRight" activeCell="F69" sqref="F69"/>
+      <selection pane="topRight" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -10624,7 +10621,7 @@
       <c r="E36" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="19" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="3">
@@ -12665,7 +12662,7 @@
       <c r="E57" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="F57" s="83" t="s">
+      <c r="F57" s="53" t="s">
         <v>360</v>
       </c>
       <c r="G57" s="3">
@@ -13795,7 +13792,7 @@
       <c r="E69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="84" t="s">
+      <c r="F69" s="42" t="s">
         <v>96</v>
       </c>
       <c r="G69" s="3">

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7128665-50B7-434D-91D3-522843B6A2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF5EA7-F219-4AB1-855C-65A83753543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="コンサル生" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="401">
   <si>
     <t>管理番号</t>
     <rPh sb="0" eb="2">
@@ -1420,20 +1420,6 @@
   </si>
   <si>
     <t xml:space="preserve">武人 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銀行振込
-2024/10/6で解約</t>
-    <rPh sb="0" eb="2">
-      <t>ギンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フリコミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カイヤク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2459,6 +2445,52 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>銀行振込
+2024/2月分は不要</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガツブン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>square定期
+2024/5/30で解約</t>
+    <rPh sb="19" eb="21">
+      <t>カイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀行振込
+1か月遅れ
+2024/10/6で解約</t>
+    <rPh sb="0" eb="2">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フリコミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>カイヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2472,7 +2504,7 @@
     <numFmt numFmtId="179" formatCode="m&quot;月&quot;"/>
     <numFmt numFmtId="180" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2570,6 +2602,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2742,7 +2781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2936,7 +2975,10 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4265,17 +4307,17 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="19.58203125" customWidth="1"/>
-    <col min="8" max="11" width="15.08203125" customWidth="1"/>
-    <col min="12" max="12" width="44.08203125" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="11" width="15.125" customWidth="1"/>
+    <col min="12" max="12" width="44.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -4454,7 +4496,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="54">
+    <row r="7" spans="1:12" ht="56.25">
       <c r="A7" s="9" t="s">
         <v>57</v>
       </c>
@@ -4694,7 +4736,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36">
+    <row r="15" spans="1:12" ht="37.5">
       <c r="A15" s="9" t="s">
         <v>84</v>
       </c>
@@ -4846,7 +4888,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="36">
+    <row r="20" spans="1:12" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>97</v>
       </c>
@@ -4881,7 +4923,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -4906,7 +4948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="36">
+    <row r="22" spans="1:12" ht="37.5">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -5056,7 +5098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="36">
+    <row r="27" spans="1:12" ht="37.5">
       <c r="A27" s="4" t="s">
         <v>143</v>
       </c>
@@ -5836,10 +5878,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -5866,10 +5908,10 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -5891,15 +5933,15 @@
         <v>8</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -5926,10 +5968,10 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -5956,10 +5998,10 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -5986,10 +6028,10 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -6016,10 +6058,10 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -6046,10 +6088,10 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -6076,10 +6118,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -6106,10 +6148,10 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -6131,15 +6173,15 @@
         <v>8</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -6166,10 +6208,10 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -6196,10 +6238,10 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -6226,10 +6268,10 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>267</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -6256,10 +6298,10 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>271</v>
-      </c>
-      <c r="B67" s="10" t="s">
-        <v>272</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -6286,10 +6328,10 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>274</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>275</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
@@ -6316,10 +6358,10 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -6346,10 +6388,10 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>280</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -6376,10 +6418,10 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -6406,10 +6448,10 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -6436,10 +6478,10 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -6466,10 +6508,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -6496,10 +6538,10 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -6526,10 +6568,10 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -6556,10 +6598,10 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -6586,10 +6628,10 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -6616,10 +6658,10 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -6646,10 +6688,10 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -6676,10 +6718,10 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -6706,10 +6748,10 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B82" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
@@ -6736,10 +6778,10 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -6766,10 +6808,10 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6796,10 +6838,10 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6826,10 +6868,10 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6856,16 +6898,16 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G87" s="3">
         <v>44807</v>
@@ -6888,10 +6930,10 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6918,10 +6960,10 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>342</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6948,10 +6990,10 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6978,10 +7020,10 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>353</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7003,15 +7045,15 @@
         <v>8</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7038,10 +7080,10 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7063,15 +7105,15 @@
         <v>8</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7098,10 +7140,10 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7128,10 +7170,10 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7156,17 +7198,17 @@
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="36">
+    <row r="97" spans="1:12" ht="37.5">
       <c r="A97" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="3">
@@ -7185,15 +7227,15 @@
         <v>8</v>
       </c>
       <c r="L97" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7246,44 +7288,44 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="G76" sqref="G76"/>
-      <selection pane="topRight" activeCell="F63" sqref="F63"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.08203125" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30">
@@ -7297,7 +7339,7 @@
         <v>38</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>40</v>
@@ -7378,7 +7420,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="36">
+    <row r="2" spans="1:30" ht="37.5">
       <c r="A2" s="28" t="s">
         <v>132</v>
       </c>
@@ -7395,7 +7437,7 @@
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="42" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" ref="G2:G33" si="0">IF($C2="","",DATE(YEAR($C2),MONTH($C2)+1,DAY($C2)))</f>
@@ -7499,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>225</v>
@@ -7565,9 +7607,9 @@
       </c>
       <c r="AD3" s="14"/>
     </row>
-    <row r="4" spans="1:30" s="37" customFormat="1" ht="54">
+    <row r="4" spans="1:30" s="37" customFormat="1" ht="56.25">
       <c r="A4" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7584,7 +7626,7 @@
         <v>158</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
@@ -7659,7 +7701,7 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B5" s="11" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7677,7 +7719,7 @@
         <v>158</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" si="0"/>
@@ -7742,9 +7784,9 @@
       </c>
       <c r="AD5" s="18"/>
     </row>
-    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.15" customHeight="1">
+    <row r="6" spans="1:30" s="37" customFormat="1" ht="62.1" customHeight="1">
       <c r="A6" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B6" s="62" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7759,10 +7801,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G6" s="63">
         <f t="shared" si="0"/>
@@ -7941,7 +7983,7 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -7959,7 +8001,7 @@
         <v>158</v>
       </c>
       <c r="F8" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
@@ -8040,7 +8082,7 @@
     </row>
     <row r="9" spans="1:30" s="39" customFormat="1">
       <c r="A9" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B9" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8058,7 +8100,7 @@
         <v>158</v>
       </c>
       <c r="F9" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
@@ -8139,7 +8181,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F10" s="20" t="s">
         <v>172</v>
@@ -8229,7 +8271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="85.5">
+    <row r="11" spans="1:30" ht="87.75">
       <c r="A11" s="46" t="s">
         <v>173</v>
       </c>
@@ -8249,7 +8291,7 @@
         <v>41</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G11" s="48">
         <f t="shared" si="0"/>
@@ -8419,7 +8461,7 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8437,7 +8479,7 @@
         <v>158</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="0"/>
@@ -8512,7 +8554,7 @@
       </c>
       <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="36">
+    <row r="14" spans="1:30" ht="56.25">
       <c r="A14" s="27" t="s">
         <v>161</v>
       </c>
@@ -8529,9 +8571,9 @@
         <v>6</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="51" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="83" t="s">
         <v>163</v>
       </c>
       <c r="G14" s="3">
@@ -8621,7 +8663,7 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B15" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8639,7 +8681,7 @@
         <v>158</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="0"/>
@@ -8724,7 +8766,7 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B16" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -8739,10 +8781,10 @@
         <v>6</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F16" s="45" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="0"/>
@@ -8983,7 +9025,7 @@
       </c>
       <c r="AD18" s="36"/>
     </row>
-    <row r="19" spans="1:30" s="39" customFormat="1" ht="54">
+    <row r="19" spans="1:30" s="39" customFormat="1" ht="56.25">
       <c r="A19" s="27" t="s">
         <v>148</v>
       </c>
@@ -9000,10 +9042,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="0"/>
@@ -9194,9 +9236,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="36">
+    <row r="21" spans="1:30" ht="37.5">
       <c r="A21" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9212,8 +9254,8 @@
       <c r="E21" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="42" t="s">
-        <v>396</v>
+      <c r="F21" s="43" t="s">
+        <v>395</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="0"/>
@@ -9387,7 +9429,7 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B23" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9405,7 +9447,7 @@
         <v>158</v>
       </c>
       <c r="F23" s="45" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="0"/>
@@ -9574,7 +9616,7 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B25" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -9592,7 +9634,7 @@
         <v>158</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="0"/>
@@ -9755,7 +9797,7 @@
       </c>
       <c r="AD26" s="14"/>
     </row>
-    <row r="27" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="27" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A27" s="9" t="s">
         <v>78</v>
       </c>
@@ -10044,7 +10086,7 @@
     </row>
     <row r="30" spans="1:30" s="39" customFormat="1">
       <c r="A30" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10062,7 +10104,7 @@
         <v>158</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="0"/>
@@ -10342,7 +10384,7 @@
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B33" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -10360,7 +10402,7 @@
         <v>158</v>
       </c>
       <c r="F33" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
@@ -10513,7 +10555,7 @@
       </c>
       <c r="AD34" s="14"/>
     </row>
-    <row r="35" spans="1:30" ht="36">
+    <row r="35" spans="1:30" ht="37.5">
       <c r="A35" s="9" t="s">
         <v>86</v>
       </c>
@@ -10532,7 +10574,7 @@
         <v>160</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="12"/>
@@ -10603,7 +10645,7 @@
       </c>
       <c r="AD35" s="14"/>
     </row>
-    <row r="36" spans="1:30" s="37" customFormat="1" ht="36">
+    <row r="36" spans="1:30" s="37" customFormat="1" ht="37.5">
       <c r="A36" s="9" t="s">
         <v>88</v>
       </c>
@@ -10619,7 +10661,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F36" s="19" t="s">
         <v>90</v>
@@ -11124,7 +11166,7 @@
       <c r="AC40" s="25"/>
       <c r="AD40" s="36"/>
     </row>
-    <row r="41" spans="1:30" ht="36">
+    <row r="41" spans="1:30" ht="37.5">
       <c r="A41" s="27" t="s">
         <v>150</v>
       </c>
@@ -11140,7 +11182,7 @@
         <v>15</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F41" s="19" t="s">
         <v>152</v>
@@ -11228,7 +11270,7 @@
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B42" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11246,7 +11288,7 @@
         <v>158</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="12"/>
@@ -11323,7 +11365,7 @@
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B43" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11341,7 +11383,7 @@
         <v>158</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="12"/>
@@ -11412,9 +11454,9 @@
       </c>
       <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="36">
+    <row r="44" spans="1:30" ht="37.5">
       <c r="A44" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11429,10 +11471,10 @@
         <v>16</v>
       </c>
       <c r="E44" s="73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="12"/>
@@ -11601,9 +11643,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="36">
+    <row r="46" spans="1:30" ht="37.5">
       <c r="A46" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11621,7 +11663,7 @@
         <v>41</v>
       </c>
       <c r="F46" s="82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="12"/>
@@ -11700,9 +11742,9 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" ht="36">
+    <row r="47" spans="1:30" ht="37.5">
       <c r="A47" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B47" s="56" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11719,7 +11761,7 @@
         <v>41</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="12"/>
@@ -11782,9 +11824,9 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="39" customFormat="1" ht="36">
+    <row r="48" spans="1:30" s="39" customFormat="1" ht="37.5">
       <c r="A48" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11802,7 +11844,7 @@
         <v>41</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="12"/>
@@ -11865,7 +11907,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" ht="36">
+    <row r="49" spans="1:30" ht="37.5">
       <c r="A49" s="9" t="s">
         <v>57</v>
       </c>
@@ -11884,7 +11926,7 @@
         <v>41</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="12"/>
@@ -11973,7 +12015,7 @@
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B50" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -11991,7 +12033,7 @@
         <v>158</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="12"/>
@@ -12062,7 +12104,7 @@
       </c>
       <c r="AD50" s="14"/>
     </row>
-    <row r="51" spans="1:30" ht="36">
+    <row r="51" spans="1:30" ht="37.5">
       <c r="A51" s="27" t="s">
         <v>153</v>
       </c>
@@ -12077,11 +12119,11 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>19</v>
       </c>
-      <c r="E51" s="72" t="s">
-        <v>41</v>
+      <c r="E51" s="73" t="s">
+        <v>398</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="12"/>
@@ -12360,9 +12402,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="36">
+    <row r="54" spans="1:30" ht="37.5">
       <c r="A54" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B54" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12377,10 +12419,10 @@
         <v>19</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G54" s="25">
         <f t="shared" si="12"/>
@@ -12445,7 +12487,7 @@
     </row>
     <row r="55" spans="1:30" s="37" customFormat="1">
       <c r="A55" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B55" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12459,10 +12501,10 @@
         <v>20</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F55" s="53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="12"/>
@@ -12643,9 +12685,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="36">
+    <row r="57" spans="1:30" ht="37.5">
       <c r="A57" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B57" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12660,10 +12702,10 @@
         <v>20</v>
       </c>
       <c r="E57" s="73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F57" s="53" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="12"/>
@@ -12744,7 +12786,7 @@
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12762,7 +12804,7 @@
         <v>158</v>
       </c>
       <c r="F58" s="45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="12"/>
@@ -12833,7 +12875,7 @@
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B59" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12851,7 +12893,7 @@
         <v>158</v>
       </c>
       <c r="F59" s="45" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="12"/>
@@ -12922,7 +12964,7 @@
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B60" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -12938,8 +12980,8 @@
       <c r="E60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="83" t="s">
-        <v>343</v>
+      <c r="F60" s="53" t="s">
+        <v>342</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="12"/>
@@ -13132,7 +13174,7 @@
         <v>158</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="12"/>
@@ -13317,7 +13359,7 @@
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13335,7 +13377,7 @@
         <v>158</v>
       </c>
       <c r="F64" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="12"/>
@@ -13410,7 +13452,7 @@
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13424,10 +13466,10 @@
         <v>23</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="12"/>
@@ -13602,7 +13644,7 @@
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B67" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13618,7 +13660,7 @@
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G67" s="3">
         <f t="shared" si="24"/>
@@ -13681,9 +13723,9 @@
       </c>
       <c r="AD67" s="14"/>
     </row>
-    <row r="68" spans="1:30" ht="36">
+    <row r="68" spans="1:30" ht="37.5">
       <c r="A68" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B68" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13698,10 +13740,10 @@
         <v>23</v>
       </c>
       <c r="E68" s="73" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F68" s="53" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G68" s="3">
         <f t="shared" si="24"/>
@@ -13882,7 +13924,7 @@
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" s="31" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13897,10 +13939,10 @@
         <v>24</v>
       </c>
       <c r="E70" s="54" t="s">
+        <v>290</v>
+      </c>
+      <c r="F70" s="55" t="s">
         <v>291</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>292</v>
       </c>
       <c r="G70" s="25">
         <f t="shared" si="24"/>
@@ -13963,9 +14005,9 @@
       </c>
       <c r="AD70" s="36"/>
     </row>
-    <row r="71" spans="1:30" ht="36">
+    <row r="71" spans="1:30" ht="37.5">
       <c r="A71" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -13980,10 +14022,10 @@
         <v>24</v>
       </c>
       <c r="E71" s="73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F71" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G71" s="3">
         <f t="shared" si="24"/>
@@ -14054,7 +14096,7 @@
     </row>
     <row r="72" spans="1:30" s="37" customFormat="1">
       <c r="A72" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14072,7 +14114,7 @@
         <v>158</v>
       </c>
       <c r="F72" s="45" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G72" s="3">
         <f t="shared" si="24"/>
@@ -14139,7 +14181,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" ht="36">
+    <row r="73" spans="1:30" ht="37.5">
       <c r="A73" s="27" t="s">
         <v>97</v>
       </c>
@@ -14158,7 +14200,7 @@
         <v>158</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G73" s="3">
         <f t="shared" si="24"/>
@@ -14550,7 +14592,7 @@
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B77" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14568,7 +14610,7 @@
         <v>158</v>
       </c>
       <c r="F77" s="53" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G77" s="3">
         <f t="shared" si="24"/>
@@ -14641,9 +14683,9 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" ht="54">
+    <row r="78" spans="1:30" ht="56.25">
       <c r="A78" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B78" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14661,7 +14703,7 @@
         <v>158</v>
       </c>
       <c r="F78" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G78" s="3">
         <f t="shared" si="24"/>
@@ -14726,7 +14768,7 @@
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B79" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14744,7 +14786,7 @@
         <v>158</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="24"/>
@@ -14823,9 +14865,9 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" ht="36">
+    <row r="80" spans="1:30" ht="37.5">
       <c r="A80" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B80" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14843,7 +14885,7 @@
         <v>158</v>
       </c>
       <c r="F80" s="42" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G80" s="3">
         <f t="shared" si="24"/>
@@ -14908,7 +14950,7 @@
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B81" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -14925,7 +14967,7 @@
         <v>158</v>
       </c>
       <c r="F81" s="53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="24"/>
@@ -15088,7 +15130,7 @@
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B83" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15105,7 +15147,7 @@
         <v>158</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G83" s="3">
         <f t="shared" si="24"/>
@@ -15299,7 +15341,7 @@
       </c>
       <c r="E85" s="19"/>
       <c r="F85" s="42" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G85" s="3">
         <f t="shared" si="24"/>
@@ -15483,9 +15525,9 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" ht="36">
+    <row r="87" spans="1:30" ht="37.5">
       <c r="A87" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B87" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15500,10 +15542,10 @@
         <v>28</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F87" s="45" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G87" s="3">
         <f t="shared" si="24"/>
@@ -15568,7 +15610,7 @@
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B88" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15586,7 +15628,7 @@
         <v>158</v>
       </c>
       <c r="F88" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G88" s="3">
         <f t="shared" si="24"/>
@@ -15653,7 +15695,7 @@
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15669,7 +15711,7 @@
       </c>
       <c r="E89" s="19"/>
       <c r="F89" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G89" s="3">
         <f t="shared" si="24"/>
@@ -15748,9 +15790,9 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" ht="54">
+    <row r="90" spans="1:30" ht="56.25">
       <c r="A90" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B90" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15763,10 +15805,10 @@
         <v>30</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F90" s="45" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G90" s="3">
         <f t="shared" si="24"/>
@@ -15829,9 +15871,9 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" ht="36">
+    <row r="91" spans="1:30" ht="37.5">
       <c r="A91" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B91" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -15845,10 +15887,10 @@
         <v>30</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F91" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G91" s="3">
         <f t="shared" si="24"/>
@@ -15919,7 +15961,7 @@
       </c>
       <c r="AD91" s="1"/>
     </row>
-    <row r="92" spans="1:30">
+    <row r="92" spans="1:30" ht="37.5">
       <c r="A92" s="9" t="s">
         <v>64</v>
       </c>
@@ -15934,8 +15976,8 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E92" s="19" t="s">
-        <v>158</v>
+      <c r="E92" s="84" t="s">
+        <v>399</v>
       </c>
       <c r="F92" s="51" t="s">
         <v>200</v>
@@ -16013,7 +16055,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" ht="36">
+    <row r="93" spans="1:30" ht="37.5">
       <c r="A93" s="27" t="s">
         <v>84</v>
       </c>
@@ -16032,7 +16074,7 @@
         <v>41</v>
       </c>
       <c r="F93" s="68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G93" s="3">
         <f t="shared" si="24"/>
@@ -16117,7 +16159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="36">
+    <row r="94" spans="1:30" ht="37.5">
       <c r="A94" s="9" t="s">
         <v>182</v>
       </c>
@@ -16133,7 +16175,7 @@
         <v>30</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F94" s="51" t="s">
         <v>184</v>
@@ -16223,7 +16265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="36">
+    <row r="95" spans="1:30" ht="37.5">
       <c r="A95" s="28" t="s">
         <v>129</v>
       </c>
@@ -16239,10 +16281,10 @@
         <v>30</v>
       </c>
       <c r="E95" s="73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F95" s="59" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G95" s="38">
         <f t="shared" si="24"/>
@@ -16307,7 +16349,7 @@
       </c>
       <c r="AD95" s="70"/>
     </row>
-    <row r="96" spans="1:30" ht="54">
+    <row r="96" spans="1:30" ht="56.25">
       <c r="A96" s="4" t="s">
         <v>201</v>
       </c>
@@ -16323,10 +16365,10 @@
         <v>30</v>
       </c>
       <c r="E96" s="78" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F96" s="69" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G96" s="3">
         <f t="shared" si="24"/>
@@ -16413,7 +16455,7 @@
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B97" s="2" t="str">
         <f>IFERROR(VLOOKUP(テーブル2[[#This Row],[管理番号]],コンサル生一覧[[管理番号]:[氏名]],2,FALSE),"")</f>
@@ -16431,7 +16473,7 @@
         <v>158</v>
       </c>
       <c r="F97" s="50" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G97" s="3">
         <f t="shared" si="24"/>
@@ -16525,40 +16567,40 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -16794,10 +16836,10 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.58203125" customWidth="1"/>
+    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17031,9 +17073,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -17266,7 +17308,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
@@ -17291,11 +17333,11 @@
     <col min="25" max="25" width="6.25" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ひょうたさん_資料/物販管理簿.xlsx
+++ b/ひょうたさん_資料/物販管理簿.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\ひょうたさん_資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFF5EA7-F219-4AB1-855C-65A83753543E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C5D4E-FA2B-48D3-99C3-C584F89E96E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2427,17 +2427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ザキ 
-支払い済み</t>
-    <rPh sb="4" eb="6">
-      <t>シハラ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>square定期
 2025/7/29で解約</t>
     <rPh sb="19" eb="21">
@@ -2489,6 +2478,10 @@
     <rPh sb="21" eb="23">
       <t>カイヤク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ザキ </t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2781,7 +2774,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2972,13 +2965,16 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7288,10 +7284,10 @@
   </sheetPr>
   <dimension ref="A1:AD97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8730" activePane="topRight"/>
       <selection activeCell="G76" sqref="G76"/>
-      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8571,9 +8567,9 @@
         <v>6</v>
       </c>
       <c r="E14" s="75" t="s">
-        <v>400</v>
-      </c>
-      <c r="F14" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="F14" s="82" t="s">
         <v>163</v>
       </c>
       <c r="G14" s="3">
@@ -11643,7 +11639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="37.5">
+    <row r="46" spans="1:30">
       <c r="A46" s="9" t="s">
         <v>238</v>
       </c>
@@ -11662,8 +11658,8 @@
       <c r="E46" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="82" t="s">
-        <v>396</v>
+      <c r="F46" s="84" t="s">
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="12"/>
@@ -12120,7 +12116,7 @@
         <v>19</v>
       </c>
       <c r="E51" s="73" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F51" s="42" t="s">
         <v>349</v>
@@ -12503,7 +12499,7 @@
       <c r="E55" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="F55" s="53" t="s">
+      <c r="F55" s="85" t="s">
         <v>392</v>
       </c>
       <c r="G55" s="3">
@@ -12980,7 +12976,7 @@
       <c r="E60" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="F60" s="85" t="s">
         <v>342</v>
       </c>
       <c r="G60" s="3">
@@ -13834,7 +13830,7 @@
       <c r="E69" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F69" s="42" t="s">
+      <c r="F69" s="43" t="s">
         <v>96</v>
       </c>
       <c r="G69" s="3">
@@ -15887,7 +15883,7 @@
         <v>30</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F91" s="45" t="s">
         <v>316</v>
@@ -15976,8 +15972,8 @@
         <f>DAY(テーブル2[[#This Row],[支払日]])</f>
         <v>30</v>
       </c>
-      <c r="E92" s="84" t="s">
-        <v>399</v>
+      <c r="E92" s="83" t="s">
+        <v>398</v>
       </c>
       <c r="F92" s="51" t="s">
         <v>200</v>
